--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="423">
   <si>
     <t>ID</t>
   </si>
@@ -343,6 +343,15 @@
     <t>I14</t>
   </si>
   <si>
+    <t xml:space="preserve">Винюкова </t>
+  </si>
+  <si>
+    <t>10/6/1984</t>
+  </si>
+  <si>
+    <t>ур Мишина</t>
+  </si>
+  <si>
     <t>Григорьевна</t>
   </si>
   <si>
@@ -397,6 +406,18 @@
     <t>Александрович</t>
   </si>
   <si>
+    <t>I139</t>
+  </si>
+  <si>
+    <t>I140</t>
+  </si>
+  <si>
+    <t>22/1/1882</t>
+  </si>
+  <si>
+    <t>8/12/1937</t>
+  </si>
+  <si>
     <t>I10</t>
   </si>
   <si>
@@ -1016,6 +1037,249 @@
   </si>
   <si>
     <t>Грибкова</t>
+  </si>
+  <si>
+    <t>I124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрий </t>
+  </si>
+  <si>
+    <t>Тевелев</t>
+  </si>
+  <si>
+    <t>I125</t>
+  </si>
+  <si>
+    <t>I126</t>
+  </si>
+  <si>
+    <t>30/08/1970</t>
+  </si>
+  <si>
+    <t>Вениаминович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тевелев </t>
+  </si>
+  <si>
+    <t>I129</t>
+  </si>
+  <si>
+    <t>I130</t>
+  </si>
+  <si>
+    <t>26/6/1947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павловна </t>
+  </si>
+  <si>
+    <t>Тевелева</t>
+  </si>
+  <si>
+    <t>I128</t>
+  </si>
+  <si>
+    <t>I127</t>
+  </si>
+  <si>
+    <t>1/8/1946</t>
+  </si>
+  <si>
+    <t>ур Чмеренко</t>
+  </si>
+  <si>
+    <t>Чмеренко</t>
+  </si>
+  <si>
+    <t>1/9/1922</t>
+  </si>
+  <si>
+    <t>ур Алонцева</t>
+  </si>
+  <si>
+    <t>Назарович</t>
+  </si>
+  <si>
+    <t>14/12/1914</t>
+  </si>
+  <si>
+    <t>1/1/1977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вениамин </t>
+  </si>
+  <si>
+    <t>Самуилович</t>
+  </si>
+  <si>
+    <t>1/1/1915</t>
+  </si>
+  <si>
+    <t>1/1/1987</t>
+  </si>
+  <si>
+    <t>Филипповна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тевелева </t>
+  </si>
+  <si>
+    <t>ур Новикова</t>
+  </si>
+  <si>
+    <t>I131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аркадий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вениаминович </t>
+  </si>
+  <si>
+    <t>8/3/1941</t>
+  </si>
+  <si>
+    <t>I132</t>
+  </si>
+  <si>
+    <t>Лев</t>
+  </si>
+  <si>
+    <t>21/1/2012</t>
+  </si>
+  <si>
+    <t>I133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кириллович </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Флоренский </t>
+  </si>
+  <si>
+    <t>I134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр </t>
+  </si>
+  <si>
+    <t>I135</t>
+  </si>
+  <si>
+    <t>Винюков</t>
+  </si>
+  <si>
+    <t>I138</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I137</t>
+  </si>
+  <si>
+    <t>16/6/1981</t>
+  </si>
+  <si>
+    <t>I136</t>
+  </si>
+  <si>
+    <t>Виктория</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александровна </t>
+  </si>
+  <si>
+    <t>Винюкова</t>
+  </si>
+  <si>
+    <t>14/6/2014</t>
+  </si>
+  <si>
+    <t>I137</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виктор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгеньевич </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Винюков </t>
+  </si>
+  <si>
+    <t>30/09/1850</t>
+  </si>
+  <si>
+    <t>22/01/1908</t>
+  </si>
+  <si>
+    <t>Сапарова</t>
+  </si>
+  <si>
+    <t>I144</t>
+  </si>
+  <si>
+    <t>I145</t>
+  </si>
+  <si>
+    <t>25/3/1859</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>Саломия</t>
+  </si>
+  <si>
+    <t>I141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3/1888 </t>
+  </si>
+  <si>
+    <t>8/6/1937</t>
+  </si>
+  <si>
+    <t>I142</t>
+  </si>
+  <si>
+    <t>13/12/1899</t>
+  </si>
+  <si>
+    <t>14/7/1961</t>
+  </si>
+  <si>
+    <t>I143</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15/1/1908</t>
+  </si>
+  <si>
+    <t>Герасимович</t>
+  </si>
+  <si>
+    <t>Сапаров</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
+    <t>(урожденная Паатова)</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1046,16 +1310,23 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1069,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1078,18 +1349,27 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2070,8 +2350,8 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>45</v>
+      <c r="F22" s="6" t="s">
+        <v>110</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2083,7 +2363,9 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
         <v>1.0</v>
@@ -2098,7 +2380,9 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
+      <c r="X22" s="6" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
@@ -2110,7 +2394,7 @@
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>91</v>
@@ -2136,22 +2420,22 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="6" t="s">
-        <v>111</v>
+      <c r="X23" s="7" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2189,15 +2473,15 @@
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -2220,21 +2504,21 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>24</v>
@@ -2265,7 +2549,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
@@ -2300,21 +2584,21 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>24</v>
@@ -2345,10 +2629,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
@@ -2356,7 +2640,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>30</v>
@@ -2364,7 +2648,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
@@ -2389,22 +2673,30 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="I30" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="M30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="O30" s="1">
         <v>0.0</v>
       </c>
@@ -2422,12 +2714,12 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>50</v>
@@ -2464,31 +2756,31 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
@@ -2508,15 +2800,15 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -2527,12 +2819,12 @@
         <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="3" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
@@ -2568,10 +2860,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2591,20 +2883,20 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>91</v>
@@ -2634,7 +2926,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2645,7 +2937,7 @@
         <v>60</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2680,10 +2972,10 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -2707,7 +2999,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2717,10 +3009,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>73</v>
@@ -2750,7 +3042,7 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2774,7 +3066,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
@@ -2794,7 +3086,7 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2818,7 +3110,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1">
@@ -2838,12 +3130,12 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>60</v>
@@ -2862,10 +3154,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O41" s="1">
         <v>0.0</v>
@@ -2884,7 +3176,7 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2908,10 +3200,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O42" s="1">
         <v>0.0</v>
@@ -2930,7 +3222,7 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2938,7 +3230,7 @@
         <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -2946,7 +3238,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2970,15 +3262,15 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -2986,7 +3278,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3010,7 +3302,7 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3018,7 +3310,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -3026,7 +3318,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3050,15 +3342,15 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -3066,7 +3358,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3106,15 +3398,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N47" s="1">
         <v>1917.0</v>
@@ -3136,7 +3428,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3152,15 +3444,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N48" s="1">
         <v>1917.0</v>
@@ -3179,12 +3471,12 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3192,7 +3484,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
@@ -3200,13 +3492,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
@@ -3223,12 +3515,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3266,15 +3558,15 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -3282,15 +3574,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
@@ -3315,7 +3607,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>44</v>
@@ -3345,17 +3637,17 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>60</v>
@@ -3366,10 +3658,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3392,12 +3684,12 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>60</v>
@@ -3408,10 +3700,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3434,15 +3726,15 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>45</v>
@@ -3469,17 +3761,17 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -3492,7 +3784,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="2" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
@@ -3512,7 +3804,7 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3523,7 +3815,7 @@
         <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -3550,15 +3842,15 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>91</v>
@@ -3567,7 +3859,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3590,16 +3882,16 @@
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3609,10 +3901,10 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="7">
+      <c r="O59" s="6">
         <v>1.0</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="6">
         <v>0.0</v>
       </c>
       <c r="Q59" s="1"/>
@@ -3626,37 +3918,37 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>133</v>
+      <c r="D60" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="7" t="s">
-        <v>199</v>
+      <c r="M60" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="7">
+      <c r="O60" s="6">
         <v>1.0</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="6">
         <v>1.0</v>
       </c>
       <c r="Q60" s="1"/>
@@ -3670,37 +3962,37 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>201</v>
+      <c r="D61" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="7" t="s">
-        <v>204</v>
+      <c r="M61" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="7">
+      <c r="O61" s="6">
         <v>0.0</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="6">
         <v>1.0</v>
       </c>
       <c r="Q61" s="1"/>
@@ -3714,31 +4006,31 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="7" t="s">
-        <v>205</v>
+      <c r="D62" s="6" t="s">
+        <v>212</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="7" t="s">
-        <v>201</v>
+      <c r="F62" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="7">
+      <c r="O62" s="6">
         <v>0.0</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="6">
         <v>0.0</v>
       </c>
       <c r="Q62" s="1"/>
@@ -3752,16 +4044,16 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="7" t="s">
-        <v>207</v>
+      <c r="D63" s="6" t="s">
+        <v>214</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="7" t="s">
-        <v>208</v>
+      <c r="F63" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -3770,13 +4062,13 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="O63" s="7">
+      <c r="N63" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O63" s="6">
         <v>1.0</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="6">
         <v>0.0</v>
       </c>
       <c r="Q63" s="1"/>
@@ -3786,43 +4078,43 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="7" t="s">
-        <v>210</v>
+      <c r="X63" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="D64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" s="6" t="s">
         <v>101</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="7" t="s">
-        <v>215</v>
+      <c r="M64" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="7">
+      <c r="O64" s="6">
         <v>1.0</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="6">
         <v>1.0</v>
       </c>
       <c r="Q64" s="1"/>
@@ -3832,43 +4124,43 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="7" t="s">
-        <v>216</v>
+      <c r="X64" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>218</v>
+      <c r="D65" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="8" t="s">
-        <v>219</v>
+      <c r="J65" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="O65" s="7">
+      <c r="M65" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="O65" s="6">
         <v>0.0</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="6">
         <v>0.0</v>
       </c>
       <c r="Q65" s="1"/>
@@ -3882,37 +4174,37 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>218</v>
+      <c r="D66" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>225</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="7" t="s">
-        <v>224</v>
+      <c r="M66" s="6" t="s">
+        <v>231</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="O66" s="7">
+      <c r="O66" s="6">
         <v>0.0</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="6">
         <v>1.0</v>
       </c>
       <c r="Q66" s="1"/>
@@ -3926,39 +4218,39 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>227</v>
+      <c r="D67" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="O67" s="7">
+      <c r="M67" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="O67" s="6">
         <v>0.0</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="6">
         <v>0.0</v>
       </c>
       <c r="Q67" s="1"/>
@@ -3972,18 +4264,18 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>227</v>
+      <c r="D68" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -3991,16 +4283,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="N68" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="7">
+      <c r="M68" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="O68" s="6">
         <v>1.0</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="6">
         <v>0.0</v>
       </c>
       <c r="Q68" s="1"/>
@@ -4010,22 +4302,22 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="7" t="s">
-        <v>235</v>
+      <c r="X68" s="6" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="7" t="s">
-        <v>193</v>
+      <c r="D69" s="6" t="s">
+        <v>200</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="7" t="s">
-        <v>227</v>
+      <c r="F69" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4035,10 +4327,10 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="7">
+      <c r="O69" s="6">
         <v>1.0</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="6">
         <v>0.0</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4052,16 +4344,16 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="7" t="s">
-        <v>236</v>
+      <c r="D70" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="7" t="s">
-        <v>227</v>
+      <c r="F70" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4071,10 +4363,10 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="7">
+      <c r="O70" s="6">
         <v>1.0</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="6">
         <v>0.0</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4088,35 +4380,35 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>227</v>
+      <c r="D71" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="7">
+      <c r="O71" s="6">
         <v>1.0</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="6">
         <v>1.0</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4126,41 +4418,41 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="X71" s="7" t="s">
-        <v>216</v>
+      <c r="X71" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>240</v>
+      <c r="D72" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>247</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="7">
+      <c r="O72" s="6">
         <v>1.0</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="6">
         <v>1.0</v>
       </c>
       <c r="Q72" s="1"/>
@@ -4170,41 +4462,41 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="7" t="s">
-        <v>216</v>
+      <c r="X72" s="6" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>227</v>
+      <c r="D73" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="7">
+      <c r="O73" s="6">
         <v>0.0</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="6">
         <v>1.0</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4218,35 +4510,35 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>227</v>
+      <c r="E74" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="7">
+      <c r="O74" s="6">
         <v>0.0</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="6">
         <v>0.0</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4260,35 +4552,35 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E75" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>227</v>
+      <c r="E75" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="7">
+      <c r="O75" s="6">
         <v>0.0</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="6">
         <v>0.0</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4301,486 +4593,486 @@
       <c r="X75" s="1"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="K76" s="9"/>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="9"/>
-      <c r="O76" s="8">
+      <c r="A76" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="B76" s="10"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="9">
         <v>0.0</v>
       </c>
-      <c r="P76" s="8">
+      <c r="P76" s="9">
         <v>0.0</v>
       </c>
-      <c r="Q76" s="9"/>
-      <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="T76" s="9"/>
-      <c r="U76" s="9"/>
-      <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
-      <c r="X76" s="9"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="A77" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="10"/>
+      <c r="D77" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F77" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="N77" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="O77" s="8">
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O77" s="9">
         <v>1.0</v>
       </c>
-      <c r="P77" s="8">
+      <c r="P77" s="9">
         <v>0.0</v>
       </c>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="T77" s="9"/>
-      <c r="U77" s="9"/>
-      <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
-      <c r="X77" s="9"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="8" t="s">
+      <c r="A78" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="9"/>
-      <c r="O78" s="8">
+      <c r="E78" s="10"/>
+      <c r="F78" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="9">
         <v>0.0</v>
       </c>
-      <c r="P78" s="8">
+      <c r="P78" s="9">
         <v>0.0</v>
       </c>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="T78" s="9"/>
-      <c r="U78" s="9"/>
-      <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
-      <c r="X78" s="9"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="8" t="s">
+      <c r="A79" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="B79" s="10"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E79" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="N79" s="8" t="s">
+      <c r="E79" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="O79" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="P79" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+    </row>
+    <row r="80" ht="12.75" customHeight="1">
+      <c r="A80" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="O79" s="8">
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="N80" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="O80" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="P80" s="9">
         <v>0.0</v>
       </c>
-      <c r="P79" s="8">
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="N81" s="10"/>
+      <c r="O81" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="P81" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" ht="12.75" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="J82" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="N82" s="10"/>
+      <c r="O82" s="9">
         <v>0.0</v>
       </c>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="T79" s="9"/>
-      <c r="U79" s="9"/>
-      <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
-      <c r="X79" s="9"/>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
-      <c r="L80" s="9"/>
-      <c r="M80" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="N80" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="O80" s="8">
+      <c r="P82" s="9">
         <v>1.0</v>
       </c>
-      <c r="P80" s="8">
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+    </row>
+    <row r="83" ht="12.75" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J83" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="9">
         <v>0.0</v>
       </c>
-      <c r="Q80" s="9"/>
-      <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="T80" s="9"/>
-      <c r="U80" s="9"/>
-      <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
-      <c r="X80" s="9"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="E81" s="9"/>
-      <c r="F81" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="N81" s="9"/>
-      <c r="O81" s="8">
+      <c r="P83" s="9">
         <v>1.0</v>
       </c>
-      <c r="P81" s="8">
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="J84" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="9">
         <v>1.0</v>
       </c>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="T81" s="9"/>
-      <c r="U81" s="9"/>
-      <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
-      <c r="X81" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="9"/>
-      <c r="F82" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="J82" s="8" t="s">
+      <c r="P84" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+    </row>
+    <row r="85" ht="12.75" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="P85" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="N82" s="9"/>
-      <c r="O82" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P82" s="8">
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="9">
         <v>1.0</v>
       </c>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="T82" s="9"/>
-      <c r="U82" s="9"/>
-      <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
-      <c r="X82" s="9"/>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="9"/>
-      <c r="O83" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P83" s="8">
+      <c r="P86" s="9">
         <v>1.0</v>
       </c>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="T83" s="9"/>
-      <c r="U83" s="9"/>
-      <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
-      <c r="X83" s="9"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="9"/>
-      <c r="O84" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P84" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q84" s="9"/>
-      <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="T84" s="9"/>
-      <c r="U84" s="9"/>
-      <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="9"/>
-      <c r="O85" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P85" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="T85" s="9"/>
-      <c r="U85" s="9"/>
-      <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="9"/>
-      <c r="O86" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P86" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="T86" s="9"/>
-      <c r="U86" s="9"/>
-      <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="7" t="s">
-        <v>277</v>
+      <c r="A87" s="6" t="s">
+        <v>284</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="7" t="s">
+      <c r="D87" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="F87" s="6" t="s">
         <v>45</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="J87" s="10" t="s">
+      <c r="I87" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>42</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="7">
+      <c r="O87" s="6">
         <v>1.0</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87" s="6">
         <v>1.0</v>
       </c>
       <c r="Q87" s="1"/>
@@ -4793,17 +5085,17 @@
       <c r="X87" s="1"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="7" t="s">
-        <v>281</v>
+      <c r="A88" s="6" t="s">
+        <v>288</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="7" t="s">
-        <v>282</v>
+      <c r="D88" s="6" t="s">
+        <v>289</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="7" t="s">
-        <v>283</v>
+      <c r="F88" s="6" t="s">
+        <v>290</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -4813,10 +5105,10 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="7">
+      <c r="O88" s="6">
         <v>0.0</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88" s="6">
         <v>1.0</v>
       </c>
       <c r="Q88" s="1"/>
@@ -4829,38 +5121,38 @@
       <c r="X88" s="1"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="7" t="s">
-        <v>284</v>
+      <c r="A89" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>287</v>
+      <c r="D89" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J89" s="7" t="s">
-        <v>289</v>
+      <c r="I89" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="7" t="s">
-        <v>290</v>
+      <c r="M89" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="N89" s="1"/>
-      <c r="O89" s="7">
+      <c r="O89" s="6">
         <v>0.0</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="6">
         <v>1.0</v>
       </c>
       <c r="Q89" s="1"/>
@@ -4873,38 +5165,38 @@
       <c r="X89" s="1"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>291</v>
+      <c r="A90" s="6" t="s">
+        <v>298</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>294</v>
+      <c r="D90" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="7" t="s">
-        <v>284</v>
+      <c r="I90" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="7" t="s">
-        <v>295</v>
+      <c r="M90" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="N90" s="1"/>
-      <c r="O90" s="7">
+      <c r="O90" s="6">
         <v>1.0</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90" s="6">
         <v>1.0</v>
       </c>
       <c r="Q90" s="1"/>
@@ -4917,38 +5209,38 @@
       <c r="X90" s="1"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>296</v>
+      <c r="A91" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F91" s="7" t="s">
-        <v>294</v>
+      <c r="D91" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="7" t="s">
-        <v>284</v>
+      <c r="I91" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="7" t="s">
-        <v>298</v>
+      <c r="M91" s="6" t="s">
+        <v>305</v>
       </c>
       <c r="N91" s="1"/>
-      <c r="O91" s="7">
+      <c r="O91" s="6">
         <v>1.0</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91" s="6">
         <v>1.0</v>
       </c>
       <c r="Q91" s="1"/>
@@ -4961,19 +5253,19 @@
       <c r="X91" s="1"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>289</v>
+      <c r="A92" s="6" t="s">
+        <v>296</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>300</v>
+      <c r="D92" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>307</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -4983,10 +5275,10 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="7">
+      <c r="O92" s="6">
         <v>1.0</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="6">
         <v>1.0</v>
       </c>
       <c r="Q92" s="1"/>
@@ -4996,24 +5288,24 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="7" t="s">
-        <v>301</v>
+      <c r="X92" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>302</v>
+      <c r="A93" s="6" t="s">
+        <v>309</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>303</v>
+      <c r="F93" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5025,10 +5317,10 @@
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="7">
+      <c r="O93" s="6">
         <v>0.0</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93" s="6">
         <v>1.0</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5041,19 +5333,19 @@
       <c r="X93" s="1"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>304</v>
+      <c r="A94" s="6" t="s">
+        <v>311</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>303</v>
+      <c r="D94" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>310</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5065,10 +5357,10 @@
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="7">
+      <c r="O94" s="6">
         <v>0.0</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94" s="6">
         <v>1.0</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5081,24 +5373,24 @@
       <c r="X94" s="1"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>307</v>
+      <c r="A95" s="6" t="s">
+        <v>314</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>310</v>
+      <c r="D95" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>317</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="7" t="s">
-        <v>311</v>
+      <c r="I95" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>65</v>
@@ -5107,10 +5399,10 @@
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="7">
+      <c r="O95" s="6">
         <v>0.0</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95" s="6">
         <v>1.0</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5123,24 +5415,24 @@
       <c r="X95" s="1"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="7" t="s">
-        <v>312</v>
+      <c r="A96" s="6" t="s">
+        <v>319</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>314</v>
+      <c r="E96" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>321</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="7" t="s">
-        <v>311</v>
+      <c r="I96" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>65</v>
@@ -5149,10 +5441,10 @@
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="7">
+      <c r="O96" s="6">
         <v>1.0</v>
       </c>
-      <c r="P96" s="7">
+      <c r="P96" s="6">
         <v>1.0</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5165,17 +5457,17 @@
       <c r="X96" s="1"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>311</v>
+      <c r="A97" s="6" t="s">
+        <v>318</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="7" t="s">
-        <v>186</v>
+      <c r="D97" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="7" t="s">
-        <v>315</v>
+      <c r="F97" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5185,10 +5477,10 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="7">
+      <c r="O97" s="6">
         <v>0.0</v>
       </c>
-      <c r="P97" s="7">
+      <c r="P97" s="6">
         <v>1.0</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5201,19 +5493,19 @@
       <c r="X97" s="1"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="7" t="s">
-        <v>288</v>
+      <c r="A98" s="6" t="s">
+        <v>295</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>287</v>
+      <c r="D98" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>294</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5223,10 +5515,10 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="7">
+      <c r="O98" s="6">
         <v>0.0</v>
       </c>
-      <c r="P98" s="7">
+      <c r="P98" s="6">
         <v>0.0</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5239,19 +5531,19 @@
       <c r="X98" s="1"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="7" t="s">
-        <v>203</v>
+      <c r="A99" s="6" t="s">
+        <v>210</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>133</v>
+      <c r="D99" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5259,14 +5551,14 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="7" t="s">
-        <v>319</v>
+      <c r="M99" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="N99" s="1"/>
-      <c r="O99" s="7">
+      <c r="O99" s="6">
         <v>1.0</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99" s="6">
         <v>1.0</v>
       </c>
       <c r="Q99" s="1"/>
@@ -5276,43 +5568,43 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="7" t="s">
-        <v>320</v>
+      <c r="X99" s="6" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="7" t="s">
-        <v>321</v>
+      <c r="A100" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>323</v>
+      <c r="D100" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>324</v>
+        <v>229</v>
+      </c>
+      <c r="J100" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="7" t="s">
-        <v>325</v>
+      <c r="M100" s="6" t="s">
+        <v>332</v>
       </c>
       <c r="N100" s="1"/>
-      <c r="O100" s="7">
+      <c r="O100" s="6">
         <v>0.0</v>
       </c>
-      <c r="P100" s="7">
+      <c r="P100" s="6">
         <v>1.0</v>
       </c>
       <c r="Q100" s="1"/>
@@ -5325,38 +5617,38 @@
       <c r="X100" s="1"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>326</v>
+      <c r="A101" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>327</v>
+      <c r="E101" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>334</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J101" s="7" t="s">
-        <v>328</v>
+        <v>229</v>
+      </c>
+      <c r="J101" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="7" t="s">
-        <v>329</v>
+      <c r="M101" s="6" t="s">
+        <v>336</v>
       </c>
       <c r="N101" s="1"/>
-      <c r="O101" s="7">
+      <c r="O101" s="6">
         <v>0.0</v>
       </c>
-      <c r="P101" s="7">
+      <c r="P101" s="6">
         <v>1.0</v>
       </c>
       <c r="Q101" s="1"/>
@@ -5369,17 +5661,17 @@
       <c r="X101" s="1"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>324</v>
+      <c r="A102" s="6" t="s">
+        <v>331</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="7" t="s">
-        <v>330</v>
+      <c r="D102" s="6" t="s">
+        <v>337</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="7" t="s">
-        <v>331</v>
+      <c r="F102" s="6" t="s">
+        <v>338</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -5387,14 +5679,14 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="7" t="s">
-        <v>332</v>
+      <c r="M102" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="N102" s="1"/>
-      <c r="O102" s="7">
+      <c r="O102" s="6">
         <v>1.0</v>
       </c>
-      <c r="P102" s="7">
+      <c r="P102" s="6">
         <v>1.0</v>
       </c>
       <c r="Q102" s="1"/>
@@ -5407,17 +5699,17 @@
       <c r="X102" s="1"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>328</v>
+      <c r="A103" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="7" t="s">
-        <v>333</v>
+      <c r="D103" s="6" t="s">
+        <v>340</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="7" t="s">
-        <v>334</v>
+      <c r="F103" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5427,10 +5719,10 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="7">
+      <c r="O103" s="6">
         <v>1.0</v>
       </c>
-      <c r="P103" s="7">
+      <c r="P103" s="6">
         <v>1.0</v>
       </c>
       <c r="Q103" s="1"/>
@@ -5443,22 +5735,40 @@
       <c r="X103" s="1"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="1"/>
+      <c r="A104" s="6" t="s">
+        <v>342</v>
+      </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
+      <c r="D104" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>344</v>
+      </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
+      <c r="I104" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="J104" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
+      <c r="M104" s="6" t="s">
+        <v>347</v>
+      </c>
       <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+      <c r="O104" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P104" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -5469,22 +5779,40 @@
       <c r="X104" s="1"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="1"/>
+      <c r="A105" s="6" t="s">
+        <v>345</v>
+      </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
+      <c r="D105" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
+      <c r="I105" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="J105" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
+      <c r="M105" s="6" t="s">
+        <v>352</v>
+      </c>
       <c r="N105" s="1"/>
-      <c r="O105" s="1"/>
-      <c r="P105" s="1"/>
+      <c r="O105" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P105" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -5495,22 +5823,40 @@
       <c r="X105" s="1"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="1"/>
+      <c r="A106" s="6" t="s">
+        <v>346</v>
+      </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
+      <c r="D106" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>354</v>
+      </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
+      <c r="I106" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="J106" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="1"/>
+      <c r="M106" s="6" t="s">
+        <v>357</v>
+      </c>
       <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1"/>
+      <c r="O106" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P106" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -5518,25 +5864,41 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-      <c r="X106" s="1"/>
+      <c r="X106" s="6" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="1"/>
+      <c r="A107" s="6" t="s">
+        <v>356</v>
+      </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
+      <c r="D107" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
+      <c r="M107" s="6" t="s">
+        <v>360</v>
+      </c>
       <c r="N107" s="1"/>
-      <c r="O107" s="1"/>
-      <c r="P107" s="1"/>
+      <c r="O107" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P107" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -5544,25 +5906,43 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-      <c r="X107" s="1"/>
+      <c r="X107" s="6" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="1"/>
+      <c r="A108" s="6" t="s">
+        <v>355</v>
+      </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
+      <c r="D108" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>359</v>
+      </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" s="1"/>
-      <c r="O108" s="1"/>
-      <c r="P108" s="1"/>
+      <c r="M108" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N108" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O108" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P108" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5573,22 +5953,38 @@
       <c r="X108" s="1"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="1"/>
+      <c r="A109" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
+      <c r="D109" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="1"/>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="1"/>
+      <c r="M109" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="N109" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="O109" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P109" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -5599,12 +5995,20 @@
       <c r="X109" s="1"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="1"/>
+      <c r="A110" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
+      <c r="D110" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>370</v>
+      </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
@@ -5613,8 +6017,12 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
+      <c r="O110" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P110" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -5622,25 +6030,45 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
+      <c r="X110" s="6" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="1"/>
+      <c r="A111" s="6" t="s">
+        <v>372</v>
+      </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
+      <c r="D111" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
+      <c r="I111" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="1"/>
+      <c r="M111" s="6" t="s">
+        <v>375</v>
+      </c>
       <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="1"/>
+      <c r="O111" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P111" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -5651,22 +6079,42 @@
       <c r="X111" s="1"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="1"/>
+      <c r="A112" s="6" t="s">
+        <v>376</v>
+      </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
+      <c r="D112" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>349</v>
+      </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
+      <c r="I112" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="J112" s="6" t="s">
+        <v>351</v>
+      </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
+      <c r="M112" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="O112" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P112" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -5677,12 +6125,20 @@
       <c r="X112" s="1"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="1"/>
+      <c r="A113" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-      <c r="F113" s="1"/>
+      <c r="D113" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
@@ -5691,8 +6147,12 @@
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
-      <c r="O113" s="1"/>
-      <c r="P113" s="1"/>
+      <c r="O113" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P113" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q113" s="1"/>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -5703,12 +6163,20 @@
       <c r="X113" s="1"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="1"/>
+      <c r="A114" s="6" t="s">
+        <v>383</v>
+      </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-      <c r="F114" s="1"/>
+      <c r="D114" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>382</v>
+      </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
@@ -5717,8 +6185,12 @@
       <c r="L114" s="1"/>
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="O114" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P114" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q114" s="1"/>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -5729,22 +6201,40 @@
       <c r="X114" s="1"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="1"/>
+      <c r="A115" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" s="1"/>
+      <c r="D115" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>386</v>
+      </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
+      <c r="I115" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="J115" s="6" t="s">
+        <v>388</v>
+      </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="M115" s="6" t="s">
+        <v>389</v>
+      </c>
       <c r="N115" s="1"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1"/>
+      <c r="O115" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P115" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q115" s="1"/>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -5755,22 +6245,38 @@
       <c r="X115" s="1"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="1"/>
+      <c r="A116" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
+      <c r="D116" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="E116" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
+      <c r="I116" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="M116" s="6" t="s">
+        <v>394</v>
+      </c>
       <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
+      <c r="O116" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P116" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -5781,12 +6287,20 @@
       <c r="X116" s="1"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="1"/>
+      <c r="A117" s="6" t="s">
+        <v>395</v>
+      </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1"/>
+      <c r="D117" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>393</v>
+      </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
@@ -5795,8 +6309,12 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="1"/>
-      <c r="P117" s="1"/>
+      <c r="O117" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P117" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q117" s="1"/>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -5807,12 +6325,20 @@
       <c r="X117" s="1"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="1"/>
+      <c r="A118" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
+      <c r="D118" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>399</v>
+      </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
@@ -5821,8 +6347,12 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
+      <c r="O118" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P118" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q118" s="1"/>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -5833,22 +6363,38 @@
       <c r="X118" s="1"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="1"/>
+      <c r="A119" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
+      <c r="D119" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
+      <c r="M119" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="O119" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P119" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q119" s="1"/>
       <c r="R119" s="1"/>
       <c r="S119" s="1"/>
@@ -5859,22 +6405,42 @@
       <c r="X119" s="1"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="1"/>
+      <c r="A120" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
+      <c r="D120" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>402</v>
+      </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
+      <c r="I120" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
+      <c r="M120" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="O120" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P120" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q120" s="1"/>
       <c r="R120" s="1"/>
       <c r="S120" s="1"/>
@@ -5882,25 +6448,47 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
+      <c r="X120" s="13" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="1"/>
+      <c r="A121" s="6" t="s">
+        <v>408</v>
+      </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
+      <c r="D121" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
+      <c r="I121" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
+      <c r="M121" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N121" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="O121" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P121" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1"/>
@@ -5911,22 +6499,42 @@
       <c r="X121" s="1"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="1"/>
+      <c r="A122" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
+      <c r="D122" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
+      <c r="I122" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J122" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
+      <c r="M122" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="O122" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P122" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q122" s="1"/>
       <c r="R122" s="1"/>
       <c r="S122" s="1"/>
@@ -5937,22 +6545,42 @@
       <c r="X122" s="1"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="1"/>
+      <c r="A123" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="1"/>
+      <c r="D123" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
+      <c r="I123" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J123" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="1"/>
-      <c r="N123" s="1"/>
-      <c r="O123" s="1"/>
-      <c r="P123" s="1"/>
+      <c r="M123" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O123" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P123" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q123" s="1"/>
       <c r="R123" s="1"/>
       <c r="S123" s="1"/>
@@ -5963,12 +6591,20 @@
       <c r="X123" s="1"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="1"/>
+      <c r="A124" s="6" t="s">
+        <v>403</v>
+      </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
+      <c r="D124" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>420</v>
+      </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
@@ -5989,12 +6625,20 @@
       <c r="X124" s="1"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="1"/>
+      <c r="A125" s="6" t="s">
+        <v>404</v>
+      </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
+      <c r="D125" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>402</v>
+      </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
@@ -6012,13 +6656,15 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
-      <c r="X125" s="1"/>
+      <c r="X125" s="12" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="1"/>
+      <c r="A126" s="6"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
+      <c r="D126" s="6"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
       <c r="G126" s="1"/>
@@ -6041,7 +6687,7 @@
       <c r="X126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="1"/>
+      <c r="A127" s="6"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6067,7 +6713,7 @@
       <c r="X127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="1"/>
+      <c r="A128" s="6"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -6093,7 +6739,7 @@
       <c r="X128" s="1"/>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="1"/>
+      <c r="A129" s="6"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -6119,7 +6765,7 @@
       <c r="X129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="1"/>
+      <c r="A130" s="6"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -6145,7 +6791,7 @@
       <c r="X130" s="1"/>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="1"/>
+      <c r="A131" s="6"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -6171,7 +6817,7 @@
       <c r="X131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="1"/>
+      <c r="A132" s="6"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -6197,7 +6843,7 @@
       <c r="X132" s="1"/>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="1"/>
+      <c r="A133" s="6"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -6223,7 +6869,7 @@
       <c r="X133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="1"/>
+      <c r="A134" s="6"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -6249,7 +6895,7 @@
       <c r="X134" s="1"/>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="1"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -6275,7 +6921,7 @@
       <c r="X135" s="1"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="1"/>
+      <c r="A136" s="6"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -6301,7 +6947,7 @@
       <c r="X136" s="1"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="1"/>
+      <c r="A137" s="6"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -6327,7 +6973,7 @@
       <c r="X137" s="1"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="1"/>
+      <c r="A138" s="6"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -6353,7 +6999,7 @@
       <c r="X138" s="1"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="1"/>
+      <c r="A139" s="6"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -6379,7 +7025,7 @@
       <c r="X139" s="1"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="1"/>
+      <c r="A140" s="6"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -6405,7 +7051,7 @@
       <c r="X140" s="1"/>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="1"/>
+      <c r="A141" s="6"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -6431,7 +7077,7 @@
       <c r="X141" s="1"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="1"/>
+      <c r="A142" s="6"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -6457,7 +7103,7 @@
       <c r="X142" s="1"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="1"/>
+      <c r="A143" s="6"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -6483,7 +7129,7 @@
       <c r="X143" s="1"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="1"/>
+      <c r="A144" s="6"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -6509,7 +7155,7 @@
       <c r="X144" s="1"/>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="1"/>
+      <c r="A145" s="6"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -6535,7 +7181,7 @@
       <c r="X145" s="1"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="1"/>
+      <c r="A146" s="6"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -6561,7 +7207,7 @@
       <c r="X146" s="1"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="1"/>
+      <c r="A147" s="6"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -6587,7 +7233,7 @@
       <c r="X147" s="1"/>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="1"/>
+      <c r="A148" s="6"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -6613,7 +7259,7 @@
       <c r="X148" s="1"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="1"/>
+      <c r="A149" s="6"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -6639,7 +7285,7 @@
       <c r="X149" s="1"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="1"/>
+      <c r="A150" s="6"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="432">
   <si>
     <t>ID</t>
   </si>
@@ -616,9 +616,15 @@
     <t>Анастасия</t>
   </si>
   <si>
+    <t>I146</t>
+  </si>
+  <si>
     <t>I79</t>
   </si>
   <si>
+    <t>урожд Заренкова</t>
+  </si>
+  <si>
     <t>Заренкова</t>
   </si>
   <si>
@@ -1280,6 +1286,27 @@
   </si>
   <si>
     <t>(урожденная Паатова)</t>
+  </si>
+  <si>
+    <t>Заренков</t>
+  </si>
+  <si>
+    <t>I147</t>
+  </si>
+  <si>
+    <t>Столяров</t>
+  </si>
+  <si>
+    <t>I148</t>
+  </si>
+  <si>
+    <t>Валерия</t>
+  </si>
+  <si>
+    <t>Столярова</t>
+  </si>
+  <si>
+    <t>ур Хомякова двоюродная сестра I52 ЕА Мишиной</t>
   </si>
 </sst>
 </file>
@@ -3857,9 +3884,11 @@
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="I58" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="J58" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3878,20 +3907,22 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
+      <c r="X58" s="6" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3918,7 +3949,7 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -3926,7 +3957,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>140</v>
@@ -3934,7 +3965,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>137</v>
@@ -3942,7 +3973,7 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="6">
@@ -3962,31 +3993,31 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="6">
@@ -4006,22 +4037,22 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4044,16 +4075,16 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4063,7 +4094,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O63" s="6">
         <v>1.0</v>
@@ -4079,7 +4110,7 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
@@ -4089,10 +4120,10 @@
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>101</v>
@@ -4100,15 +4131,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="6">
@@ -4125,7 +4156,7 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
@@ -4135,27 +4166,27 @@
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O65" s="6">
         <v>0.0</v>
@@ -4174,18 +4205,18 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4198,7 +4229,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="6">
@@ -4218,34 +4249,34 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="O67" s="6">
         <v>0.0</v>
@@ -4264,18 +4295,18 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4284,10 +4315,10 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O68" s="6">
         <v>1.0</v>
@@ -4303,12 +4334,12 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4317,7 +4348,7 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4344,16 +4375,16 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4380,26 +4411,26 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4419,12 +4450,12 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4432,18 +4463,18 @@
         <v>126</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4463,31 +4494,31 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4510,7 +4541,7 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4518,18 +4549,18 @@
         <v>71</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4552,7 +4583,7 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4560,18 +4591,18 @@
         <v>58</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4594,26 +4625,26 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -4636,7 +4667,7 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -4652,18 +4683,18 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O77" s="9">
         <v>1.0</v>
@@ -4682,7 +4713,7 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4691,7 +4722,7 @@
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -4718,7 +4749,7 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4726,10 +4757,10 @@
         <v>67</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4738,10 +4769,10 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O79" s="9">
         <v>0.0</v>
@@ -4760,12 +4791,12 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E80" s="9" t="s">
         <v>187</v>
@@ -4780,10 +4811,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O80" s="9">
         <v>1.0</v>
@@ -4802,27 +4833,27 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="9">
@@ -4839,34 +4870,34 @@
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
       <c r="X81" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="9">
@@ -4886,26 +4917,26 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -4928,26 +4959,26 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -4970,18 +5001,18 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5008,7 +5039,7 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5017,7 +5048,7 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -5044,15 +5075,15 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>45</v>
@@ -5060,7 +5091,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>42</v>
@@ -5086,16 +5117,16 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5122,31 +5153,31 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="6">
@@ -5166,23 +5197,23 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>42</v>
@@ -5190,7 +5221,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="6">
@@ -5210,23 +5241,23 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>42</v>
@@ -5234,7 +5265,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="6">
@@ -5254,18 +5285,18 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>187</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5289,12 +5320,12 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5305,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5334,18 +5365,18 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>310</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5374,23 +5405,23 @@
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>65</v>
@@ -5416,7 +5447,7 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5424,15 +5455,15 @@
         <v>31</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>65</v>
@@ -5458,7 +5489,7 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -5467,7 +5498,7 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5494,7 +5525,7 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -5502,10 +5533,10 @@
         <v>193</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5532,15 +5563,15 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>140</v>
@@ -5552,7 +5583,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="6">
@@ -5569,36 +5600,36 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="6">
@@ -5618,7 +5649,7 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5626,23 +5657,23 @@
         <v>103</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="6">
@@ -5662,16 +5693,16 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -5680,7 +5711,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="6">
@@ -5700,16 +5731,16 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5736,31 +5767,31 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>130</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="6">
@@ -5780,31 +5811,31 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="6">
@@ -5824,31 +5855,31 @@
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="6">
@@ -5865,23 +5896,23 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -5890,7 +5921,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="6">
@@ -5907,12 +5938,12 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -5920,10 +5951,10 @@
         <v>129</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -5932,10 +5963,10 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="O108" s="6">
         <v>0.0</v>
@@ -5954,18 +5985,18 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -5974,10 +6005,10 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O109" s="6">
         <v>0.0</v>
@@ -5996,18 +6027,18 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6031,36 +6062,36 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="6">
@@ -6080,34 +6111,34 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O112" s="6">
         <v>0.0</v>
@@ -6126,18 +6157,18 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6164,18 +6195,18 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -6202,31 +6233,31 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="6">
@@ -6246,29 +6277,29 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="6">
@@ -6288,18 +6319,18 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6326,18 +6357,18 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6369,7 +6400,7 @@
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>60</v>
@@ -6384,10 +6415,10 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O119" s="6">
         <v>0.0</v>
@@ -6411,29 +6442,29 @@
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="O120" s="6">
         <v>1.0</v>
@@ -6449,17 +6480,17 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="13" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>130</v>
@@ -6478,10 +6509,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O121" s="6">
         <v>0.0</v>
@@ -6500,7 +6531,7 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6524,10 +6555,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O122" s="6">
         <v>0.0</v>
@@ -6546,15 +6577,15 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
@@ -6570,10 +6601,10 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O123" s="6">
         <v>0.0</v>
@@ -6592,7 +6623,7 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6600,10 +6631,10 @@
         <v>129</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -6626,18 +6657,18 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -6657,16 +6688,22 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="6"/>
+      <c r="A126" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
+      <c r="F126" s="6" t="s">
+        <v>425</v>
+      </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
@@ -6687,12 +6724,20 @@
       <c r="X126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="6"/>
+      <c r="A127" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
+      <c r="D127" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
@@ -6713,12 +6758,20 @@
       <c r="X127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="6"/>
+      <c r="A128" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
+      <c r="D128" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>430</v>
+      </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -6736,15 +6789,17 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
+      <c r="X128" s="6" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
+      <c r="D129" s="6"/>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
+      <c r="F129" s="6"/>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="434">
   <si>
     <t>ID</t>
   </si>
@@ -376,6 +376,12 @@
     <t>I53</t>
   </si>
   <si>
+    <t>18/2/1859</t>
+  </si>
+  <si>
+    <t>24/3/1929</t>
+  </si>
+  <si>
     <t>I39</t>
   </si>
   <si>
@@ -1225,64 +1231,64 @@
     <t>22/01/1908</t>
   </si>
   <si>
+    <t>I144</t>
+  </si>
+  <si>
+    <t>I145</t>
+  </si>
+  <si>
+    <t>25/3/1859</t>
+  </si>
+  <si>
+    <t>30/10/1951</t>
+  </si>
+  <si>
+    <t>Саломия ур Сапарова</t>
+  </si>
+  <si>
+    <t>I141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7/3/1888 </t>
+  </si>
+  <si>
+    <t>8/6/1937</t>
+  </si>
+  <si>
+    <t>I142</t>
+  </si>
+  <si>
+    <t>13/12/1899</t>
+  </si>
+  <si>
+    <t>14/7/1961</t>
+  </si>
+  <si>
+    <t>I143</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>15/1/1908</t>
+  </si>
+  <si>
+    <t>Герасимович</t>
+  </si>
+  <si>
+    <t>Сапаров</t>
+  </si>
+  <si>
+    <t>София</t>
+  </si>
+  <si>
     <t>Сапарова</t>
-  </si>
-  <si>
-    <t>I144</t>
-  </si>
-  <si>
-    <t>I145</t>
-  </si>
-  <si>
-    <t>25/3/1859</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>Саломия</t>
-  </si>
-  <si>
-    <t>I141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7/3/1888 </t>
-  </si>
-  <si>
-    <t>8/6/1937</t>
-  </si>
-  <si>
-    <t>I142</t>
-  </si>
-  <si>
-    <t>13/12/1899</t>
-  </si>
-  <si>
-    <t>14/7/1961</t>
-  </si>
-  <si>
-    <t>I143</t>
-  </si>
-  <si>
-    <t>Юлия</t>
-  </si>
-  <si>
-    <t>Александровна</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>15/1/1908</t>
-  </si>
-  <si>
-    <t>Герасимович</t>
-  </si>
-  <si>
-    <t>Сапаров</t>
-  </si>
-  <si>
-    <t>София</t>
   </si>
   <si>
     <t>(урожденная Паатова)</t>
@@ -2512,8 +2518,12 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="M25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="O25" s="1">
         <v>0.0</v>
       </c>
@@ -2531,12 +2541,12 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -2576,7 +2586,7 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
@@ -2611,12 +2621,12 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
@@ -2656,10 +2666,10 @@
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
@@ -2675,7 +2685,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
@@ -2700,10 +2710,10 @@
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>105</v>
@@ -2711,18 +2721,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J30" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O30" s="1">
         <v>0.0</v>
@@ -2741,12 +2751,12 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>50</v>
@@ -2783,31 +2793,31 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
@@ -2827,15 +2837,15 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -2846,12 +2856,12 @@
         <v>85</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
@@ -2887,10 +2897,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -2910,7 +2920,7 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2920,10 +2930,10 @@
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>91</v>
@@ -2999,10 +3009,10 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3026,7 +3036,7 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -3036,10 +3046,10 @@
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>73</v>
@@ -3069,7 +3079,7 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3093,7 +3103,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
@@ -3113,7 +3123,7 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3137,7 +3147,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1">
@@ -3157,12 +3167,12 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>60</v>
@@ -3181,10 +3191,10 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O41" s="1">
         <v>0.0</v>
@@ -3203,7 +3213,7 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3227,10 +3237,10 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="O42" s="1">
         <v>0.0</v>
@@ -3249,7 +3259,7 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3257,7 +3267,7 @@
         <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -3265,7 +3275,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3289,15 +3299,15 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -3305,7 +3315,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3329,7 +3339,7 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3337,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -3345,7 +3355,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3369,15 +3379,15 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -3385,7 +3395,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3425,15 +3435,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="N47" s="1">
         <v>1917.0</v>
@@ -3455,7 +3465,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3471,15 +3481,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N48" s="1">
         <v>1917.0</v>
@@ -3498,12 +3508,12 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3511,7 +3521,7 @@
         <v>67</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
@@ -3519,13 +3529,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
@@ -3542,12 +3552,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3585,15 +3595,15 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -3601,15 +3611,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
@@ -3634,7 +3644,7 @@
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>44</v>
@@ -3664,17 +3674,17 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>60</v>
@@ -3685,10 +3695,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -3711,12 +3721,12 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>60</v>
@@ -3727,10 +3737,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -3753,15 +3763,15 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>45</v>
@@ -3788,17 +3798,17 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -3811,7 +3821,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
@@ -3831,7 +3841,7 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3846,8 +3856,12 @@
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
+      <c r="I57" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -3869,15 +3883,15 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>91</v>
@@ -3885,10 +3899,10 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
       <c r="I58" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -3908,21 +3922,21 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -3949,31 +3963,31 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="6">
@@ -3993,31 +4007,31 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="J61" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="N61" s="1"/>
       <c r="O61" s="6">
@@ -4037,22 +4051,22 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -4075,16 +4089,16 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4094,7 +4108,7 @@
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
       <c r="N63" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O63" s="6">
         <v>1.0</v>
@@ -4110,20 +4124,20 @@
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
       <c r="X63" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>101</v>
@@ -4131,15 +4145,15 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="6">
@@ -4156,37 +4170,37 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="O65" s="6">
         <v>0.0</v>
@@ -4205,31 +4219,31 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="N66" s="1"/>
       <c r="O66" s="6">
@@ -4249,34 +4263,34 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O67" s="6">
         <v>0.0</v>
@@ -4295,18 +4309,18 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4315,10 +4329,10 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O68" s="6">
         <v>1.0</v>
@@ -4334,21 +4348,21 @@
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
       <c r="X68" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4375,16 +4389,16 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4411,26 +4425,26 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -4450,31 +4464,31 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -4494,31 +4508,31 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -4541,7 +4555,7 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4549,18 +4563,18 @@
         <v>71</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -4583,7 +4597,7 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4591,18 +4605,18 @@
         <v>58</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -4625,26 +4639,26 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -4667,15 +4681,15 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F77" s="9" t="s">
         <v>101</v>
@@ -4683,18 +4697,18 @@
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O77" s="9">
         <v>1.0</v>
@@ -4713,7 +4727,7 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -4722,7 +4736,7 @@
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -4749,7 +4763,7 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -4757,10 +4771,10 @@
         <v>67</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -4769,10 +4783,10 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="O79" s="9">
         <v>0.0</v>
@@ -4791,15 +4805,15 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F80" s="9" t="s">
         <v>101</v>
@@ -4811,10 +4825,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="O80" s="9">
         <v>1.0</v>
@@ -4833,27 +4847,27 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="9">
@@ -4870,34 +4884,34 @@
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
       <c r="X81" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="9">
@@ -4917,26 +4931,26 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -4959,26 +4973,26 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5001,18 +5015,18 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5039,7 +5053,7 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5048,7 +5062,7 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -5075,15 +5089,15 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>45</v>
@@ -5091,7 +5105,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>42</v>
@@ -5117,16 +5131,16 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5153,31 +5167,31 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N89" s="1"/>
       <c r="O89" s="6">
@@ -5197,23 +5211,23 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>42</v>
@@ -5221,7 +5235,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="6">
@@ -5241,23 +5255,23 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>42</v>
@@ -5265,7 +5279,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="6">
@@ -5285,18 +5299,18 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5320,12 +5334,12 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5336,7 +5350,7 @@
         <v>50</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
@@ -5365,18 +5379,18 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="6" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5405,23 +5419,23 @@
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E95" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>65</v>
@@ -5447,7 +5461,7 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -5455,15 +5469,15 @@
         <v>31</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>65</v>
@@ -5489,16 +5503,16 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5525,18 +5539,18 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E98" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5563,18 +5577,18 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5583,7 +5597,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="6">
@@ -5600,36 +5614,36 @@
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
       <c r="X99" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="6">
@@ -5649,7 +5663,7 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -5657,23 +5671,23 @@
         <v>103</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="N101" s="1"/>
       <c r="O101" s="6">
@@ -5693,16 +5707,16 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -5711,7 +5725,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="6">
@@ -5731,16 +5745,16 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -5767,31 +5781,31 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="6" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="6" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="6">
@@ -5811,31 +5825,31 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="6" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="6">
@@ -5855,31 +5869,31 @@
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="J106" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="6">
@@ -5896,23 +5910,23 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -5921,7 +5935,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="6" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="6">
@@ -5938,23 +5952,23 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -5963,10 +5977,10 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="N108" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O108" s="6">
         <v>0.0</v>
@@ -5985,18 +5999,18 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6005,10 +6019,10 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="6" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O109" s="6">
         <v>0.0</v>
@@ -6027,18 +6041,18 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E110" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6062,36 +6076,36 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="6" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E111" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J111" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="6">
@@ -6111,34 +6125,34 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E112" s="6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="6" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="J112" s="6" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O112" s="6">
         <v>0.0</v>
@@ -6157,18 +6171,18 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6195,18 +6209,18 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="6" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -6233,31 +6247,31 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="6" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="6">
@@ -6277,29 +6291,29 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="6">
@@ -6319,18 +6333,18 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6357,18 +6371,18 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6395,12 +6409,12 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>60</v>
@@ -6415,10 +6429,10 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="O119" s="6">
         <v>0.0</v>
@@ -6437,34 +6451,34 @@
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>404</v>
+        <v>38</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O120" s="6">
         <v>1.0</v>
@@ -6480,20 +6494,20 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="13" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>105</v>
@@ -6501,18 +6515,18 @@
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O121" s="6">
         <v>0.0</v>
@@ -6531,7 +6545,7 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6539,7 +6553,7 @@
         <v>83</v>
       </c>
       <c r="E122" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>105</v>
@@ -6547,18 +6561,18 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O122" s="6">
         <v>0.0</v>
@@ -6577,15 +6591,15 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
@@ -6593,18 +6607,18 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O123" s="6">
         <v>0.0</v>
@@ -6623,18 +6637,18 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -6657,18 +6671,18 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -6688,12 +6702,12 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -6702,7 +6716,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -6725,7 +6739,7 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6733,10 +6747,10 @@
         <v>52</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -6759,18 +6773,18 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -6790,7 +6804,7 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="540">
   <si>
     <t>ID</t>
   </si>
@@ -1174,12 +1174,18 @@
     <t xml:space="preserve">Флоренский </t>
   </si>
   <si>
+    <t>6/1/1947</t>
+  </si>
+  <si>
     <t>I134</t>
   </si>
   <si>
     <t xml:space="preserve">Александр </t>
   </si>
   <si>
+    <t>5/12/1948</t>
+  </si>
+  <si>
     <t>I135</t>
   </si>
   <si>
@@ -1313,6 +1319,318 @@
   </si>
   <si>
     <t>ур Хомякова двоюродная сестра I52 ЕА Мишиной</t>
+  </si>
+  <si>
+    <t>I149</t>
+  </si>
+  <si>
+    <t>21/5/1911</t>
+  </si>
+  <si>
+    <t>5/4/1956</t>
+  </si>
+  <si>
+    <t>I150</t>
+  </si>
+  <si>
+    <t>ур Зарубина</t>
+  </si>
+  <si>
+    <t>I151</t>
+  </si>
+  <si>
+    <t>7/6/1936</t>
+  </si>
+  <si>
+    <t>I152</t>
+  </si>
+  <si>
+    <t>21/3/1941</t>
+  </si>
+  <si>
+    <t>ур Захарова</t>
+  </si>
+  <si>
+    <t>I153</t>
+  </si>
+  <si>
+    <t>18/9/1967</t>
+  </si>
+  <si>
+    <t>I154</t>
+  </si>
+  <si>
+    <t>Олеговна</t>
+  </si>
+  <si>
+    <t>8/4/1969</t>
+  </si>
+  <si>
+    <t>ур Комендант</t>
+  </si>
+  <si>
+    <t>I155</t>
+  </si>
+  <si>
+    <t>8/11/1993</t>
+  </si>
+  <si>
+    <t>I156</t>
+  </si>
+  <si>
+    <t>19/2/2000</t>
+  </si>
+  <si>
+    <t>I157</t>
+  </si>
+  <si>
+    <t>Варвара</t>
+  </si>
+  <si>
+    <t>1/4/2002</t>
+  </si>
+  <si>
+    <t>I158</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>20/4/1970</t>
+  </si>
+  <si>
+    <t>I159</t>
+  </si>
+  <si>
+    <t>31/11/1937</t>
+  </si>
+  <si>
+    <t>I160</t>
+  </si>
+  <si>
+    <t>13/5/1940</t>
+  </si>
+  <si>
+    <t>ур Николкина</t>
+  </si>
+  <si>
+    <t>I161</t>
+  </si>
+  <si>
+    <t>Наталия</t>
+  </si>
+  <si>
+    <t>20/2/1965</t>
+  </si>
+  <si>
+    <t>I162</t>
+  </si>
+  <si>
+    <t>Брайцева</t>
+  </si>
+  <si>
+    <t>12/7/1936</t>
+  </si>
+  <si>
+    <t>I163</t>
+  </si>
+  <si>
+    <t>11/9/1940</t>
+  </si>
+  <si>
+    <t>17/10/2008</t>
+  </si>
+  <si>
+    <t>I164</t>
+  </si>
+  <si>
+    <t>19/3/1942</t>
+  </si>
+  <si>
+    <t>ур Афонина</t>
+  </si>
+  <si>
+    <t>I165</t>
+  </si>
+  <si>
+    <t>23/12/1946</t>
+  </si>
+  <si>
+    <t>I166</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>11/10/1974</t>
+  </si>
+  <si>
+    <t>I167</t>
+  </si>
+  <si>
+    <t>Дина</t>
+  </si>
+  <si>
+    <t>Раливовна</t>
+  </si>
+  <si>
+    <t>27/4/1974</t>
+  </si>
+  <si>
+    <t>ур Зианурова</t>
+  </si>
+  <si>
+    <t>I168</t>
+  </si>
+  <si>
+    <t>2/7/2001</t>
+  </si>
+  <si>
+    <t>I169</t>
+  </si>
+  <si>
+    <t>18/11/2003</t>
+  </si>
+  <si>
+    <t>I170</t>
+  </si>
+  <si>
+    <t>1/6/1977</t>
+  </si>
+  <si>
+    <t>I171</t>
+  </si>
+  <si>
+    <t>28/01/1974</t>
+  </si>
+  <si>
+    <t>ур Симонова</t>
+  </si>
+  <si>
+    <t>I172</t>
+  </si>
+  <si>
+    <t>22/9/1998</t>
+  </si>
+  <si>
+    <t>I173</t>
+  </si>
+  <si>
+    <t>8/10/2008</t>
+  </si>
+  <si>
+    <t>I174</t>
+  </si>
+  <si>
+    <t>Светлана</t>
+  </si>
+  <si>
+    <t>Васильвена</t>
+  </si>
+  <si>
+    <t>12/5/1947</t>
+  </si>
+  <si>
+    <t>ур Кретова</t>
+  </si>
+  <si>
+    <t>I175</t>
+  </si>
+  <si>
+    <t>4/7/1980</t>
+  </si>
+  <si>
+    <t>I176</t>
+  </si>
+  <si>
+    <t>12/10/1947</t>
+  </si>
+  <si>
+    <t>ур Осипова</t>
+  </si>
+  <si>
+    <t>I177</t>
+  </si>
+  <si>
+    <t>20/8/1974</t>
+  </si>
+  <si>
+    <t>I178</t>
+  </si>
+  <si>
+    <t>8/12/1979</t>
+  </si>
+  <si>
+    <t>I179</t>
+  </si>
+  <si>
+    <t>28/10/1921</t>
+  </si>
+  <si>
+    <t>I180</t>
+  </si>
+  <si>
+    <t>23/12/1947</t>
+  </si>
+  <si>
+    <t>I181</t>
+  </si>
+  <si>
+    <t>29/10/1952</t>
+  </si>
+  <si>
+    <t>I182</t>
+  </si>
+  <si>
+    <t>11/10/1924</t>
+  </si>
+  <si>
+    <t>19/8/2014</t>
+  </si>
+  <si>
+    <t>I183</t>
+  </si>
+  <si>
+    <t>18/3/1933</t>
+  </si>
+  <si>
+    <t>I184</t>
+  </si>
+  <si>
+    <t>Донара</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Смокотина</t>
+  </si>
+  <si>
+    <t>29/3/1934</t>
+  </si>
+  <si>
+    <t>I185</t>
+  </si>
+  <si>
+    <t>Леонидона</t>
+  </si>
+  <si>
+    <t>Фокина</t>
+  </si>
+  <si>
+    <t>6/8/1958</t>
+  </si>
+  <si>
+    <t>ур Флоренская</t>
+  </si>
+  <si>
+    <t>I186</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>12/3/1939</t>
   </si>
 </sst>
 </file>
@@ -6186,11 +6504,17 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
+      <c r="M113" s="6" t="s">
+        <v>387</v>
+      </c>
       <c r="N113" s="1"/>
       <c r="O113" s="6">
         <v>0.0</v>
@@ -6209,12 +6533,12 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>385</v>
@@ -6224,11 +6548,17 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
+      <c r="M114" s="6" t="s">
+        <v>390</v>
+      </c>
       <c r="N114" s="1"/>
       <c r="O114" s="6">
         <v>0.0</v>
@@ -6247,31 +6577,31 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>320</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="6">
@@ -6291,29 +6621,29 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="6">
@@ -6333,7 +6663,7 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6341,10 +6671,10 @@
         <v>249</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6371,18 +6701,18 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6429,10 +6759,10 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="6" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O119" s="6">
         <v>0.0</v>
@@ -6467,18 +6797,18 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="O120" s="6">
         <v>1.0</v>
@@ -6494,12 +6824,12 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="6" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6523,10 +6853,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="6" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="O121" s="6">
         <v>0.0</v>
@@ -6545,7 +6875,7 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6569,10 +6899,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="O122" s="6">
         <v>0.0</v>
@@ -6591,15 +6921,15 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>38</v>
@@ -6615,10 +6945,10 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="6" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="O123" s="6">
         <v>0.0</v>
@@ -6637,7 +6967,7 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="6" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -6645,10 +6975,10 @@
         <v>131</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -6658,8 +6988,12 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="1"/>
-      <c r="P124" s="1"/>
+      <c r="O124" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P124" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q124" s="1"/>
       <c r="R124" s="1"/>
       <c r="S124" s="1"/>
@@ -6671,18 +7005,18 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="6" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E125" s="12" t="s">
         <v>113</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -6692,8 +7026,12 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
+      <c r="O125" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P125" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q125" s="1"/>
       <c r="R125" s="1"/>
       <c r="S125" s="1"/>
@@ -6702,7 +7040,7 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="12" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -6716,7 +7054,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -6726,8 +7064,12 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
+      <c r="O126" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P126" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q126" s="1"/>
       <c r="R126" s="1"/>
       <c r="S126" s="1"/>
@@ -6739,7 +7081,7 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -6750,7 +7092,7 @@
         <v>148</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -6760,8 +7102,12 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
+      <c r="O127" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P127" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q127" s="1"/>
       <c r="R127" s="1"/>
       <c r="S127" s="1"/>
@@ -6773,18 +7119,18 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="6" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="6" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>37</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -6794,8 +7140,12 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
+      <c r="O128" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P128" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q128" s="1"/>
       <c r="R128" s="1"/>
       <c r="S128" s="1"/>
@@ -6804,26 +7154,46 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="6" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="6"/>
+      <c r="A129" s="6" t="s">
+        <v>436</v>
+      </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="1"/>
-      <c r="F129" s="6"/>
+      <c r="D129" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
+      <c r="I129" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J129" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="1"/>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
+      <c r="M129" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="O129" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P129" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q129" s="1"/>
       <c r="R129" s="1"/>
       <c r="S129" s="1"/>
@@ -6834,12 +7204,20 @@
       <c r="X129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="6"/>
+      <c r="A130" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
+      <c r="D130" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E130" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -6848,8 +7226,12 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
+      <c r="O130" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P130" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q130" s="1"/>
       <c r="R130" s="1"/>
       <c r="S130" s="1"/>
@@ -6857,25 +7239,45 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
+      <c r="X130" s="6" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="6"/>
+      <c r="A131" s="6" t="s">
+        <v>441</v>
+      </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
+      <c r="D131" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
+      <c r="I131" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="1"/>
+      <c r="M131" s="6" t="s">
+        <v>442</v>
+      </c>
       <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
-      <c r="P131" s="1"/>
+      <c r="O131" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P131" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q131" s="1"/>
       <c r="R131" s="1"/>
       <c r="S131" s="1"/>
@@ -6886,22 +7288,36 @@
       <c r="X131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="6"/>
+      <c r="A132" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="D132" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E132" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="M132" s="1"/>
+      <c r="M132" s="6" t="s">
+        <v>444</v>
+      </c>
       <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
+      <c r="O132" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P132" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q132" s="1"/>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -6909,25 +7325,45 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
-      <c r="X132" s="1"/>
+      <c r="X132" s="6" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="6"/>
+      <c r="A133" s="6" t="s">
+        <v>446</v>
+      </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="D133" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E133" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
+      <c r="I133" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
+      <c r="M133" s="6" t="s">
+        <v>447</v>
+      </c>
       <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
+      <c r="O133" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P133" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
@@ -6938,22 +7374,36 @@
       <c r="X133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="6"/>
+      <c r="A134" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="D134" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-      <c r="M134" s="1"/>
+      <c r="M134" s="6" t="s">
+        <v>450</v>
+      </c>
       <c r="N134" s="1"/>
-      <c r="O134" s="1"/>
-      <c r="P134" s="1"/>
+      <c r="O134" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P134" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
@@ -6961,25 +7411,45 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-      <c r="X134" s="1"/>
+      <c r="X134" s="6" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="6"/>
+      <c r="A135" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="D135" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
+      <c r="I135" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-      <c r="M135" s="1"/>
+      <c r="M135" s="6" t="s">
+        <v>453</v>
+      </c>
       <c r="N135" s="1"/>
-      <c r="O135" s="1"/>
-      <c r="P135" s="1"/>
+      <c r="O135" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P135" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
@@ -6990,22 +7460,40 @@
       <c r="X135" s="1"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="6"/>
+      <c r="A136" s="6" t="s">
+        <v>454</v>
+      </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
+      <c r="D136" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
+      <c r="I136" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-      <c r="M136" s="1"/>
+      <c r="M136" s="6" t="s">
+        <v>455</v>
+      </c>
       <c r="N136" s="1"/>
-      <c r="O136" s="1"/>
-      <c r="P136" s="1"/>
+      <c r="O136" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P136" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
@@ -7016,22 +7504,40 @@
       <c r="X136" s="1"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="6"/>
+      <c r="A137" s="6" t="s">
+        <v>456</v>
+      </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="D137" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="E137" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="I137" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="J137" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
+      <c r="M137" s="6" t="s">
+        <v>458</v>
+      </c>
       <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
+      <c r="O137" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P137" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
@@ -7042,22 +7548,40 @@
       <c r="X137" s="1"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="6"/>
+      <c r="A138" s="6" t="s">
+        <v>459</v>
+      </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
+      <c r="D138" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="I138" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="J138" s="6" t="s">
+        <v>443</v>
+      </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
+      <c r="M138" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
+      <c r="O138" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P138" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
@@ -7068,22 +7592,40 @@
       <c r="X138" s="1"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="6"/>
+      <c r="A139" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-      <c r="F139" s="1"/>
+      <c r="D139" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E139" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
+      <c r="I139" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J139" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
+      <c r="M139" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="N139" s="1"/>
-      <c r="O139" s="1"/>
-      <c r="P139" s="1"/>
+      <c r="O139" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P139" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
@@ -7094,22 +7636,36 @@
       <c r="X139" s="1"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="6"/>
+      <c r="A140" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
+      <c r="D140" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E140" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
+      <c r="M140" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
+      <c r="O140" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P140" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
@@ -7117,25 +7673,45 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
+      <c r="X140" s="6" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="6"/>
+      <c r="A141" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-      <c r="F141" s="1"/>
+      <c r="D141" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E141" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
+      <c r="I141" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="J141" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-      <c r="M141" s="1"/>
+      <c r="M141" s="6" t="s">
+        <v>469</v>
+      </c>
       <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
-      <c r="P141" s="1"/>
+      <c r="O141" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P141" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
@@ -7146,22 +7722,36 @@
       <c r="X141" s="1"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="6"/>
+      <c r="A142" s="6" t="s">
+        <v>470</v>
+      </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-      <c r="F142" s="1"/>
+      <c r="D142" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>471</v>
+      </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="M142" s="1"/>
+      <c r="M142" s="6" t="s">
+        <v>472</v>
+      </c>
       <c r="N142" s="1"/>
-      <c r="O142" s="1"/>
-      <c r="P142" s="1"/>
+      <c r="O142" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P142" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
@@ -7172,22 +7762,42 @@
       <c r="X142" s="1"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="6"/>
+      <c r="A143" s="6" t="s">
+        <v>473</v>
+      </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-      <c r="F143" s="1"/>
+      <c r="D143" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
+      <c r="I143" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J143" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
+      <c r="M143" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="N143" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="O143" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P143" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
@@ -7198,22 +7808,40 @@
       <c r="X143" s="1"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="6"/>
+      <c r="A144" s="6" t="s">
+        <v>476</v>
+      </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
+      <c r="D144" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
+      <c r="I144" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>439</v>
+      </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
+      <c r="M144" s="6" t="s">
+        <v>477</v>
+      </c>
       <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
+      <c r="O144" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P144" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
@@ -7221,25 +7849,41 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
+      <c r="X144" s="6" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="6"/>
+      <c r="A145" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-      <c r="F145" s="1"/>
+      <c r="D145" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E145" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-      <c r="M145" s="1"/>
+      <c r="M145" s="6" t="s">
+        <v>480</v>
+      </c>
       <c r="N145" s="1"/>
-      <c r="O145" s="1"/>
-      <c r="P145" s="1"/>
+      <c r="O145" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P145" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
@@ -7247,25 +7891,42 @@
       <c r="U145" s="1"/>
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
-      <c r="X145" s="1"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="6"/>
+      <c r="A146" s="6" t="s">
+        <v>481</v>
+      </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
+      <c r="D146" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
+      <c r="I146" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J146" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="1"/>
+      <c r="M146" s="6" t="s">
+        <v>483</v>
+      </c>
       <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
+      <c r="O146" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P146" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
@@ -7276,22 +7937,36 @@
       <c r="X146" s="1"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="6"/>
+      <c r="A147" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
+      <c r="D147" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
+      <c r="M147" s="6" t="s">
+        <v>487</v>
+      </c>
       <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
+      <c r="O147" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P147" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
@@ -7299,25 +7974,45 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
+      <c r="X147" s="6" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="6"/>
+      <c r="A148" s="6" t="s">
+        <v>489</v>
+      </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-      <c r="F148" s="1"/>
+      <c r="D148" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
+      <c r="I148" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-      <c r="M148" s="1"/>
+      <c r="M148" s="6" t="s">
+        <v>490</v>
+      </c>
       <c r="N148" s="1"/>
-      <c r="O148" s="1"/>
-      <c r="P148" s="1"/>
+      <c r="O148" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P148" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
@@ -7328,22 +8023,40 @@
       <c r="X148" s="1"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="6"/>
+      <c r="A149" s="6" t="s">
+        <v>491</v>
+      </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="D149" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
+      <c r="I149" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>484</v>
+      </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-      <c r="M149" s="1"/>
+      <c r="M149" s="6" t="s">
+        <v>492</v>
+      </c>
       <c r="N149" s="1"/>
-      <c r="O149" s="1"/>
-      <c r="P149" s="1"/>
+      <c r="O149" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P149" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
@@ -7354,22 +8067,40 @@
       <c r="X149" s="1"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="6"/>
+      <c r="A150" s="6" t="s">
+        <v>493</v>
+      </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="D150" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
+      <c r="I150" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>479</v>
+      </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
+      <c r="M150" s="6" t="s">
+        <v>494</v>
+      </c>
       <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
+      <c r="O150" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P150" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
@@ -7380,22 +8111,36 @@
       <c r="X150" s="1"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="1"/>
+      <c r="A151" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
+      <c r="D151" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="1"/>
+      <c r="M151" s="6" t="s">
+        <v>496</v>
+      </c>
       <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="O151" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P151" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
@@ -7403,25 +8148,45 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
-      <c r="X151" s="1"/>
+      <c r="X151" s="6" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="1"/>
+      <c r="A152" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="D152" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E152" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
+      <c r="I152" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-      <c r="M152" s="1"/>
+      <c r="M152" s="6" t="s">
+        <v>499</v>
+      </c>
       <c r="N152" s="1"/>
-      <c r="O152" s="1"/>
-      <c r="P152" s="1"/>
+      <c r="O152" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P152" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
@@ -7432,22 +8197,40 @@
       <c r="X152" s="1"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="1"/>
+      <c r="A153" s="6" t="s">
+        <v>500</v>
+      </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
+      <c r="D153" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
+      <c r="I153" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>495</v>
+      </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
+      <c r="M153" s="6" t="s">
+        <v>501</v>
+      </c>
       <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
+      <c r="O153" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P153" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
@@ -7458,22 +8241,36 @@
       <c r="X153" s="1"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="1"/>
+      <c r="A154" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="D154" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-      <c r="M154" s="1"/>
+      <c r="M154" s="6" t="s">
+        <v>505</v>
+      </c>
       <c r="N154" s="1"/>
-      <c r="O154" s="1"/>
-      <c r="P154" s="1"/>
+      <c r="O154" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P154" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
@@ -7481,25 +8278,45 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
-      <c r="X154" s="1"/>
+      <c r="X154" s="6" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="1"/>
+      <c r="A155" s="6" t="s">
+        <v>507</v>
+      </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="D155" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E155" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
+      <c r="I155" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="J155" s="6" t="s">
+        <v>502</v>
+      </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
+      <c r="M155" s="6" t="s">
+        <v>508</v>
+      </c>
       <c r="N155" s="1"/>
-      <c r="O155" s="1"/>
-      <c r="P155" s="1"/>
+      <c r="O155" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P155" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
@@ -7510,22 +8327,36 @@
       <c r="X155" s="1"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="1"/>
+      <c r="A156" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-      <c r="F156" s="1"/>
+      <c r="D156" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E156" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-      <c r="M156" s="1"/>
+      <c r="M156" s="6" t="s">
+        <v>510</v>
+      </c>
       <c r="N156" s="1"/>
-      <c r="O156" s="1"/>
-      <c r="P156" s="1"/>
+      <c r="O156" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P156" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
@@ -7533,25 +8364,45 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
-      <c r="X156" s="1"/>
+      <c r="X156" s="6" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="1"/>
+      <c r="A157" s="6" t="s">
+        <v>512</v>
+      </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="D157" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E157" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
+      <c r="I157" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J157" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
+      <c r="M157" s="6" t="s">
+        <v>513</v>
+      </c>
       <c r="N157" s="1"/>
-      <c r="O157" s="1"/>
-      <c r="P157" s="1"/>
+      <c r="O157" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P157" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
@@ -7562,22 +8413,40 @@
       <c r="X157" s="1"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="1"/>
+      <c r="A158" s="6" t="s">
+        <v>514</v>
+      </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="D158" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E158" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
+      <c r="I158" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="J158" s="6" t="s">
+        <v>509</v>
+      </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-      <c r="M158" s="1"/>
+      <c r="M158" s="6" t="s">
+        <v>515</v>
+      </c>
       <c r="N158" s="1"/>
-      <c r="O158" s="1"/>
-      <c r="P158" s="1"/>
+      <c r="O158" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P158" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
@@ -7588,22 +8457,42 @@
       <c r="X158" s="1"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="1"/>
+      <c r="A159" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
+      <c r="D159" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E159" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
-      <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
+      <c r="I159" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J159" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="M159" s="1"/>
-      <c r="N159" s="1"/>
-      <c r="O159" s="1"/>
-      <c r="P159" s="1"/>
+      <c r="M159" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="O159" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P159" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
@@ -7614,22 +8503,38 @@
       <c r="X159" s="1"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="1"/>
+      <c r="A160" s="6" t="s">
+        <v>518</v>
+      </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="D160" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E160" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
+      <c r="I160" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
+      <c r="M160" s="6" t="s">
+        <v>519</v>
+      </c>
       <c r="N160" s="1"/>
-      <c r="O160" s="1"/>
-      <c r="P160" s="1"/>
+      <c r="O160" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P160" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
@@ -7640,22 +8545,38 @@
       <c r="X160" s="1"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="1"/>
+      <c r="A161" s="6" t="s">
+        <v>520</v>
+      </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="D161" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E161" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="1"/>
+      <c r="I161" s="6" t="s">
+        <v>516</v>
+      </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-      <c r="M161" s="1"/>
+      <c r="M161" s="6" t="s">
+        <v>521</v>
+      </c>
       <c r="N161" s="1"/>
-      <c r="O161" s="1"/>
-      <c r="P161" s="1"/>
+      <c r="O161" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P161" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
@@ -7666,22 +8587,42 @@
       <c r="X161" s="1"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="1"/>
+      <c r="A162" s="6" t="s">
+        <v>522</v>
+      </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="D162" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
+      <c r="I162" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-      <c r="M162" s="1"/>
-      <c r="N162" s="1"/>
-      <c r="O162" s="1"/>
-      <c r="P162" s="1"/>
+      <c r="M162" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="O162" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="P162" s="6">
+        <v>0.0</v>
+      </c>
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
@@ -7692,22 +8633,38 @@
       <c r="X162" s="1"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="1"/>
+      <c r="A163" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="D163" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
+      <c r="I163" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
+      <c r="M163" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
+      <c r="O163" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P163" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
@@ -7718,22 +8675,36 @@
       <c r="X163" s="1"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="1"/>
+      <c r="A164" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="D164" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="E164" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>530</v>
+      </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
+      <c r="M164" s="6" t="s">
+        <v>531</v>
+      </c>
       <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+      <c r="O164" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P164" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
@@ -7744,22 +8715,40 @@
       <c r="X164" s="1"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="1"/>
+      <c r="A165" s="6" t="s">
+        <v>532</v>
+      </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
+      <c r="D165" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E165" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>534</v>
+      </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
+      <c r="I165" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="J165" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
-      <c r="M165" s="1"/>
+      <c r="M165" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="N165" s="1"/>
-      <c r="O165" s="1"/>
-      <c r="P165" s="1"/>
+      <c r="O165" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P165" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
@@ -7767,25 +8756,43 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
-      <c r="X165" s="1"/>
+      <c r="X165" s="6" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="1"/>
+      <c r="A166" s="6" t="s">
+        <v>537</v>
+      </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
+      <c r="D166" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E166" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
+      <c r="I166" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
+      <c r="M166" s="6" t="s">
+        <v>539</v>
+      </c>
       <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
+      <c r="O166" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="P166" s="6">
+        <v>1.0</v>
+      </c>
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="545">
   <si>
     <t>ID</t>
   </si>
@@ -184,6 +184,9 @@
     <t>18/6/1939</t>
   </si>
   <si>
+    <t>4/10/2014</t>
+  </si>
+  <si>
     <t>I41</t>
   </si>
   <si>
@@ -1609,6 +1612,9 @@
     <t>29/3/1934</t>
   </si>
   <si>
+    <t>2/1/2015</t>
+  </si>
+  <si>
     <t>I185</t>
   </si>
   <si>
@@ -1631,6 +1637,15 @@
   </si>
   <si>
     <t>12/3/1939</t>
+  </si>
+  <si>
+    <t>I187</t>
+  </si>
+  <si>
+    <t>Фомина</t>
+  </si>
+  <si>
+    <t>1982</t>
   </si>
 </sst>
 </file>
@@ -1698,11 +1713,11 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
@@ -2108,7 +2123,9 @@
       <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="O8" s="1">
         <v>0.0</v>
       </c>
@@ -2126,16 +2143,16 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -2170,7 +2187,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>51</v>
@@ -2178,18 +2195,18 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10" s="1">
         <v>0.0</v>
@@ -2208,12 +2225,12 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>44</v>
@@ -2255,7 +2272,7 @@
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
@@ -2286,15 +2303,15 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>51</v>
@@ -2302,10 +2319,10 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -2328,31 +2345,31 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="4" t="s">
-        <v>76</v>
+      <c r="M14" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
@@ -2377,10 +2394,10 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>45</v>
@@ -2388,18 +2405,18 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="5" t="str">
+      <c r="L15" s="6" t="str">
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000001951156276","http://www.geni.com/photo/view/?photo_id=6000000001951156276")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000001951156276</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
@@ -2419,23 +2436,23 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>47</v>
@@ -2461,12 +2478,12 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>50</v>
@@ -2482,16 +2499,16 @@
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K17" s="5" t="str">
+      <c r="K17" s="6" t="str">
         <f>HYPERLINK("mailto:mi@ya.ru","mi@ya.ru")</f>
         <v>mi@ya.ru</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="L17" s="6" t="str">
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000000910785672","http://www.geni.com/photo/view/?photo_id=6000000000910785672")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000000910785672</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
@@ -2501,7 +2518,7 @@
         <v>1.0</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -2509,7 +2526,7 @@
         <v>780.0</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -2522,29 +2539,29 @@
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O18" s="1">
         <v>1.0</v>
@@ -2563,18 +2580,18 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -2587,7 +2604,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
@@ -2607,16 +2624,16 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -2625,7 +2642,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
@@ -2645,23 +2662,23 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>36</v>
@@ -2669,10 +2686,10 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O21" s="1">
         <v>0.0</v>
@@ -2691,7 +2708,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2701,8 +2718,8 @@
       <c r="E22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>110</v>
+      <c r="F22" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -2714,8 +2731,8 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="6" t="s">
-        <v>111</v>
+      <c r="M22" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
@@ -2731,13 +2748,13 @@
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="6" t="s">
-        <v>112</v>
+      <c r="X22" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2745,10 +2762,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -2772,21 +2789,21 @@
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2813,7 +2830,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2824,23 +2841,23 @@
         <v>53</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="4" t="s">
         <v>122</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="O25" s="1">
         <v>0.0</v>
@@ -2859,21 +2876,21 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>24</v>
@@ -2904,16 +2921,16 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>27</v>
@@ -2939,21 +2956,21 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>24</v>
@@ -2979,15 +2996,15 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>38</v>
@@ -2995,7 +3012,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>30</v>
@@ -3003,7 +3020,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
@@ -3023,40 +3040,40 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="I30" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="6" t="s">
-        <v>135</v>
+      <c r="M30" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O30" s="1">
         <v>0.0</v>
       </c>
-      <c r="P30" s="1">
-        <v>1.0</v>
+      <c r="P30" s="4">
+        <v>0.0</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -3069,12 +3086,12 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>50</v>
@@ -3111,31 +3128,31 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
@@ -3155,15 +3172,15 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>51</v>
@@ -3171,15 +3188,15 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
@@ -3199,7 +3216,7 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3215,10 +3232,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -3238,23 +3255,23 @@
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3281,7 +3298,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3289,10 +3306,10 @@
         <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -3319,7 +3336,7 @@
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -3327,10 +3344,10 @@
         <v>25</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3354,23 +3371,23 @@
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3397,12 +3414,12 @@
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>53</v>
@@ -3421,7 +3438,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
@@ -3441,7 +3458,7 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3465,7 +3482,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N40" s="1"/>
       <c r="O40" s="1">
@@ -3485,15 +3502,15 @@
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>51</v>
@@ -3501,18 +3518,18 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O41" s="1">
         <v>0.0</v>
@@ -3531,15 +3548,15 @@
     </row>
     <row r="42" ht="12.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>51</v>
@@ -3547,18 +3564,18 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O42" s="1">
         <v>0.0</v>
@@ -3577,15 +3594,15 @@
     </row>
     <row r="43" ht="12.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>51</v>
@@ -3593,7 +3610,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -3617,15 +3634,15 @@
     </row>
     <row r="44" ht="12.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>51</v>
@@ -3633,7 +3650,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
@@ -3657,7 +3674,7 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3665,7 +3682,7 @@
         <v>43</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>51</v>
@@ -3673,7 +3690,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
@@ -3697,15 +3714,15 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>51</v>
@@ -3713,7 +3730,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -3737,15 +3754,15 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>51</v>
@@ -3753,15 +3770,15 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N47" s="1">
         <v>1917.0</v>
@@ -3783,7 +3800,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3791,7 +3808,7 @@
         <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>51</v>
@@ -3799,15 +3816,15 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N48" s="1">
         <v>1917.0</v>
@@ -3826,20 +3843,20 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>51</v>
@@ -3847,13 +3864,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
@@ -3870,12 +3887,12 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3913,15 +3930,15 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>45</v>
@@ -3929,15 +3946,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
@@ -3957,12 +3974,12 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>44</v>
@@ -3992,20 +4009,20 @@
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" ht="12.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>51</v>
@@ -4013,10 +4030,10 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -4039,15 +4056,15 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>51</v>
@@ -4055,10 +4072,10 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -4081,15 +4098,15 @@
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>45</v>
@@ -4116,17 +4133,17 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -4139,7 +4156,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
@@ -4159,7 +4176,7 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -4170,15 +4187,15 @@
         <v>53</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -4201,26 +4218,26 @@
     </row>
     <row r="58" ht="12.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-      <c r="I58" s="6" t="s">
-        <v>203</v>
+      <c r="I58" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -4239,22 +4256,22 @@
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
-      <c r="X58" s="6" t="s">
-        <v>205</v>
+      <c r="X58" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4264,10 +4281,10 @@
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
-      <c r="O59" s="6">
+      <c r="O59" s="4">
         <v>1.0</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59" s="4">
         <v>0.0</v>
       </c>
       <c r="Q59" s="1"/>
@@ -4281,37 +4298,37 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>142</v>
+      <c r="D60" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
-      <c r="M60" s="6" t="s">
-        <v>210</v>
+      <c r="M60" s="4" t="s">
+        <v>211</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="6">
+      <c r="O60" s="4">
         <v>1.0</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60" s="4">
         <v>1.0</v>
       </c>
       <c r="Q60" s="1"/>
@@ -4325,37 +4342,37 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F61" s="6" t="s">
+      <c r="D61" s="4" t="s">
         <v>212</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J61" s="6" t="s">
         <v>214</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="6" t="s">
-        <v>215</v>
+      <c r="M61" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="6">
+      <c r="O61" s="4">
         <v>0.0</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61" s="4">
         <v>1.0</v>
       </c>
       <c r="Q61" s="1"/>
@@ -4369,31 +4386,31 @@
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="6" t="s">
-        <v>216</v>
+      <c r="D62" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="6" t="s">
-        <v>212</v>
+      <c r="F62" s="4" t="s">
+        <v>213</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
-      <c r="O62" s="6">
+      <c r="O62" s="4">
         <v>0.0</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62" s="4">
         <v>0.0</v>
       </c>
       <c r="Q62" s="1"/>
@@ -4407,16 +4424,16 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="6" t="s">
-        <v>218</v>
+      <c r="D63" s="4" t="s">
+        <v>219</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="6" t="s">
-        <v>219</v>
+      <c r="F63" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -4425,13 +4442,13 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-      <c r="N63" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="O63" s="6">
+      <c r="N63" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O63" s="4">
         <v>1.0</v>
       </c>
-      <c r="P63" s="6">
+      <c r="P63" s="4">
         <v>0.0</v>
       </c>
       <c r="Q63" s="1"/>
@@ -4441,43 +4458,43 @@
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
       <c r="W63" s="1"/>
-      <c r="X63" s="6" t="s">
-        <v>221</v>
+      <c r="X63" s="4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="F64" s="6" t="s">
-        <v>101</v>
+      <c r="E64" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
-      <c r="M64" s="6" t="s">
-        <v>226</v>
+      <c r="M64" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="6">
+      <c r="O64" s="4">
         <v>1.0</v>
       </c>
-      <c r="P64" s="6">
+      <c r="P64" s="4">
         <v>1.0</v>
       </c>
       <c r="Q64" s="1"/>
@@ -4487,43 +4504,43 @@
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
-      <c r="X64" s="6" t="s">
-        <v>227</v>
+      <c r="X64" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F65" s="6" t="s">
+      <c r="D65" s="4" t="s">
         <v>229</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
-      <c r="M65" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="N65" s="6" t="s">
+      <c r="M65" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="O65" s="6">
+      <c r="N65" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="O65" s="4">
         <v>0.0</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P65" s="4">
         <v>0.0</v>
       </c>
       <c r="Q65" s="1"/>
@@ -4537,37 +4554,37 @@
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="D66" s="4" t="s">
         <v>229</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
-      <c r="M66" s="6" t="s">
-        <v>235</v>
+      <c r="M66" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="N66" s="1"/>
-      <c r="O66" s="6">
+      <c r="O66" s="4">
         <v>0.0</v>
       </c>
-      <c r="P66" s="6">
+      <c r="P66" s="4">
         <v>1.0</v>
       </c>
       <c r="Q66" s="1"/>
@@ -4581,39 +4598,39 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E67" s="6" t="s">
+      <c r="D67" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="E67" s="4" t="s">
         <v>238</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="N67" s="6" t="s">
+      <c r="M67" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="O67" s="6">
+      <c r="N67" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="O67" s="4">
         <v>0.0</v>
       </c>
-      <c r="P67" s="6">
+      <c r="P67" s="4">
         <v>0.0</v>
       </c>
       <c r="Q67" s="1"/>
@@ -4627,18 +4644,18 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E68" s="6" t="s">
+      <c r="D68" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F68" s="6" t="s">
-        <v>238</v>
+      <c r="E68" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
@@ -4646,16 +4663,16 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="N68" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="O68" s="6">
+      <c r="M68" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="N68" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O68" s="4">
         <v>1.0</v>
       </c>
-      <c r="P68" s="6">
+      <c r="P68" s="4">
         <v>0.0</v>
       </c>
       <c r="Q68" s="1"/>
@@ -4665,22 +4682,22 @@
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="6" t="s">
-        <v>246</v>
+      <c r="X68" s="4" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="6" t="s">
-        <v>202</v>
+      <c r="D69" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="6" t="s">
-        <v>238</v>
+      <c r="F69" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -4690,10 +4707,10 @@
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="6">
+      <c r="O69" s="4">
         <v>1.0</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69" s="4">
         <v>0.0</v>
       </c>
       <c r="Q69" s="1"/>
@@ -4707,16 +4724,16 @@
     </row>
     <row r="70" ht="12.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="6" t="s">
-        <v>247</v>
+      <c r="D70" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="6" t="s">
-        <v>238</v>
+      <c r="F70" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4726,10 +4743,10 @@
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
-      <c r="O70" s="6">
+      <c r="O70" s="4">
         <v>1.0</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70" s="4">
         <v>0.0</v>
       </c>
       <c r="Q70" s="1"/>
@@ -4743,35 +4760,35 @@
     </row>
     <row r="71" ht="12.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>238</v>
+      <c r="D71" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
-      <c r="O71" s="6">
+      <c r="O71" s="4">
         <v>1.0</v>
       </c>
-      <c r="P71" s="6">
+      <c r="P71" s="4">
         <v>1.0</v>
       </c>
       <c r="Q71" s="1"/>
@@ -4781,41 +4798,41 @@
       <c r="U71" s="1"/>
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
-      <c r="X71" s="6" t="s">
-        <v>227</v>
+      <c r="X71" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F72" s="6" t="s">
-        <v>251</v>
+      <c r="D72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>252</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
-      <c r="O72" s="6">
+      <c r="O72" s="4">
         <v>1.0</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72" s="4">
         <v>1.0</v>
       </c>
       <c r="Q72" s="1"/>
@@ -4825,41 +4842,41 @@
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
-      <c r="X72" s="6" t="s">
-        <v>227</v>
+      <c r="X72" s="4" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>238</v>
+      <c r="D73" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
-      <c r="O73" s="6">
+      <c r="O73" s="4">
         <v>0.0</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73" s="4">
         <v>1.0</v>
       </c>
       <c r="Q73" s="1"/>
@@ -4873,35 +4890,35 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>238</v>
+      <c r="D74" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
-      <c r="O74" s="6">
+      <c r="O74" s="4">
         <v>0.0</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74" s="4">
         <v>0.0</v>
       </c>
       <c r="Q74" s="1"/>
@@ -4915,35 +4932,35 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="F75" s="6" t="s">
-        <v>238</v>
+      <c r="D75" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>239</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
-      <c r="O75" s="6">
+      <c r="O75" s="4">
         <v>0.0</v>
       </c>
-      <c r="P75" s="6">
+      <c r="P75" s="4">
         <v>0.0</v>
       </c>
       <c r="Q75" s="1"/>
@@ -4957,26 +4974,26 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
       <c r="D76" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K76" s="10"/>
       <c r="L76" s="10"/>
@@ -4999,34 +5016,34 @@
     </row>
     <row r="77" ht="12.75" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
       <c r="D77" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G77" s="10"/>
       <c r="H77" s="10"/>
       <c r="I77" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="10"/>
       <c r="M77" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O77" s="9">
         <v>1.0</v>
@@ -5045,16 +5062,16 @@
     </row>
     <row r="78" ht="12.75" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
       <c r="D78" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E78" s="10"/>
       <c r="F78" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -5081,18 +5098,18 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
       <c r="D79" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -5101,10 +5118,10 @@
       <c r="K79" s="10"/>
       <c r="L79" s="10"/>
       <c r="M79" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O79" s="9">
         <v>0.0</v>
@@ -5123,18 +5140,18 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
       <c r="D80" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G80" s="10"/>
       <c r="H80" s="10"/>
@@ -5143,10 +5160,10 @@
       <c r="K80" s="10"/>
       <c r="L80" s="10"/>
       <c r="M80" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N80" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O80" s="9">
         <v>1.0</v>
@@ -5165,27 +5182,27 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
       <c r="D81" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E81" s="10"/>
       <c r="F81" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G81" s="10"/>
       <c r="H81" s="10"/>
       <c r="I81" s="10"/>
       <c r="J81" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K81" s="10"/>
       <c r="L81" s="10"/>
       <c r="M81" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N81" s="10"/>
       <c r="O81" s="9">
@@ -5202,34 +5219,34 @@
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
       <c r="X81" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G82" s="10"/>
       <c r="H82" s="10"/>
       <c r="I82" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K82" s="10"/>
       <c r="L82" s="10"/>
       <c r="M82" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N82" s="10"/>
       <c r="O82" s="9">
@@ -5249,26 +5266,26 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G83" s="10"/>
       <c r="H83" s="10"/>
       <c r="I83" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K83" s="10"/>
       <c r="L83" s="10"/>
@@ -5291,26 +5308,26 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G84" s="10"/>
       <c r="H84" s="10"/>
       <c r="I84" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K84" s="10"/>
       <c r="L84" s="10"/>
@@ -5333,18 +5350,18 @@
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G85" s="10"/>
       <c r="H85" s="10"/>
@@ -5371,7 +5388,7 @@
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
@@ -5380,7 +5397,7 @@
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G86" s="10"/>
       <c r="H86" s="10"/>
@@ -5406,24 +5423,24 @@
       <c r="X86" s="10"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="6" t="s">
-        <v>288</v>
+      <c r="A87" s="4" t="s">
+        <v>289</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E87" s="6" t="s">
+      <c r="D87" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="E87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
-      <c r="I87" s="6" t="s">
-        <v>291</v>
+      <c r="I87" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>42</v>
@@ -5432,10 +5449,10 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
-      <c r="O87" s="6">
+      <c r="O87" s="4">
         <v>1.0</v>
       </c>
-      <c r="P87" s="6">
+      <c r="P87" s="4">
         <v>1.0</v>
       </c>
       <c r="Q87" s="1"/>
@@ -5448,17 +5465,17 @@
       <c r="X87" s="1"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="6" t="s">
-        <v>292</v>
+      <c r="A88" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="6" t="s">
-        <v>293</v>
+      <c r="D88" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="6" t="s">
-        <v>294</v>
+      <c r="F88" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
@@ -5468,10 +5485,10 @@
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
-      <c r="O88" s="6">
+      <c r="O88" s="4">
         <v>0.0</v>
       </c>
-      <c r="P88" s="6">
+      <c r="P88" s="4">
         <v>1.0</v>
       </c>
       <c r="Q88" s="1"/>
@@ -5484,38 +5501,38 @@
       <c r="X88" s="1"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="6" t="s">
-        <v>295</v>
+      <c r="A89" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="D89" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="E89" s="4" t="s">
         <v>298</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
-      <c r="I89" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="J89" s="6" t="s">
+      <c r="I89" s="4" t="s">
         <v>300</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="6" t="s">
-        <v>301</v>
+      <c r="M89" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="N89" s="1"/>
-      <c r="O89" s="6">
+      <c r="O89" s="4">
         <v>0.0</v>
       </c>
-      <c r="P89" s="6">
+      <c r="P89" s="4">
         <v>1.0</v>
       </c>
       <c r="Q89" s="1"/>
@@ -5528,38 +5545,38 @@
       <c r="X89" s="1"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="6" t="s">
-        <v>302</v>
+      <c r="A90" s="4" t="s">
+        <v>303</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E90" s="6" t="s">
+      <c r="D90" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="E90" s="4" t="s">
         <v>305</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
-      <c r="I90" s="6" t="s">
-        <v>295</v>
+      <c r="I90" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="6" t="s">
-        <v>306</v>
+      <c r="M90" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="N90" s="1"/>
-      <c r="O90" s="6">
+      <c r="O90" s="4">
         <v>1.0</v>
       </c>
-      <c r="P90" s="6">
+      <c r="P90" s="4">
         <v>1.0</v>
       </c>
       <c r="Q90" s="1"/>
@@ -5572,38 +5589,38 @@
       <c r="X90" s="1"/>
     </row>
     <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="6" t="s">
-        <v>307</v>
+      <c r="A91" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="D91" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E91" s="4" t="s">
         <v>305</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
-      <c r="I91" s="6" t="s">
-        <v>295</v>
+      <c r="I91" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="6" t="s">
-        <v>309</v>
+      <c r="M91" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="N91" s="1"/>
-      <c r="O91" s="6">
+      <c r="O91" s="4">
         <v>1.0</v>
       </c>
-      <c r="P91" s="6">
+      <c r="P91" s="4">
         <v>1.0</v>
       </c>
       <c r="Q91" s="1"/>
@@ -5616,19 +5633,19 @@
       <c r="X91" s="1"/>
     </row>
     <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="6" t="s">
-        <v>300</v>
+      <c r="A92" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F92" s="6" t="s">
+      <c r="D92" s="4" t="s">
         <v>311</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5638,10 +5655,10 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="6">
+      <c r="O92" s="4">
         <v>1.0</v>
       </c>
-      <c r="P92" s="6">
+      <c r="P92" s="4">
         <v>1.0</v>
       </c>
       <c r="Q92" s="1"/>
@@ -5651,39 +5668,39 @@
       <c r="U92" s="1"/>
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
-      <c r="X92" s="6" t="s">
-        <v>312</v>
+      <c r="X92" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="6" t="s">
-        <v>313</v>
+      <c r="A93" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="6" t="s">
+      <c r="D93" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F93" s="6" t="s">
-        <v>314</v>
+      <c r="F93" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
-      <c r="O93" s="6">
+      <c r="O93" s="4">
         <v>0.0</v>
       </c>
-      <c r="P93" s="6">
+      <c r="P93" s="4">
         <v>1.0</v>
       </c>
       <c r="Q93" s="1"/>
@@ -5696,34 +5713,34 @@
       <c r="X93" s="1"/>
     </row>
     <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="6" t="s">
-        <v>315</v>
+      <c r="A94" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="E94" s="6" t="s">
+      <c r="D94" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F94" s="6" t="s">
-        <v>314</v>
+      <c r="E94" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
-      <c r="O94" s="6">
+      <c r="O94" s="4">
         <v>0.0</v>
       </c>
-      <c r="P94" s="6">
+      <c r="P94" s="4">
         <v>1.0</v>
       </c>
       <c r="Q94" s="1"/>
@@ -5736,36 +5753,36 @@
       <c r="X94" s="1"/>
     </row>
     <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="6" t="s">
-        <v>318</v>
+      <c r="A95" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" s="6" t="s">
+      <c r="D95" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="E95" s="4" t="s">
         <v>321</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
-      <c r="I95" s="6" t="s">
-        <v>322</v>
+      <c r="I95" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="6">
+      <c r="O95" s="4">
         <v>0.0</v>
       </c>
-      <c r="P95" s="6">
+      <c r="P95" s="4">
         <v>1.0</v>
       </c>
       <c r="Q95" s="1"/>
@@ -5778,36 +5795,36 @@
       <c r="X95" s="1"/>
     </row>
     <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>323</v>
+      <c r="A96" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="E96" s="4" t="s">
         <v>325</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>326</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="6" t="s">
-        <v>322</v>
+      <c r="I96" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
-      <c r="O96" s="6">
+      <c r="O96" s="4">
         <v>1.0</v>
       </c>
-      <c r="P96" s="6">
+      <c r="P96" s="4">
         <v>1.0</v>
       </c>
       <c r="Q96" s="1"/>
@@ -5820,17 +5837,17 @@
       <c r="X96" s="1"/>
     </row>
     <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="6" t="s">
-        <v>322</v>
+      <c r="A97" s="4" t="s">
+        <v>323</v>
       </c>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="6" t="s">
-        <v>195</v>
+      <c r="D97" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E97" s="1"/>
-      <c r="F97" s="6" t="s">
-        <v>326</v>
+      <c r="F97" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1"/>
@@ -5840,10 +5857,10 @@
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
-      <c r="O97" s="6">
+      <c r="O97" s="4">
         <v>0.0</v>
       </c>
-      <c r="P97" s="6">
+      <c r="P97" s="4">
         <v>1.0</v>
       </c>
       <c r="Q97" s="1"/>
@@ -5856,19 +5873,19 @@
       <c r="X97" s="1"/>
     </row>
     <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="6" t="s">
-        <v>299</v>
+      <c r="A98" s="4" t="s">
+        <v>300</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="6" t="s">
-        <v>298</v>
+      <c r="D98" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
@@ -5878,10 +5895,10 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
-      <c r="O98" s="6">
+      <c r="O98" s="4">
         <v>0.0</v>
       </c>
-      <c r="P98" s="6">
+      <c r="P98" s="4">
         <v>0.0</v>
       </c>
       <c r="Q98" s="1"/>
@@ -5894,19 +5911,19 @@
       <c r="X98" s="1"/>
     </row>
     <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="6" t="s">
-        <v>214</v>
+      <c r="A99" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="E99" s="6" t="s">
+      <c r="D99" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F99" s="6" t="s">
-        <v>142</v>
+      <c r="E99" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1"/>
@@ -5914,14 +5931,14 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="6" t="s">
-        <v>330</v>
+      <c r="M99" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="N99" s="1"/>
-      <c r="O99" s="6">
+      <c r="O99" s="4">
         <v>1.0</v>
       </c>
-      <c r="P99" s="6">
+      <c r="P99" s="4">
         <v>1.0</v>
       </c>
       <c r="Q99" s="1"/>
@@ -5931,43 +5948,43 @@
       <c r="U99" s="1"/>
       <c r="V99" s="1"/>
       <c r="W99" s="1"/>
-      <c r="X99" s="6" t="s">
-        <v>331</v>
+      <c r="X99" s="4" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="6" t="s">
-        <v>332</v>
+      <c r="A100" s="4" t="s">
+        <v>333</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F100" s="6" t="s">
+      <c r="D100" s="4" t="s">
         <v>334</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>335</v>
+        <v>234</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="6" t="s">
-        <v>336</v>
+      <c r="M100" s="4" t="s">
+        <v>337</v>
       </c>
       <c r="N100" s="1"/>
-      <c r="O100" s="6">
+      <c r="O100" s="4">
         <v>0.0</v>
       </c>
-      <c r="P100" s="6">
+      <c r="P100" s="4">
         <v>1.0</v>
       </c>
       <c r="Q100" s="1"/>
@@ -5980,38 +5997,38 @@
       <c r="X100" s="1"/>
     </row>
     <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>337</v>
+      <c r="A101" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F101" s="6" t="s">
-        <v>338</v>
+      <c r="D101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>339</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="J101" s="6" t="s">
-        <v>339</v>
+        <v>234</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="6" t="s">
-        <v>340</v>
+      <c r="M101" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="N101" s="1"/>
-      <c r="O101" s="6">
+      <c r="O101" s="4">
         <v>0.0</v>
       </c>
-      <c r="P101" s="6">
+      <c r="P101" s="4">
         <v>1.0</v>
       </c>
       <c r="Q101" s="1"/>
@@ -6024,17 +6041,17 @@
       <c r="X101" s="1"/>
     </row>
     <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>335</v>
+      <c r="A102" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
-      <c r="D102" s="6" t="s">
-        <v>341</v>
+      <c r="D102" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="6" t="s">
-        <v>342</v>
+      <c r="F102" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
@@ -6042,14 +6059,14 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="6" t="s">
-        <v>343</v>
+      <c r="M102" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="N102" s="1"/>
-      <c r="O102" s="6">
+      <c r="O102" s="4">
         <v>1.0</v>
       </c>
-      <c r="P102" s="6">
+      <c r="P102" s="4">
         <v>1.0</v>
       </c>
       <c r="Q102" s="1"/>
@@ -6062,17 +6079,17 @@
       <c r="X102" s="1"/>
     </row>
     <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>339</v>
+      <c r="A103" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
-      <c r="D103" s="6" t="s">
-        <v>344</v>
+      <c r="D103" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="6" t="s">
-        <v>345</v>
+      <c r="F103" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
@@ -6082,10 +6099,10 @@
       <c r="L103" s="1"/>
       <c r="M103" s="1"/>
       <c r="N103" s="1"/>
-      <c r="O103" s="6">
+      <c r="O103" s="4">
         <v>1.0</v>
       </c>
-      <c r="P103" s="6">
+      <c r="P103" s="4">
         <v>1.0</v>
       </c>
       <c r="Q103" s="1"/>
@@ -6098,38 +6115,38 @@
       <c r="X103" s="1"/>
     </row>
     <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="6" t="s">
-        <v>346</v>
+      <c r="A104" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
-      <c r="D104" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F104" s="6" t="s">
+      <c r="D104" s="4" t="s">
         <v>348</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
-      <c r="I104" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="J104" s="6" t="s">
+      <c r="I104" s="4" t="s">
         <v>350</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
-      <c r="M104" s="6" t="s">
-        <v>351</v>
+      <c r="M104" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="N104" s="1"/>
-      <c r="O104" s="6">
+      <c r="O104" s="4">
         <v>0.0</v>
       </c>
-      <c r="P104" s="6">
+      <c r="P104" s="4">
         <v>1.0</v>
       </c>
       <c r="Q104" s="1"/>
@@ -6142,38 +6159,38 @@
       <c r="X104" s="1"/>
     </row>
     <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>349</v>
+      <c r="A105" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
-      <c r="D105" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="F105" s="6" t="s">
+      <c r="D105" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>353</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
-      <c r="I105" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J105" s="6" t="s">
+      <c r="I105" s="4" t="s">
         <v>355</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
-      <c r="M105" s="6" t="s">
-        <v>356</v>
+      <c r="M105" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="N105" s="1"/>
-      <c r="O105" s="6">
+      <c r="O105" s="4">
         <v>0.0</v>
       </c>
-      <c r="P105" s="6">
+      <c r="P105" s="4">
         <v>1.0</v>
       </c>
       <c r="Q105" s="1"/>
@@ -6186,38 +6203,38 @@
       <c r="X105" s="1"/>
     </row>
     <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>350</v>
+      <c r="A106" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="D106" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E106" s="4" t="s">
         <v>358</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
-      <c r="I106" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="J106" s="6" t="s">
+      <c r="I106" s="4" t="s">
         <v>360</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
-      <c r="M106" s="6" t="s">
-        <v>361</v>
+      <c r="M106" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="N106" s="1"/>
-      <c r="O106" s="6">
+      <c r="O106" s="4">
         <v>1.0</v>
       </c>
-      <c r="P106" s="6">
+      <c r="P106" s="4">
         <v>1.0</v>
       </c>
       <c r="Q106" s="1"/>
@@ -6227,24 +6244,24 @@
       <c r="U106" s="1"/>
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
-      <c r="X106" s="6" t="s">
-        <v>362</v>
+      <c r="X106" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>360</v>
+      <c r="A107" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
-      <c r="D107" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E107" s="6" t="s">
+      <c r="D107" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E107" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F107" s="6" t="s">
-        <v>363</v>
+      <c r="F107" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6252,14 +6269,14 @@
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
-      <c r="M107" s="6" t="s">
-        <v>364</v>
+      <c r="M107" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="N107" s="1"/>
-      <c r="O107" s="6">
+      <c r="O107" s="4">
         <v>1.0</v>
       </c>
-      <c r="P107" s="6">
+      <c r="P107" s="4">
         <v>1.0</v>
       </c>
       <c r="Q107" s="1"/>
@@ -6269,24 +6286,24 @@
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
-      <c r="X107" s="6" t="s">
-        <v>365</v>
+      <c r="X107" s="4" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="6" t="s">
-        <v>359</v>
+      <c r="A108" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
-      <c r="D108" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="F108" s="6" t="s">
-        <v>363</v>
+      <c r="D108" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6294,16 +6311,16 @@
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
-      <c r="M108" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="N108" s="6" t="s">
+      <c r="M108" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="O108" s="6">
+      <c r="N108" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="O108" s="4">
         <v>0.0</v>
       </c>
-      <c r="P108" s="6">
+      <c r="P108" s="4">
         <v>0.0</v>
       </c>
       <c r="Q108" s="1"/>
@@ -6316,19 +6333,19 @@
       <c r="X108" s="1"/>
     </row>
     <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="6" t="s">
-        <v>354</v>
+      <c r="A109" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
-      <c r="D109" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="E109" s="6" t="s">
+      <c r="D109" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="F109" s="6" t="s">
-        <v>353</v>
+      <c r="E109" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6336,16 +6353,16 @@
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
-      <c r="M109" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="N109" s="6" t="s">
+      <c r="M109" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="O109" s="6">
+      <c r="N109" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="O109" s="4">
         <v>0.0</v>
       </c>
-      <c r="P109" s="6">
+      <c r="P109" s="4">
         <v>0.0</v>
       </c>
       <c r="Q109" s="1"/>
@@ -6358,19 +6375,19 @@
       <c r="X109" s="1"/>
     </row>
     <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="6" t="s">
-        <v>355</v>
+      <c r="A110" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
-      <c r="D110" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="D110" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>374</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6380,10 +6397,10 @@
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
-      <c r="O110" s="6">
+      <c r="O110" s="4">
         <v>1.0</v>
       </c>
-      <c r="P110" s="6">
+      <c r="P110" s="4">
         <v>0.0</v>
       </c>
       <c r="Q110" s="1"/>
@@ -6393,43 +6410,43 @@
       <c r="U110" s="1"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
-      <c r="X110" s="6" t="s">
-        <v>375</v>
+      <c r="X110" s="4" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="6" t="s">
-        <v>376</v>
+      <c r="A111" s="4" t="s">
+        <v>377</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
-      <c r="D111" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="D111" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="F111" s="6" t="s">
-        <v>353</v>
+      <c r="E111" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
-      <c r="I111" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J111" s="6" t="s">
+      <c r="I111" s="4" t="s">
         <v>355</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
-      <c r="M111" s="6" t="s">
-        <v>379</v>
+      <c r="M111" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="N111" s="1"/>
-      <c r="O111" s="6">
+      <c r="O111" s="4">
         <v>0.0</v>
       </c>
-      <c r="P111" s="6">
+      <c r="P111" s="4">
         <v>1.0</v>
       </c>
       <c r="Q111" s="1"/>
@@ -6442,40 +6459,40 @@
       <c r="X111" s="1"/>
     </row>
     <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="6" t="s">
-        <v>380</v>
+      <c r="A112" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
-      <c r="D112" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="E112" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="F112" s="6" t="s">
-        <v>353</v>
+      <c r="D112" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
-      <c r="I112" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="J112" s="6" t="s">
+      <c r="I112" s="4" t="s">
         <v>355</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="N112" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="O112" s="6">
+      <c r="M112" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="O112" s="4">
         <v>0.0</v>
       </c>
-      <c r="P112" s="6">
+      <c r="P112" s="4">
         <v>0.0</v>
       </c>
       <c r="Q112" s="1"/>
@@ -6488,38 +6505,38 @@
       <c r="X112" s="1"/>
     </row>
     <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="6" t="s">
-        <v>383</v>
+      <c r="A113" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
-      <c r="D113" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="E113" s="6" t="s">
+      <c r="D113" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="E113" s="4" t="s">
         <v>386</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
-      <c r="M113" s="6" t="s">
-        <v>387</v>
+      <c r="M113" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="N113" s="1"/>
-      <c r="O113" s="6">
+      <c r="O113" s="4">
         <v>0.0</v>
       </c>
-      <c r="P113" s="6">
+      <c r="P113" s="4">
         <v>1.0</v>
       </c>
       <c r="Q113" s="1"/>
@@ -6532,38 +6549,38 @@
       <c r="X113" s="1"/>
     </row>
     <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="6" t="s">
-        <v>388</v>
+      <c r="A114" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
-      <c r="D114" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E114" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="F114" s="6" t="s">
+      <c r="D114" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>386</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="6" t="s">
-        <v>390</v>
+      <c r="M114" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="N114" s="1"/>
-      <c r="O114" s="6">
+      <c r="O114" s="4">
         <v>0.0</v>
       </c>
-      <c r="P114" s="6">
+      <c r="P114" s="4">
         <v>1.0</v>
       </c>
       <c r="Q114" s="1"/>
@@ -6576,38 +6593,38 @@
       <c r="X114" s="1"/>
     </row>
     <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="6" t="s">
-        <v>391</v>
+      <c r="A115" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
-      <c r="D115" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="F115" s="6" t="s">
-        <v>392</v>
+      <c r="D115" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
-      <c r="I115" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="J115" s="6" t="s">
+      <c r="I115" s="4" t="s">
         <v>394</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="6" t="s">
-        <v>395</v>
+      <c r="M115" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="N115" s="1"/>
-      <c r="O115" s="6">
+      <c r="O115" s="4">
         <v>0.0</v>
       </c>
-      <c r="P115" s="6">
+      <c r="P115" s="4">
         <v>1.0</v>
       </c>
       <c r="Q115" s="1"/>
@@ -6620,36 +6637,36 @@
       <c r="X115" s="1"/>
     </row>
     <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="6" t="s">
-        <v>396</v>
+      <c r="A116" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
-      <c r="D116" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="E116" s="6" t="s">
+      <c r="D116" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="E116" s="4" t="s">
         <v>399</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
-      <c r="I116" s="6" t="s">
-        <v>391</v>
+      <c r="I116" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="6" t="s">
-        <v>400</v>
+      <c r="M116" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="N116" s="1"/>
-      <c r="O116" s="6">
+      <c r="O116" s="4">
         <v>1.0</v>
       </c>
-      <c r="P116" s="6">
+      <c r="P116" s="4">
         <v>1.0</v>
       </c>
       <c r="Q116" s="1"/>
@@ -6662,19 +6679,19 @@
       <c r="X116" s="1"/>
     </row>
     <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>401</v>
+      <c r="A117" s="4" t="s">
+        <v>402</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
-      <c r="D117" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="F117" s="6" t="s">
-        <v>399</v>
+      <c r="D117" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6684,10 +6701,10 @@
       <c r="L117" s="1"/>
       <c r="M117" s="1"/>
       <c r="N117" s="1"/>
-      <c r="O117" s="6">
+      <c r="O117" s="4">
         <v>1.0</v>
       </c>
-      <c r="P117" s="6">
+      <c r="P117" s="4">
         <v>1.0</v>
       </c>
       <c r="Q117" s="1"/>
@@ -6700,19 +6717,19 @@
       <c r="X117" s="1"/>
     </row>
     <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="6" t="s">
-        <v>393</v>
+      <c r="A118" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
-      <c r="D118" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="E118" s="6" t="s">
+      <c r="D118" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="E118" s="4" t="s">
         <v>405</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>406</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6722,10 +6739,10 @@
       <c r="L118" s="1"/>
       <c r="M118" s="1"/>
       <c r="N118" s="1"/>
-      <c r="O118" s="6">
+      <c r="O118" s="4">
         <v>0.0</v>
       </c>
-      <c r="P118" s="6">
+      <c r="P118" s="4">
         <v>1.0</v>
       </c>
       <c r="Q118" s="1"/>
@@ -6738,19 +6755,19 @@
       <c r="X118" s="1"/>
     </row>
     <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>133</v>
+      <c r="A119" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
-      <c r="D119" s="6" t="s">
-        <v>216</v>
+      <c r="D119" s="4" t="s">
+        <v>217</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F119" s="6" t="s">
-        <v>105</v>
+        <v>61</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
@@ -6758,16 +6775,16 @@
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
-      <c r="M119" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="N119" s="6" t="s">
+      <c r="M119" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="O119" s="6">
+      <c r="N119" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="O119" s="4">
         <v>0.0</v>
       </c>
-      <c r="P119" s="6">
+      <c r="P119" s="4">
         <v>0.0</v>
       </c>
       <c r="Q119" s="1"/>
@@ -6780,40 +6797,40 @@
       <c r="X119" s="1"/>
     </row>
     <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>134</v>
+      <c r="A120" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
-      <c r="D120" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="F120" s="6" t="s">
+      <c r="D120" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F120" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
-      <c r="I120" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="J120" s="6" t="s">
+      <c r="I120" s="4" t="s">
         <v>409</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
-      <c r="M120" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="N120" s="6" t="s">
+      <c r="M120" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="O120" s="6">
+      <c r="N120" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="O120" s="4">
         <v>1.0</v>
       </c>
-      <c r="P120" s="6">
+      <c r="P120" s="4">
         <v>0.0</v>
       </c>
       <c r="Q120" s="1"/>
@@ -6824,44 +6841,44 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="13" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>413</v>
+      <c r="A121" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
-      <c r="D121" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F121" s="6" t="s">
-        <v>105</v>
+      <c r="D121" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J121" s="6" t="s">
+      <c r="I121" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="6" t="s">
-        <v>414</v>
+      <c r="M121" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="O121" s="6">
+        <v>416</v>
+      </c>
+      <c r="O121" s="4">
         <v>0.0</v>
       </c>
-      <c r="P121" s="6">
+      <c r="P121" s="4">
         <v>0.0</v>
       </c>
       <c r="Q121" s="1"/>
@@ -6874,40 +6891,40 @@
       <c r="X121" s="1"/>
     </row>
     <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="6" t="s">
-        <v>416</v>
+      <c r="A122" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
-      <c r="D122" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>105</v>
+      <c r="D122" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
-      <c r="I122" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J122" s="6" t="s">
+      <c r="I122" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="N122" s="6" t="s">
+      <c r="M122" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="O122" s="6">
+      <c r="N122" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O122" s="4">
         <v>0.0</v>
       </c>
-      <c r="P122" s="6">
+      <c r="P122" s="4">
         <v>0.0</v>
       </c>
       <c r="Q122" s="1"/>
@@ -6920,40 +6937,40 @@
       <c r="X122" s="1"/>
     </row>
     <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="6" t="s">
-        <v>419</v>
+      <c r="A123" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
-      <c r="D123" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E123" s="6" t="s">
+      <c r="D123" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="E123" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F123" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
-      <c r="I123" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J123" s="6" t="s">
+      <c r="I123" s="4" t="s">
         <v>134</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
-      <c r="M123" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="N123" s="6" t="s">
+      <c r="M123" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="O123" s="6">
+      <c r="N123" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="O123" s="4">
         <v>0.0</v>
       </c>
-      <c r="P123" s="6">
+      <c r="P123" s="4">
         <v>0.0</v>
       </c>
       <c r="Q123" s="1"/>
@@ -6966,19 +6983,19 @@
       <c r="X123" s="1"/>
     </row>
     <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="6" t="s">
-        <v>408</v>
+      <c r="A124" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
-      <c r="D124" s="6" t="s">
-        <v>131</v>
+      <c r="D124" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -6988,10 +7005,10 @@
       <c r="L124" s="1"/>
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
-      <c r="O124" s="6">
+      <c r="O124" s="4">
         <v>0.0</v>
       </c>
-      <c r="P124" s="6">
+      <c r="P124" s="4">
         <v>0.0</v>
       </c>
       <c r="Q124" s="1"/>
@@ -7004,19 +7021,19 @@
       <c r="X124" s="1"/>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>409</v>
+      <c r="A125" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
-      <c r="D125" s="6" t="s">
-        <v>426</v>
+      <c r="D125" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7026,10 +7043,10 @@
       <c r="L125" s="1"/>
       <c r="M125" s="1"/>
       <c r="N125" s="1"/>
-      <c r="O125" s="6">
+      <c r="O125" s="4">
         <v>1.0</v>
       </c>
-      <c r="P125" s="6">
+      <c r="P125" s="4">
         <v>0.0</v>
       </c>
       <c r="Q125" s="1"/>
@@ -7040,21 +7057,21 @@
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
       <c r="X125" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>203</v>
+      <c r="A126" s="4" t="s">
+        <v>204</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
-      <c r="D126" s="6" t="s">
-        <v>67</v>
+      <c r="D126" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="6" t="s">
-        <v>429</v>
+      <c r="F126" s="4" t="s">
+        <v>430</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -7064,10 +7081,10 @@
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
-      <c r="O126" s="6">
+      <c r="O126" s="4">
         <v>0.0</v>
       </c>
-      <c r="P126" s="6">
+      <c r="P126" s="4">
         <v>0.0</v>
       </c>
       <c r="Q126" s="1"/>
@@ -7080,19 +7097,19 @@
       <c r="X126" s="1"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>430</v>
+      <c r="A127" s="4" t="s">
+        <v>431</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
-      <c r="D127" s="6" t="s">
+      <c r="D127" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E127" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F127" s="6" t="s">
-        <v>431</v>
+      <c r="E127" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7102,10 +7119,10 @@
       <c r="L127" s="1"/>
       <c r="M127" s="1"/>
       <c r="N127" s="1"/>
-      <c r="O127" s="6">
+      <c r="O127" s="4">
         <v>0.0</v>
       </c>
-      <c r="P127" s="6">
+      <c r="P127" s="4">
         <v>0.0</v>
       </c>
       <c r="Q127" s="1"/>
@@ -7118,19 +7135,19 @@
       <c r="X127" s="1"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="6" t="s">
-        <v>432</v>
+      <c r="A128" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
-      <c r="D128" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="E128" s="6" t="s">
+      <c r="D128" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E128" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F128" s="6" t="s">
-        <v>434</v>
+      <c r="F128" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7140,10 +7157,10 @@
       <c r="L128" s="1"/>
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
-      <c r="O128" s="6">
+      <c r="O128" s="4">
         <v>1.0</v>
       </c>
-      <c r="P128" s="6">
+      <c r="P128" s="4">
         <v>0.0</v>
       </c>
       <c r="Q128" s="1"/>
@@ -7153,45 +7170,45 @@
       <c r="U128" s="1"/>
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
-      <c r="X128" s="6" t="s">
-        <v>435</v>
+      <c r="X128" s="4" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>436</v>
+      <c r="A129" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
-      <c r="D129" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F129" s="6" t="s">
+      <c r="D129" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E129" s="4" t="s">
         <v>105</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J129" s="6" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
-      <c r="M129" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="N129" s="6" t="s">
+      <c r="M129" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="O129" s="6">
+      <c r="N129" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="O129" s="4">
         <v>0.0</v>
       </c>
-      <c r="P129" s="6">
+      <c r="P129" s="4">
         <v>0.0</v>
       </c>
       <c r="Q129" s="1"/>
@@ -7204,18 +7221,18 @@
       <c r="X129" s="1"/>
     </row>
     <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>439</v>
+      <c r="A130" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
-      <c r="D130" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="E130" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F130" s="6" t="s">
+      <c r="D130" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G130" s="1"/>
@@ -7226,10 +7243,10 @@
       <c r="L130" s="1"/>
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
-      <c r="O130" s="6">
+      <c r="O130" s="4">
         <v>0.0</v>
       </c>
-      <c r="P130" s="6">
+      <c r="P130" s="4">
         <v>0.0</v>
       </c>
       <c r="Q130" s="1"/>
@@ -7239,43 +7256,43 @@
       <c r="U130" s="1"/>
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
-      <c r="X130" s="6" t="s">
-        <v>440</v>
+      <c r="X130" s="4" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="6" t="s">
-        <v>441</v>
+      <c r="A131" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
-      <c r="D131" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F131" s="6" t="s">
-        <v>105</v>
+      <c r="D131" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>439</v>
+      <c r="I131" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="6" t="s">
-        <v>442</v>
+      <c r="M131" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="N131" s="1"/>
-      <c r="O131" s="6">
+      <c r="O131" s="4">
         <v>0.0</v>
       </c>
-      <c r="P131" s="6">
+      <c r="P131" s="4">
         <v>1.0</v>
       </c>
       <c r="Q131" s="1"/>
@@ -7288,18 +7305,18 @@
       <c r="X131" s="1"/>
     </row>
     <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="6" t="s">
-        <v>443</v>
+      <c r="A132" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
-      <c r="D132" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E132" s="6" t="s">
+      <c r="D132" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G132" s="1"/>
@@ -7308,14 +7325,14 @@
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
-      <c r="M132" s="6" t="s">
-        <v>444</v>
+      <c r="M132" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="N132" s="1"/>
-      <c r="O132" s="6">
+      <c r="O132" s="4">
         <v>1.0</v>
       </c>
-      <c r="P132" s="6">
+      <c r="P132" s="4">
         <v>1.0</v>
       </c>
       <c r="Q132" s="1"/>
@@ -7325,43 +7342,43 @@
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
-      <c r="X132" s="6" t="s">
-        <v>445</v>
+      <c r="X132" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="6" t="s">
-        <v>446</v>
+      <c r="A133" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
-      <c r="D133" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F133" s="6" t="s">
+      <c r="D133" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E133" s="4" t="s">
         <v>105</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
-      <c r="I133" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="J133" s="6" t="s">
-        <v>443</v>
+      <c r="I133" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
-      <c r="M133" s="6" t="s">
-        <v>447</v>
+      <c r="M133" s="4" t="s">
+        <v>448</v>
       </c>
       <c r="N133" s="1"/>
-      <c r="O133" s="6">
+      <c r="O133" s="4">
         <v>0.0</v>
       </c>
-      <c r="P133" s="6">
+      <c r="P133" s="4">
         <v>1.0</v>
       </c>
       <c r="Q133" s="1"/>
@@ -7374,18 +7391,18 @@
       <c r="X133" s="1"/>
     </row>
     <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="6" t="s">
-        <v>448</v>
+      <c r="A134" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
-      <c r="D134" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="F134" s="6" t="s">
+      <c r="D134" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="F134" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G134" s="1"/>
@@ -7394,14 +7411,14 @@
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
-      <c r="M134" s="6" t="s">
-        <v>450</v>
+      <c r="M134" s="4" t="s">
+        <v>451</v>
       </c>
       <c r="N134" s="1"/>
-      <c r="O134" s="6">
+      <c r="O134" s="4">
         <v>1.0</v>
       </c>
-      <c r="P134" s="6">
+      <c r="P134" s="4">
         <v>1.0</v>
       </c>
       <c r="Q134" s="1"/>
@@ -7411,43 +7428,43 @@
       <c r="U134" s="1"/>
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
-      <c r="X134" s="6" t="s">
-        <v>451</v>
+      <c r="X134" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="6" t="s">
-        <v>452</v>
+      <c r="A135" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
-      <c r="D135" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>105</v>
+      <c r="D135" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
-      <c r="I135" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>448</v>
+      <c r="I135" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
-      <c r="M135" s="6" t="s">
-        <v>453</v>
+      <c r="M135" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="N135" s="1"/>
-      <c r="O135" s="6">
+      <c r="O135" s="4">
         <v>0.0</v>
       </c>
-      <c r="P135" s="6">
+      <c r="P135" s="4">
         <v>1.0</v>
       </c>
       <c r="Q135" s="1"/>
@@ -7460,38 +7477,38 @@
       <c r="X135" s="1"/>
     </row>
     <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="6" t="s">
-        <v>454</v>
+      <c r="A136" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
-      <c r="D136" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F136" s="6" t="s">
-        <v>105</v>
+      <c r="D136" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
-      <c r="I136" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>448</v>
+      <c r="I136" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
-      <c r="M136" s="6" t="s">
-        <v>455</v>
+      <c r="M136" s="4" t="s">
+        <v>456</v>
       </c>
       <c r="N136" s="1"/>
-      <c r="O136" s="6">
+      <c r="O136" s="4">
         <v>0.0</v>
       </c>
-      <c r="P136" s="6">
+      <c r="P136" s="4">
         <v>1.0</v>
       </c>
       <c r="Q136" s="1"/>
@@ -7504,38 +7521,38 @@
       <c r="X136" s="1"/>
     </row>
     <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>456</v>
+      <c r="A137" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
-      <c r="D137" s="6" t="s">
-        <v>457</v>
-      </c>
-      <c r="E137" s="6" t="s">
+      <c r="D137" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="E137" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
-      <c r="I137" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="J137" s="6" t="s">
-        <v>448</v>
+      <c r="I137" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
-      <c r="M137" s="6" t="s">
-        <v>458</v>
+      <c r="M137" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="N137" s="1"/>
-      <c r="O137" s="6">
+      <c r="O137" s="4">
         <v>1.0</v>
       </c>
-      <c r="P137" s="6">
+      <c r="P137" s="4">
         <v>1.0</v>
       </c>
       <c r="Q137" s="1"/>
@@ -7548,38 +7565,38 @@
       <c r="X137" s="1"/>
     </row>
     <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="6" t="s">
-        <v>459</v>
+      <c r="A138" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
-      <c r="D138" s="6" t="s">
+      <c r="D138" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F138" s="6" t="s">
+      <c r="E138" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F138" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
-      <c r="I138" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="J138" s="6" t="s">
-        <v>443</v>
+      <c r="I138" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="M138" s="6" t="s">
-        <v>461</v>
+      <c r="M138" s="4" t="s">
+        <v>462</v>
       </c>
       <c r="N138" s="1"/>
-      <c r="O138" s="6">
+      <c r="O138" s="4">
         <v>1.0</v>
       </c>
-      <c r="P138" s="6">
+      <c r="P138" s="4">
         <v>1.0</v>
       </c>
       <c r="Q138" s="1"/>
@@ -7592,38 +7609,38 @@
       <c r="X138" s="1"/>
     </row>
     <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>462</v>
+      <c r="A139" s="4" t="s">
+        <v>463</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
-      <c r="D139" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>105</v>
+      <c r="D139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
-      <c r="I139" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J139" s="6" t="s">
-        <v>439</v>
+      <c r="I139" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
-      <c r="M139" s="6" t="s">
-        <v>463</v>
+      <c r="M139" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="N139" s="1"/>
-      <c r="O139" s="6">
+      <c r="O139" s="4">
         <v>0.0</v>
       </c>
-      <c r="P139" s="6">
+      <c r="P139" s="4">
         <v>1.0</v>
       </c>
       <c r="Q139" s="1"/>
@@ -7636,18 +7653,18 @@
       <c r="X139" s="1"/>
     </row>
     <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>464</v>
+      <c r="A140" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
-      <c r="D140" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E140" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F140" s="6" t="s">
+      <c r="D140" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G140" s="1"/>
@@ -7656,14 +7673,14 @@
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
-      <c r="M140" s="6" t="s">
-        <v>465</v>
+      <c r="M140" s="4" t="s">
+        <v>466</v>
       </c>
       <c r="N140" s="1"/>
-      <c r="O140" s="6">
+      <c r="O140" s="4">
         <v>1.0</v>
       </c>
-      <c r="P140" s="6">
+      <c r="P140" s="4">
         <v>1.0</v>
       </c>
       <c r="Q140" s="1"/>
@@ -7673,43 +7690,43 @@
       <c r="U140" s="1"/>
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
-      <c r="X140" s="6" t="s">
-        <v>466</v>
+      <c r="X140" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>467</v>
+      <c r="A141" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
-      <c r="D141" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="F141" s="6" t="s">
+      <c r="D141" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
-      <c r="I141" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="J141" s="6" t="s">
-        <v>464</v>
+      <c r="I141" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>465</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
-      <c r="M141" s="6" t="s">
-        <v>469</v>
+      <c r="M141" s="4" t="s">
+        <v>470</v>
       </c>
       <c r="N141" s="1"/>
-      <c r="O141" s="6">
+      <c r="O141" s="4">
         <v>1.0</v>
       </c>
-      <c r="P141" s="6">
+      <c r="P141" s="4">
         <v>1.0</v>
       </c>
       <c r="Q141" s="1"/>
@@ -7722,19 +7739,19 @@
       <c r="X141" s="1"/>
     </row>
     <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="6" t="s">
-        <v>470</v>
+      <c r="A142" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
-      <c r="D142" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>471</v>
+      <c r="D142" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>472</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -7742,14 +7759,14 @@
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
-      <c r="M142" s="6" t="s">
-        <v>472</v>
+      <c r="M142" s="4" t="s">
+        <v>473</v>
       </c>
       <c r="N142" s="1"/>
-      <c r="O142" s="6">
+      <c r="O142" s="4">
         <v>1.0</v>
       </c>
-      <c r="P142" s="6">
+      <c r="P142" s="4">
         <v>1.0</v>
       </c>
       <c r="Q142" s="1"/>
@@ -7762,40 +7779,40 @@
       <c r="X142" s="1"/>
     </row>
     <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="6" t="s">
-        <v>473</v>
+      <c r="A143" s="4" t="s">
+        <v>474</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
-      <c r="D143" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E143" s="6" t="s">
+      <c r="D143" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
-      <c r="I143" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J143" s="6" t="s">
-        <v>439</v>
+      <c r="I143" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
-      <c r="M143" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="N143" s="6" t="s">
+      <c r="M143" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="O143" s="6">
+      <c r="N143" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="O143" s="4">
         <v>1.0</v>
       </c>
-      <c r="P143" s="6">
+      <c r="P143" s="4">
         <v>0.0</v>
       </c>
       <c r="Q143" s="1"/>
@@ -7808,38 +7825,38 @@
       <c r="X143" s="1"/>
     </row>
     <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="6" t="s">
-        <v>476</v>
+      <c r="A144" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
-      <c r="D144" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E144" s="6" t="s">
+      <c r="D144" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E144" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="6" t="s">
+      <c r="F144" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
-      <c r="I144" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="J144" s="6" t="s">
-        <v>439</v>
+      <c r="I144" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
-      <c r="M144" s="6" t="s">
-        <v>477</v>
+      <c r="M144" s="4" t="s">
+        <v>478</v>
       </c>
       <c r="N144" s="1"/>
-      <c r="O144" s="6">
+      <c r="O144" s="4">
         <v>1.0</v>
       </c>
-      <c r="P144" s="6">
+      <c r="P144" s="4">
         <v>1.0</v>
       </c>
       <c r="Q144" s="1"/>
@@ -7849,23 +7866,23 @@
       <c r="U144" s="1"/>
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
-      <c r="X144" s="6" t="s">
-        <v>478</v>
+      <c r="X144" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="6" t="s">
-        <v>479</v>
+      <c r="A145" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
-      <c r="D145" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E145" s="6" t="s">
+      <c r="D145" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E145" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F145" s="6" t="s">
+      <c r="F145" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G145" s="1"/>
@@ -7874,14 +7891,14 @@
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
-      <c r="M145" s="6" t="s">
-        <v>480</v>
+      <c r="M145" s="4" t="s">
+        <v>481</v>
       </c>
       <c r="N145" s="1"/>
-      <c r="O145" s="6">
+      <c r="O145" s="4">
         <v>1.0</v>
       </c>
-      <c r="P145" s="6">
+      <c r="P145" s="4">
         <v>1.0</v>
       </c>
       <c r="Q145" s="1"/>
@@ -7893,38 +7910,38 @@
       <c r="W145" s="1"/>
     </row>
     <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="6" t="s">
-        <v>481</v>
+      <c r="A146" s="4" t="s">
+        <v>482</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
-      <c r="D146" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E146" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>105</v>
+      <c r="D146" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
-      <c r="I146" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>479</v>
+      <c r="I146" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
-      <c r="M146" s="6" t="s">
-        <v>483</v>
+      <c r="M146" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="N146" s="1"/>
-      <c r="O146" s="6">
+      <c r="O146" s="4">
         <v>0.0</v>
       </c>
-      <c r="P146" s="6">
+      <c r="P146" s="4">
         <v>1.0</v>
       </c>
       <c r="Q146" s="1"/>
@@ -7937,18 +7954,18 @@
       <c r="X146" s="1"/>
     </row>
     <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="6" t="s">
-        <v>484</v>
+      <c r="A147" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
-      <c r="D147" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="E147" s="6" t="s">
+      <c r="D147" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F147" s="6" t="s">
+      <c r="E147" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G147" s="1"/>
@@ -7957,14 +7974,14 @@
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
-      <c r="M147" s="6" t="s">
-        <v>487</v>
+      <c r="M147" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="N147" s="1"/>
-      <c r="O147" s="6">
+      <c r="O147" s="4">
         <v>1.0</v>
       </c>
-      <c r="P147" s="6">
+      <c r="P147" s="4">
         <v>1.0</v>
       </c>
       <c r="Q147" s="1"/>
@@ -7974,43 +7991,43 @@
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
-      <c r="X147" s="6" t="s">
-        <v>488</v>
+      <c r="X147" s="4" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="6" t="s">
-        <v>489</v>
+      <c r="A148" s="4" t="s">
+        <v>490</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
-      <c r="D148" s="6" t="s">
+      <c r="D148" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E148" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F148" s="6" t="s">
+      <c r="E148" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F148" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
-      <c r="I148" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>484</v>
+      <c r="I148" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
-      <c r="M148" s="6" t="s">
-        <v>490</v>
+      <c r="M148" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="N148" s="1"/>
-      <c r="O148" s="6">
+      <c r="O148" s="4">
         <v>1.0</v>
       </c>
-      <c r="P148" s="6">
+      <c r="P148" s="4">
         <v>1.0</v>
       </c>
       <c r="Q148" s="1"/>
@@ -8023,38 +8040,38 @@
       <c r="X148" s="1"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="6" t="s">
-        <v>491</v>
+      <c r="A149" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
-      <c r="D149" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="E149" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="D149" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F149" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
-      <c r="I149" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>484</v>
+      <c r="I149" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>485</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
-      <c r="M149" s="6" t="s">
-        <v>492</v>
+      <c r="M149" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="N149" s="1"/>
-      <c r="O149" s="6">
+      <c r="O149" s="4">
         <v>1.0</v>
       </c>
-      <c r="P149" s="6">
+      <c r="P149" s="4">
         <v>1.0</v>
       </c>
       <c r="Q149" s="1"/>
@@ -8067,38 +8084,38 @@
       <c r="X149" s="1"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>493</v>
+      <c r="A150" s="4" t="s">
+        <v>494</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
-      <c r="D150" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F150" s="6" t="s">
-        <v>105</v>
+      <c r="D150" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
-      <c r="I150" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>479</v>
+      <c r="I150" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
-      <c r="M150" s="6" t="s">
-        <v>494</v>
+      <c r="M150" s="4" t="s">
+        <v>495</v>
       </c>
       <c r="N150" s="1"/>
-      <c r="O150" s="6">
+      <c r="O150" s="4">
         <v>0.0</v>
       </c>
-      <c r="P150" s="6">
+      <c r="P150" s="4">
         <v>1.0</v>
       </c>
       <c r="Q150" s="1"/>
@@ -8111,18 +8128,18 @@
       <c r="X150" s="1"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="6" t="s">
-        <v>495</v>
+      <c r="A151" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
-      <c r="D151" s="6" t="s">
+      <c r="D151" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E151" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F151" s="6" t="s">
+      <c r="E151" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F151" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G151" s="1"/>
@@ -8131,14 +8148,14 @@
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
-      <c r="M151" s="6" t="s">
-        <v>496</v>
+      <c r="M151" s="4" t="s">
+        <v>497</v>
       </c>
       <c r="N151" s="1"/>
-      <c r="O151" s="6">
+      <c r="O151" s="4">
         <v>1.0</v>
       </c>
-      <c r="P151" s="6">
+      <c r="P151" s="4">
         <v>1.0</v>
       </c>
       <c r="Q151" s="1"/>
@@ -8148,43 +8165,43 @@
       <c r="U151" s="1"/>
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
-      <c r="X151" s="6" t="s">
-        <v>497</v>
+      <c r="X151" s="4" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="6" t="s">
-        <v>498</v>
+      <c r="A152" s="4" t="s">
+        <v>499</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
-      <c r="D152" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E152" s="6" t="s">
+      <c r="D152" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E152" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F152" s="6" t="s">
+      <c r="F152" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
-      <c r="I152" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="J152" s="6" t="s">
-        <v>495</v>
+      <c r="I152" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
-      <c r="M152" s="6" t="s">
-        <v>499</v>
+      <c r="M152" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="N152" s="1"/>
-      <c r="O152" s="6">
+      <c r="O152" s="4">
         <v>1.0</v>
       </c>
-      <c r="P152" s="6">
+      <c r="P152" s="4">
         <v>1.0</v>
       </c>
       <c r="Q152" s="1"/>
@@ -8197,38 +8214,38 @@
       <c r="X152" s="1"/>
     </row>
     <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="6" t="s">
-        <v>500</v>
+      <c r="A153" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
-      <c r="D153" s="6" t="s">
+      <c r="D153" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E153" s="6" t="s">
+      <c r="E153" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F153" s="6" t="s">
+      <c r="F153" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
-      <c r="I153" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="J153" s="6" t="s">
-        <v>495</v>
+      <c r="I153" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
-      <c r="M153" s="6" t="s">
-        <v>501</v>
+      <c r="M153" s="4" t="s">
+        <v>502</v>
       </c>
       <c r="N153" s="1"/>
-      <c r="O153" s="6">
+      <c r="O153" s="4">
         <v>1.0</v>
       </c>
-      <c r="P153" s="6">
+      <c r="P153" s="4">
         <v>1.0</v>
       </c>
       <c r="Q153" s="1"/>
@@ -8241,18 +8258,18 @@
       <c r="X153" s="1"/>
     </row>
     <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="6" t="s">
-        <v>502</v>
+      <c r="A154" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
-      <c r="D154" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="E154" s="6" t="s">
+      <c r="D154" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="F154" s="6" t="s">
+      <c r="E154" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F154" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G154" s="1"/>
@@ -8261,14 +8278,14 @@
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
-      <c r="M154" s="6" t="s">
-        <v>505</v>
+      <c r="M154" s="4" t="s">
+        <v>506</v>
       </c>
       <c r="N154" s="1"/>
-      <c r="O154" s="6">
+      <c r="O154" s="4">
         <v>1.0</v>
       </c>
-      <c r="P154" s="6">
+      <c r="P154" s="4">
         <v>1.0</v>
       </c>
       <c r="Q154" s="1"/>
@@ -8278,43 +8295,43 @@
       <c r="U154" s="1"/>
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
-      <c r="X154" s="6" t="s">
-        <v>506</v>
+      <c r="X154" s="4" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="6" t="s">
-        <v>507</v>
+      <c r="A155" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
-      <c r="D155" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>105</v>
+      <c r="D155" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
-      <c r="I155" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="J155" s="6" t="s">
-        <v>502</v>
+      <c r="I155" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
-      <c r="M155" s="6" t="s">
-        <v>508</v>
+      <c r="M155" s="4" t="s">
+        <v>509</v>
       </c>
       <c r="N155" s="1"/>
-      <c r="O155" s="6">
+      <c r="O155" s="4">
         <v>0.0</v>
       </c>
-      <c r="P155" s="6">
+      <c r="P155" s="4">
         <v>1.0</v>
       </c>
       <c r="Q155" s="1"/>
@@ -8327,18 +8344,18 @@
       <c r="X155" s="1"/>
     </row>
     <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="6" t="s">
-        <v>509</v>
+      <c r="A156" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
-      <c r="D156" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F156" s="6" t="s">
+      <c r="D156" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G156" s="1"/>
@@ -8347,14 +8364,14 @@
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
-      <c r="M156" s="6" t="s">
-        <v>510</v>
+      <c r="M156" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="N156" s="1"/>
-      <c r="O156" s="6">
+      <c r="O156" s="4">
         <v>0.0</v>
       </c>
-      <c r="P156" s="6">
+      <c r="P156" s="4">
         <v>1.0</v>
       </c>
       <c r="Q156" s="1"/>
@@ -8364,43 +8381,43 @@
       <c r="U156" s="1"/>
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
-      <c r="X156" s="6" t="s">
-        <v>511</v>
+      <c r="X156" s="4" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="6" t="s">
-        <v>512</v>
+      <c r="A157" s="4" t="s">
+        <v>513</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
-      <c r="D157" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E157" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F157" s="6" t="s">
+      <c r="D157" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F157" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
-      <c r="I157" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J157" s="6" t="s">
-        <v>509</v>
+      <c r="I157" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
-      <c r="M157" s="6" t="s">
-        <v>513</v>
+      <c r="M157" s="4" t="s">
+        <v>514</v>
       </c>
       <c r="N157" s="1"/>
-      <c r="O157" s="6">
+      <c r="O157" s="4">
         <v>0.0</v>
       </c>
-      <c r="P157" s="6">
+      <c r="P157" s="4">
         <v>1.0</v>
       </c>
       <c r="Q157" s="1"/>
@@ -8413,38 +8430,38 @@
       <c r="X157" s="1"/>
     </row>
     <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="6" t="s">
-        <v>514</v>
+      <c r="A158" s="4" t="s">
+        <v>515</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
-      <c r="D158" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E158" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="D158" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="F158" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
-      <c r="I158" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="J158" s="6" t="s">
-        <v>509</v>
+      <c r="I158" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>510</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
-      <c r="M158" s="6" t="s">
-        <v>515</v>
+      <c r="M158" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="N158" s="1"/>
-      <c r="O158" s="6">
+      <c r="O158" s="4">
         <v>0.0</v>
       </c>
-      <c r="P158" s="6">
+      <c r="P158" s="4">
         <v>1.0</v>
       </c>
       <c r="Q158" s="1"/>
@@ -8457,40 +8474,40 @@
       <c r="X158" s="1"/>
     </row>
     <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="6" t="s">
-        <v>516</v>
+      <c r="A159" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E159" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F159" s="6" t="s">
+      <c r="E159" s="4" t="s">
         <v>105</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J159" s="6" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
-      <c r="M159" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="N159" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="O159" s="6">
+      <c r="M159" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="O159" s="4">
         <v>0.0</v>
       </c>
-      <c r="P159" s="6">
+      <c r="P159" s="4">
         <v>0.0</v>
       </c>
       <c r="Q159" s="1"/>
@@ -8503,36 +8520,36 @@
       <c r="X159" s="1"/>
     </row>
     <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="6" t="s">
-        <v>518</v>
+      <c r="A160" s="4" t="s">
+        <v>519</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
-      <c r="D160" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="E160" s="6" t="s">
+      <c r="D160" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E160" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F160" s="6" t="s">
+      <c r="F160" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
-      <c r="I160" s="6" t="s">
-        <v>516</v>
+      <c r="I160" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
-      <c r="M160" s="6" t="s">
-        <v>519</v>
+      <c r="M160" s="4" t="s">
+        <v>520</v>
       </c>
       <c r="N160" s="1"/>
-      <c r="O160" s="6">
+      <c r="O160" s="4">
         <v>0.0</v>
       </c>
-      <c r="P160" s="6">
+      <c r="P160" s="4">
         <v>1.0</v>
       </c>
       <c r="Q160" s="1"/>
@@ -8545,36 +8562,36 @@
       <c r="X160" s="1"/>
     </row>
     <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="6" t="s">
-        <v>520</v>
+      <c r="A161" s="4" t="s">
+        <v>521</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
-      <c r="D161" s="6" t="s">
+      <c r="D161" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F161" s="6" t="s">
+      <c r="F161" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
-      <c r="I161" s="6" t="s">
-        <v>516</v>
+      <c r="I161" s="4" t="s">
+        <v>517</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
-      <c r="M161" s="6" t="s">
-        <v>521</v>
+      <c r="M161" s="4" t="s">
+        <v>522</v>
       </c>
       <c r="N161" s="1"/>
-      <c r="O161" s="6">
+      <c r="O161" s="4">
         <v>0.0</v>
       </c>
-      <c r="P161" s="6">
+      <c r="P161" s="4">
         <v>1.0</v>
       </c>
       <c r="Q161" s="1"/>
@@ -8587,40 +8604,40 @@
       <c r="X161" s="1"/>
     </row>
     <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="6" t="s">
-        <v>522</v>
+      <c r="A162" s="4" t="s">
+        <v>523</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
-      <c r="D162" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E162" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="F162" s="6" t="s">
+      <c r="D162" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F162" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J162" s="6" t="s">
-        <v>134</v>
+        <v>107</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
-      <c r="M162" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="N162" s="6" t="s">
+      <c r="M162" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="O162" s="6">
+      <c r="N162" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="O162" s="4">
         <v>1.0</v>
       </c>
-      <c r="P162" s="6">
+      <c r="P162" s="4">
         <v>0.0</v>
       </c>
       <c r="Q162" s="1"/>
@@ -8633,36 +8650,36 @@
       <c r="X162" s="1"/>
     </row>
     <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="6" t="s">
-        <v>525</v>
+      <c r="A163" s="4" t="s">
+        <v>526</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
-      <c r="D163" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E163" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="F163" s="6" t="s">
-        <v>105</v>
+      <c r="D163" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
-      <c r="I163" s="6" t="s">
-        <v>416</v>
+      <c r="I163" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
-      <c r="M163" s="6" t="s">
-        <v>526</v>
+      <c r="M163" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="N163" s="1"/>
-      <c r="O163" s="6">
+      <c r="O163" s="4">
         <v>0.0</v>
       </c>
-      <c r="P163" s="6">
+      <c r="P163" s="4">
         <v>1.0</v>
       </c>
       <c r="Q163" s="1"/>
@@ -8675,19 +8692,19 @@
       <c r="X163" s="1"/>
     </row>
     <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="6" t="s">
-        <v>527</v>
+      <c r="A164" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="E164" s="6" t="s">
+      <c r="D164" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="F164" s="6" t="s">
+      <c r="E164" s="4" t="s">
         <v>530</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>531</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -8695,15 +8712,17 @@
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
-      <c r="M164" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="N164" s="1"/>
-      <c r="O164" s="6">
+      <c r="M164" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="O164" s="4">
         <v>0.0</v>
       </c>
-      <c r="P164" s="6">
-        <v>1.0</v>
+      <c r="P164" s="4">
+        <v>0.0</v>
       </c>
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
@@ -8715,38 +8734,38 @@
       <c r="X164" s="1"/>
     </row>
     <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="6" t="s">
-        <v>532</v>
+      <c r="A165" s="4" t="s">
+        <v>534</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E165" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="F165" s="6" t="s">
-        <v>534</v>
+      <c r="D165" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>536</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
-      <c r="I165" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="J165" s="6" t="s">
-        <v>527</v>
+      <c r="I165" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
-      <c r="M165" s="6" t="s">
-        <v>535</v>
+      <c r="M165" s="4" t="s">
+        <v>537</v>
       </c>
       <c r="N165" s="1"/>
-      <c r="O165" s="6">
+      <c r="O165" s="4">
         <v>0.0</v>
       </c>
-      <c r="P165" s="6">
+      <c r="P165" s="4">
         <v>1.0</v>
       </c>
       <c r="Q165" s="1"/>
@@ -8756,41 +8775,41 @@
       <c r="U165" s="1"/>
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
-      <c r="X165" s="6" t="s">
-        <v>536</v>
+      <c r="X165" s="4" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="6" t="s">
-        <v>537</v>
+      <c r="A166" s="4" t="s">
+        <v>539</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
-      <c r="D166" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="E166" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="F166" s="6" t="s">
+      <c r="D166" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F166" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
-      <c r="I166" s="6" t="s">
-        <v>416</v>
+      <c r="I166" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
-      <c r="M166" s="6" t="s">
-        <v>539</v>
+      <c r="M166" s="4" t="s">
+        <v>541</v>
       </c>
       <c r="N166" s="1"/>
-      <c r="O166" s="6">
+      <c r="O166" s="4">
         <v>0.0</v>
       </c>
-      <c r="P166" s="6">
+      <c r="P166" s="4">
         <v>1.0</v>
       </c>
       <c r="Q166" s="1"/>
@@ -8803,22 +8822,34 @@
       <c r="X166" s="1"/>
     </row>
     <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="1"/>
+      <c r="A167" s="4" t="s">
+        <v>542</v>
+      </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="D167" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
+      <c r="F167" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
-      <c r="M167" s="1"/>
+      <c r="M167" s="4" t="s">
+        <v>544</v>
+      </c>
       <c r="N167" s="1"/>
-      <c r="O167" s="1"/>
-      <c r="P167" s="1"/>
+      <c r="O167" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P167" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="545">
   <si>
     <t>ID</t>
   </si>
@@ -8837,7 +8837,9 @@
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
+      <c r="J167" s="4" t="s">
+        <v>534</v>
+      </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="4" t="s">

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -6968,7 +6968,7 @@
         <v>424</v>
       </c>
       <c r="O123" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P123" s="4">
         <v>0.0</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P156" s="4">
         <v>1.0</v>
@@ -8415,7 +8415,7 @@
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P157" s="4">
         <v>1.0</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P158" s="4">
         <v>1.0</v>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P160" s="4">
         <v>1.0</v>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P161" s="4">
         <v>1.0</v>
@@ -8719,7 +8719,7 @@
         <v>533</v>
       </c>
       <c r="O164" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P164" s="4">
         <v>0.0</v>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P165" s="4">
         <v>1.0</v>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P166" s="4">
         <v>1.0</v>
@@ -8847,7 +8847,7 @@
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P167" s="4">
         <v>1.0</v>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="561">
   <si>
     <t>ID</t>
   </si>
@@ -1594,7 +1594,10 @@
     <t>I183</t>
   </si>
   <si>
-    <t>18/3/1933</t>
+    <t>I189</t>
+  </si>
+  <si>
+    <t>18/8/1933</t>
   </si>
   <si>
     <t>I184</t>
@@ -1646,6 +1649,51 @@
   </si>
   <si>
     <t>1982</t>
+  </si>
+  <si>
+    <t>I188</t>
+  </si>
+  <si>
+    <t>Апександр</t>
+  </si>
+  <si>
+    <t>11/09/1927</t>
+  </si>
+  <si>
+    <t>01/05/1957</t>
+  </si>
+  <si>
+    <t>Антонина</t>
+  </si>
+  <si>
+    <t>I190</t>
+  </si>
+  <si>
+    <t>I191</t>
+  </si>
+  <si>
+    <t>27/09/1903</t>
+  </si>
+  <si>
+    <t>7/09/1979</t>
+  </si>
+  <si>
+    <t>ур Григорьева</t>
+  </si>
+  <si>
+    <t>Кузьмич</t>
+  </si>
+  <si>
+    <t>Григорьев</t>
+  </si>
+  <si>
+    <t>Евдокия</t>
+  </si>
+  <si>
+    <t>Григорьева</t>
+  </si>
+  <si>
+    <t>1962</t>
   </si>
 </sst>
 </file>
@@ -8669,11 +8717,13 @@
       <c r="I163" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J163" s="1"/>
+      <c r="J163" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="4">
@@ -8693,18 +8743,18 @@
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -8713,10 +8763,10 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O164" s="4">
         <v>1.0</v>
@@ -8735,7 +8785,7 @@
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8743,10 +8793,10 @@
         <v>67</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
@@ -8754,12 +8804,12 @@
         <v>526</v>
       </c>
       <c r="J165" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="4">
@@ -8776,12 +8826,12 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
       <c r="X165" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -8789,7 +8839,7 @@
         <v>469</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>38</v>
@@ -8799,11 +8849,13 @@
       <c r="I166" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="J166" s="1"/>
+      <c r="J166" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="4">
@@ -8823,7 +8875,7 @@
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8832,18 +8884,18 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="4">
@@ -8862,22 +8914,42 @@
       <c r="X167" s="1"/>
     </row>
     <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="1"/>
+      <c r="A168" s="4" t="s">
+        <v>546</v>
+      </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="D168" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E168" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
-      <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
+      <c r="I168" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
-      <c r="M168" s="1"/>
-      <c r="N168" s="1"/>
-      <c r="O168" s="1"/>
-      <c r="P168" s="1"/>
+      <c r="M168" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="N168" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="O168" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P168" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
@@ -8888,22 +8960,42 @@
       <c r="X168" s="1"/>
     </row>
     <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="1"/>
+      <c r="A169" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-      <c r="F169" s="1"/>
+      <c r="D169" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
-      <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
+      <c r="I169" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
-      <c r="M169" s="1"/>
-      <c r="N169" s="1"/>
-      <c r="O169" s="1"/>
-      <c r="P169" s="1"/>
+      <c r="M169" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="O169" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P169" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
@@ -8911,15 +9003,25 @@
       <c r="U169" s="1"/>
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
-      <c r="X169" s="1"/>
+      <c r="X169" s="4" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="1"/>
+      <c r="A170" s="4" t="s">
+        <v>551</v>
+      </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-      <c r="F170" s="1"/>
+      <c r="D170" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>557</v>
+      </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
@@ -8928,8 +9030,12 @@
       <c r="L170" s="1"/>
       <c r="M170" s="1"/>
       <c r="N170" s="1"/>
-      <c r="O170" s="1"/>
-      <c r="P170" s="1"/>
+      <c r="O170" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P170" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
@@ -8940,12 +9046,20 @@
       <c r="X170" s="1"/>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="1"/>
+      <c r="A171" s="4" t="s">
+        <v>552</v>
+      </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-      <c r="F171" s="1"/>
+      <c r="D171" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>559</v>
+      </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
@@ -8953,9 +9067,15 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
-      <c r="N171" s="1"/>
-      <c r="O171" s="1"/>
-      <c r="P171" s="1"/>
+      <c r="N171" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="O171" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P171" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="599">
   <si>
     <t>ID</t>
   </si>
@@ -571,7 +571,7 @@
     <t>I75</t>
   </si>
   <si>
-    <t>1/1/1834</t>
+    <t>12/1/1830</t>
   </si>
   <si>
     <t>каширского мещанина. Красильня у них там была по словам вашего отца. Жена его Анна Васильевна. (Видимо она была родней моих предков, похожа лицом на бабку прадеда.) Их фото есть в вашем семейном архиве.</t>
@@ -931,9 +931,6 @@
     <t xml:space="preserve">Сергеевна </t>
   </si>
   <si>
-    <t xml:space="preserve">Мишина </t>
-  </si>
-  <si>
     <t>9/2/2010</t>
   </si>
   <si>
@@ -958,7 +955,7 @@
     <t>I113</t>
   </si>
   <si>
-    <t xml:space="preserve">Мишин </t>
+    <t>I208</t>
   </si>
   <si>
     <t>I114</t>
@@ -970,6 +967,9 @@
     <t xml:space="preserve">Алексеевич </t>
   </si>
   <si>
+    <t>крестный сын I0</t>
+  </si>
+  <si>
     <t>I115</t>
   </si>
   <si>
@@ -1075,9 +1075,6 @@
     <t>Вениаминович</t>
   </si>
   <si>
-    <t xml:space="preserve">Тевелев </t>
-  </si>
-  <si>
     <t>I129</t>
   </si>
   <si>
@@ -1138,9 +1135,6 @@
     <t>Филипповна</t>
   </si>
   <si>
-    <t xml:space="preserve">Тевелева </t>
-  </si>
-  <si>
     <t>ур Новикова</t>
   </si>
   <si>
@@ -1174,9 +1168,6 @@
     <t xml:space="preserve">Кириллович </t>
   </si>
   <si>
-    <t xml:space="preserve">Флоренский </t>
-  </si>
-  <si>
     <t>6/1/1947</t>
   </si>
   <si>
@@ -1694,6 +1685,129 @@
   </si>
   <si>
     <t>1962</t>
+  </si>
+  <si>
+    <t>I192</t>
+  </si>
+  <si>
+    <t>I193</t>
+  </si>
+  <si>
+    <t>I194</t>
+  </si>
+  <si>
+    <t>11/4/2010</t>
+  </si>
+  <si>
+    <t>Екатерина</t>
+  </si>
+  <si>
+    <t>6/2/1981</t>
+  </si>
+  <si>
+    <t>I195</t>
+  </si>
+  <si>
+    <t>Людмила</t>
+  </si>
+  <si>
+    <t>Никитична</t>
+  </si>
+  <si>
+    <t>I196</t>
+  </si>
+  <si>
+    <t>26/5/2009</t>
+  </si>
+  <si>
+    <t>Полуевская</t>
+  </si>
+  <si>
+    <t>08/03/1973</t>
+  </si>
+  <si>
+    <t>I197</t>
+  </si>
+  <si>
+    <t>I198</t>
+  </si>
+  <si>
+    <t>27/11/1996</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Леонидовна</t>
+  </si>
+  <si>
+    <t>27/5/2015</t>
+  </si>
+  <si>
+    <t>I199</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>I200</t>
+  </si>
+  <si>
+    <t>24/2/1994</t>
+  </si>
+  <si>
+    <t>крестная дочь</t>
+  </si>
+  <si>
+    <t>Левицкий</t>
+  </si>
+  <si>
+    <t>I202</t>
+  </si>
+  <si>
+    <t>I201</t>
+  </si>
+  <si>
+    <t>Лиана</t>
+  </si>
+  <si>
+    <t>I203</t>
+  </si>
+  <si>
+    <t>Раиса</t>
+  </si>
+  <si>
+    <t>Даниловна</t>
+  </si>
+  <si>
+    <t>I204</t>
+  </si>
+  <si>
+    <t>29/8/1992</t>
+  </si>
+  <si>
+    <t>I205</t>
+  </si>
+  <si>
+    <t>27/5/1991</t>
+  </si>
+  <si>
+    <t>I206</t>
+  </si>
+  <si>
+    <t>18/7/1990</t>
+  </si>
+  <si>
+    <t>I207</t>
+  </si>
+  <si>
+    <t>Герман</t>
+  </si>
+  <si>
+    <t>Никитович</t>
+  </si>
+  <si>
+    <t>Волгин</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1843,7 @@
       <sz val="10.0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1740,6 +1854,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
       </patternFill>
     </fill>
   </fills>
@@ -1754,13 +1874,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1770,6 +1892,7 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1783,6 +1906,9 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2039,7 +2165,7 @@
       <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>40</v>
       </c>
       <c r="O5" s="1">
@@ -2168,7 +2294,7 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N8" s="4" t="s">
@@ -2250,10 +2376,10 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>65</v>
       </c>
       <c r="O10" s="1">
@@ -2463,7 +2589,7 @@
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000001951156276","http://www.geni.com/photo/view/?photo_id=6000000001951156276")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000001951156276</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N15" s="1"/>
@@ -2555,7 +2681,7 @@
         <f>HYPERLINK("http://www.geni.com/photo/view/?photo_id=6000000000910785672","http://www.geni.com/photo/view/?photo_id=6000000000910785672")</f>
         <v>http://www.geni.com/photo/view/?photo_id=6000000000910785672</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N17" s="1"/>
@@ -2605,10 +2731,10 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>96</v>
       </c>
       <c r="O18" s="1">
@@ -2651,7 +2777,7 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N19" s="1"/>
@@ -2689,7 +2815,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N20" s="1"/>
@@ -2733,10 +2859,10 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="O21" s="1">
@@ -3067,7 +3193,7 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>131</v>
       </c>
       <c r="N29" s="1"/>
@@ -3175,7 +3301,7 @@
       <c r="X31" s="1"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B32" s="1"/>
@@ -3199,7 +3325,7 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>146</v>
       </c>
       <c r="N32" s="1"/>
@@ -3219,7 +3345,7 @@
       <c r="X32" s="1"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="1"/>
@@ -3235,15 +3361,15 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="9" t="s">
         <v>150</v>
       </c>
       <c r="N33" s="1"/>
@@ -3485,7 +3611,7 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="9" t="s">
         <v>162</v>
       </c>
       <c r="N39" s="1"/>
@@ -3529,7 +3655,7 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="3" t="s">
+      <c r="M40" s="9" t="s">
         <v>164</v>
       </c>
       <c r="N40" s="1"/>
@@ -3554,7 +3680,7 @@
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="3" t="s">
         <v>128</v>
       </c>
       <c r="E41" s="1" t="s">
@@ -3573,7 +3699,7 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="3" t="s">
+      <c r="M41" s="9" t="s">
         <v>166</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -3600,7 +3726,7 @@
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -3619,7 +3745,7 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="9" t="s">
         <v>169</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -3646,10 +3772,10 @@
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F43" s="1" t="s">
@@ -3686,10 +3812,10 @@
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -3726,10 +3852,10 @@
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -3766,10 +3892,10 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
@@ -3825,7 +3951,7 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>180</v>
       </c>
       <c r="N47" s="1">
@@ -3871,7 +3997,7 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>182</v>
       </c>
       <c r="N48" s="1">
@@ -4001,7 +4127,7 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>191</v>
       </c>
       <c r="N51" s="1"/>
@@ -4203,7 +4329,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>202</v>
       </c>
       <c r="N56" s="1"/>
@@ -4364,7 +4490,7 @@
       <c r="I60" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="3" t="s">
         <v>140</v>
       </c>
       <c r="K60" s="1"/>
@@ -4574,7 +4700,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="9" t="s">
+      <c r="J65" s="10" t="s">
         <v>231</v>
       </c>
       <c r="K65" s="1"/>
@@ -5021,454 +5147,454 @@
       <c r="X75" s="1"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="9" t="s">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="F76" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="9" t="s">
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="9">
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="10">
         <v>0.0</v>
       </c>
-      <c r="P76" s="9">
+      <c r="P76" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
+      <c r="X76" s="11"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="9" t="s">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="F77" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="9" t="s">
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="9" t="s">
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="N77" s="9" t="s">
+      <c r="N77" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="10">
         <v>1.0</v>
       </c>
-      <c r="P77" s="9">
+      <c r="P77" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
+      <c r="Q77" s="11"/>
+      <c r="R77" s="11"/>
+      <c r="S77" s="11"/>
+      <c r="T77" s="11"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
+      <c r="X77" s="11"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="9" t="s">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="10"/>
-      <c r="F78" s="9" t="s">
+      <c r="E78" s="11"/>
+      <c r="F78" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="9">
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="10">
         <v>0.0</v>
       </c>
-      <c r="P78" s="9">
+      <c r="P78" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
+      <c r="Q78" s="11"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="11"/>
+      <c r="T78" s="11"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
+      <c r="X78" s="11"/>
     </row>
     <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="9" t="s">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="F79" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="9" t="s">
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="N79" s="9" t="s">
+      <c r="N79" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79" s="10">
         <v>0.0</v>
       </c>
-      <c r="P79" s="9">
+      <c r="P79" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
+      <c r="Q79" s="11"/>
+      <c r="R79" s="11"/>
+      <c r="S79" s="11"/>
+      <c r="T79" s="11"/>
+      <c r="U79" s="11"/>
+      <c r="V79" s="11"/>
+      <c r="W79" s="11"/>
+      <c r="X79" s="11"/>
     </row>
     <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="9" t="s">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="F80" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="9" t="s">
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="N80" s="9" t="s">
+      <c r="N80" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="10">
         <v>1.0</v>
       </c>
-      <c r="P80" s="9">
+      <c r="P80" s="10">
         <v>0.0</v>
       </c>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
+      <c r="Q80" s="11"/>
+      <c r="R80" s="11"/>
+      <c r="S80" s="11"/>
+      <c r="T80" s="11"/>
+      <c r="U80" s="11"/>
+      <c r="V80" s="11"/>
+      <c r="W80" s="11"/>
+      <c r="X80" s="11"/>
     </row>
     <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="9" t="s">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="9" t="s">
+      <c r="E81" s="11"/>
+      <c r="F81" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="9" t="s">
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="9" t="s">
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="N81" s="10"/>
-      <c r="O81" s="9">
+      <c r="N81" s="11"/>
+      <c r="O81" s="10">
         <v>1.0</v>
       </c>
-      <c r="P81" s="9">
+      <c r="P81" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="9" t="s">
+      <c r="Q81" s="11"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="11"/>
+      <c r="T81" s="11"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
+      <c r="X81" s="10" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="9" t="s">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="9" t="s">
+      <c r="E82" s="11"/>
+      <c r="F82" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="9" t="s">
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="J82" s="9" t="s">
+      <c r="J82" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="9" t="s">
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="N82" s="10"/>
-      <c r="O82" s="9">
+      <c r="N82" s="11"/>
+      <c r="O82" s="10">
         <v>0.0</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
+      <c r="Q82" s="11"/>
+      <c r="R82" s="11"/>
+      <c r="S82" s="11"/>
+      <c r="T82" s="11"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
+      <c r="X82" s="11"/>
     </row>
     <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="9" t="s">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="F83" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="9" t="s">
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J83" s="9" t="s">
+      <c r="J83" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="9">
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="10">
         <v>0.0</v>
       </c>
-      <c r="P83" s="9">
+      <c r="P83" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
+      <c r="Q83" s="11"/>
+      <c r="R83" s="11"/>
+      <c r="S83" s="11"/>
+      <c r="T83" s="11"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
     </row>
     <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="9" t="s">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="F84" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="9" t="s">
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="9">
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="10">
         <v>1.0</v>
       </c>
-      <c r="P84" s="9">
+      <c r="P84" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11"/>
+      <c r="T84" s="11"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
     </row>
     <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="9" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="F85" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="9">
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="10">
         <v>0.0</v>
       </c>
-      <c r="P85" s="9">
+      <c r="P85" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
+      <c r="Q85" s="11"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="11"/>
+      <c r="T85" s="11"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
     </row>
     <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="9" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="11"/>
+      <c r="F86" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="9">
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="10">
         <v>1.0</v>
       </c>
-      <c r="P86" s="9">
+      <c r="P86" s="10">
         <v>1.0</v>
       </c>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
+      <c r="Q86" s="11"/>
+      <c r="R86" s="11"/>
+      <c r="S86" s="11"/>
+      <c r="T86" s="11"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
+      <c r="X86" s="11"/>
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="4" t="s">
@@ -5490,7 +5616,7 @@
       <c r="I87" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="J87" s="11" t="s">
+      <c r="J87" s="12" t="s">
         <v>42</v>
       </c>
       <c r="K87" s="1"/>
@@ -5605,7 +5731,7 @@
         <v>305</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
@@ -5618,7 +5744,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="4">
@@ -5638,18 +5764,18 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>305</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>306</v>
+        <v>45</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
@@ -5662,7 +5788,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="4">
@@ -5687,13 +5813,13 @@
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>190</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
@@ -5717,12 +5843,12 @@
       <c r="V92" s="1"/>
       <c r="W92" s="1"/>
       <c r="X92" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -5733,11 +5859,13 @@
         <v>50</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
+      <c r="I93" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="J93" s="1" t="s">
         <v>66</v>
       </c>
@@ -5762,18 +5890,18 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E94" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E94" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="F94" s="4" t="s">
-        <v>315</v>
+        <v>51</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -5798,7 +5926,9 @@
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
       <c r="W94" s="1"/>
-      <c r="X94" s="1"/>
+      <c r="X94" s="4" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="4" t="s">
@@ -6219,20 +6349,20 @@
         <v>353</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
       <c r="I105" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J105" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="4">
@@ -6260,23 +6390,23 @@
         <v>250</v>
       </c>
       <c r="E106" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="F106" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="J106" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="4">
@@ -6293,12 +6423,12 @@
       <c r="V106" s="1"/>
       <c r="W106" s="1"/>
       <c r="X106" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -6309,7 +6439,7 @@
         <v>32</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
@@ -6318,7 +6448,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="4">
@@ -6335,12 +6465,12 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -6348,10 +6478,10 @@
         <v>132</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -6360,10 +6490,10 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="N108" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="N108" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="O108" s="4">
         <v>0.0</v>
@@ -6382,18 +6512,18 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="E109" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E109" s="4" t="s">
-        <v>371</v>
-      </c>
       <c r="F109" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
@@ -6402,10 +6532,10 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="N109" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="N109" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="O109" s="4">
         <v>0.0</v>
@@ -6424,7 +6554,7 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -6432,10 +6562,10 @@
         <v>290</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -6459,36 +6589,36 @@
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="4" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="4" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J111" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="J111" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="4">
@@ -6508,34 +6638,34 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="J112" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="4" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="O112" s="4">
         <v>0.0</v>
@@ -6554,18 +6684,18 @@
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="4" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6578,7 +6708,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="4">
@@ -6598,18 +6728,18 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>387</v>
+        <v>106</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
@@ -6622,7 +6752,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="4">
@@ -6642,31 +6772,31 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>321</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="4">
@@ -6686,29 +6816,29 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="4">
@@ -6728,7 +6858,7 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -6736,10 +6866,10 @@
         <v>250</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
@@ -6766,18 +6896,18 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
@@ -6811,7 +6941,7 @@
       <c r="D119" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E119" s="13" t="s">
         <v>61</v>
       </c>
       <c r="F119" s="4" t="s">
@@ -6824,10 +6954,10 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O119" s="4">
         <v>0.0</v>
@@ -6854,7 +6984,7 @@
         <v>345</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>38</v>
@@ -6862,18 +6992,18 @@
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="O120" s="4">
         <v>1.0</v>
@@ -6888,13 +7018,13 @@
       <c r="U120" s="1"/>
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
-      <c r="X120" s="13" t="s">
-        <v>413</v>
+      <c r="X120" s="14" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="4" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -6918,10 +7048,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="4" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N121" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="O121" s="4">
         <v>0.0</v>
@@ -6940,7 +7070,7 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -6964,10 +7094,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="N122" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O122" s="4">
         <v>0.0</v>
@@ -6986,15 +7116,15 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="4" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>38</v>
@@ -7010,10 +7140,10 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O123" s="4">
         <v>1.0</v>
@@ -7032,18 +7162,18 @@
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E124" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>426</v>
+      <c r="E124" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>423</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
@@ -7070,18 +7200,18 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E125" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="E125" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F125" s="12" t="s">
-        <v>428</v>
+      <c r="F125" s="13" t="s">
+        <v>425</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
@@ -7104,8 +7234,8 @@
       <c r="U125" s="1"/>
       <c r="V125" s="1"/>
       <c r="W125" s="1"/>
-      <c r="X125" s="12" t="s">
-        <v>429</v>
+      <c r="X125" s="13" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="126" ht="12.75" customHeight="1">
@@ -7119,7 +7249,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -7146,7 +7276,7 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -7157,7 +7287,7 @@
         <v>149</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -7184,18 +7314,18 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -7219,12 +7349,12 @@
       <c r="V128" s="1"/>
       <c r="W128" s="1"/>
       <c r="X128" s="4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -7248,10 +7378,10 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="4" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="O129" s="4">
         <v>0.0</v>
@@ -7270,7 +7400,7 @@
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="4" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -7292,7 +7422,7 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P130" s="4">
         <v>0.0</v>
@@ -7305,12 +7435,12 @@
       <c r="V130" s="1"/>
       <c r="W130" s="1"/>
       <c r="X130" s="4" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -7326,15 +7456,15 @@
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J131" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
       <c r="M131" s="4" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N131" s="1"/>
       <c r="O131" s="4">
@@ -7354,12 +7484,12 @@
     </row>
     <row r="132" ht="12.75" customHeight="1">
       <c r="A132" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>44</v>
@@ -7374,7 +7504,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="N132" s="1"/>
       <c r="O132" s="4">
@@ -7391,12 +7521,12 @@
       <c r="V132" s="1"/>
       <c r="W132" s="1"/>
       <c r="X132" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" ht="12.75" customHeight="1">
       <c r="A133" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -7412,15 +7542,15 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="N133" s="1"/>
       <c r="O133" s="4">
@@ -7440,15 +7570,15 @@
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>38</v>
@@ -7460,7 +7590,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="N134" s="1"/>
       <c r="O134" s="4">
@@ -7477,12 +7607,12 @@
       <c r="V134" s="1"/>
       <c r="W134" s="1"/>
       <c r="X134" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="4" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -7498,15 +7628,15 @@
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
       <c r="I135" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="N135" s="1"/>
       <c r="O135" s="4">
@@ -7526,7 +7656,7 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="4" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -7542,15 +7672,15 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="N136" s="1"/>
       <c r="O136" s="4">
@@ -7570,12 +7700,12 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>32</v>
@@ -7586,15 +7716,15 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
       <c r="M137" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="N137" s="1"/>
       <c r="O137" s="4">
@@ -7614,7 +7744,7 @@
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -7622,7 +7752,7 @@
         <v>31</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>38</v>
@@ -7630,15 +7760,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="4" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N138" s="1"/>
       <c r="O138" s="4">
@@ -7658,7 +7788,7 @@
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -7674,15 +7804,15 @@
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J139" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J139" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="N139" s="1"/>
       <c r="O139" s="4">
@@ -7702,7 +7832,7 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -7710,7 +7840,7 @@
         <v>345</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>38</v>
@@ -7722,7 +7852,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="4" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="N140" s="1"/>
       <c r="O140" s="4">
@@ -7739,17 +7869,17 @@
       <c r="V140" s="1"/>
       <c r="W140" s="1"/>
       <c r="X140" s="4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="4" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>190</v>
@@ -7760,15 +7890,15 @@
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
       <c r="M141" s="4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="N141" s="1"/>
       <c r="O141" s="4">
@@ -7788,7 +7918,7 @@
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -7796,10 +7926,10 @@
         <v>345</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
@@ -7808,7 +7938,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="N142" s="1"/>
       <c r="O142" s="4">
@@ -7828,7 +7958,7 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -7844,18 +7974,18 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J143" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J143" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
       <c r="M143" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="O143" s="4">
         <v>1.0</v>
@@ -7874,7 +8004,7 @@
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -7890,15 +8020,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="J144" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="J144" s="4" t="s">
-        <v>440</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="4">
@@ -7915,12 +8045,12 @@
       <c r="V144" s="1"/>
       <c r="W144" s="1"/>
       <c r="X144" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -7940,7 +8070,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="4">
@@ -7959,7 +8089,7 @@
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -7967,7 +8097,7 @@
         <v>104</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F146" s="4" t="s">
         <v>106</v>
@@ -7975,15 +8105,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="4">
@@ -8003,15 +8133,15 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F147" s="4" t="s">
         <v>38</v>
@@ -8023,7 +8153,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="4">
@@ -8040,12 +8170,12 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8061,15 +8191,15 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J148" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="J148" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="4">
@@ -8089,7 +8219,7 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8105,15 +8235,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="J149" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="J149" s="4" t="s">
-        <v>485</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="4">
@@ -8133,7 +8263,7 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8141,7 +8271,7 @@
         <v>59</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F150" s="4" t="s">
         <v>106</v>
@@ -8149,15 +8279,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="4">
@@ -8177,7 +8307,7 @@
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8185,7 +8315,7 @@
         <v>43</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F151" s="4" t="s">
         <v>38</v>
@@ -8197,7 +8327,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="4" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="4">
@@ -8214,12 +8344,12 @@
       <c r="V151" s="1"/>
       <c r="W151" s="1"/>
       <c r="X151" s="4" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="4" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8235,15 +8365,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="4" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="4">
@@ -8263,7 +8393,7 @@
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="4" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8279,15 +8409,15 @@
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J153" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="4" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="4">
@@ -8307,15 +8437,15 @@
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="4" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>38</v>
@@ -8327,7 +8457,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="4" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="4">
@@ -8344,12 +8474,12 @@
       <c r="V154" s="1"/>
       <c r="W154" s="1"/>
       <c r="X154" s="4" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="4" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -8357,7 +8487,7 @@
         <v>132</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>106</v>
@@ -8365,15 +8495,15 @@
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="4" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="J155" s="4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="4" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="4">
@@ -8393,7 +8523,7 @@
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -8413,7 +8543,7 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="4" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="4">
@@ -8430,12 +8560,12 @@
       <c r="V156" s="1"/>
       <c r="W156" s="1"/>
       <c r="X156" s="4" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -8443,7 +8573,7 @@
         <v>203</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>38</v>
@@ -8451,15 +8581,15 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J157" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="4" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="4">
@@ -8479,7 +8609,7 @@
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -8487,7 +8617,7 @@
         <v>272</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>38</v>
@@ -8495,15 +8625,15 @@
       <c r="G158" s="1"/>
       <c r="H158" s="1"/>
       <c r="I158" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J158" s="4" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="4">
@@ -8523,7 +8653,7 @@
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -8547,10 +8677,10 @@
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O159" s="4">
         <v>0.0</v>
@@ -8569,12 +8699,12 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="4" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="4" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>37</v>
@@ -8585,13 +8715,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="4" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="4">
@@ -8611,7 +8741,7 @@
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="4" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -8627,13 +8757,13 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="4" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="4" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="4">
@@ -8653,7 +8783,7 @@
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -8661,7 +8791,7 @@
         <v>67</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>38</v>
@@ -8677,10 +8807,10 @@
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="4" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="O162" s="4">
         <v>1.0</v>
@@ -8699,7 +8829,7 @@
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="4" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -8715,15 +8845,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J163" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="4" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="4">
@@ -8743,18 +8873,18 @@
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="4" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="4" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="G164" s="1"/>
       <c r="H164" s="1"/>
@@ -8763,10 +8893,10 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="4" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="N164" s="4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="O164" s="4">
         <v>1.0</v>
@@ -8785,7 +8915,7 @@
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -8793,23 +8923,23 @@
         <v>67</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="J165" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="J165" s="4" t="s">
-        <v>529</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="4">
@@ -8826,20 +8956,20 @@
       <c r="V165" s="1"/>
       <c r="W165" s="1"/>
       <c r="X165" s="4" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="4" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="4" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>38</v>
@@ -8847,15 +8977,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J166" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="4" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="4">
@@ -8875,7 +9005,7 @@
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="4" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8884,18 +9014,18 @@
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="4" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G167" s="1"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="4" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="4" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="4">
@@ -8915,34 +9045,34 @@
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="4" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="E168" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="E168" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="F168" s="12" t="s">
+      <c r="F168" s="13" t="s">
         <v>106</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
-      <c r="M168" s="12" t="s">
-        <v>548</v>
-      </c>
-      <c r="N168" s="12" t="s">
-        <v>549</v>
+      <c r="M168" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="N168" s="13" t="s">
+        <v>546</v>
       </c>
       <c r="O168" s="4">
         <v>0.0</v>
@@ -8961,34 +9091,34 @@
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="E169" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="F169" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="E169" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F169" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G169" s="1"/>
       <c r="H169" s="1"/>
       <c r="I169" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="J169" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="4" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="N169" s="4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="O169" s="4">
         <v>1.0</v>
@@ -9004,23 +9134,23 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="4" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="4" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E170" s="12" t="s">
-        <v>556</v>
-      </c>
-      <c r="F170" s="12" t="s">
-        <v>557</v>
+      <c r="E170" s="13" t="s">
+        <v>553</v>
+      </c>
+      <c r="F170" s="13" t="s">
+        <v>554</v>
       </c>
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
@@ -9047,18 +9177,18 @@
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="E171" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F171" s="12" t="s">
-        <v>559</v>
+      <c r="F171" s="13" t="s">
+        <v>556</v>
       </c>
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
@@ -9068,7 +9198,7 @@
       <c r="L171" s="1"/>
       <c r="M171" s="1"/>
       <c r="N171" s="4" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="O171" s="4">
         <v>1.0</v>
@@ -9086,22 +9216,40 @@
       <c r="X171" s="1"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="1"/>
+      <c r="A172" s="4" t="s">
+        <v>558</v>
+      </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-      <c r="F172" s="1"/>
+      <c r="D172" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>397</v>
+      </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
+      <c r="I172" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
-      <c r="M172" s="1"/>
+      <c r="M172" s="4" t="s">
+        <v>398</v>
+      </c>
       <c r="N172" s="1"/>
-      <c r="O172" s="1"/>
-      <c r="P172" s="1"/>
+      <c r="O172" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P172" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
@@ -9112,22 +9260,40 @@
       <c r="X172" s="1"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="1"/>
+      <c r="A173" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-      <c r="F173" s="1"/>
+      <c r="D173" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
+      <c r="I173" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
-      <c r="M173" s="1"/>
+      <c r="M173" s="4" t="s">
+        <v>561</v>
+      </c>
       <c r="N173" s="1"/>
-      <c r="O173" s="1"/>
-      <c r="P173" s="1"/>
+      <c r="O173" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P173" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
@@ -9138,22 +9304,34 @@
       <c r="X173" s="1"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="1"/>
+      <c r="A174" s="4" t="s">
+        <v>560</v>
+      </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="D174" s="4" t="s">
+        <v>562</v>
+      </c>
       <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+      <c r="F174" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
+      <c r="M174" s="4" t="s">
+        <v>563</v>
+      </c>
       <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
+      <c r="O174" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P174" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
@@ -9164,22 +9342,40 @@
       <c r="X174" s="1"/>
     </row>
     <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="1"/>
+      <c r="A175" s="4" t="s">
+        <v>564</v>
+      </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-      <c r="F175" s="1"/>
+      <c r="D175" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
+      <c r="I175" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
-      <c r="M175" s="1"/>
+      <c r="M175" s="4" t="s">
+        <v>568</v>
+      </c>
       <c r="N175" s="1"/>
-      <c r="O175" s="1"/>
-      <c r="P175" s="1"/>
+      <c r="O175" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P175" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
@@ -9190,22 +9386,34 @@
       <c r="X175" s="1"/>
     </row>
     <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="1"/>
+      <c r="A176" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="D176" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E176" s="1"/>
-      <c r="F176" s="1"/>
+      <c r="F176" s="4" t="s">
+        <v>569</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
-      <c r="M176" s="1"/>
+      <c r="M176" s="4" t="s">
+        <v>570</v>
+      </c>
       <c r="N176" s="1"/>
-      <c r="O176" s="1"/>
-      <c r="P176" s="1"/>
+      <c r="O176" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P176" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
@@ -9216,22 +9424,40 @@
       <c r="X176" s="1"/>
     </row>
     <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="1"/>
+      <c r="A177" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-      <c r="F177" s="1"/>
+      <c r="D177" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
+      <c r="I177" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
-      <c r="M177" s="1"/>
+      <c r="M177" s="4" t="s">
+        <v>573</v>
+      </c>
       <c r="N177" s="1"/>
-      <c r="O177" s="1"/>
-      <c r="P177" s="1"/>
+      <c r="O177" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P177" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
@@ -9242,12 +9468,20 @@
       <c r="X177" s="1"/>
     </row>
     <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="1"/>
+      <c r="A178" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-      <c r="F178" s="1"/>
+      <c r="D178" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
@@ -9255,9 +9489,15 @@
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="1"/>
-      <c r="N178" s="1"/>
-      <c r="O178" s="1"/>
-      <c r="P178" s="1"/>
+      <c r="N178" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="O178" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P178" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
@@ -9268,22 +9508,40 @@
       <c r="X178" s="1"/>
     </row>
     <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="1"/>
+      <c r="A179" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-      <c r="F179" s="1"/>
+      <c r="D179" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
+      <c r="I179" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
-      <c r="M179" s="1"/>
+      <c r="M179" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="N179" s="1"/>
-      <c r="O179" s="1"/>
-      <c r="P179" s="1"/>
+      <c r="O179" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P179" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
@@ -9291,25 +9549,39 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
-      <c r="X179" s="1"/>
+      <c r="X179" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="1"/>
+      <c r="A180" s="4" t="s">
+        <v>579</v>
+      </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+      <c r="D180" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="E180" s="1"/>
-      <c r="F180" s="1"/>
+      <c r="F180" s="4" t="s">
+        <v>582</v>
+      </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
-      <c r="J180" s="1"/>
+      <c r="J180" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="1"/>
       <c r="N180" s="1"/>
-      <c r="O180" s="1"/>
-      <c r="P180" s="1"/>
+      <c r="O180" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P180" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
@@ -9320,22 +9592,40 @@
       <c r="X180" s="1"/>
     </row>
     <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="1"/>
+      <c r="A181" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-      <c r="F181" s="1"/>
+      <c r="D181" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="1"/>
-      <c r="J181" s="1"/>
+      <c r="I181" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
-      <c r="M181" s="1"/>
+      <c r="M181" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="N181" s="1"/>
-      <c r="O181" s="1"/>
-      <c r="P181" s="1"/>
+      <c r="O181" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P181" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
@@ -9343,25 +9633,41 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
-      <c r="X181" s="1"/>
+      <c r="X181" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="1"/>
+      <c r="A182" s="4" t="s">
+        <v>583</v>
+      </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-      <c r="F182" s="1"/>
+      <c r="D182" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="1"/>
+      <c r="J182" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
       <c r="N182" s="1"/>
-      <c r="O182" s="1"/>
-      <c r="P182" s="1"/>
+      <c r="O182" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P182" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
@@ -9372,11 +9678,17 @@
       <c r="X182" s="1"/>
     </row>
     <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="1"/>
+      <c r="A183" s="4" t="s">
+        <v>586</v>
+      </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
+      <c r="D183" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>588</v>
+      </c>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -9386,8 +9698,12 @@
       <c r="L183" s="1"/>
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
-      <c r="O183" s="1"/>
-      <c r="P183" s="1"/>
+      <c r="O183" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P183" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
@@ -9398,22 +9714,40 @@
       <c r="X183" s="1"/>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="1"/>
+      <c r="A184" s="4" t="s">
+        <v>589</v>
+      </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-      <c r="F184" s="1"/>
+      <c r="D184" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
+      <c r="I184" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
-      <c r="M184" s="1"/>
+      <c r="M184" s="4" t="s">
+        <v>590</v>
+      </c>
       <c r="N184" s="1"/>
-      <c r="O184" s="1"/>
-      <c r="P184" s="1"/>
+      <c r="O184" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P184" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
@@ -9424,22 +9758,40 @@
       <c r="X184" s="1"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="1"/>
+      <c r="A185" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
+      <c r="D185" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
+      <c r="I185" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
+      <c r="M185" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="N185" s="1"/>
-      <c r="O185" s="1"/>
-      <c r="P185" s="1"/>
+      <c r="O185" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P185" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
@@ -9450,22 +9802,40 @@
       <c r="X185" s="1"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="1"/>
+      <c r="A186" s="4" t="s">
+        <v>593</v>
+      </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
+      <c r="D186" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
+      <c r="I186" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>572</v>
+      </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
+      <c r="M186" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
+      <c r="O186" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P186" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
@@ -9473,25 +9843,43 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
+      <c r="X186" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="1"/>
+      <c r="A187" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
+      <c r="D187" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
+      <c r="I187" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>567</v>
+      </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
-      <c r="O187" s="1"/>
-      <c r="P187" s="1"/>
+      <c r="O187" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P187" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
@@ -9502,11 +9890,17 @@
       <c r="X187" s="1"/>
     </row>
     <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="1"/>
+      <c r="A188" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
+      <c r="D188" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -9516,8 +9910,12 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
-      <c r="O188" s="1"/>
-      <c r="P188" s="1"/>
+      <c r="O188" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P188" s="4">
+        <v>0.0</v>
+      </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="610">
   <si>
     <t>ID</t>
   </si>
@@ -1687,9 +1687,6 @@
     <t>1962</t>
   </si>
   <si>
-    <t>I192</t>
-  </si>
-  <si>
     <t>I193</t>
   </si>
   <si>
@@ -1750,24 +1747,30 @@
     <t>Сергеевна</t>
   </si>
   <si>
+    <t>Зубарева</t>
+  </si>
+  <si>
     <t>I200</t>
   </si>
   <si>
     <t>24/2/1994</t>
   </si>
   <si>
+    <t>крестная дочь, ур Левицкая</t>
+  </si>
+  <si>
+    <t>Левицкий</t>
+  </si>
+  <si>
+    <t>I202</t>
+  </si>
+  <si>
+    <t>I201</t>
+  </si>
+  <si>
     <t>крестная дочь</t>
   </si>
   <si>
-    <t>Левицкий</t>
-  </si>
-  <si>
-    <t>I202</t>
-  </si>
-  <si>
-    <t>I201</t>
-  </si>
-  <si>
     <t>Лиана</t>
   </si>
   <si>
@@ -1783,9 +1786,15 @@
     <t>I204</t>
   </si>
   <si>
+    <t>Ледовских</t>
+  </si>
+  <si>
     <t>29/8/1992</t>
   </si>
   <si>
+    <t>ур Варлашкина</t>
+  </si>
+  <si>
     <t>I205</t>
   </si>
   <si>
@@ -1808,6 +1817,30 @@
   </si>
   <si>
     <t>Волгин</t>
+  </si>
+  <si>
+    <t>I209</t>
+  </si>
+  <si>
+    <t>Давудов</t>
+  </si>
+  <si>
+    <t>I210</t>
+  </si>
+  <si>
+    <t>I211</t>
+  </si>
+  <si>
+    <t>Алиса</t>
+  </si>
+  <si>
+    <t>Витальевна</t>
+  </si>
+  <si>
+    <t>I212</t>
+  </si>
+  <si>
+    <t>Зубарев</t>
   </si>
 </sst>
 </file>
@@ -6834,7 +6867,9 @@
       <c r="I116" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="J116" s="1"/>
+      <c r="J116" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
       <c r="M116" s="4" t="s">
@@ -9222,26 +9257,26 @@
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="4" t="s">
-        <v>395</v>
+        <v>286</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>419</v>
+        <v>37</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
-      <c r="I172" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="J172" s="1" t="s">
-        <v>110</v>
+      <c r="I172" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>559</v>
       </c>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="4" t="s">
-        <v>398</v>
+        <v>560</v>
       </c>
       <c r="N172" s="1"/>
       <c r="O172" s="4">
@@ -9266,26 +9301,20 @@
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="E173" s="1"/>
       <c r="F173" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
-      <c r="I173" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J173" s="4" t="s">
-        <v>560</v>
-      </c>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="4">
@@ -9305,25 +9334,31 @@
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E174" s="1"/>
+        <v>564</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>565</v>
+      </c>
       <c r="F174" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
+      <c r="I174" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>566</v>
+      </c>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="4" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="4">
@@ -9343,31 +9378,25 @@
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="4" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>566</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="E175" s="1"/>
       <c r="F175" s="4" t="s">
-        <v>45</v>
+        <v>568</v>
       </c>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
-      <c r="I175" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J175" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N175" s="1"/>
       <c r="O175" s="4">
@@ -9387,29 +9416,35 @@
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="4" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E176" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="F176" s="4" t="s">
-        <v>569</v>
+        <v>74</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
-      <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
+      <c r="I176" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="4" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P176" s="4">
         <v>1.0</v>
@@ -9430,33 +9465,29 @@
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="4" t="s">
-        <v>159</v>
+        <v>573</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>160</v>
+        <v>574</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
-      <c r="I177" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J177" s="4" t="s">
-        <v>572</v>
-      </c>
+      <c r="I177" s="1"/>
+      <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
-      <c r="M177" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="N177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="4" t="s">
+        <v>575</v>
+      </c>
       <c r="O177" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P177" s="4">
         <v>0.0</v>
-      </c>
-      <c r="P177" s="4">
-        <v>1.0</v>
       </c>
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
@@ -9469,34 +9500,38 @@
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="4" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="4" t="s">
-        <v>574</v>
+        <v>345</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>157</v>
+        <v>578</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
-      <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
+      <c r="I178" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
-      <c r="M178" s="1"/>
-      <c r="N178" s="4" t="s">
-        <v>576</v>
-      </c>
+      <c r="M178" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="N178" s="1"/>
       <c r="O178" s="4">
         <v>1.0</v>
       </c>
       <c r="P178" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
@@ -9505,39 +9540,35 @@
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
-      <c r="X178" s="1"/>
+      <c r="X178" s="4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E179" s="4" t="s">
-        <v>578</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="E179" s="1"/>
       <c r="F179" s="4" t="s">
-        <v>98</v>
+        <v>582</v>
       </c>
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
-      <c r="I179" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>97</v>
+      <c r="I179" s="1"/>
+      <c r="J179" s="4" t="s">
+        <v>583</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
-      <c r="M179" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="M179" s="1"/>
       <c r="N179" s="1"/>
       <c r="O179" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P179" s="4">
         <v>1.0</v>
@@ -9549,35 +9580,39 @@
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
       <c r="W179" s="1"/>
-      <c r="X179" s="4" t="s">
-        <v>581</v>
-      </c>
+      <c r="X179" s="1"/>
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="4" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
-      <c r="D180" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E180" s="1"/>
+      <c r="D180" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>577</v>
+      </c>
       <c r="F180" s="4" t="s">
-        <v>582</v>
+        <v>98</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
-      <c r="I180" s="1"/>
-      <c r="J180" s="4" t="s">
-        <v>583</v>
+      <c r="I180" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
-      <c r="M180" s="1"/>
+      <c r="M180" s="4" t="s">
+        <v>580</v>
+      </c>
       <c r="N180" s="1"/>
       <c r="O180" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P180" s="4">
         <v>1.0</v>
@@ -9589,36 +9624,34 @@
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
       <c r="W180" s="1"/>
-      <c r="X180" s="1"/>
+      <c r="X180" s="4" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
-      <c r="D181" s="15" t="s">
-        <v>174</v>
+      <c r="D181" s="4" t="s">
+        <v>586</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>578</v>
+        <v>458</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
-      <c r="I181" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="J181" s="1" t="s">
-        <v>97</v>
+      <c r="I181" s="1"/>
+      <c r="J181" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
-      <c r="M181" s="4" t="s">
-        <v>580</v>
-      </c>
+      <c r="M181" s="1"/>
       <c r="N181" s="1"/>
       <c r="O181" s="4">
         <v>1.0</v>
@@ -9633,31 +9666,25 @@
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
       <c r="W181" s="1"/>
-      <c r="X181" s="4" t="s">
-        <v>581</v>
-      </c>
+      <c r="X181" s="1"/>
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="4" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="4" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="F182" s="1"/>
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
-      <c r="J182" s="4" t="s">
-        <v>586</v>
-      </c>
+      <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="1"/>
@@ -9666,7 +9693,7 @@
         <v>1.0</v>
       </c>
       <c r="P182" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
@@ -9679,30 +9706,38 @@
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="4" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="4" t="s">
-        <v>587</v>
+        <v>25</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F183" s="1"/>
+        <v>538</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>591</v>
+      </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
-      <c r="I183" s="1"/>
-      <c r="J183" s="1"/>
+      <c r="I183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>571</v>
+      </c>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
-      <c r="M183" s="1"/>
+      <c r="M183" s="4" t="s">
+        <v>592</v>
+      </c>
       <c r="N183" s="1"/>
       <c r="O183" s="4">
         <v>1.0</v>
       </c>
       <c r="P183" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
@@ -9711,35 +9746,37 @@
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
       <c r="W183" s="1"/>
-      <c r="X183" s="1"/>
+      <c r="X183" s="4" t="s">
+        <v>593</v>
+      </c>
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="4" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
-      <c r="D184" s="4" t="s">
-        <v>25</v>
+      <c r="D184" s="15" t="s">
+        <v>561</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J184" s="4" t="s">
-        <v>572</v>
+      <c r="I184" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="4" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="N184" s="1"/>
       <c r="O184" s="4">
@@ -9759,31 +9796,31 @@
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="4" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
-      <c r="D185" s="15" t="s">
-        <v>562</v>
+      <c r="D185" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
-      <c r="I185" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="J185" s="1" t="s">
-        <v>97</v>
+      <c r="I185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="4" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="4">
@@ -9799,39 +9836,39 @@
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
       <c r="W185" s="1"/>
-      <c r="X185" s="1"/>
+      <c r="X185" s="4" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="4" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="4" t="s">
-        <v>67</v>
+        <v>599</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>538</v>
+        <v>600</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="J186" s="4" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="4" t="s">
-        <v>594</v>
-      </c>
+      <c r="M186" s="1"/>
       <c r="N186" s="1"/>
       <c r="O186" s="4">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P186" s="4">
         <v>1.0</v>
@@ -9843,42 +9880,34 @@
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
       <c r="W186" s="1"/>
-      <c r="X186" s="4" t="s">
-        <v>581</v>
-      </c>
+      <c r="X186" s="1"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="4" t="s">
-        <v>595</v>
+        <v>314</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="4" t="s">
-        <v>596</v>
+        <v>52</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="F187" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="F187" s="1"/>
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
-      <c r="I187" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J187" s="4" t="s">
-        <v>567</v>
-      </c>
+      <c r="I187" s="1"/>
+      <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
       <c r="O187" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P187" s="4">
         <v>0.0</v>
-      </c>
-      <c r="P187" s="4">
-        <v>1.0</v>
       </c>
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
@@ -9891,30 +9920,36 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="4" t="s">
-        <v>314</v>
+        <v>602</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="4" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="F188" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
+      <c r="I188" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>594</v>
+      </c>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="1"/>
       <c r="O188" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P188" s="4">
         <v>1.0</v>
-      </c>
-      <c r="P188" s="4">
-        <v>0.0</v>
       </c>
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
@@ -9926,22 +9961,31 @@
       <c r="X188" s="1"/>
     </row>
     <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="1"/>
+      <c r="A189" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+      <c r="D189" s="4" t="s">
+        <v>217</v>
+      </c>
       <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
+      <c r="F189" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
+      <c r="O189" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P189" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
@@ -9952,22 +9996,38 @@
       <c r="X189" s="1"/>
     </row>
     <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="1"/>
+      <c r="A190" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
+      <c r="D190" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>578</v>
+      </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
+      <c r="I190" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>576</v>
+      </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="1"/>
-      <c r="O190" s="1"/>
-      <c r="P190" s="1"/>
+      <c r="O190" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P190" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
@@ -9978,12 +10038,18 @@
       <c r="X190" s="1"/>
     </row>
     <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="1"/>
+      <c r="A191" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+      <c r="D191" s="4" t="s">
+        <v>294</v>
+      </c>
       <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
+      <c r="F191" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
@@ -9992,8 +10058,12 @@
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="N191" s="1"/>
-      <c r="O191" s="1"/>
-      <c r="P191" s="1"/>
+      <c r="O191" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P191" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
@@ -30985,32 +31055,6 @@
       <c r="W998" s="1"/>
       <c r="X998" s="1"/>
     </row>
-    <row r="999" ht="12.75" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="B999" s="1"/>
-      <c r="C999" s="1"/>
-      <c r="D999" s="1"/>
-      <c r="E999" s="1"/>
-      <c r="F999" s="1"/>
-      <c r="G999" s="1"/>
-      <c r="H999" s="1"/>
-      <c r="I999" s="1"/>
-      <c r="J999" s="1"/>
-      <c r="K999" s="1"/>
-      <c r="L999" s="1"/>
-      <c r="M999" s="1"/>
-      <c r="N999" s="1"/>
-      <c r="O999" s="1"/>
-      <c r="P999" s="1"/>
-      <c r="Q999" s="1"/>
-      <c r="R999" s="1"/>
-      <c r="S999" s="1"/>
-      <c r="T999" s="1"/>
-      <c r="U999" s="1"/>
-      <c r="V999" s="1"/>
-      <c r="W999" s="1"/>
-      <c r="X999" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L15"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="630">
   <si>
     <t>ID</t>
   </si>
@@ -1841,6 +1841,66 @@
   </si>
   <si>
     <t>Зубарев</t>
+  </si>
+  <si>
+    <t>I213</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>6/10/1960</t>
+  </si>
+  <si>
+    <t>I214</t>
+  </si>
+  <si>
+    <t>7/07/1960</t>
+  </si>
+  <si>
+    <t>I215</t>
+  </si>
+  <si>
+    <t>Геннадьевна</t>
+  </si>
+  <si>
+    <t>6/02/1974</t>
+  </si>
+  <si>
+    <t>I216</t>
+  </si>
+  <si>
+    <t>3/02/1986</t>
+  </si>
+  <si>
+    <t>I217</t>
+  </si>
+  <si>
+    <t>Войцеховский</t>
+  </si>
+  <si>
+    <t>7/09/1964</t>
+  </si>
+  <si>
+    <t>I218</t>
+  </si>
+  <si>
+    <t>27/06/1995</t>
+  </si>
+  <si>
+    <t>I219</t>
+  </si>
+  <si>
+    <t>22/04/1998</t>
+  </si>
+  <si>
+    <t>I220</t>
+  </si>
+  <si>
+    <t>Войцеховская</t>
+  </si>
+  <si>
+    <t>1/02/2012</t>
   </si>
 </sst>
 </file>
@@ -1966,8 +2026,8 @@
     <col customWidth="1" min="1" max="1" width="3.57"/>
     <col customWidth="1" min="2" max="2" width="3.71"/>
     <col customWidth="1" min="3" max="3" width="5.43"/>
-    <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="5" max="5" width="11.29"/>
+    <col customWidth="1" min="4" max="4" width="25.0"/>
+    <col customWidth="1" min="5" max="5" width="27.71"/>
     <col customWidth="1" min="6" max="6" width="11.71"/>
     <col customWidth="1" min="7" max="7" width="5.29"/>
     <col customWidth="1" min="8" max="8" width="8.71"/>
@@ -10074,22 +10134,38 @@
       <c r="X191" s="1"/>
     </row>
     <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="1"/>
+      <c r="A192" s="4" t="s">
+        <v>610</v>
+      </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
+      <c r="D192" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E192" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="F192" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
+      <c r="J192" s="4" t="s">
+        <v>537</v>
+      </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
+      <c r="M192" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
+      <c r="O192" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P192" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
@@ -10100,22 +10176,35 @@
       <c r="X192" s="1"/>
     </row>
     <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="1"/>
+      <c r="A193" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
+      <c r="D193" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="F193" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
+      <c r="I193" s="4"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
+      <c r="M193" s="13" t="s">
+        <v>614</v>
+      </c>
       <c r="N193" s="1"/>
-      <c r="O193" s="1"/>
-      <c r="P193" s="1"/>
+      <c r="O193" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P193" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
@@ -10126,22 +10215,38 @@
       <c r="X193" s="1"/>
     </row>
     <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="1"/>
+      <c r="A194" s="4" t="s">
+        <v>615</v>
+      </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
+      <c r="D194" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="13" t="s">
+        <v>616</v>
+      </c>
+      <c r="F194" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
+      <c r="J194" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
+      <c r="M194" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
+      <c r="O194" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P194" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
@@ -10152,22 +10257,40 @@
       <c r="X194" s="1"/>
     </row>
     <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="1"/>
+      <c r="A195" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
+      <c r="D195" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="E195" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F195" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
+      <c r="I195" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
+      <c r="M195" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="N195" s="1"/>
-      <c r="O195" s="1"/>
-      <c r="P195" s="1"/>
+      <c r="O195" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P195" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
@@ -10178,22 +10301,34 @@
       <c r="X195" s="1"/>
     </row>
     <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="1"/>
+      <c r="A196" s="4" t="s">
+        <v>620</v>
+      </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
+      <c r="D196" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E196" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F196" s="13" t="s">
+        <v>621</v>
+      </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
+      <c r="M196" s="4" t="s">
+        <v>622</v>
+      </c>
       <c r="N196" s="1"/>
-      <c r="O196" s="1"/>
-      <c r="P196" s="1"/>
+      <c r="O196" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P196" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
@@ -10204,22 +10339,40 @@
       <c r="X196" s="1"/>
     </row>
     <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="1"/>
+      <c r="A197" s="4" t="s">
+        <v>623</v>
+      </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
+      <c r="D197" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="E197" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F197" s="13" t="s">
+        <v>621</v>
+      </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
+      <c r="I197" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
+      <c r="M197" s="4" t="s">
+        <v>624</v>
+      </c>
       <c r="N197" s="1"/>
-      <c r="O197" s="1"/>
-      <c r="P197" s="1"/>
+      <c r="O197" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P197" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
@@ -10230,22 +10383,40 @@
       <c r="X197" s="1"/>
     </row>
     <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="1"/>
+      <c r="A198" s="4" t="s">
+        <v>625</v>
+      </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
+      <c r="D198" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E198" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F198" s="13" t="s">
+        <v>621</v>
+      </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
+      <c r="I198" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
+      <c r="M198" s="4" t="s">
+        <v>626</v>
+      </c>
       <c r="N198" s="1"/>
-      <c r="O198" s="1"/>
-      <c r="P198" s="1"/>
+      <c r="O198" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P198" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
@@ -10256,22 +10427,40 @@
       <c r="X198" s="1"/>
     </row>
     <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="1"/>
+      <c r="A199" s="4" t="s">
+        <v>627</v>
+      </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
+      <c r="D199" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E199" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F199" s="13" t="s">
+        <v>628</v>
+      </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
+      <c r="I199" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
+      <c r="M199" s="13" t="s">
+        <v>629</v>
+      </c>
       <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
-      <c r="P199" s="1"/>
+      <c r="O199" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="P199" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
@@ -10285,7 +10474,6 @@
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -10311,7 +10499,6 @@
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -10415,7 +10602,7 @@
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
-      <c r="D205" s="1"/>
+      <c r="D205" s="8"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="637">
   <si>
     <t>ID</t>
   </si>
@@ -1849,6 +1849,9 @@
     <t>Олегович</t>
   </si>
   <si>
+    <t>I222</t>
+  </si>
+  <si>
     <t>6/10/1960</t>
   </si>
   <si>
@@ -1864,6 +1867,9 @@
     <t>Геннадьевна</t>
   </si>
   <si>
+    <t>I221</t>
+  </si>
+  <si>
     <t>6/02/1974</t>
   </si>
   <si>
@@ -1901,6 +1907,21 @@
   </si>
   <si>
     <t>1/02/2012</t>
+  </si>
+  <si>
+    <t>Геннадий</t>
+  </si>
+  <si>
+    <t>Григорьевич</t>
+  </si>
+  <si>
+    <t>Никеев</t>
+  </si>
+  <si>
+    <t>Олег</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
   </si>
 </sst>
 </file>
@@ -1967,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -2003,6 +2024,9 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10150,14 +10174,16 @@
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
+      <c r="I192" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="J192" s="4" t="s">
         <v>537</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N192" s="1"/>
       <c r="O192" s="4">
@@ -10177,7 +10203,7 @@
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10196,7 +10222,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="13" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="4">
@@ -10216,7 +10242,7 @@
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10224,21 +10250,23 @@
         <v>31</v>
       </c>
       <c r="E194" s="13" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F194" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
+      <c r="I194" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="J194" s="4" t="s">
-        <v>613</v>
+        <v>537</v>
       </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="N194" s="1"/>
       <c r="O194" s="4">
@@ -10258,7 +10286,7 @@
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="4" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10277,12 +10305,12 @@
         <v>610</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="4" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="N195" s="1"/>
       <c r="O195" s="4">
@@ -10302,7 +10330,7 @@
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10313,14 +10341,14 @@
         <v>73</v>
       </c>
       <c r="F196" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="4" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="4">
@@ -10340,7 +10368,7 @@
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="4" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10351,20 +10379,20 @@
         <v>133</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J197" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="4" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="4">
@@ -10384,7 +10412,7 @@
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10395,20 +10423,20 @@
         <v>133</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
       <c r="I198" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J198" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="4" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="4">
@@ -10428,7 +10456,7 @@
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="4" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10439,20 +10467,20 @@
         <v>419</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="4" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J199" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="13" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="N199" s="1"/>
       <c r="O199" s="4">
@@ -10471,11 +10499,20 @@
       <c r="X199" s="1"/>
     </row>
     <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="1"/>
+      <c r="A200" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
+      <c r="D200" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>634</v>
+      </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
@@ -10484,8 +10521,12 @@
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
+      <c r="O200" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P200" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
@@ -10496,11 +10537,20 @@
       <c r="X200" s="1"/>
     </row>
     <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="1"/>
+      <c r="A201" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
+      <c r="D201" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>636</v>
+      </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
@@ -10509,8 +10559,12 @@
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
-      <c r="O201" s="1"/>
-      <c r="P201" s="1"/>
+      <c r="O201" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="P201" s="4">
+        <v>1.0</v>
+      </c>
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="795">
   <si>
     <t>ID</t>
   </si>
@@ -2228,6 +2228,174 @@
   </si>
   <si>
     <t>Хренова</t>
+  </si>
+  <si>
+    <t>q228</t>
+  </si>
+  <si>
+    <t>i29</t>
+  </si>
+  <si>
+    <t>2/22/1918</t>
+  </si>
+  <si>
+    <t>q226</t>
+  </si>
+  <si>
+    <t>Зосимович</t>
+  </si>
+  <si>
+    <t>Трубачёв</t>
+  </si>
+  <si>
+    <t>q225</t>
+  </si>
+  <si>
+    <t>q227</t>
+  </si>
+  <si>
+    <t>3/25/1919</t>
+  </si>
+  <si>
+    <t>q231</t>
+  </si>
+  <si>
+    <t>11/7/1952</t>
+  </si>
+  <si>
+    <t>q230</t>
+  </si>
+  <si>
+    <t>Трубачёва</t>
+  </si>
+  <si>
+    <t>7/1/1951</t>
+  </si>
+  <si>
+    <t>q229</t>
+  </si>
+  <si>
+    <t>Никитина</t>
+  </si>
+  <si>
+    <t>6/15/1947</t>
+  </si>
+  <si>
+    <t>q232</t>
+  </si>
+  <si>
+    <t>Валентин</t>
+  </si>
+  <si>
+    <t>Арсентьевич</t>
+  </si>
+  <si>
+    <t>Никитин</t>
+  </si>
+  <si>
+    <t>q240</t>
+  </si>
+  <si>
+    <t>q241</t>
+  </si>
+  <si>
+    <t>3/2/1947</t>
+  </si>
+  <si>
+    <t>q233</t>
+  </si>
+  <si>
+    <t>Валентиновна</t>
+  </si>
+  <si>
+    <t>q234</t>
+  </si>
+  <si>
+    <t>q235</t>
+  </si>
+  <si>
+    <t>Валентинович</t>
+  </si>
+  <si>
+    <t>q236</t>
+  </si>
+  <si>
+    <t>q238</t>
+  </si>
+  <si>
+    <t>Арсенович</t>
+  </si>
+  <si>
+    <t>Зосима</t>
+  </si>
+  <si>
+    <t>Санкова</t>
+  </si>
+  <si>
+    <t>q237</t>
+  </si>
+  <si>
+    <t>Зосимовна</t>
+  </si>
+  <si>
+    <t>Арсентий</t>
+  </si>
+  <si>
+    <t>Лукинична</t>
+  </si>
+  <si>
+    <t>Зубкова</t>
+  </si>
+  <si>
+    <t>q242</t>
+  </si>
+  <si>
+    <t>Арсеньевна</t>
+  </si>
+  <si>
+    <t>q243</t>
+  </si>
+  <si>
+    <t>Пётр</t>
+  </si>
+  <si>
+    <t>q245</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>q244</t>
+  </si>
+  <si>
+    <t>q246</t>
+  </si>
+  <si>
+    <t>q248</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Елисеевич</t>
+  </si>
+  <si>
+    <t>Елисеев</t>
+  </si>
+  <si>
+    <t>q247</t>
+  </si>
+  <si>
+    <t>q249</t>
+  </si>
+  <si>
+    <t>Бердникова</t>
+  </si>
+  <si>
+    <t>Елисей</t>
+  </si>
+  <si>
+    <t>Тимофеевич</t>
   </si>
 </sst>
 </file>
@@ -2294,7 +2462,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -2334,6 +2502,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2367,7 +2538,7 @@
     <col customWidth="1" min="12" max="12" width="1.14"/>
     <col customWidth="1" min="13" max="13" width="8.71"/>
     <col customWidth="1" min="14" max="14" width="9.0"/>
-    <col customWidth="1" min="15" max="15" width="2.14"/>
+    <col customWidth="1" min="15" max="15" width="4.86"/>
     <col customWidth="1" min="16" max="16" width="2.0"/>
     <col customWidth="1" min="17" max="18" width="1.0"/>
     <col customWidth="1" min="19" max="19" width="1.71"/>
@@ -12260,22 +12431,38 @@
       <c r="X233" s="1"/>
     </row>
     <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="1"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-      <c r="D234" s="1"/>
-      <c r="E234" s="1"/>
-      <c r="F234" s="1"/>
-      <c r="G234" s="1"/>
-      <c r="H234" s="1"/>
-      <c r="I234" s="1"/>
-      <c r="J234" s="2"/>
-      <c r="K234" s="1"/>
-      <c r="L234" s="1"/>
-      <c r="M234" s="1"/>
+      <c r="A234" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="D234" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E234" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F234" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G234" s="11"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J234" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="K234" s="11"/>
+      <c r="L234" s="11"/>
+      <c r="M234" s="17" t="s">
+        <v>741</v>
+      </c>
       <c r="N234" s="1"/>
-      <c r="O234" s="1"/>
-      <c r="P234" s="1"/>
+      <c r="O234" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P234" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
@@ -12286,22 +12473,37 @@
       <c r="X234" s="1"/>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="1"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-      <c r="D235" s="1"/>
-      <c r="E235" s="1"/>
-      <c r="F235" s="1"/>
-      <c r="G235" s="1"/>
-      <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
-      <c r="K235" s="1"/>
-      <c r="L235" s="1"/>
-      <c r="M235" s="1"/>
+      <c r="A235" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="D235" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E235" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G235" s="11"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="J235" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="L235" s="11"/>
+      <c r="M235" s="17" t="s">
+        <v>747</v>
+      </c>
       <c r="N235" s="1"/>
-      <c r="O235" s="1"/>
-      <c r="P235" s="1"/>
+      <c r="O235" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P235" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
@@ -12312,22 +12514,37 @@
       <c r="X235" s="1"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="1"/>
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-      <c r="D236" s="1"/>
-      <c r="E236" s="1"/>
-      <c r="F236" s="1"/>
-      <c r="G236" s="1"/>
-      <c r="H236" s="1"/>
-      <c r="I236" s="1"/>
-      <c r="J236" s="1"/>
-      <c r="K236" s="1"/>
-      <c r="L236" s="1"/>
-      <c r="M236" s="1"/>
+      <c r="A236" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="D236" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E236" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F236" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G236" s="11"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="J236" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="L236" s="11"/>
+      <c r="M236" s="17" t="s">
+        <v>749</v>
+      </c>
       <c r="N236" s="1"/>
-      <c r="O236" s="1"/>
-      <c r="P236" s="1"/>
+      <c r="O236" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P236" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
@@ -12338,22 +12555,37 @@
       <c r="X236" s="1"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="1"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-      <c r="D237" s="1"/>
-      <c r="E237" s="1"/>
-      <c r="F237" s="1"/>
-      <c r="G237" s="1"/>
-      <c r="H237" s="1"/>
-      <c r="I237" s="1"/>
-      <c r="J237" s="1"/>
-      <c r="K237" s="1"/>
-      <c r="L237" s="1"/>
-      <c r="M237" s="1"/>
+      <c r="A237" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="D237" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E237" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="J237" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="L237" s="11"/>
+      <c r="M237" s="17" t="s">
+        <v>752</v>
+      </c>
       <c r="N237" s="1"/>
-      <c r="O237" s="1"/>
-      <c r="P237" s="1"/>
+      <c r="O237" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P237" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
@@ -12364,22 +12596,37 @@
       <c r="X237" s="1"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="1"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-      <c r="D238" s="1"/>
-      <c r="E238" s="1"/>
-      <c r="F238" s="1"/>
-      <c r="G238" s="1"/>
-      <c r="H238" s="1"/>
-      <c r="I238" s="1"/>
-      <c r="J238" s="1"/>
-      <c r="K238" s="1"/>
-      <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
+      <c r="A238" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D238" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E238" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="F238" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G238" s="11"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="J238" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="L238" s="11"/>
+      <c r="M238" s="17" t="s">
+        <v>755</v>
+      </c>
       <c r="N238" s="1"/>
-      <c r="O238" s="1"/>
-      <c r="P238" s="1"/>
+      <c r="O238" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P238" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
@@ -12390,22 +12637,37 @@
       <c r="X238" s="1"/>
     </row>
     <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="1"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-      <c r="D239" s="1"/>
-      <c r="E239" s="1"/>
-      <c r="F239" s="1"/>
-      <c r="G239" s="1"/>
-      <c r="H239" s="1"/>
-      <c r="I239" s="1"/>
-      <c r="J239" s="1"/>
-      <c r="K239" s="1"/>
-      <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
+      <c r="A239" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="D239" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="E239" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="F239" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G239" s="11"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J239" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L239" s="11"/>
+      <c r="M239" s="17" t="s">
+        <v>762</v>
+      </c>
       <c r="N239" s="1"/>
-      <c r="O239" s="1"/>
-      <c r="P239" s="1"/>
+      <c r="O239" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P239" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
@@ -12416,22 +12678,37 @@
       <c r="X239" s="1"/>
     </row>
     <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="1"/>
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-      <c r="D240" s="1"/>
-      <c r="E240" s="1"/>
-      <c r="F240" s="1"/>
-      <c r="G240" s="1"/>
-      <c r="H240" s="1"/>
-      <c r="I240" s="1"/>
-      <c r="J240" s="1"/>
-      <c r="K240" s="1"/>
-      <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
+      <c r="A240" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="D240" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E240" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F240" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G240" s="11"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="J240" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="L240" s="11"/>
+      <c r="M240" s="17">
+        <v>27010.0</v>
+      </c>
       <c r="N240" s="1"/>
-      <c r="O240" s="1"/>
-      <c r="P240" s="1"/>
+      <c r="O240" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P240" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
@@ -12442,22 +12719,37 @@
       <c r="X240" s="1"/>
     </row>
     <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="1"/>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
-      <c r="F241" s="1"/>
-      <c r="G241" s="1"/>
-      <c r="H241" s="1"/>
-      <c r="I241" s="1"/>
-      <c r="J241" s="1"/>
-      <c r="K241" s="1"/>
-      <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
+      <c r="A241" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E241" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G241" s="11"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="J241" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="L241" s="11"/>
+      <c r="M241" s="17">
+        <v>27566.0</v>
+      </c>
       <c r="N241" s="1"/>
-      <c r="O241" s="1"/>
-      <c r="P241" s="1"/>
+      <c r="O241" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P241" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
@@ -12468,22 +12760,37 @@
       <c r="X241" s="1"/>
     </row>
     <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="1"/>
-      <c r="E242" s="1"/>
-      <c r="F242" s="1"/>
-      <c r="G242" s="1"/>
-      <c r="H242" s="1"/>
-      <c r="I242" s="1"/>
-      <c r="J242" s="1"/>
-      <c r="K242" s="1"/>
-      <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
+      <c r="A242" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="D242" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E242" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="F242" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="J242" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="L242" s="11"/>
+      <c r="M242" s="17">
+        <v>28301.0</v>
+      </c>
       <c r="N242" s="1"/>
-      <c r="O242" s="1"/>
-      <c r="P242" s="1"/>
+      <c r="O242" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P242" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
@@ -12494,22 +12801,35 @@
       <c r="X242" s="1"/>
     </row>
     <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="1"/>
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
-      <c r="D243" s="1"/>
-      <c r="E243" s="1"/>
-      <c r="F243" s="1"/>
-      <c r="G243" s="1"/>
-      <c r="H243" s="1"/>
-      <c r="I243" s="1"/>
-      <c r="J243" s="1"/>
-      <c r="K243" s="1"/>
-      <c r="L243" s="1"/>
-      <c r="M243" s="1"/>
+      <c r="A243" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D243" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="E243" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F243" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="K243" s="11"/>
+      <c r="L243" s="11"/>
+      <c r="M243" s="17">
+        <v>39397.0</v>
+      </c>
       <c r="N243" s="1"/>
-      <c r="O243" s="1"/>
-      <c r="P243" s="1"/>
+      <c r="O243" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P243" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
@@ -12520,22 +12840,35 @@
       <c r="X243" s="1"/>
     </row>
     <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="1"/>
-      <c r="B244" s="1"/>
-      <c r="C244" s="1"/>
-      <c r="D244" s="1"/>
-      <c r="E244" s="1"/>
-      <c r="F244" s="1"/>
-      <c r="G244" s="1"/>
-      <c r="H244" s="1"/>
-      <c r="I244" s="1"/>
-      <c r="J244" s="1"/>
-      <c r="K244" s="1"/>
-      <c r="L244" s="1"/>
-      <c r="M244" s="1"/>
+      <c r="A244" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="D244" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E244" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G244" s="11"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J244" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L244" s="11"/>
+      <c r="M244" s="11"/>
       <c r="N244" s="1"/>
-      <c r="O244" s="1"/>
-      <c r="P244" s="1"/>
+      <c r="O244" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P244" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
@@ -12546,22 +12879,32 @@
       <c r="X244" s="1"/>
     </row>
     <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="1"/>
-      <c r="B245" s="1"/>
-      <c r="C245" s="1"/>
-      <c r="D245" s="1"/>
-      <c r="E245" s="1"/>
-      <c r="F245" s="1"/>
-      <c r="G245" s="1"/>
-      <c r="H245" s="1"/>
-      <c r="I245" s="1"/>
-      <c r="J245" s="1"/>
-      <c r="K245" s="1"/>
-      <c r="L245" s="1"/>
-      <c r="M245" s="1"/>
+      <c r="A245" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D245" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F245" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11"/>
+      <c r="K245" s="11"/>
+      <c r="L245" s="11"/>
+      <c r="M245" s="11"/>
       <c r="N245" s="1"/>
-      <c r="O245" s="1"/>
-      <c r="P245" s="1"/>
+      <c r="O245" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P245" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
@@ -12572,22 +12915,32 @@
       <c r="X245" s="1"/>
     </row>
     <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="1"/>
-      <c r="B246" s="1"/>
-      <c r="C246" s="1"/>
-      <c r="D246" s="1"/>
-      <c r="E246" s="1"/>
-      <c r="F246" s="1"/>
-      <c r="G246" s="1"/>
-      <c r="H246" s="1"/>
-      <c r="I246" s="1"/>
-      <c r="J246" s="1"/>
-      <c r="K246" s="1"/>
-      <c r="L246" s="1"/>
-      <c r="M246" s="1"/>
+      <c r="A246" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="D246" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F246" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="G246" s="11"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11"/>
+      <c r="J246" s="11"/>
+      <c r="K246" s="11"/>
+      <c r="L246" s="11"/>
+      <c r="M246" s="11"/>
       <c r="N246" s="1"/>
-      <c r="O246" s="1"/>
-      <c r="P246" s="1"/>
+      <c r="O246" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P246" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
@@ -12598,22 +12951,35 @@
       <c r="X246" s="1"/>
     </row>
     <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="1"/>
-      <c r="B247" s="1"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="1"/>
-      <c r="E247" s="1"/>
-      <c r="F247" s="1"/>
-      <c r="G247" s="1"/>
-      <c r="H247" s="1"/>
-      <c r="I247" s="1"/>
-      <c r="J247" s="1"/>
-      <c r="K247" s="1"/>
-      <c r="L247" s="1"/>
-      <c r="M247" s="1"/>
+      <c r="A247" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D247" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E247" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="F247" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="10" t="s">
+        <v>745</v>
+      </c>
+      <c r="J247" s="10" t="s">
+        <v>746</v>
+      </c>
+      <c r="L247" s="11"/>
+      <c r="M247" s="11"/>
       <c r="N247" s="1"/>
-      <c r="O247" s="1"/>
-      <c r="P247" s="1"/>
+      <c r="O247" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P247" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
@@ -12624,22 +12990,30 @@
       <c r="X247" s="1"/>
     </row>
     <row r="248" ht="12.75" customHeight="1">
-      <c r="A248" s="1"/>
-      <c r="B248" s="1"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="1"/>
-      <c r="E248" s="1"/>
-      <c r="F248" s="1"/>
-      <c r="G248" s="1"/>
-      <c r="H248" s="1"/>
-      <c r="I248" s="1"/>
-      <c r="J248" s="1"/>
-      <c r="K248" s="1"/>
-      <c r="L248" s="1"/>
-      <c r="M248" s="1"/>
+      <c r="A248" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="E248" s="11"/>
+      <c r="F248" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+      <c r="M248" s="11"/>
       <c r="N248" s="1"/>
-      <c r="O248" s="1"/>
-      <c r="P248" s="1"/>
+      <c r="O248" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P248" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
@@ -12650,22 +13024,32 @@
       <c r="X248" s="1"/>
     </row>
     <row r="249" ht="12.75" customHeight="1">
-      <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="1"/>
-      <c r="H249" s="1"/>
-      <c r="I249" s="1"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
-      <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
+      <c r="A249" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="D249" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="E249" s="10" t="s">
+        <v>776</v>
+      </c>
+      <c r="F249" s="10" t="s">
+        <v>777</v>
+      </c>
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11"/>
+      <c r="K249" s="11"/>
+      <c r="L249" s="11"/>
+      <c r="M249" s="11"/>
       <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
+      <c r="O249" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P249" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
@@ -12676,22 +13060,35 @@
       <c r="X249" s="1"/>
     </row>
     <row r="250" ht="12.75" customHeight="1">
-      <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="1"/>
-      <c r="H250" s="1"/>
-      <c r="I250" s="1"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
+      <c r="A250" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="D250" s="10" t="s">
+        <v>643</v>
+      </c>
+      <c r="E250" s="10" t="s">
+        <v>779</v>
+      </c>
+      <c r="F250" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G250" s="11"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J250" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L250" s="11"/>
+      <c r="M250" s="11"/>
       <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
+      <c r="O250" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P250" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
@@ -12702,22 +13099,35 @@
       <c r="X250" s="1"/>
     </row>
     <row r="251" ht="12.75" customHeight="1">
-      <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="1"/>
-      <c r="H251" s="1"/>
-      <c r="I251" s="1"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
-      <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
+      <c r="A251" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D251" s="10" t="s">
+        <v>781</v>
+      </c>
+      <c r="E251" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="F251" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="J251" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="L251" s="11"/>
+      <c r="M251" s="11"/>
       <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
+      <c r="O251" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P251" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
@@ -12728,22 +13138,35 @@
       <c r="X251" s="1"/>
     </row>
     <row r="252" ht="12.75" customHeight="1">
-      <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
-      <c r="I252" s="1"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
-      <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
+      <c r="A252" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>783</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="J252" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="L252" s="11"/>
+      <c r="M252" s="11"/>
       <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
+      <c r="O252" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P252" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
@@ -12754,22 +13177,37 @@
       <c r="X252" s="1"/>
     </row>
     <row r="253" ht="12.75" customHeight="1">
-      <c r="A253" s="1"/>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
-      <c r="I253" s="1"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
-      <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
+      <c r="A253" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="D253" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="E253" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="J253" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="L253" s="11"/>
+      <c r="M253" s="17">
+        <v>28617.0</v>
+      </c>
       <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
+      <c r="O253" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P253" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
@@ -12780,22 +13218,35 @@
       <c r="X253" s="1"/>
     </row>
     <row r="254" ht="12.75" customHeight="1">
-      <c r="A254" s="1"/>
-      <c r="B254" s="1"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
-      <c r="I254" s="1"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
+      <c r="A254" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="D254" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="E254" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="J254" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="L254" s="11"/>
+      <c r="M254" s="11"/>
       <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
+      <c r="O254" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P254" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
@@ -12806,22 +13257,35 @@
       <c r="X254" s="1"/>
     </row>
     <row r="255" ht="12.75" customHeight="1">
-      <c r="A255" s="1"/>
-      <c r="B255" s="1"/>
-      <c r="C255" s="1"/>
-      <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
-      <c r="I255" s="1"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
-      <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
+      <c r="A255" s="10" t="s">
+        <v>791</v>
+      </c>
+      <c r="D255" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E255" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="J255" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="L255" s="11"/>
+      <c r="M255" s="11"/>
       <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
+      <c r="O255" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P255" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
@@ -12832,22 +13296,30 @@
       <c r="X255" s="1"/>
     </row>
     <row r="256" ht="12.75" customHeight="1">
-      <c r="A256" s="1"/>
-      <c r="B256" s="1"/>
-      <c r="C256" s="1"/>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="1"/>
-      <c r="H256" s="1"/>
-      <c r="I256" s="1"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
-      <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
+      <c r="A256" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="D256" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E256" s="11"/>
+      <c r="F256" s="10" t="s">
+        <v>792</v>
+      </c>
+      <c r="G256" s="11"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="11"/>
+      <c r="J256" s="11"/>
+      <c r="K256" s="11"/>
+      <c r="L256" s="11"/>
+      <c r="M256" s="11"/>
       <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
-      <c r="P256" s="1"/>
+      <c r="O256" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P256" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
@@ -12858,22 +13330,32 @@
       <c r="X256" s="1"/>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="A257" s="1"/>
-      <c r="B257" s="1"/>
-      <c r="C257" s="1"/>
-      <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="1"/>
-      <c r="H257" s="1"/>
-      <c r="I257" s="1"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
-      <c r="L257" s="1"/>
-      <c r="M257" s="1"/>
+      <c r="A257" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="D257" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="E257" s="10" t="s">
+        <v>794</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="G257" s="11"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="11"/>
+      <c r="J257" s="11"/>
+      <c r="K257" s="11"/>
+      <c r="L257" s="11"/>
+      <c r="M257" s="11"/>
       <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
-      <c r="P257" s="1"/>
+      <c r="O257" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P257" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
@@ -32124,6 +32606,49 @@
       <c r="X997" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J240:K240"/>
+    <mergeCell ref="J241:K241"/>
+    <mergeCell ref="J242:K242"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J239:K239"/>
+    <mergeCell ref="J237:K237"/>
+    <mergeCell ref="J238:K238"/>
+    <mergeCell ref="A234:C234"/>
+    <mergeCell ref="A235:C235"/>
+    <mergeCell ref="J235:K235"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="A237:C237"/>
+    <mergeCell ref="J236:K236"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A243:C243"/>
+    <mergeCell ref="A244:C244"/>
+    <mergeCell ref="A245:C245"/>
+    <mergeCell ref="A246:C246"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A238:C238"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A240:C240"/>
+    <mergeCell ref="A241:C241"/>
+    <mergeCell ref="A242:C242"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="I243:J243"/>
+    <mergeCell ref="J244:K244"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L15"/>
     <hyperlink r:id="rId2" ref="K17"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="922">
   <si>
     <t>ID</t>
   </si>
@@ -2549,9 +2549,18 @@
     <t>Вячеслав</t>
   </si>
   <si>
+    <t xml:space="preserve">Григорьевич </t>
+  </si>
+  <si>
     <t>Пирогов</t>
   </si>
   <si>
+    <t>18/2/1942</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
     <t>I257</t>
   </si>
   <si>
@@ -2643,6 +2652,138 @@
   </si>
   <si>
     <t>отец Юлин: Комендант Олег Валентинович, русский, москвич, заканчивал как и я МАИ, защитил диссертацию, КТН, родился 15апреля 1941года, женаты мы с января 1967года. .</t>
+  </si>
+  <si>
+    <t>I280</t>
+  </si>
+  <si>
+    <t>Морозов</t>
+  </si>
+  <si>
+    <t>I281</t>
+  </si>
+  <si>
+    <t>I282</t>
+  </si>
+  <si>
+    <t>I284</t>
+  </si>
+  <si>
+    <t>I283</t>
+  </si>
+  <si>
+    <t>Морозова</t>
+  </si>
+  <si>
+    <t>I285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайлович </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хомяков </t>
+  </si>
+  <si>
+    <t>I310</t>
+  </si>
+  <si>
+    <t>I286</t>
+  </si>
+  <si>
+    <t>24/08/1987</t>
+  </si>
+  <si>
+    <t>I287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хомякова </t>
+  </si>
+  <si>
+    <t>I288</t>
+  </si>
+  <si>
+    <t>I289</t>
+  </si>
+  <si>
+    <t>11/12/1991</t>
+  </si>
+  <si>
+    <t>ур Жукова</t>
+  </si>
+  <si>
+    <t>Янисович</t>
+  </si>
+  <si>
+    <t>Жуков</t>
+  </si>
+  <si>
+    <t>28/12/1962</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татьяна </t>
+  </si>
+  <si>
+    <t>Жукова</t>
+  </si>
+  <si>
+    <t>22/03/1955</t>
+  </si>
+  <si>
+    <t>ур Корниенко</t>
+  </si>
+  <si>
+    <t>I290</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>I291</t>
+  </si>
+  <si>
+    <t>Иоанн</t>
+  </si>
+  <si>
+    <t>I292</t>
+  </si>
+  <si>
+    <t>I293</t>
+  </si>
+  <si>
+    <t>ур Широкова</t>
+  </si>
+  <si>
+    <t>I294</t>
+  </si>
+  <si>
+    <t>Ксения</t>
+  </si>
+  <si>
+    <t>Кулагина</t>
+  </si>
+  <si>
+    <t>I295</t>
+  </si>
+  <si>
+    <t>Кулагин</t>
+  </si>
+  <si>
+    <t>I296</t>
+  </si>
+  <si>
+    <t>Владиславович</t>
+  </si>
+  <si>
+    <t>ур Кулагина</t>
+  </si>
+  <si>
+    <t>I297</t>
+  </si>
+  <si>
+    <t>I298</t>
+  </si>
+  <si>
+    <t>I299</t>
   </si>
 </sst>
 </file>
@@ -2797,12 +2938,12 @@
     <col customWidth="1" min="1" max="1" width="3.57"/>
     <col customWidth="1" min="2" max="2" width="0.86"/>
     <col customWidth="1" min="3" max="3" width="0.43"/>
-    <col customWidth="1" min="4" max="4" width="10.29"/>
+    <col customWidth="1" min="4" max="4" width="19.14"/>
     <col customWidth="1" min="5" max="5" width="12.43"/>
     <col customWidth="1" min="6" max="6" width="11.71"/>
     <col customWidth="1" min="7" max="7" width="0.43"/>
     <col customWidth="1" min="8" max="8" width="0.14"/>
-    <col customWidth="1" min="9" max="9" width="3.71"/>
+    <col customWidth="1" min="9" max="9" width="14.57"/>
     <col customWidth="1" min="10" max="10" width="4.14"/>
     <col customWidth="1" min="11" max="11" width="1.29"/>
     <col customWidth="1" min="12" max="12" width="18.57"/>
@@ -14246,9 +14387,11 @@
       <c r="D272" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="E272" s="1"/>
+      <c r="E272" s="2" t="s">
+        <v>843</v>
+      </c>
       <c r="F272" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -14256,13 +14399,17 @@
       <c r="J272" s="1"/>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
-      <c r="M272" s="1"/>
-      <c r="N272" s="1"/>
+      <c r="M272" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="N272" s="2" t="s">
+        <v>846</v>
+      </c>
       <c r="O272" s="2">
         <v>0.0</v>
       </c>
       <c r="P272" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
@@ -14275,7 +14422,7 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14283,10 +14430,10 @@
         <v>103</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
@@ -14317,7 +14464,7 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -14325,10 +14472,10 @@
         <v>293</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
@@ -14359,23 +14506,23 @@
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="2" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -14399,12 +14546,12 @@
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -14412,7 +14559,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="2" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -14443,10 +14590,10 @@
         <v>55</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -14455,10 +14602,10 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="13" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="O277" s="2">
         <v>0.0</v>
@@ -14482,13 +14629,13 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="13" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E278" s="13" t="s">
         <v>279</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -14497,10 +14644,10 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="N278" s="14" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="O278" s="2">
         <v>1.0</v>
@@ -14519,18 +14666,18 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="13" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E279" s="13" t="s">
         <v>279</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -14554,12 +14701,12 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
       <c r="X279" s="2" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14570,7 +14717,7 @@
         <v>59</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -14601,7 +14748,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14612,7 +14759,7 @@
         <v>59</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -14643,7 +14790,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14654,7 +14801,7 @@
         <v>59</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -14688,7 +14835,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14699,7 +14846,7 @@
         <v>59</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -14730,7 +14877,7 @@
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14741,15 +14888,15 @@
         <v>34</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="2" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -14772,7 +14919,7 @@
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -14783,7 +14930,7 @@
         <v>29</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -14823,7 +14970,7 @@
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -14861,7 +15008,7 @@
         <v>29</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -14870,7 +15017,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="N287" s="1"/>
       <c r="O287" s="2">
@@ -14887,7 +15034,7 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
       <c r="X287" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
@@ -14903,7 +15050,7 @@
         <v>810</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -14912,7 +15059,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="N288" s="1"/>
       <c r="O288" s="2">
@@ -14929,26 +15076,42 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
       <c r="X288" s="19" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1">
-      <c r="A289" s="1"/>
+      <c r="A289" s="2" t="s">
+        <v>878</v>
+      </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
-      <c r="D289" s="1"/>
-      <c r="E289" s="1"/>
-      <c r="F289" s="1"/>
+      <c r="D289" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
-      <c r="I289" s="1"/>
-      <c r="J289" s="1"/>
+      <c r="I289" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>541</v>
+      </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
       <c r="M289" s="1"/>
       <c r="N289" s="1"/>
-      <c r="O289" s="1"/>
-      <c r="P289" s="1"/>
+      <c r="O289" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P289" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
@@ -14956,14 +15119,20 @@
       <c r="U289" s="1"/>
       <c r="V289" s="1"/>
       <c r="W289" s="1"/>
-      <c r="X289" s="1"/>
+      <c r="X289" s="2"/>
     </row>
     <row r="290" ht="12.75" customHeight="1">
-      <c r="A290" s="1"/>
+      <c r="A290" s="2" t="s">
+        <v>880</v>
+      </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
-      <c r="D290" s="1"/>
-      <c r="E290" s="1"/>
+      <c r="D290" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F290" s="1"/>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
@@ -14973,8 +15142,12 @@
       <c r="L290" s="1"/>
       <c r="M290" s="1"/>
       <c r="N290" s="1"/>
-      <c r="O290" s="1"/>
-      <c r="P290" s="1"/>
+      <c r="O290" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P290" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
@@ -14985,22 +15158,38 @@
       <c r="X290" s="1"/>
     </row>
     <row r="291" ht="12.75" customHeight="1">
-      <c r="A291" s="1"/>
+      <c r="A291" s="2" t="s">
+        <v>881</v>
+      </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
-      <c r="D291" s="1"/>
-      <c r="E291" s="1"/>
-      <c r="F291" s="1"/>
+      <c r="D291" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E291" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
-      <c r="I291" s="1"/>
-      <c r="J291" s="1"/>
+      <c r="I291" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
       <c r="M291" s="1"/>
       <c r="N291" s="1"/>
-      <c r="O291" s="1"/>
-      <c r="P291" s="1"/>
+      <c r="O291" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P291" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
@@ -15011,22 +15200,38 @@
       <c r="X291" s="1"/>
     </row>
     <row r="292" ht="12.75" customHeight="1">
-      <c r="A292" s="1"/>
+      <c r="A292" s="2" t="s">
+        <v>883</v>
+      </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
-      <c r="D292" s="1"/>
-      <c r="E292" s="19"/>
-      <c r="F292" s="1"/>
+      <c r="D292" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="E292" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>879</v>
+      </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
-      <c r="I292" s="1"/>
-      <c r="J292" s="1"/>
+      <c r="I292" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
       <c r="M292" s="1"/>
       <c r="N292" s="1"/>
-      <c r="O292" s="1"/>
-      <c r="P292" s="1"/>
+      <c r="O292" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P292" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
@@ -15037,12 +15242,18 @@
       <c r="X292" s="1"/>
     </row>
     <row r="293" ht="12.75" customHeight="1">
-      <c r="A293" s="1"/>
+      <c r="A293" s="2" t="s">
+        <v>882</v>
+      </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
-      <c r="D293" s="1"/>
+      <c r="D293" s="2" t="s">
+        <v>602</v>
+      </c>
       <c r="E293" s="1"/>
-      <c r="F293" s="1"/>
+      <c r="F293" s="2" t="s">
+        <v>884</v>
+      </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
@@ -15051,8 +15262,12 @@
       <c r="L293" s="1"/>
       <c r="M293" s="1"/>
       <c r="N293" s="1"/>
-      <c r="O293" s="1"/>
-      <c r="P293" s="1"/>
+      <c r="O293" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P293" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
@@ -15063,22 +15278,38 @@
       <c r="X293" s="1"/>
     </row>
     <row r="294" ht="12.75" customHeight="1">
-      <c r="A294" s="1"/>
+      <c r="A294" s="2" t="s">
+        <v>885</v>
+      </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
-      <c r="D294" s="1"/>
-      <c r="E294" s="1"/>
-      <c r="F294" s="1"/>
+      <c r="D294" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>887</v>
+      </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
-      <c r="I294" s="1"/>
-      <c r="J294" s="1"/>
+      <c r="I294" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>888</v>
+      </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
       <c r="M294" s="1"/>
       <c r="N294" s="1"/>
-      <c r="O294" s="1"/>
-      <c r="P294" s="1"/>
+      <c r="O294" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P294" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
@@ -15089,22 +15320,38 @@
       <c r="X294" s="1"/>
     </row>
     <row r="295" ht="12.75" customHeight="1">
-      <c r="A295" s="1"/>
+      <c r="A295" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
-      <c r="D295" s="1"/>
-      <c r="E295" s="1"/>
-      <c r="F295" s="1"/>
+      <c r="D295" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>887</v>
+      </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
-      <c r="I295" s="1"/>
+      <c r="I295" s="2" t="s">
+        <v>885</v>
+      </c>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
-      <c r="M295" s="1"/>
+      <c r="M295" s="2" t="s">
+        <v>890</v>
+      </c>
       <c r="N295" s="1"/>
-      <c r="O295" s="1"/>
-      <c r="P295" s="1"/>
+      <c r="O295" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P295" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
@@ -15115,22 +15362,40 @@
       <c r="X295" s="1"/>
     </row>
     <row r="296" ht="12.75" customHeight="1">
-      <c r="A296" s="1"/>
+      <c r="A296" s="2" t="s">
+        <v>891</v>
+      </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
-      <c r="D296" s="1"/>
-      <c r="E296" s="1"/>
-      <c r="F296" s="1"/>
+      <c r="D296" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
-      <c r="I296" s="1"/>
-      <c r="J296" s="1"/>
+      <c r="I296" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
-      <c r="M296" s="1"/>
+      <c r="M296" s="2" t="s">
+        <v>895</v>
+      </c>
       <c r="N296" s="1"/>
-      <c r="O296" s="1"/>
-      <c r="P296" s="1"/>
+      <c r="O296" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P296" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
@@ -15138,25 +15403,41 @@
       <c r="U296" s="1"/>
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
-      <c r="X296" s="1"/>
+      <c r="X296" s="2" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
-      <c r="A297" s="1"/>
+      <c r="A297" s="2" t="s">
+        <v>893</v>
+      </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
-      <c r="D297" s="1"/>
-      <c r="E297" s="1"/>
-      <c r="F297" s="1"/>
+      <c r="D297" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>898</v>
+      </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
-      <c r="M297" s="1"/>
+      <c r="M297" s="2" t="s">
+        <v>899</v>
+      </c>
       <c r="N297" s="1"/>
-      <c r="O297" s="1"/>
-      <c r="P297" s="1"/>
+      <c r="O297" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P297" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
@@ -15167,22 +15448,36 @@
       <c r="X297" s="1"/>
     </row>
     <row r="298" ht="12.75" customHeight="1">
-      <c r="A298" s="1"/>
+      <c r="A298" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
-      <c r="D298" s="1"/>
-      <c r="E298" s="1"/>
-      <c r="F298" s="1"/>
+      <c r="D298" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>901</v>
+      </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
-      <c r="M298" s="1"/>
+      <c r="M298" s="2" t="s">
+        <v>902</v>
+      </c>
       <c r="N298" s="1"/>
-      <c r="O298" s="1"/>
-      <c r="P298" s="1"/>
+      <c r="O298" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P298" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
@@ -15190,25 +15485,43 @@
       <c r="U298" s="1"/>
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
-      <c r="X298" s="1"/>
+      <c r="X298" s="2" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="299" ht="12.75" customHeight="1">
-      <c r="A299" s="1"/>
+      <c r="A299" s="2" t="s">
+        <v>904</v>
+      </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
-      <c r="D299" s="1"/>
-      <c r="E299" s="1"/>
-      <c r="F299" s="1"/>
+      <c r="D299" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G299" s="1"/>
       <c r="H299" s="1"/>
-      <c r="I299" s="1"/>
-      <c r="J299" s="1"/>
+      <c r="I299" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
       <c r="M299" s="1"/>
       <c r="N299" s="1"/>
-      <c r="O299" s="1"/>
-      <c r="P299" s="1"/>
+      <c r="O299" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P299" s="1">
+        <v>0.0</v>
+      </c>
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
@@ -15219,22 +15532,38 @@
       <c r="X299" s="1"/>
     </row>
     <row r="300" ht="12.75" customHeight="1">
-      <c r="A300" s="1"/>
+      <c r="A300" s="2" t="s">
+        <v>906</v>
+      </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
-      <c r="D300" s="1"/>
-      <c r="E300" s="1"/>
-      <c r="F300" s="1"/>
+      <c r="D300" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="G300" s="1"/>
       <c r="H300" s="1"/>
-      <c r="I300" s="1"/>
-      <c r="J300" s="1"/>
+      <c r="I300" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>134</v>
+      </c>
       <c r="K300" s="1"/>
       <c r="L300" s="1"/>
       <c r="M300" s="1"/>
       <c r="N300" s="1"/>
-      <c r="O300" s="1"/>
-      <c r="P300" s="1"/>
+      <c r="O300" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P300" s="1">
+        <v>0.0</v>
+      </c>
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
@@ -15245,22 +15574,38 @@
       <c r="X300" s="1"/>
     </row>
     <row r="301" ht="12.75" customHeight="1">
-      <c r="A301" s="1"/>
+      <c r="A301" s="2" t="s">
+        <v>908</v>
+      </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
-      <c r="D301" s="1"/>
-      <c r="E301" s="1"/>
-      <c r="F301" s="1"/>
+      <c r="D301" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
-      <c r="I301" s="1"/>
-      <c r="J301" s="1"/>
+      <c r="I301" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>909</v>
+      </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
       <c r="M301" s="1"/>
       <c r="N301" s="1"/>
-      <c r="O301" s="1"/>
-      <c r="P301" s="1"/>
+      <c r="O301" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P301" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
@@ -15271,12 +15616,20 @@
       <c r="X301" s="1"/>
     </row>
     <row r="302" ht="12.75" customHeight="1">
-      <c r="A302" s="1"/>
+      <c r="A302" s="2" t="s">
+        <v>909</v>
+      </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
-      <c r="D302" s="1"/>
-      <c r="E302" s="1"/>
-      <c r="F302" s="1"/>
+      <c r="D302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
@@ -15285,8 +15638,12 @@
       <c r="L302" s="1"/>
       <c r="M302" s="1"/>
       <c r="N302" s="1"/>
-      <c r="O302" s="1"/>
-      <c r="P302" s="1"/>
+      <c r="O302" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P302" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
@@ -15294,25 +15651,43 @@
       <c r="U302" s="1"/>
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
-      <c r="X302" s="1"/>
+      <c r="X302" s="2" t="s">
+        <v>910</v>
+      </c>
     </row>
     <row r="303" ht="12.75" customHeight="1">
-      <c r="A303" s="1"/>
+      <c r="A303" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
-      <c r="D303" s="1"/>
-      <c r="E303" s="1"/>
-      <c r="F303" s="1"/>
+      <c r="D303" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>913</v>
+      </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
-      <c r="I303" s="1"/>
-      <c r="J303" s="1"/>
+      <c r="I303" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>908</v>
+      </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
       <c r="M303" s="1"/>
       <c r="N303" s="1"/>
-      <c r="O303" s="1"/>
-      <c r="P303" s="1"/>
+      <c r="O303" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P303" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
@@ -15323,12 +15698,18 @@
       <c r="X303" s="1"/>
     </row>
     <row r="304" ht="12.75" customHeight="1">
-      <c r="A304" s="1"/>
+      <c r="A304" s="2" t="s">
+        <v>914</v>
+      </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
-      <c r="D304" s="1"/>
+      <c r="D304" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="E304" s="1"/>
-      <c r="F304" s="1"/>
+      <c r="F304" s="2" t="s">
+        <v>915</v>
+      </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
@@ -15337,8 +15718,12 @@
       <c r="L304" s="1"/>
       <c r="M304" s="1"/>
       <c r="N304" s="1"/>
-      <c r="O304" s="1"/>
-      <c r="P304" s="1"/>
+      <c r="O304" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P304" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
@@ -15349,22 +15734,36 @@
       <c r="X304" s="1"/>
     </row>
     <row r="305" ht="12.75" customHeight="1">
-      <c r="A305" s="1"/>
+      <c r="A305" s="2" t="s">
+        <v>916</v>
+      </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
-      <c r="D305" s="1"/>
-      <c r="E305" s="1"/>
-      <c r="F305" s="1"/>
+      <c r="D305" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G305" s="1"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
-      <c r="J305" s="1"/>
+      <c r="J305" s="2" t="s">
+        <v>908</v>
+      </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
       <c r="M305" s="1"/>
       <c r="N305" s="1"/>
-      <c r="O305" s="1"/>
-      <c r="P305" s="1"/>
+      <c r="O305" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P305" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
@@ -15372,25 +15771,37 @@
       <c r="U305" s="1"/>
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
-      <c r="X305" s="1"/>
+      <c r="X305" s="2" t="s">
+        <v>918</v>
+      </c>
     </row>
     <row r="306" ht="12.75" customHeight="1">
-      <c r="A306" s="1"/>
+      <c r="A306" s="2" t="s">
+        <v>919</v>
+      </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
-      <c r="D306" s="1"/>
+      <c r="D306" s="2" t="s">
+        <v>912</v>
+      </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
-      <c r="J306" s="1"/>
+      <c r="J306" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
       <c r="M306" s="1"/>
       <c r="N306" s="1"/>
-      <c r="O306" s="1"/>
-      <c r="P306" s="1"/>
+      <c r="O306" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P306" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
@@ -15401,22 +15812,32 @@
       <c r="X306" s="1"/>
     </row>
     <row r="307" ht="12.75" customHeight="1">
-      <c r="A307" s="1"/>
+      <c r="A307" s="2" t="s">
+        <v>920</v>
+      </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
-      <c r="D307" s="1"/>
+      <c r="D307" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
       <c r="G307" s="1"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
-      <c r="J307" s="1"/>
+      <c r="J307" s="2" t="s">
+        <v>911</v>
+      </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
       <c r="M307" s="1"/>
       <c r="N307" s="1"/>
-      <c r="O307" s="1"/>
-      <c r="P307" s="1"/>
+      <c r="O307" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P307" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
@@ -15427,22 +15848,34 @@
       <c r="X307" s="1"/>
     </row>
     <row r="308" ht="12.75" customHeight="1">
-      <c r="A308" s="1"/>
+      <c r="A308" s="2" t="s">
+        <v>921</v>
+      </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
-      <c r="D308" s="1"/>
+      <c r="D308" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E308" s="1"/>
-      <c r="F308" s="1"/>
+      <c r="F308" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
-      <c r="I308" s="1"/>
+      <c r="I308" s="2" t="s">
+        <v>916</v>
+      </c>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
       <c r="M308" s="1"/>
       <c r="N308" s="1"/>
-      <c r="O308" s="1"/>
-      <c r="P308" s="1"/>
+      <c r="O308" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P308" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
@@ -15453,12 +15886,20 @@
       <c r="X308" s="1"/>
     </row>
     <row r="309" ht="12.75" customHeight="1">
-      <c r="A309" s="1"/>
+      <c r="A309" s="2" t="s">
+        <v>888</v>
+      </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
-      <c r="D309" s="1"/>
-      <c r="E309" s="1"/>
-      <c r="F309" s="1"/>
+      <c r="D309" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
@@ -15467,8 +15908,12 @@
       <c r="L309" s="1"/>
       <c r="M309" s="1"/>
       <c r="N309" s="1"/>
-      <c r="O309" s="1"/>
-      <c r="P309" s="1"/>
+      <c r="O309" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P309" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
@@ -33704,74 +34149,48 @@
       <c r="W1010" s="1"/>
       <c r="X1010" s="1"/>
     </row>
-    <row r="1011" ht="12.75" customHeight="1">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
-      <c r="I1011" s="1"/>
-      <c r="J1011" s="1"/>
-      <c r="K1011" s="1"/>
-      <c r="L1011" s="1"/>
-      <c r="M1011" s="1"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
-      <c r="P1011" s="1"/>
-      <c r="Q1011" s="1"/>
-      <c r="R1011" s="1"/>
-      <c r="S1011" s="1"/>
-      <c r="T1011" s="1"/>
-      <c r="U1011" s="1"/>
-      <c r="V1011" s="1"/>
-      <c r="W1011" s="1"/>
-      <c r="X1011" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J267:K267"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="J269:K269"/>
     <mergeCell ref="I257:J257"/>
     <mergeCell ref="J258:K258"/>
     <mergeCell ref="J261:K261"/>
     <mergeCell ref="J264:K264"/>
     <mergeCell ref="J265:K265"/>
     <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J254:K254"/>
     <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="J256:K256"/>
     <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="J256:K256"/>
     <mergeCell ref="A268:C268"/>
     <mergeCell ref="A269:C269"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A271:C271"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A259:C259"/>
     <mergeCell ref="A252:C252"/>
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A255:C255"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="J252:K252"/>
     <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
     <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A257:C257"/>
     <mergeCell ref="A258:C258"/>
   </mergeCells>
   <hyperlinks>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="947">
   <si>
     <t>ID</t>
   </si>
@@ -685,7 +685,7 @@
     <t>Абросимовна</t>
   </si>
   <si>
-    <t>Коростылева</t>
+    <t>Коростелева</t>
   </si>
   <si>
     <t>01/01/1825</t>
@@ -731,9 +731,15 @@
     <t>Яковлевич</t>
   </si>
   <si>
+    <t>I316</t>
+  </si>
+  <si>
     <t>I307</t>
   </si>
   <si>
+    <t>Коростылева</t>
+  </si>
+  <si>
     <t>Анастасия</t>
   </si>
   <si>
@@ -2784,6 +2790,75 @@
   </si>
   <si>
     <t>I299</t>
+  </si>
+  <si>
+    <t>I311</t>
+  </si>
+  <si>
+    <t>I312</t>
+  </si>
+  <si>
+    <t>Похлебин</t>
+  </si>
+  <si>
+    <t>I313</t>
+  </si>
+  <si>
+    <t>I314</t>
+  </si>
+  <si>
+    <t>Чеховская</t>
+  </si>
+  <si>
+    <t>I315</t>
+  </si>
+  <si>
+    <t>уточнить у дяди Сережи псевдоним</t>
+  </si>
+  <si>
+    <t>I317</t>
+  </si>
+  <si>
+    <t>I318</t>
+  </si>
+  <si>
+    <t>Яковлевна</t>
+  </si>
+  <si>
+    <t>I319</t>
+  </si>
+  <si>
+    <t>I320</t>
+  </si>
+  <si>
+    <t>I321</t>
+  </si>
+  <si>
+    <t>Алекандр</t>
+  </si>
+  <si>
+    <t>I322</t>
+  </si>
+  <si>
+    <t>I323</t>
+  </si>
+  <si>
+    <t>I324</t>
+  </si>
+  <si>
+    <t>Дед</t>
+  </si>
+  <si>
+    <t>Коростелев</t>
+  </si>
+  <si>
+    <t>I325</t>
+  </si>
+  <si>
+    <t>Отец</t>
+  </si>
+  <si>
+    <t>I326</t>
   </si>
 </sst>
 </file>
@@ -2793,7 +2868,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2828,6 +2903,9 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF373E4D"/>
+    </font>
+    <font>
+      <i/>
     </font>
   </fonts>
   <fills count="5">
@@ -2867,7 +2945,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -2915,6 +2993,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5866,7 +5947,9 @@
       <c r="I68" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J68" s="1"/>
+      <c r="J68" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="3"/>
@@ -5888,7 +5971,7 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -5899,7 +5982,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5969,7 +6052,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>29</v>
@@ -5980,10 +6063,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6003,21 +6086,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6044,15 +6127,15 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>158</v>
@@ -6060,7 +6143,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>155</v>
@@ -6068,7 +6151,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="2">
@@ -6088,31 +6171,31 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="2">
@@ -6132,7 +6215,7 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6141,13 +6224,13 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -6170,16 +6253,16 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6189,7 +6272,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O76" s="2">
         <v>1.0</v>
@@ -6205,7 +6288,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -6215,26 +6298,26 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="2">
@@ -6251,7 +6334,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -6261,27 +6344,27 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O78" s="2">
         <v>0.0</v>
@@ -6300,18 +6383,18 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6324,7 +6407,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="2">
@@ -6344,7 +6427,7 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6352,26 +6435,26 @@
         <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O80" s="2">
         <v>0.0</v>
@@ -6390,18 +6473,18 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6410,10 +6493,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O81" s="2">
         <v>1.0</v>
@@ -6429,21 +6512,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6470,16 +6553,16 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6506,31 +6589,31 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="2">
@@ -6547,12 +6630,12 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6560,18 +6643,18 @@
         <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -6591,31 +6674,31 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -6638,7 +6721,7 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6646,18 +6729,18 @@
         <v>77</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -6680,7 +6763,7 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6688,18 +6771,18 @@
         <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6722,26 +6805,26 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
@@ -6764,34 +6847,34 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="10" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O90" s="10">
         <v>1.0</v>
@@ -6810,7 +6893,7 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6819,7 +6902,7 @@
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -6846,7 +6929,7 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6854,10 +6937,10 @@
         <v>73</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6866,10 +6949,10 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="10" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="O92" s="10">
         <v>0.0</v>
@@ -6888,18 +6971,18 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -6908,10 +6991,10 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="O93" s="10">
         <v>1.0</v>
@@ -6930,31 +7013,31 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="N94" s="11"/>
       <c r="O94" s="10">
@@ -6971,34 +7054,34 @@
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="N95" s="11"/>
       <c r="O95" s="10">
@@ -7018,31 +7101,31 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="N96" s="11"/>
       <c r="O96" s="10">
@@ -7062,31 +7145,31 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N97" s="11"/>
       <c r="O97" s="10">
@@ -7106,7 +7189,7 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7114,10 +7197,10 @@
         <v>108</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -7144,7 +7227,7 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7152,10 +7235,10 @@
         <v>49</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -7164,7 +7247,7 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="N99" s="11"/>
       <c r="O99" s="10">
@@ -7184,15 +7267,15 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>51</v>
@@ -7200,7 +7283,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>48</v>
@@ -7226,16 +7309,16 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7262,31 +7345,31 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="2">
@@ -7306,15 +7389,15 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>51</v>
@@ -7322,7 +7405,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>48</v>
@@ -7330,7 +7413,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="2">
@@ -7350,15 +7433,15 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>51</v>
@@ -7366,7 +7449,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>48</v>
@@ -7374,7 +7457,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="2" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="2">
@@ -7394,18 +7477,18 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -7429,12 +7512,12 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7450,7 +7533,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>71</v>
@@ -7476,15 +7559,15 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>57</v>
@@ -7513,28 +7596,28 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>71</v>
@@ -7560,7 +7643,7 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7568,15 +7651,15 @@
         <v>33</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>71</v>
@@ -7602,7 +7685,7 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7611,7 +7694,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -7638,7 +7721,7 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7646,10 +7729,10 @@
         <v>209</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -7676,7 +7759,7 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7684,7 +7767,7 @@
         <v>113</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>158</v>
@@ -7696,7 +7779,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="2">
@@ -7713,36 +7796,36 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="2">
@@ -7762,7 +7845,7 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7770,23 +7853,23 @@
         <v>117</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="2">
@@ -7806,16 +7889,16 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -7824,7 +7907,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="2">
@@ -7844,16 +7927,16 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -7880,31 +7963,31 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="2">
@@ -7924,7 +8007,7 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7932,23 +8015,23 @@
         <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="2">
@@ -7968,31 +8051,31 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="2">
@@ -8009,23 +8092,23 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8034,7 +8117,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="2" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="2">
@@ -8051,12 +8134,12 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8064,10 +8147,10 @@
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8076,10 +8159,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="O121" s="2">
         <v>0.0</v>
@@ -8098,18 +8181,18 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -8118,10 +8201,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O122" s="2">
         <v>0.0</v>
@@ -8140,18 +8223,18 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -8175,36 +8258,36 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="2">
@@ -8224,34 +8307,34 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O125" s="2">
         <v>0.0</v>
@@ -8270,15 +8353,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>119</v>
@@ -8294,7 +8377,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="2">
@@ -8314,15 +8397,15 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>119</v>
@@ -8338,7 +8421,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="2" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="2">
@@ -8358,31 +8441,31 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="2">
@@ -8402,23 +8485,23 @@
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>123</v>
@@ -8426,7 +8509,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="2" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="2">
@@ -8446,18 +8529,18 @@
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -8484,18 +8567,18 @@
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -8542,10 +8625,10 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="O132" s="2">
         <v>0.0</v>
@@ -8569,10 +8652,10 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>42</v>
@@ -8580,18 +8663,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="O133" s="2">
         <v>1.0</v>
@@ -8607,12 +8690,12 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="14" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8636,10 +8719,10 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="O134" s="2">
         <v>0.0</v>
@@ -8658,7 +8741,7 @@
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8682,10 +8765,10 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O135" s="2">
         <v>0.0</v>
@@ -8704,15 +8787,15 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>42</v>
@@ -8728,10 +8811,10 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="O136" s="2">
         <v>1.0</v>
@@ -8750,7 +8833,7 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8758,10 +8841,10 @@
         <v>147</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8788,18 +8871,18 @@
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>127</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8823,12 +8906,12 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8837,7 +8920,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8864,7 +8947,7 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8875,7 +8958,7 @@
         <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -8902,18 +8985,18 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -8937,12 +9020,12 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8966,10 +9049,10 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="O142" s="2">
         <v>0.0</v>
@@ -8988,7 +9071,7 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9004,7 +9087,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -9025,12 +9108,12 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9038,7 +9121,7 @@
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>119</v>
@@ -9046,15 +9129,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="2">
@@ -9074,12 +9157,12 @@
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>50</v>
@@ -9094,7 +9177,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="2">
@@ -9111,12 +9194,12 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9132,15 +9215,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="2">
@@ -9160,30 +9243,30 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G147" s="1"/>
       <c r="I147" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="2">
@@ -9200,12 +9283,12 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9213,22 +9296,22 @@
         <v>73</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G148" s="1"/>
       <c r="I148" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="2">
@@ -9248,7 +9331,7 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9256,7 +9339,7 @@
         <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>119</v>
@@ -9264,15 +9347,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="2">
@@ -9292,12 +9375,12 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>34</v>
@@ -9308,15 +9391,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="2">
@@ -9336,7 +9419,7 @@
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9344,7 +9427,7 @@
         <v>33</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>42</v>
@@ -9352,15 +9435,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="2">
@@ -9380,7 +9463,7 @@
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9388,7 +9471,7 @@
         <v>73</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>119</v>
@@ -9396,15 +9479,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="2">
@@ -9424,15 +9507,15 @@
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>42</v>
@@ -9444,7 +9527,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="2">
@@ -9461,17 +9544,17 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>29</v>
@@ -9482,15 +9565,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="2">
@@ -9510,18 +9593,18 @@
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -9530,7 +9613,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="2">
@@ -9550,12 +9633,12 @@
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>34</v>
@@ -9566,18 +9649,18 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="O156" s="2">
         <v>1.0</v>
@@ -9596,7 +9679,7 @@
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9612,15 +9695,15 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="2">
@@ -9637,17 +9720,17 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>34</v>
@@ -9662,7 +9745,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="2">
@@ -9681,7 +9764,7 @@
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9689,7 +9772,7 @@
         <v>117</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>119</v>
@@ -9697,15 +9780,15 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="2">
@@ -9725,15 +9808,15 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>42</v>
@@ -9745,7 +9828,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="2">
@@ -9762,12 +9845,12 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9783,15 +9866,15 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="2">
@@ -9811,7 +9894,7 @@
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9827,15 +9910,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="2">
@@ -9855,7 +9938,7 @@
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9863,7 +9946,7 @@
         <v>65</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>119</v>
@@ -9871,15 +9954,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="2" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="2">
@@ -9899,7 +9982,7 @@
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9907,7 +9990,7 @@
         <v>49</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>42</v>
@@ -9919,7 +10002,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="2">
@@ -9936,17 +10019,17 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="2" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>34</v>
@@ -9957,15 +10040,15 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="2">
@@ -9985,7 +10068,7 @@
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10001,15 +10084,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="2" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="2">
@@ -10029,15 +10112,15 @@
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>42</v>
@@ -10049,7 +10132,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="2">
@@ -10066,12 +10149,12 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
       <c r="X167" s="2" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10079,7 +10162,7 @@
         <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>119</v>
@@ -10087,15 +10170,15 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="2">
@@ -10115,12 +10198,12 @@
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>157</v>
@@ -10135,7 +10218,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="2" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="2">
@@ -10152,20 +10235,20 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>42</v>
@@ -10173,15 +10256,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="2">
@@ -10201,15 +10284,15 @@
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>42</v>
@@ -10217,15 +10300,15 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="2" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N171" s="1"/>
       <c r="O171" s="2">
@@ -10245,7 +10328,7 @@
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10269,10 +10352,10 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="O172" s="2">
         <v>0.0</v>
@@ -10291,12 +10374,12 @@
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>41</v>
@@ -10307,13 +10390,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="2" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="2">
@@ -10333,7 +10416,7 @@
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10349,13 +10432,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="2" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="2">
@@ -10375,7 +10458,7 @@
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10383,7 +10466,7 @@
         <v>72</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>42</v>
@@ -10399,10 +10482,10 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="2" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="O175" s="2">
         <v>1.0</v>
@@ -10421,7 +10504,7 @@
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10437,15 +10520,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="2">
@@ -10465,18 +10548,18 @@
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -10485,10 +10568,10 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="O177" s="2">
         <v>1.0</v>
@@ -10507,7 +10590,7 @@
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10515,23 +10598,23 @@
         <v>72</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="2" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="2" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="2">
@@ -10548,20 +10631,20 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
       <c r="X178" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>42</v>
@@ -10569,15 +10652,15 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="2" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="2">
@@ -10597,7 +10680,7 @@
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10606,18 +10689,18 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="2" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="N180" s="1"/>
       <c r="O180" s="2">
@@ -10637,12 +10720,12 @@
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="8" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>174</v>
@@ -10653,18 +10736,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="2" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="13" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="N181" s="13" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="O181" s="2">
         <v>0.0</v>
@@ -10683,15 +10766,15 @@
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>42</v>
@@ -10699,18 +10782,18 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="O182" s="2">
         <v>1.0</v>
@@ -10726,12 +10809,12 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
       <c r="X182" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10739,10 +10822,10 @@
         <v>108</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -10769,18 +10852,18 @@
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -10790,7 +10873,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="O184" s="2">
         <v>1.0</v>
@@ -10809,12 +10892,12 @@
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>41</v>
@@ -10828,12 +10911,12 @@
         <v>54</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="2">
@@ -10853,12 +10936,12 @@
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="2" t="s">
@@ -10871,7 +10954,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="2">
@@ -10891,15 +10974,15 @@
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>51</v>
@@ -10910,12 +10993,12 @@
         <v>153</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="2">
@@ -10935,16 +11018,16 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -10953,7 +11036,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="2">
@@ -10973,7 +11056,7 @@
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -10992,12 +11075,12 @@
         <v>88</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="2">
@@ -11017,15 +11100,15 @@
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>172</v>
@@ -11038,7 +11121,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="O190" s="2">
         <v>1.0</v>
@@ -11057,23 +11140,23 @@
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>114</v>
@@ -11081,7 +11164,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="2">
@@ -11098,12 +11181,12 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
       <c r="X191" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11112,13 +11195,13 @@
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -11141,7 +11224,7 @@
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11149,7 +11232,7 @@
         <v>188</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>115</v>
@@ -11157,7 +11240,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>114</v>
@@ -11165,7 +11248,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="2">
@@ -11182,20 +11265,20 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
       <c r="X193" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>115</v>
@@ -11204,7 +11287,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -11227,15 +11310,15 @@
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -11263,7 +11346,7 @@
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11271,10 +11354,10 @@
         <v>25</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -11282,12 +11365,12 @@
         <v>88</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="2">
@@ -11304,20 +11387,20 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
       <c r="X196" s="2" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="15" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>115</v>
@@ -11325,7 +11408,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>114</v>
@@ -11333,7 +11416,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="2">
@@ -11353,7 +11436,7 @@
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -11361,7 +11444,7 @@
         <v>72</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>172</v>
@@ -11372,12 +11455,12 @@
         <v>88</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="2">
@@ -11394,20 +11477,20 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
       <c r="X198" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>57</v>
@@ -11418,7 +11501,7 @@
         <v>153</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -11441,7 +11524,7 @@
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11449,7 +11532,7 @@
         <v>58</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -11477,7 +11560,7 @@
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11488,15 +11571,15 @@
         <v>148</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -11519,7 +11602,7 @@
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11528,7 +11611,7 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -11554,26 +11637,26 @@
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -11596,16 +11679,16 @@
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -11632,7 +11715,7 @@
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11640,7 +11723,7 @@
         <v>108</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>119</v>
@@ -11648,15 +11731,15 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="2">
@@ -11676,15 +11759,15 @@
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>42</v>
@@ -11695,7 +11778,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="13" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="2">
@@ -11715,7 +11798,7 @@
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11723,7 +11806,7 @@
         <v>33</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="F207" s="13" t="s">
         <v>42</v>
@@ -11731,15 +11814,15 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="2">
@@ -11759,15 +11842,15 @@
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="13" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F208" s="13" t="s">
         <v>42</v>
@@ -11775,15 +11858,15 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="2">
@@ -11803,7 +11886,7 @@
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11814,14 +11897,14 @@
         <v>78</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="2">
@@ -11841,7 +11924,7 @@
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11852,20 +11935,20 @@
         <v>148</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="2">
@@ -11885,7 +11968,7 @@
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11896,20 +11979,20 @@
         <v>148</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="2">
@@ -11929,7 +12012,7 @@
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -11937,23 +12020,23 @@
         <v>33</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="13" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="2">
@@ -11973,18 +12056,18 @@
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="16" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -12011,18 +12094,18 @@
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="16" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -12049,32 +12132,32 @@
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="16" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="2" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="O215" s="2">
         <v>0.0</v>
@@ -12093,18 +12176,18 @@
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="16" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -12131,18 +12214,18 @@
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -12155,7 +12238,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="3" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2">
@@ -12177,18 +12260,18 @@
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -12201,10 +12284,10 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="3" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="O218" s="2">
         <v>0.0</v>
@@ -12223,12 +12306,12 @@
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>29</v>
@@ -12239,18 +12322,18 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="3" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="O219" s="2">
         <v>1.0</v>
@@ -12266,12 +12349,12 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -12279,7 +12362,7 @@
         <v>89</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>132</v>
@@ -12287,18 +12370,18 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="O220" s="2">
         <v>1.0</v>
@@ -12317,15 +12400,15 @@
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>132</v>
@@ -12337,7 +12420,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2">
@@ -12357,7 +12440,7 @@
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -12368,23 +12451,23 @@
         <v>29</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="3" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="O222" s="2">
         <v>1.0</v>
@@ -12400,12 +12483,12 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
       <c r="X222" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12413,10 +12496,10 @@
         <v>73</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -12425,10 +12508,10 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="3" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="O223" s="2">
         <v>0.0</v>
@@ -12447,7 +12530,7 @@
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -12455,10 +12538,10 @@
         <v>28</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -12467,10 +12550,10 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="3" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="O224" s="2">
         <v>1.0</v>
@@ -12489,31 +12572,31 @@
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2">
@@ -12530,31 +12613,31 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
       <c r="X225" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -12574,17 +12657,17 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
       <c r="X226" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>174</v>
@@ -12595,10 +12678,10 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -12621,24 +12704,24 @@
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="2" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -12661,15 +12744,15 @@
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>132</v>
@@ -12677,7 +12760,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -12701,15 +12784,15 @@
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>132</v>
@@ -12717,13 +12800,13 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2">
@@ -12743,15 +12826,15 @@
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>59</v>
@@ -12759,7 +12842,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>32</v>
@@ -12767,7 +12850,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="2" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="2">
@@ -12784,12 +12867,12 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
       <c r="X231" s="2" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12798,7 +12881,7 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -12825,7 +12908,7 @@
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12833,23 +12916,23 @@
         <v>49</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="N233" s="1"/>
       <c r="O233" s="2">
@@ -12866,36 +12949,36 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
       <c r="X233" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="2" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="N234" s="1"/>
       <c r="O234" s="2">
@@ -12915,16 +12998,16 @@
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -12951,34 +13034,34 @@
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="O236" s="2">
         <v>0.0</v>
@@ -12997,7 +13080,7 @@
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13008,7 +13091,7 @@
         <v>174</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -13017,7 +13100,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="N237" s="1"/>
       <c r="O237" s="2">
@@ -13034,12 +13117,12 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
       <c r="X237" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13047,10 +13130,10 @@
         <v>113</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -13074,12 +13157,12 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
       <c r="X238" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13090,15 +13173,15 @@
         <v>186</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -13121,26 +13204,26 @@
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -13160,12 +13243,12 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
       <c r="X240" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13173,18 +13256,18 @@
         <v>58</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -13207,7 +13290,7 @@
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -13218,15 +13301,15 @@
         <v>157</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -13249,7 +13332,7 @@
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -13258,7 +13341,7 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -13285,16 +13368,16 @@
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -13321,26 +13404,26 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -13363,26 +13446,26 @@
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="2" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -13405,7 +13488,7 @@
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13414,7 +13497,7 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="2" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -13441,16 +13524,16 @@
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
@@ -13463,7 +13546,7 @@
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="10" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="2">
@@ -13480,33 +13563,33 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
       <c r="X248" s="2" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J249" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="10" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="2">
@@ -13526,28 +13609,28 @@
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="10" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="10" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="2">
@@ -13564,33 +13647,33 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
       <c r="X250" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="10" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J251" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="10" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="N251" s="1"/>
       <c r="O251" s="2">
@@ -13610,28 +13693,28 @@
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="10" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="J252" s="10" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="10" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="2">
@@ -13651,28 +13734,28 @@
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J253" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="10" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="2">
@@ -13692,28 +13775,28 @@
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="10" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="10" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="2">
@@ -13733,28 +13816,28 @@
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="10" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L255" s="11"/>
       <c r="M255" s="10" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="2">
@@ -13774,28 +13857,28 @@
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="10" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="10" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="N256" s="1"/>
       <c r="O256" s="2">
@@ -13815,26 +13898,26 @@
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="10" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="10" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="10" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="N257" s="1"/>
       <c r="O257" s="2">
@@ -13854,24 +13937,24 @@
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>209</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J258" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
@@ -13893,16 +13976,16 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
@@ -13929,16 +14012,16 @@
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>203</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -13965,24 +14048,24 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="10" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
       <c r="I261" s="10" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="J261" s="10" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
@@ -14004,14 +14087,14 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E262" s="11"/>
       <c r="F262" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
@@ -14038,16 +14121,16 @@
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
@@ -14074,24 +14157,24 @@
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J264" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -14113,24 +14196,24 @@
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="10" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="10" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
@@ -14152,24 +14235,24 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="10" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>188</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J266" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -14191,28 +14274,28 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="10" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="10" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="J267" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="10" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="N267" s="1"/>
       <c r="O267" s="2">
@@ -14232,24 +14315,24 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="10" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
@@ -14271,24 +14354,24 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="D269" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="E269" s="10" t="s">
+        <v>836</v>
+      </c>
+      <c r="F269" s="10" t="s">
         <v>837</v>
-      </c>
-      <c r="D269" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E269" s="10" t="s">
-        <v>834</v>
-      </c>
-      <c r="F269" s="10" t="s">
-        <v>835</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
       <c r="I269" s="10" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="J269" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
@@ -14310,14 +14393,14 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="10" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E270" s="11"/>
       <c r="F270" s="10" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
@@ -14344,16 +14427,16 @@
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="10" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F271" s="10" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
@@ -14380,18 +14463,18 @@
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -14400,10 +14483,10 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="2" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="O272" s="2">
         <v>0.0</v>
@@ -14422,7 +14505,7 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14430,18 +14513,18 @@
         <v>103</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -14464,26 +14547,26 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -14506,23 +14589,23 @@
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>127</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -14546,12 +14629,12 @@
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -14559,7 +14642,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -14590,10 +14673,10 @@
         <v>55</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -14602,10 +14685,10 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="13" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="O277" s="2">
         <v>0.0</v>
@@ -14629,13 +14712,13 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="13" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -14644,10 +14727,10 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="N278" s="14" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="O278" s="2">
         <v>1.0</v>
@@ -14666,18 +14749,18 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="13" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -14701,12 +14784,12 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
       <c r="X279" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14717,7 +14800,7 @@
         <v>59</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -14748,7 +14831,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14759,7 +14842,7 @@
         <v>59</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -14790,7 +14873,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14801,7 +14884,7 @@
         <v>59</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -14835,7 +14918,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14846,7 +14929,7 @@
         <v>59</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -14877,7 +14960,7 @@
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14888,15 +14971,15 @@
         <v>34</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -14919,23 +15002,23 @@
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -14956,12 +15039,12 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
       <c r="X285" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -14970,7 +15053,7 @@
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -14997,7 +15080,7 @@
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -15008,7 +15091,7 @@
         <v>29</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -15017,7 +15100,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="N287" s="1"/>
       <c r="O287" s="2">
@@ -15034,23 +15117,23 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
       <c r="X287" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="13" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -15059,7 +15142,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="N288" s="1"/>
       <c r="O288" s="2">
@@ -15076,12 +15159,12 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
       <c r="X288" s="19" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15092,15 +15175,15 @@
         <v>174</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -15123,12 +15206,12 @@
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>89</v>
@@ -15159,7 +15242,7 @@
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15170,15 +15253,15 @@
         <v>148</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -15201,26 +15284,26 @@
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="2" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>148</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -15243,16 +15326,16 @@
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E293" s="1"/>
       <c r="F293" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -15279,18 +15362,18 @@
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -15298,7 +15381,7 @@
         <v>110</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
@@ -15321,29 +15404,29 @@
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="2" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="J295" s="1"/>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="N295" s="1"/>
       <c r="O295" s="2">
@@ -15363,31 +15446,31 @@
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="N296" s="1"/>
       <c r="O296" s="2">
@@ -15404,12 +15487,12 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15417,10 +15500,10 @@
         <v>191</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -15429,7 +15512,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="N297" s="1"/>
       <c r="O297" s="2">
@@ -15449,18 +15532,18 @@
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -15469,7 +15552,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="N298" s="1"/>
       <c r="O298" s="2">
@@ -15486,17 +15569,17 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
       <c r="X298" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>59</v>
@@ -15533,12 +15616,12 @@
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>59</v>
@@ -15575,18 +15658,18 @@
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -15594,7 +15677,7 @@
         <v>109</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -15617,7 +15700,7 @@
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15625,10 +15708,10 @@
         <v>25</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -15652,31 +15735,31 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
       <c r="X302" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -15699,16 +15782,16 @@
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -15735,15 +15818,15 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="16" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>104</v>
@@ -15752,7 +15835,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -15772,17 +15855,17 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
       <c r="X305" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -15790,7 +15873,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -15813,7 +15896,7 @@
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15826,7 +15909,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -15849,7 +15932,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -15863,7 +15946,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -15887,7 +15970,7 @@
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -15895,7 +15978,7 @@
         <v>113</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>128</v>
@@ -15924,22 +16007,38 @@
       <c r="X309" s="1"/>
     </row>
     <row r="310" ht="12.75" customHeight="1">
-      <c r="A310" s="1"/>
+      <c r="A310" s="2" t="s">
+        <v>924</v>
+      </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
-      <c r="D310" s="1"/>
-      <c r="E310" s="1"/>
-      <c r="F310" s="1"/>
+      <c r="D310" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
-      <c r="I310" s="1"/>
-      <c r="J310" s="1"/>
+      <c r="I310" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>890</v>
+      </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
       <c r="M310" s="1"/>
       <c r="N310" s="1"/>
-      <c r="O310" s="1"/>
-      <c r="P310" s="1"/>
+      <c r="O310" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P310" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
@@ -15950,12 +16049,18 @@
       <c r="X310" s="1"/>
     </row>
     <row r="311" ht="12.75" customHeight="1">
-      <c r="A311" s="1"/>
+      <c r="A311" s="2" t="s">
+        <v>925</v>
+      </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
-      <c r="D311" s="1"/>
+      <c r="D311" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="E311" s="1"/>
-      <c r="F311" s="1"/>
+      <c r="F311" s="2" t="s">
+        <v>926</v>
+      </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
@@ -15964,8 +16069,12 @@
       <c r="L311" s="1"/>
       <c r="M311" s="1"/>
       <c r="N311" s="1"/>
-      <c r="O311" s="1"/>
-      <c r="P311" s="1"/>
+      <c r="O311" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P311" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
@@ -15976,22 +16085,38 @@
       <c r="X311" s="1"/>
     </row>
     <row r="312" ht="12.75" customHeight="1">
-      <c r="A312" s="1"/>
+      <c r="A312" s="2" t="s">
+        <v>927</v>
+      </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
-      <c r="D312" s="1"/>
-      <c r="E312" s="1"/>
-      <c r="F312" s="1"/>
+      <c r="D312" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>926</v>
+      </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
-      <c r="I312" s="1"/>
-      <c r="J312" s="1"/>
+      <c r="I312" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>924</v>
+      </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
       <c r="M312" s="1"/>
       <c r="N312" s="1"/>
-      <c r="O312" s="1"/>
-      <c r="P312" s="1"/>
+      <c r="O312" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P312" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
@@ -16002,12 +16127,20 @@
       <c r="X312" s="1"/>
     </row>
     <row r="313" ht="12.75" customHeight="1">
-      <c r="A313" s="1"/>
+      <c r="A313" s="2" t="s">
+        <v>928</v>
+      </c>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
-      <c r="D313" s="1"/>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
+      <c r="D313" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>929</v>
+      </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
@@ -16016,8 +16149,12 @@
       <c r="L313" s="1"/>
       <c r="M313" s="1"/>
       <c r="N313" s="1"/>
-      <c r="O313" s="1"/>
-      <c r="P313" s="1"/>
+      <c r="O313" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P313" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
@@ -16028,22 +16165,38 @@
       <c r="X313" s="1"/>
     </row>
     <row r="314" ht="12.75" customHeight="1">
-      <c r="A314" s="1"/>
+      <c r="A314" s="2" t="s">
+        <v>930</v>
+      </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
-      <c r="D314" s="1"/>
-      <c r="E314" s="1"/>
-      <c r="F314" s="1"/>
+      <c r="D314" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G314" s="1"/>
       <c r="H314" s="1"/>
-      <c r="I314" s="1"/>
-      <c r="J314" s="1"/>
+      <c r="I314" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>928</v>
+      </c>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
       <c r="M314" s="1"/>
       <c r="N314" s="1"/>
-      <c r="O314" s="1"/>
-      <c r="P314" s="1"/>
+      <c r="O314" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P314" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
@@ -16051,15 +16204,25 @@
       <c r="U314" s="1"/>
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
-      <c r="X314" s="1"/>
+      <c r="X314" s="2" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="315" ht="12.75" customHeight="1">
-      <c r="A315" s="1"/>
+      <c r="A315" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
-      <c r="D315" s="1"/>
-      <c r="E315" s="1"/>
-      <c r="F315" s="1"/>
+      <c r="D315" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
@@ -16068,8 +16231,12 @@
       <c r="L315" s="1"/>
       <c r="M315" s="1"/>
       <c r="N315" s="1"/>
-      <c r="O315" s="1"/>
-      <c r="P315" s="1"/>
+      <c r="O315" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P315" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
@@ -16080,12 +16247,20 @@
       <c r="X315" s="1"/>
     </row>
     <row r="316" ht="12.75" customHeight="1">
-      <c r="A316" s="1"/>
+      <c r="A316" s="2" t="s">
+        <v>932</v>
+      </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
-      <c r="F316" s="1"/>
+      <c r="D316" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
@@ -16094,8 +16269,12 @@
       <c r="L316" s="1"/>
       <c r="M316" s="1"/>
       <c r="N316" s="1"/>
-      <c r="O316" s="1"/>
-      <c r="P316" s="1"/>
+      <c r="O316" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P316" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
@@ -16106,22 +16285,38 @@
       <c r="X316" s="1"/>
     </row>
     <row r="317" ht="12.75" customHeight="1">
-      <c r="A317" s="1"/>
+      <c r="A317" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
-      <c r="D317" s="1"/>
-      <c r="E317" s="1"/>
-      <c r="F317" s="1"/>
+      <c r="D317" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
-      <c r="I317" s="1"/>
-      <c r="J317" s="1"/>
+      <c r="I317" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
       <c r="M317" s="1"/>
       <c r="N317" s="1"/>
-      <c r="O317" s="1"/>
-      <c r="P317" s="1"/>
+      <c r="O317" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P317" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
@@ -16132,11 +16327,17 @@
       <c r="X317" s="1"/>
     </row>
     <row r="318" ht="12.75" customHeight="1">
-      <c r="A318" s="1"/>
+      <c r="A318" s="2" t="s">
+        <v>935</v>
+      </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
-      <c r="D318" s="1"/>
-      <c r="E318" s="1"/>
+      <c r="D318" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="F318" s="1"/>
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
@@ -16146,8 +16347,12 @@
       <c r="L318" s="1"/>
       <c r="M318" s="1"/>
       <c r="N318" s="1"/>
-      <c r="O318" s="1"/>
-      <c r="P318" s="1"/>
+      <c r="O318" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P318" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
@@ -16158,22 +16363,36 @@
       <c r="X318" s="1"/>
     </row>
     <row r="319" ht="12.75" customHeight="1">
-      <c r="A319" s="1"/>
+      <c r="A319" s="2" t="s">
+        <v>936</v>
+      </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
-      <c r="D319" s="1"/>
-      <c r="E319" s="1"/>
+      <c r="D319" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
-      <c r="I319" s="1"/>
-      <c r="J319" s="1"/>
+      <c r="I319" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
       <c r="M319" s="1"/>
       <c r="N319" s="1"/>
-      <c r="O319" s="1"/>
-      <c r="P319" s="1"/>
+      <c r="O319" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P319" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
@@ -16184,22 +16403,36 @@
       <c r="X319" s="1"/>
     </row>
     <row r="320" ht="12.75" customHeight="1">
-      <c r="A320" s="1"/>
+      <c r="A320" s="2" t="s">
+        <v>937</v>
+      </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
-      <c r="D320" s="1"/>
-      <c r="E320" s="1"/>
+      <c r="D320" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
-      <c r="I320" s="1"/>
-      <c r="J320" s="1"/>
+      <c r="I320" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
       <c r="M320" s="1"/>
       <c r="N320" s="1"/>
-      <c r="O320" s="1"/>
-      <c r="P320" s="1"/>
+      <c r="O320" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P320" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
@@ -16210,22 +16443,36 @@
       <c r="X320" s="1"/>
     </row>
     <row r="321" ht="12.75" customHeight="1">
-      <c r="A321" s="1"/>
+      <c r="A321" s="2" t="s">
+        <v>939</v>
+      </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
-      <c r="D321" s="1"/>
-      <c r="E321" s="1"/>
+      <c r="D321" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>174</v>
+      </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
-      <c r="I321" s="1"/>
-      <c r="J321" s="1"/>
+      <c r="I321" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
       <c r="M321" s="1"/>
       <c r="N321" s="1"/>
-      <c r="O321" s="1"/>
-      <c r="P321" s="1"/>
+      <c r="O321" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P321" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
@@ -16236,22 +16483,36 @@
       <c r="X321" s="1"/>
     </row>
     <row r="322" ht="12.75" customHeight="1">
-      <c r="A322" s="1"/>
+      <c r="A322" s="2" t="s">
+        <v>940</v>
+      </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
-      <c r="D322" s="1"/>
-      <c r="E322" s="1"/>
+      <c r="D322" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>581</v>
+      </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
-      <c r="I322" s="1"/>
-      <c r="J322" s="1"/>
+      <c r="I322" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>933</v>
+      </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
       <c r="M322" s="1"/>
       <c r="N322" s="1"/>
-      <c r="O322" s="1"/>
-      <c r="P322" s="1"/>
+      <c r="O322" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P322" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
@@ -16262,22 +16523,34 @@
       <c r="X322" s="1"/>
     </row>
     <row r="323" ht="12.75" customHeight="1">
-      <c r="A323" s="1"/>
+      <c r="A323" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
-      <c r="D323" s="1"/>
+      <c r="D323" s="20" t="s">
+        <v>942</v>
+      </c>
       <c r="E323" s="1"/>
-      <c r="F323" s="1"/>
+      <c r="F323" s="2" t="s">
+        <v>943</v>
+      </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
-      <c r="I323" s="1"/>
+      <c r="I323" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
       <c r="M323" s="1"/>
       <c r="N323" s="1"/>
-      <c r="O323" s="1"/>
-      <c r="P323" s="1"/>
+      <c r="O323" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P323" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
@@ -16288,22 +16561,34 @@
       <c r="X323" s="1"/>
     </row>
     <row r="324" ht="12.75" customHeight="1">
-      <c r="A324" s="1"/>
+      <c r="A324" s="2" t="s">
+        <v>944</v>
+      </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
-      <c r="D324" s="1"/>
+      <c r="D324" s="2" t="s">
+        <v>945</v>
+      </c>
       <c r="E324" s="1"/>
-      <c r="F324" s="1"/>
+      <c r="F324" s="2" t="s">
+        <v>943</v>
+      </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-      <c r="I324" s="1"/>
+      <c r="I324" s="2" t="s">
+        <v>941</v>
+      </c>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
-      <c r="O324" s="1"/>
-      <c r="P324" s="1"/>
+      <c r="O324" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P324" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
@@ -16314,22 +16599,34 @@
       <c r="X324" s="1"/>
     </row>
     <row r="325" ht="12.75" customHeight="1">
-      <c r="A325" s="1"/>
+      <c r="A325" s="2" t="s">
+        <v>946</v>
+      </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
-      <c r="D325" s="1"/>
+      <c r="D325" s="2" t="s">
+        <v>861</v>
+      </c>
       <c r="E325" s="1"/>
-      <c r="F325" s="1"/>
+      <c r="F325" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
-      <c r="I325" s="1"/>
+      <c r="I325" s="2" t="s">
+        <v>944</v>
+      </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
       <c r="M325" s="1"/>
       <c r="N325" s="1"/>
-      <c r="O325" s="1"/>
-      <c r="P325" s="1"/>
+      <c r="O325" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P325" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -349,6 +349,9 @@
     <t>I276</t>
   </si>
   <si>
+    <t>Хомякова</t>
+  </si>
+  <si>
     <t>I277</t>
   </si>
   <si>
@@ -395,9 +398,6 @@
   </si>
   <si>
     <t>Григорьевна</t>
-  </si>
-  <si>
-    <t>Хомякова</t>
   </si>
   <si>
     <t>урожденной Новоселовой</t>
@@ -4078,7 +4078,7 @@
         <v>41</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -4109,18 +4109,18 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -4162,7 +4162,7 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -4175,7 +4175,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N26" s="1"/>
       <c r="O26" s="1">
@@ -4200,18 +4200,18 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>40</v>
@@ -4219,10 +4219,10 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O27" s="1">
         <v>0.0</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -4252,7 +4252,7 @@
         <v>50</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4265,7 +4265,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
@@ -4282,7 +4282,7 @@
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -4295,10 +4295,10 @@
         <v>33</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4585,7 +4585,7 @@
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4596,7 +4596,7 @@
         <v>148</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -4816,7 +4816,7 @@
         <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -6058,7 +6058,7 @@
         <v>29</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -7764,7 +7764,7 @@
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>372</v>
@@ -7850,7 +7850,7 @@
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>272</v>
@@ -8364,7 +8364,7 @@
         <v>425</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
@@ -8408,7 +8408,7 @@
         <v>425</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
@@ -8504,7 +8504,7 @@
         <v>430</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -8616,7 +8616,7 @@
         <v>66</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -8706,7 +8706,7 @@
         <v>148</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -8752,7 +8752,7 @@
         <v>148</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -8879,7 +8879,7 @@
         <v>464</v>
       </c>
       <c r="E138" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F138" s="13" t="s">
         <v>465</v>
@@ -9033,15 +9033,15 @@
         <v>65</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J142" s="10" t="s">
         <v>40</v>
@@ -9124,7 +9124,7 @@
         <v>302</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
@@ -9207,10 +9207,10 @@
         <v>65</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
@@ -9299,7 +9299,7 @@
         <v>302</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G148" s="1"/>
       <c r="I148" s="2" t="s">
@@ -9342,7 +9342,7 @@
         <v>302</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
@@ -9474,7 +9474,7 @@
         <v>302</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
@@ -9769,13 +9769,13 @@
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E159" s="2" t="s">
         <v>523</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
@@ -9949,7 +9949,7 @@
         <v>523</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
@@ -10165,7 +10165,7 @@
         <v>523</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
@@ -10336,15 +10336,15 @@
         <v>55</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J172" s="10" t="s">
         <v>40</v>
@@ -10474,7 +10474,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J175" s="10" t="s">
         <v>40</v>
@@ -10515,7 +10515,7 @@
         <v>174</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
@@ -10731,7 +10731,7 @@
         <v>174</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
@@ -11159,7 +11159,7 @@
         <v>622</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -11235,7 +11235,7 @@
         <v>620</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
@@ -11243,7 +11243,7 @@
         <v>622</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -11281,7 +11281,7 @@
         <v>501</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -11403,7 +11403,7 @@
         <v>620</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
@@ -11411,7 +11411,7 @@
         <v>622</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -11726,7 +11726,7 @@
         <v>654</v>
       </c>
       <c r="F205" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
@@ -13127,7 +13127,7 @@
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
       <c r="D238" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>459</v>
@@ -13538,7 +13538,7 @@
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
       <c r="I248" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J248" s="10" t="s">
         <v>40</v>
@@ -14597,7 +14597,7 @@
         <v>853</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>854</v>
@@ -15085,7 +15085,7 @@
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="D287" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E287" s="13" t="s">
         <v>29</v>
@@ -15975,13 +15975,13 @@
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
       <c r="D309" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>260</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -16019,7 +16019,7 @@
         <v>41</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1953" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="949">
   <si>
     <t>ID</t>
   </si>
@@ -2696,6 +2696,9 @@
     <t>I286</t>
   </si>
   <si>
+    <t>I327</t>
+  </si>
+  <si>
     <t>24/08/1987</t>
   </si>
   <si>
@@ -2859,6 +2862,9 @@
   </si>
   <si>
     <t>I326</t>
+  </si>
+  <si>
+    <t>Марина</t>
   </si>
 </sst>
 </file>
@@ -15422,11 +15428,13 @@
       <c r="I295" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="J295" s="1"/>
+      <c r="J295" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="N295" s="1"/>
       <c r="O295" s="2">
@@ -15446,7 +15454,7 @@
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -15457,20 +15465,20 @@
         <v>348</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="N296" s="1"/>
       <c r="O296" s="2">
@@ -15487,12 +15495,12 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -15500,10 +15508,10 @@
         <v>191</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -15512,7 +15520,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="N297" s="1"/>
       <c r="O297" s="2">
@@ -15532,18 +15540,18 @@
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E298" s="2" t="s">
         <v>571</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -15552,7 +15560,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="N298" s="1"/>
       <c r="O298" s="2">
@@ -15569,17 +15577,17 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
       <c r="X298" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>59</v>
@@ -15616,12 +15624,12 @@
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>59</v>
@@ -15658,7 +15666,7 @@
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -15669,7 +15677,7 @@
         <v>571</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -15677,7 +15685,7 @@
         <v>109</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -15700,7 +15708,7 @@
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15711,7 +15719,7 @@
         <v>721</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -15735,31 +15743,31 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
       <c r="X302" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>157</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -15782,7 +15790,7 @@
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -15791,7 +15799,7 @@
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -15818,7 +15826,7 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -15826,7 +15834,7 @@
         <v>779</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>104</v>
@@ -15835,7 +15843,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -15855,17 +15863,17 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
       <c r="X305" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -15873,7 +15881,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -15896,7 +15904,7 @@
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -15909,7 +15917,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -15932,7 +15940,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -15946,7 +15954,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -16008,7 +16016,7 @@
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -16050,7 +16058,7 @@
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -16059,7 +16067,7 @@
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -16086,7 +16094,7 @@
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -16097,15 +16105,15 @@
         <v>371</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="J312" s="2" t="s">
         <v>925</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>924</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -16128,7 +16136,7 @@
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -16139,7 +16147,7 @@
         <v>721</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -16166,7 +16174,7 @@
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16185,7 +16193,7 @@
         <v>105</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -16205,7 +16213,7 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
       <c r="X314" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1">
@@ -16248,7 +16256,7 @@
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16286,7 +16294,7 @@
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -16294,7 +16302,7 @@
         <v>188</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>224</v>
@@ -16328,7 +16336,7 @@
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16364,7 +16372,7 @@
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -16378,10 +16386,10 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -16404,12 +16412,12 @@
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>174</v>
@@ -16418,10 +16426,10 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -16444,7 +16452,7 @@
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -16458,10 +16466,10 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -16484,7 +16492,7 @@
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -16498,10 +16506,10 @@
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -16524,16 +16532,16 @@
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="20" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -16562,21 +16570,21 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
       <c r="I324" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
@@ -16600,7 +16608,7 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -16614,7 +16622,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -16637,12 +16645,18 @@
       <c r="X325" s="1"/>
     </row>
     <row r="326" ht="12.75" customHeight="1">
-      <c r="A326" s="1"/>
+      <c r="A326" s="2" t="s">
+        <v>892</v>
+      </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
-      <c r="D326" s="1"/>
+      <c r="D326" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="E326" s="1"/>
-      <c r="F326" s="1"/>
+      <c r="F326" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="G326" s="1"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
@@ -16651,8 +16665,12 @@
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
       <c r="N326" s="1"/>
-      <c r="O326" s="1"/>
-      <c r="P326" s="1"/>
+      <c r="O326" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P326" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="955">
   <si>
     <t>ID</t>
   </si>
@@ -716,7 +716,7 @@
     <t>Георгиевич_Версия</t>
   </si>
   <si>
-    <t>Коростылев</t>
+    <t>Коростелев</t>
   </si>
   <si>
     <t>I305</t>
@@ -737,9 +737,6 @@
     <t>I307</t>
   </si>
   <si>
-    <t>Коростылева</t>
-  </si>
-  <si>
     <t>Анастасия</t>
   </si>
   <si>
@@ -2654,6 +2651,9 @@
     <t>А у меня день рождения 15 января 1941год, Варвара Оленина это литературное имя, даже так записано в билете Союза писателей России, а настоящая фамилия по мужу Комендант Валентина Ивановна, в девичестве Соловьёва</t>
   </si>
   <si>
+    <t>те</t>
+  </si>
+  <si>
     <t>15/4/1941</t>
   </si>
   <si>
@@ -2852,9 +2852,6 @@
     <t>Дед</t>
   </si>
   <si>
-    <t>Коростелев</t>
-  </si>
-  <si>
     <t>I325</t>
   </si>
   <si>
@@ -2865,6 +2862,27 @@
   </si>
   <si>
     <t>Марина</t>
+  </si>
+  <si>
+    <t>I328</t>
+  </si>
+  <si>
+    <t>БэБи</t>
+  </si>
+  <si>
+    <t>I329</t>
+  </si>
+  <si>
+    <t>I330</t>
+  </si>
+  <si>
+    <t>I331</t>
+  </si>
+  <si>
+    <t>I332</t>
+  </si>
+  <si>
+    <t>I333</t>
   </si>
 </sst>
 </file>
@@ -5988,7 +6006,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -5998,8 +6016,12 @@
       <c r="L69" s="1"/>
       <c r="M69" s="3"/>
       <c r="N69" s="1"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
+      <c r="O69" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P69" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -6058,7 +6080,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>29</v>
@@ -6069,10 +6091,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J71" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6092,21 +6114,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6133,15 +6155,15 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>158</v>
@@ -6149,7 +6171,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>155</v>
@@ -6157,7 +6179,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="2">
@@ -6177,31 +6199,31 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J74" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="2">
@@ -6221,7 +6243,7 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6230,13 +6252,13 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -6259,16 +6281,16 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6278,7 +6300,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O76" s="2">
         <v>1.0</v>
@@ -6294,7 +6316,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -6304,26 +6326,26 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="F77" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J77" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="2">
@@ -6340,7 +6362,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -6350,27 +6372,27 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="O78" s="2">
         <v>0.0</v>
@@ -6389,18 +6411,18 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6413,7 +6435,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="2">
@@ -6433,7 +6455,7 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6441,26 +6463,26 @@
         <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J80" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="N80" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="O80" s="2">
         <v>0.0</v>
@@ -6479,18 +6501,18 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6499,10 +6521,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O81" s="2">
         <v>1.0</v>
@@ -6518,21 +6540,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6559,16 +6581,16 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6595,31 +6617,31 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J84" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="2">
@@ -6636,12 +6658,12 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6649,18 +6671,18 @@
         <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J85" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -6680,31 +6702,31 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J86" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J86" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -6727,7 +6749,7 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6735,18 +6757,18 @@
         <v>77</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J87" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J87" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -6769,7 +6791,7 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6777,18 +6799,18 @@
         <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="J88" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6811,26 +6833,26 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="J89" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
@@ -6853,34 +6875,34 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="J90" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="N90" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="N90" s="10" t="s">
-        <v>299</v>
       </c>
       <c r="O90" s="10">
         <v>1.0</v>
@@ -6899,7 +6921,7 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -6908,7 +6930,7 @@
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -6935,7 +6957,7 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -6943,10 +6965,10 @@
         <v>73</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -6955,10 +6977,10 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="N92" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="O92" s="10">
         <v>0.0</v>
@@ -6977,18 +6999,18 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -6997,10 +7019,10 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="N93" s="10" t="s">
         <v>306</v>
-      </c>
-      <c r="N93" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="O93" s="10">
         <v>1.0</v>
@@ -7019,31 +7041,31 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="E94" s="10" t="s">
+      <c r="F94" s="10" t="s">
         <v>310</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>311</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N94" s="11"/>
       <c r="O94" s="10">
@@ -7060,34 +7082,34 @@
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="J95" s="10" t="s">
         <v>318</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>319</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="N95" s="11"/>
       <c r="O95" s="10">
@@ -7107,31 +7129,31 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E96" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>323</v>
-      </c>
       <c r="F96" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="N96" s="11"/>
       <c r="O96" s="10">
@@ -7151,31 +7173,31 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E97" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>327</v>
-      </c>
       <c r="F97" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N97" s="11"/>
       <c r="O97" s="10">
@@ -7195,7 +7217,7 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7203,10 +7225,10 @@
         <v>108</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -7233,7 +7255,7 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7241,10 +7263,10 @@
         <v>49</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -7253,7 +7275,7 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N99" s="11"/>
       <c r="O99" s="10">
@@ -7273,15 +7295,15 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>51</v>
@@ -7289,7 +7311,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>48</v>
@@ -7315,16 +7337,16 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7351,31 +7373,31 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>343</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="2">
@@ -7395,15 +7417,15 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>51</v>
@@ -7411,7 +7433,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>48</v>
@@ -7419,7 +7441,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="2">
@@ -7439,15 +7461,15 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>51</v>
@@ -7455,7 +7477,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>48</v>
@@ -7463,7 +7485,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="2">
@@ -7483,18 +7505,18 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -7518,12 +7540,12 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7539,7 +7561,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>71</v>
@@ -7565,15 +7587,15 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>57</v>
@@ -7602,28 +7624,28 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="F108" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>71</v>
@@ -7649,7 +7671,7 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7657,15 +7679,15 @@
         <v>33</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>71</v>
@@ -7691,7 +7713,7 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7700,7 +7722,7 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -7727,7 +7749,7 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7735,10 +7757,10 @@
         <v>209</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -7765,7 +7787,7 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7773,7 +7795,7 @@
         <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>158</v>
@@ -7785,7 +7807,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="2">
@@ -7802,36 +7824,36 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="2">
@@ -7851,7 +7873,7 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7859,23 +7881,23 @@
         <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="2">
@@ -7895,16 +7917,16 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -7913,7 +7935,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="2">
@@ -7933,16 +7955,16 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -7969,31 +7991,31 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>148</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J117" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="J117" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="2">
@@ -8013,7 +8035,7 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8021,23 +8043,23 @@
         <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J118" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="J118" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="2">
@@ -8057,31 +8079,31 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J119" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="J119" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="2">
@@ -8098,23 +8120,23 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8123,7 +8145,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="2">
@@ -8140,12 +8162,12 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8153,10 +8175,10 @@
         <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8165,10 +8187,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="N121" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="O121" s="2">
         <v>0.0</v>
@@ -8187,18 +8209,18 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -8207,10 +8229,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="N122" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="N122" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="O122" s="2">
         <v>0.0</v>
@@ -8229,18 +8251,18 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -8264,36 +8286,36 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J124" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="J124" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="2">
@@ -8313,34 +8335,34 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="J125" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="O125" s="2">
         <v>0.0</v>
@@ -8359,15 +8381,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>120</v>
@@ -8383,7 +8405,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="2">
@@ -8403,15 +8425,15 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>120</v>
@@ -8427,7 +8449,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="2">
@@ -8447,31 +8469,31 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="J128" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="J128" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="2">
@@ -8491,23 +8513,23 @@
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>124</v>
@@ -8515,7 +8537,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="2">
@@ -8535,18 +8557,18 @@
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -8573,18 +8595,18 @@
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="F131" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -8631,10 +8653,10 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="N132" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="O132" s="2">
         <v>0.0</v>
@@ -8658,10 +8680,10 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>42</v>
@@ -8669,18 +8691,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J133" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="J133" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="N133" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="N133" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="O133" s="2">
         <v>1.0</v>
@@ -8696,12 +8718,12 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8725,10 +8747,10 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="N134" s="8" t="s">
         <v>452</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>453</v>
       </c>
       <c r="O134" s="2">
         <v>0.0</v>
@@ -8747,7 +8769,7 @@
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8771,10 +8793,10 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="N135" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="N135" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="O135" s="2">
         <v>0.0</v>
@@ -8793,15 +8815,15 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>42</v>
@@ -8817,10 +8839,10 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="N136" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="N136" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="O136" s="2">
         <v>1.0</v>
@@ -8839,7 +8861,7 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8847,10 +8869,10 @@
         <v>147</v>
       </c>
       <c r="E137" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="F137" s="13" t="s">
         <v>462</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>463</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -8877,18 +8899,18 @@
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>128</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -8912,12 +8934,12 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="13" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8926,7 +8948,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -8953,7 +8975,7 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8964,7 +8986,7 @@
         <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -8991,18 +9013,18 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
@@ -9026,12 +9048,12 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9055,10 +9077,10 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="N142" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="N142" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="O142" s="2">
         <v>0.0</v>
@@ -9077,7 +9099,7 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -9093,7 +9115,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -9114,12 +9136,12 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9127,7 +9149,7 @@
         <v>147</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>120</v>
@@ -9135,15 +9157,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="2">
@@ -9163,12 +9185,12 @@
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>50</v>
@@ -9183,7 +9205,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="2">
@@ -9200,12 +9222,12 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9221,15 +9243,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="2">
@@ -9249,30 +9271,30 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G147" s="1"/>
       <c r="I147" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="J147" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="J147" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="2">
@@ -9289,12 +9311,12 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9302,22 +9324,22 @@
         <v>73</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G148" s="1"/>
       <c r="I148" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="2">
@@ -9337,7 +9359,7 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9345,7 +9367,7 @@
         <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>120</v>
@@ -9353,15 +9375,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="2">
@@ -9381,12 +9403,12 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>34</v>
@@ -9397,15 +9419,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="2">
@@ -9425,7 +9447,7 @@
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9433,7 +9455,7 @@
         <v>33</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>42</v>
@@ -9441,15 +9463,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="2">
@@ -9469,7 +9491,7 @@
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9477,7 +9499,7 @@
         <v>73</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>120</v>
@@ -9485,15 +9507,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="2">
@@ -9513,15 +9535,15 @@
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>42</v>
@@ -9533,7 +9555,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="2">
@@ -9550,17 +9572,17 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>29</v>
@@ -9571,15 +9593,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="2">
@@ -9599,18 +9621,18 @@
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -9619,7 +9641,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="2">
@@ -9639,12 +9661,12 @@
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>34</v>
@@ -9655,18 +9677,18 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>515</v>
-      </c>
-      <c r="N156" s="2" t="s">
-        <v>516</v>
       </c>
       <c r="O156" s="2">
         <v>1.0</v>
@@ -9685,7 +9707,7 @@
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9701,15 +9723,15 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="2">
@@ -9726,17 +9748,17 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>34</v>
@@ -9751,7 +9773,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="2">
@@ -9770,7 +9792,7 @@
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9778,7 +9800,7 @@
         <v>118</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>120</v>
@@ -9786,15 +9808,15 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="2">
@@ -9814,15 +9836,15 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>42</v>
@@ -9834,7 +9856,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="2">
@@ -9851,12 +9873,12 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9872,15 +9894,15 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="2">
@@ -9900,7 +9922,7 @@
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9916,15 +9938,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="2">
@@ -9944,7 +9966,7 @@
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9952,7 +9974,7 @@
         <v>65</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>120</v>
@@ -9960,15 +9982,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="2">
@@ -9988,7 +10010,7 @@
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9996,7 +10018,7 @@
         <v>49</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>42</v>
@@ -10008,7 +10030,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="2">
@@ -10025,17 +10047,17 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>34</v>
@@ -10046,15 +10068,15 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="2">
@@ -10074,7 +10096,7 @@
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10090,15 +10112,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="2">
@@ -10118,15 +10140,15 @@
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>42</v>
@@ -10138,7 +10160,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="2">
@@ -10155,12 +10177,12 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
       <c r="X167" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10168,7 +10190,7 @@
         <v>147</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>120</v>
@@ -10176,15 +10198,15 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="2">
@@ -10204,12 +10226,12 @@
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>157</v>
@@ -10224,7 +10246,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="2">
@@ -10241,20 +10263,20 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>42</v>
@@ -10262,15 +10284,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="2">
@@ -10290,15 +10312,15 @@
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>42</v>
@@ -10306,15 +10328,15 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N171" s="1"/>
       <c r="O171" s="2">
@@ -10334,7 +10356,7 @@
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10358,10 +10380,10 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="O172" s="2">
         <v>0.0</v>
@@ -10380,12 +10402,12 @@
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>41</v>
@@ -10396,13 +10418,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="2">
@@ -10422,7 +10444,7 @@
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10438,13 +10460,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="2">
@@ -10464,7 +10486,7 @@
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10472,7 +10494,7 @@
         <v>72</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>42</v>
@@ -10488,10 +10510,10 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="N175" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="N175" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="O175" s="2">
         <v>1.0</v>
@@ -10510,7 +10532,7 @@
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10526,15 +10548,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="2">
@@ -10554,18 +10576,18 @@
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="E177" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -10574,10 +10596,10 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="N177" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="N177" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="O177" s="2">
         <v>1.0</v>
@@ -10596,7 +10618,7 @@
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10604,23 +10626,23 @@
         <v>72</v>
       </c>
       <c r="E178" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F178" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="F178" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="2">
@@ -10637,20 +10659,20 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
       <c r="X178" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>42</v>
@@ -10658,15 +10680,15 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="2">
@@ -10686,7 +10708,7 @@
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10695,18 +10717,18 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N180" s="1"/>
       <c r="O180" s="2">
@@ -10726,12 +10748,12 @@
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>174</v>
@@ -10742,18 +10764,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="N181" s="13" t="s">
         <v>588</v>
-      </c>
-      <c r="N181" s="13" t="s">
-        <v>589</v>
       </c>
       <c r="O181" s="2">
         <v>0.0</v>
@@ -10772,15 +10794,15 @@
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>42</v>
@@ -10788,18 +10810,18 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="J182" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="J182" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="N182" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="N182" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="O182" s="2">
         <v>1.0</v>
@@ -10815,12 +10837,12 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
       <c r="X182" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10828,10 +10850,10 @@
         <v>108</v>
       </c>
       <c r="E183" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="F183" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="F183" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -10858,18 +10880,18 @@
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="E184" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F184" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="E184" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>599</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -10879,7 +10901,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="O184" s="2">
         <v>1.0</v>
@@ -10898,12 +10920,12 @@
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>41</v>
@@ -10917,12 +10939,12 @@
         <v>54</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="2">
@@ -10942,12 +10964,12 @@
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="2" t="s">
@@ -10960,7 +10982,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="2">
@@ -10980,15 +11002,15 @@
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>51</v>
@@ -10999,12 +11021,12 @@
         <v>153</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="2">
@@ -11024,16 +11046,16 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -11042,7 +11064,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="2">
@@ -11062,7 +11084,7 @@
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11081,12 +11103,12 @@
         <v>88</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="2">
@@ -11106,15 +11128,15 @@
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>172</v>
@@ -11127,7 +11149,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="O190" s="2">
         <v>1.0</v>
@@ -11146,23 +11168,23 @@
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E191" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="F191" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="F191" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>115</v>
@@ -11170,7 +11192,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="2">
@@ -11187,12 +11209,12 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
       <c r="X191" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -11201,13 +11223,13 @@
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -11230,7 +11252,7 @@
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -11238,7 +11260,7 @@
         <v>188</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>116</v>
@@ -11246,7 +11268,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>115</v>
@@ -11254,7 +11276,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="2">
@@ -11271,20 +11293,20 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
       <c r="X193" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>116</v>
@@ -11293,7 +11315,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -11316,15 +11338,15 @@
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -11352,7 +11374,7 @@
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11360,10 +11382,10 @@
         <v>25</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -11371,12 +11393,12 @@
         <v>88</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="2">
@@ -11393,20 +11415,20 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
       <c r="X196" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>116</v>
@@ -11414,7 +11436,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>115</v>
@@ -11422,7 +11444,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="2">
@@ -11442,7 +11464,7 @@
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -11450,7 +11472,7 @@
         <v>72</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>172</v>
@@ -11461,12 +11483,12 @@
         <v>88</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="2">
@@ -11483,20 +11505,20 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
       <c r="X198" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>57</v>
@@ -11507,7 +11529,7 @@
         <v>153</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -11530,7 +11552,7 @@
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11538,7 +11560,7 @@
         <v>58</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -11566,7 +11588,7 @@
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11577,15 +11599,15 @@
         <v>148</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -11608,7 +11630,7 @@
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11617,7 +11639,7 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -11643,26 +11665,26 @@
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="F203" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -11685,16 +11707,16 @@
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -11721,7 +11743,7 @@
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11729,7 +11751,7 @@
         <v>108</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>120</v>
@@ -11737,15 +11759,15 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="2">
@@ -11765,15 +11787,15 @@
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>42</v>
@@ -11784,7 +11806,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="2">
@@ -11804,7 +11826,7 @@
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11812,7 +11834,7 @@
         <v>33</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F207" s="13" t="s">
         <v>42</v>
@@ -11820,15 +11842,15 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="2">
@@ -11848,15 +11870,15 @@
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F208" s="13" t="s">
         <v>42</v>
@@ -11864,15 +11886,15 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="2">
@@ -11892,7 +11914,7 @@
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -11903,14 +11925,14 @@
         <v>78</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="2">
@@ -11930,7 +11952,7 @@
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -11941,20 +11963,20 @@
         <v>148</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="2">
@@ -11974,7 +11996,7 @@
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -11985,20 +12007,20 @@
         <v>148</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="2">
@@ -12018,7 +12040,7 @@
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12026,23 +12048,23 @@
         <v>33</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="2">
@@ -12062,18 +12084,18 @@
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="F213" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="F213" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -12100,18 +12122,18 @@
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -12138,32 +12160,32 @@
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>164</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="N215" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="N215" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="O215" s="2">
         <v>0.0</v>
@@ -12182,18 +12204,18 @@
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -12220,18 +12242,18 @@
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>143</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -12244,7 +12266,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2">
@@ -12266,18 +12288,18 @@
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -12290,10 +12312,10 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="N218" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="N218" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="O218" s="2">
         <v>0.0</v>
@@ -12312,12 +12334,12 @@
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>29</v>
@@ -12328,18 +12350,18 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J219" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="J219" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="N219" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="N219" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="O219" s="2">
         <v>1.0</v>
@@ -12355,12 +12377,12 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -12368,7 +12390,7 @@
         <v>89</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>132</v>
@@ -12376,18 +12398,18 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="N220" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="N220" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="O220" s="2">
         <v>1.0</v>
@@ -12406,15 +12428,15 @@
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>132</v>
@@ -12426,7 +12448,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2">
@@ -12446,7 +12468,7 @@
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -12457,23 +12479,23 @@
         <v>29</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="J222" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="J222" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="N222" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="N222" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="O222" s="2">
         <v>1.0</v>
@@ -12489,12 +12511,12 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
       <c r="X222" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12502,10 +12524,10 @@
         <v>73</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -12514,10 +12536,10 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="N223" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="N223" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="O223" s="2">
         <v>0.0</v>
@@ -12536,7 +12558,7 @@
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -12544,10 +12566,10 @@
         <v>28</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -12556,10 +12578,10 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="N224" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="N224" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="O224" s="2">
         <v>1.0</v>
@@ -12578,31 +12600,31 @@
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E225" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="F225" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="F225" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2">
@@ -12619,31 +12641,31 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
       <c r="X225" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -12663,17 +12685,17 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
       <c r="X226" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>174</v>
@@ -12684,10 +12706,10 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -12710,24 +12732,24 @@
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -12750,15 +12772,15 @@
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>132</v>
@@ -12766,7 +12788,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -12790,15 +12812,15 @@
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>132</v>
@@ -12806,13 +12828,13 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2">
@@ -12832,15 +12854,15 @@
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>59</v>
@@ -12848,7 +12870,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>32</v>
@@ -12856,7 +12878,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="2">
@@ -12873,12 +12895,12 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
       <c r="X231" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -12887,7 +12909,7 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -12914,7 +12936,7 @@
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -12922,23 +12944,23 @@
         <v>49</v>
       </c>
       <c r="E233" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="F233" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="F233" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N233" s="1"/>
       <c r="O233" s="2">
@@ -12955,36 +12977,36 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
       <c r="X233" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F234" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="F234" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N234" s="1"/>
       <c r="O234" s="2">
@@ -13004,16 +13026,16 @@
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -13040,34 +13062,34 @@
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>186</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J236" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="J236" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="N236" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="N236" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="O236" s="2">
         <v>0.0</v>
@@ -13086,7 +13108,7 @@
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13097,7 +13119,7 @@
         <v>174</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -13106,7 +13128,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="N237" s="1"/>
       <c r="O237" s="2">
@@ -13123,12 +13145,12 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
       <c r="X237" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13136,10 +13158,10 @@
         <v>114</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -13163,12 +13185,12 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
       <c r="X238" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13179,15 +13201,15 @@
         <v>186</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="J239" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="J239" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -13210,26 +13232,26 @@
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -13249,12 +13271,12 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
       <c r="X240" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13262,18 +13284,18 @@
         <v>58</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -13296,7 +13318,7 @@
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -13307,15 +13329,15 @@
         <v>157</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -13338,7 +13360,7 @@
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -13347,7 +13369,7 @@
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -13374,16 +13396,16 @@
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -13410,26 +13432,26 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>776</v>
-      </c>
       <c r="F245" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -13452,26 +13474,26 @@
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -13494,7 +13516,7 @@
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13503,7 +13525,7 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -13530,16 +13552,16 @@
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="D248" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E248" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="F248" s="10" t="s">
         <v>781</v>
-      </c>
-      <c r="D248" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E248" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="F248" s="10" t="s">
-        <v>782</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
@@ -13552,7 +13574,7 @@
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="2">
@@ -13569,33 +13591,33 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
       <c r="X248" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D249" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E249" s="10" t="s">
+        <v>784</v>
+      </c>
+      <c r="F249" s="10" t="s">
         <v>785</v>
-      </c>
-      <c r="F249" s="10" t="s">
-        <v>786</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="J249" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="J249" s="10" t="s">
-        <v>788</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="10" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="2">
@@ -13615,28 +13637,28 @@
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D250" s="10" t="s">
         <v>790</v>
       </c>
-      <c r="D250" s="10" t="s">
-        <v>791</v>
-      </c>
       <c r="E250" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="2">
@@ -13653,33 +13675,33 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
       <c r="X250" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="10" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J251" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="N251" s="1"/>
       <c r="O251" s="2">
@@ -13699,28 +13721,28 @@
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="10" t="s">
+        <v>795</v>
+      </c>
+      <c r="D252" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E252" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="F252" s="10" t="s">
         <v>796</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E252" s="10" t="s">
-        <v>620</v>
-      </c>
-      <c r="F252" s="10" t="s">
-        <v>797</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="10" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J252" s="10" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="10" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="2">
@@ -13740,28 +13762,28 @@
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="10" t="s">
+        <v>798</v>
+      </c>
+      <c r="D253" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="D253" s="10" t="s">
+      <c r="E253" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="E253" s="10" t="s">
+      <c r="F253" s="10" t="s">
         <v>801</v>
-      </c>
-      <c r="F253" s="10" t="s">
-        <v>802</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J253" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="J253" s="10" t="s">
-        <v>804</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="10" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="2">
@@ -13781,28 +13803,28 @@
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="10" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="10" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="2">
@@ -13822,28 +13844,28 @@
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L255" s="11"/>
       <c r="M255" s="10" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="2">
@@ -13863,28 +13885,28 @@
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D256" s="10" t="s">
         <v>191</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="10" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="10" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N256" s="1"/>
       <c r="O256" s="2">
@@ -13904,26 +13926,26 @@
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="10" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="10" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="10" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="N257" s="1"/>
       <c r="O257" s="2">
@@ -13943,24 +13965,24 @@
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>209</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J258" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="J258" s="10" t="s">
-        <v>804</v>
       </c>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
@@ -13982,16 +14004,16 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="10" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F259" s="10" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
@@ -14018,16 +14040,16 @@
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="10" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D260" s="10" t="s">
         <v>203</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -14054,24 +14076,24 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="D261" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E261" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="D261" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="E261" s="10" t="s">
-        <v>821</v>
-      </c>
       <c r="F261" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
       <c r="I261" s="10" t="s">
+        <v>786</v>
+      </c>
+      <c r="J261" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="J261" s="10" t="s">
-        <v>788</v>
       </c>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
@@ -14093,14 +14115,14 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="10" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E262" s="11"/>
       <c r="F262" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
@@ -14127,16 +14149,16 @@
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="10" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E263" s="10" t="s">
+        <v>822</v>
+      </c>
+      <c r="F263" s="10" t="s">
         <v>823</v>
-      </c>
-      <c r="F263" s="10" t="s">
-        <v>824</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
@@ -14163,24 +14185,24 @@
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="D264" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="E264" s="10" t="s">
         <v>825</v>
       </c>
-      <c r="D264" s="10" t="s">
-        <v>685</v>
-      </c>
-      <c r="E264" s="10" t="s">
-        <v>826</v>
-      </c>
       <c r="F264" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J264" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="J264" s="10" t="s">
-        <v>804</v>
       </c>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -14202,24 +14224,24 @@
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="10" t="s">
+        <v>826</v>
+      </c>
+      <c r="D265" s="10" t="s">
         <v>827</v>
       </c>
-      <c r="D265" s="10" t="s">
-        <v>828</v>
-      </c>
       <c r="E265" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="F265" s="10" t="s">
         <v>801</v>
-      </c>
-      <c r="F265" s="10" t="s">
-        <v>802</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="10" t="s">
+        <v>802</v>
+      </c>
+      <c r="J265" s="10" t="s">
         <v>803</v>
-      </c>
-      <c r="J265" s="10" t="s">
-        <v>804</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
@@ -14241,24 +14263,24 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="10" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D266" s="10" t="s">
         <v>188</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J266" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -14280,28 +14302,28 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="10" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="10" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J267" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N267" s="1"/>
       <c r="O267" s="2">
@@ -14321,24 +14343,24 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="10" t="s">
+        <v>833</v>
+      </c>
+      <c r="D268" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="D268" s="10" t="s">
+      <c r="E268" s="10" t="s">
         <v>835</v>
       </c>
-      <c r="E268" s="10" t="s">
+      <c r="F268" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="F268" s="10" t="s">
-        <v>837</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
@@ -14360,24 +14382,24 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="10" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E269" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="F269" s="10" t="s">
         <v>836</v>
-      </c>
-      <c r="F269" s="10" t="s">
-        <v>837</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
       <c r="I269" s="10" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J269" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
@@ -14399,14 +14421,14 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="10" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E270" s="11"/>
       <c r="F270" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
@@ -14433,16 +14455,16 @@
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D271" s="10" t="s">
+        <v>840</v>
+      </c>
+      <c r="E271" s="10" t="s">
         <v>841</v>
       </c>
-      <c r="E271" s="10" t="s">
-        <v>842</v>
-      </c>
       <c r="F271" s="10" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
@@ -14469,18 +14491,18 @@
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="E272" s="2" t="s">
+      <c r="F272" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="F272" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -14489,10 +14511,10 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="N272" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="N272" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="O272" s="2">
         <v>0.0</v>
@@ -14511,7 +14533,7 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14519,18 +14541,18 @@
         <v>103</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -14553,26 +14575,26 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -14595,23 +14617,23 @@
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -14635,12 +14657,12 @@
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -14648,7 +14670,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -14679,10 +14701,10 @@
         <v>55</v>
       </c>
       <c r="E277" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="F277" s="17" t="s">
         <v>857</v>
-      </c>
-      <c r="F277" s="17" t="s">
-        <v>858</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -14691,10 +14713,10 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="N277" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="N277" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="O277" s="2">
         <v>0.0</v>
@@ -14718,13 +14740,13 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="13" t="s">
+        <v>860</v>
+      </c>
+      <c r="E278" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F278" s="17" t="s">
         <v>861</v>
-      </c>
-      <c r="E278" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="F278" s="17" t="s">
-        <v>862</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -14733,10 +14755,10 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="N278" s="14" t="s">
         <v>863</v>
-      </c>
-      <c r="N278" s="14" t="s">
-        <v>864</v>
       </c>
       <c r="O278" s="2">
         <v>1.0</v>
@@ -14755,18 +14777,18 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="13" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -14790,12 +14812,12 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
       <c r="X279" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14806,7 +14828,7 @@
         <v>59</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -14837,7 +14859,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -14848,7 +14870,7 @@
         <v>59</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -14879,7 +14901,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -14890,7 +14912,7 @@
         <v>59</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -14924,7 +14946,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -14935,7 +14957,7 @@
         <v>59</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -14966,7 +14988,7 @@
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -14977,15 +14999,15 @@
         <v>34</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -15008,23 +15030,23 @@
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -15045,12 +15067,12 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
       <c r="X285" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -15059,7 +15081,7 @@
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -15086,7 +15108,7 @@
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -15097,7 +15119,7 @@
         <v>29</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -15106,7 +15128,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="2" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="N287" s="1"/>
       <c r="O287" s="2">
@@ -15123,23 +15145,23 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
       <c r="X287" s="2" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -15189,7 +15211,7 @@
         <v>882</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -15295,7 +15317,7 @@
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>148</v>
@@ -15337,7 +15359,7 @@
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E293" s="1"/>
       <c r="F293" s="2" t="s">
@@ -15373,7 +15395,7 @@
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>888</v>
@@ -15415,10 +15437,10 @@
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>889</v>
@@ -15459,10 +15481,10 @@
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>895</v>
@@ -15548,7 +15570,7 @@
         <v>903</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>904</v>
@@ -15671,10 +15693,10 @@
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>895</v>
@@ -15716,7 +15738,7 @@
         <v>25</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F302" s="2" t="s">
         <v>895</v>
@@ -15795,7 +15817,7 @@
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="2" t="s">
@@ -15831,7 +15853,7 @@
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="16" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>920</v>
@@ -15986,7 +16008,7 @@
         <v>114</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>112</v>
@@ -16099,10 +16121,10 @@
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>927</v>
@@ -16144,7 +16166,7 @@
         <v>188</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>930</v>
@@ -16182,7 +16204,7 @@
         <v>106</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>104</v>
@@ -16226,7 +16248,7 @@
         <v>28</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>224</v>
@@ -16264,7 +16286,7 @@
         <v>72</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>224</v>
@@ -16497,10 +16519,10 @@
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
@@ -16541,7 +16563,7 @@
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="2" t="s">
-        <v>944</v>
+        <v>232</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
@@ -16570,16 +16592,16 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="2" t="s">
-        <v>944</v>
+        <v>232</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
@@ -16608,12 +16630,12 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="2" t="s">
@@ -16622,7 +16644,7 @@
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -16651,7 +16673,7 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="2" t="s">
@@ -16681,22 +16703,33 @@
       <c r="X326" s="1"/>
     </row>
     <row r="327" ht="12.75" customHeight="1">
-      <c r="A327" s="1"/>
+      <c r="A327" s="2" t="s">
+        <v>948</v>
+      </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
-      <c r="D327" s="1"/>
+      <c r="D327" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
-      <c r="H327" s="1"/>
-      <c r="I327" s="1"/>
-      <c r="J327" s="1"/>
+      <c r="I327" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="J327" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
       <c r="N327" s="1"/>
-      <c r="O327" s="1"/>
-      <c r="P327" s="1"/>
+      <c r="O327" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P327" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
@@ -16707,22 +16740,33 @@
       <c r="X327" s="1"/>
     </row>
     <row r="328" ht="12.75" customHeight="1">
-      <c r="A328" s="1"/>
+      <c r="A328" s="2" t="s">
+        <v>950</v>
+      </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
-      <c r="D328" s="1"/>
+      <c r="D328" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-      <c r="H328" s="1"/>
-      <c r="I328" s="1"/>
-      <c r="J328" s="1"/>
+      <c r="I328" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
       <c r="M328" s="1"/>
       <c r="N328" s="1"/>
-      <c r="O328" s="1"/>
-      <c r="P328" s="1"/>
+      <c r="O328" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P328" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
@@ -16733,10 +16777,14 @@
       <c r="X328" s="1"/>
     </row>
     <row r="329" ht="12.75" customHeight="1">
-      <c r="A329" s="1"/>
+      <c r="A329" s="2" t="s">
+        <v>951</v>
+      </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
+      <c r="D329" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
@@ -16747,8 +16795,12 @@
       <c r="L329" s="1"/>
       <c r="M329" s="1"/>
       <c r="N329" s="1"/>
-      <c r="O329" s="1"/>
-      <c r="P329" s="1"/>
+      <c r="O329" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P329" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
@@ -16759,10 +16811,14 @@
       <c r="X329" s="1"/>
     </row>
     <row r="330" ht="12.75" customHeight="1">
-      <c r="A330" s="1"/>
+      <c r="A330" s="2" t="s">
+        <v>952</v>
+      </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
-      <c r="D330" s="1"/>
+      <c r="D330" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
@@ -16773,8 +16829,12 @@
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
       <c r="N330" s="1"/>
-      <c r="O330" s="1"/>
-      <c r="P330" s="1"/>
+      <c r="O330" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P330" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
@@ -16785,10 +16845,14 @@
       <c r="X330" s="1"/>
     </row>
     <row r="331" ht="12.75" customHeight="1">
-      <c r="A331" s="1"/>
+      <c r="A331" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
-      <c r="D331" s="1"/>
+      <c r="D331" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
@@ -16799,8 +16863,12 @@
       <c r="L331" s="1"/>
       <c r="M331" s="1"/>
       <c r="N331" s="1"/>
-      <c r="O331" s="1"/>
-      <c r="P331" s="1"/>
+      <c r="O331" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P331" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
@@ -16811,10 +16879,14 @@
       <c r="X331" s="1"/>
     </row>
     <row r="332" ht="12.75" customHeight="1">
-      <c r="A332" s="1"/>
+      <c r="A332" s="2" t="s">
+        <v>954</v>
+      </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
-      <c r="D332" s="1"/>
+      <c r="D332" s="2" t="s">
+        <v>949</v>
+      </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
       <c r="G332" s="1"/>
@@ -16825,8 +16897,12 @@
       <c r="L332" s="1"/>
       <c r="M332" s="1"/>
       <c r="N332" s="1"/>
-      <c r="O332" s="1"/>
-      <c r="P332" s="1"/>
+      <c r="O332" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P332" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
@@ -16840,7 +16916,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
-      <c r="D333" s="1"/>
+      <c r="D333" s="2"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
       <c r="G333" s="1"/>
@@ -16851,8 +16927,8 @@
       <c r="L333" s="1"/>
       <c r="M333" s="1"/>
       <c r="N333" s="1"/>
-      <c r="O333" s="1"/>
-      <c r="P333" s="1"/>
+      <c r="O333" s="2"/>
+      <c r="P333" s="2"/>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
@@ -34466,6 +34542,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="A257:C257"/>
+    <mergeCell ref="A250:C250"/>
+    <mergeCell ref="A252:C252"/>
+    <mergeCell ref="A251:C251"/>
+    <mergeCell ref="A253:C253"/>
+    <mergeCell ref="A254:C254"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="J268:K268"/>
+    <mergeCell ref="J269:K269"/>
+    <mergeCell ref="I257:J257"/>
+    <mergeCell ref="J258:K258"/>
+    <mergeCell ref="J261:K261"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J255:K255"/>
+    <mergeCell ref="J256:K256"/>
     <mergeCell ref="J254:K254"/>
     <mergeCell ref="J249:K249"/>
     <mergeCell ref="J250:K250"/>
@@ -34473,40 +34574,15 @@
     <mergeCell ref="J251:K251"/>
     <mergeCell ref="J252:K252"/>
     <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J268:K268"/>
-    <mergeCell ref="J269:K269"/>
-    <mergeCell ref="I257:J257"/>
-    <mergeCell ref="J258:K258"/>
-    <mergeCell ref="J261:K261"/>
-    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="A265:C265"/>
     <mergeCell ref="J265:K265"/>
     <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J255:K255"/>
-    <mergeCell ref="J256:K256"/>
     <mergeCell ref="A267:C267"/>
     <mergeCell ref="A268:C268"/>
     <mergeCell ref="A269:C269"/>
     <mergeCell ref="A270:C270"/>
     <mergeCell ref="A271:C271"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="A250:C250"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="A257:C257"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A252:C252"/>
-    <mergeCell ref="A253:C253"/>
-    <mergeCell ref="A254:C254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="A251:C251"/>
-    <mergeCell ref="A258:C258"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L15"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="972">
   <si>
     <t>ID</t>
   </si>
@@ -2861,6 +2861,9 @@
     <t>I326</t>
   </si>
   <si>
+    <t>I341</t>
+  </si>
+  <si>
     <t>Марина</t>
   </si>
   <si>
@@ -2876,13 +2879,61 @@
     <t>I330</t>
   </si>
   <si>
+    <t>I347</t>
+  </si>
+  <si>
     <t>I331</t>
   </si>
   <si>
+    <t>I348</t>
+  </si>
+  <si>
     <t>I332</t>
   </si>
   <si>
     <t>I333</t>
+  </si>
+  <si>
+    <t>I334</t>
+  </si>
+  <si>
+    <t>I339</t>
+  </si>
+  <si>
+    <t>I335</t>
+  </si>
+  <si>
+    <t>I336</t>
+  </si>
+  <si>
+    <t>рано умерли</t>
+  </si>
+  <si>
+    <t>I337</t>
+  </si>
+  <si>
+    <t>I338</t>
+  </si>
+  <si>
+    <t>I340</t>
+  </si>
+  <si>
+    <t>I342</t>
+  </si>
+  <si>
+    <t>I343</t>
+  </si>
+  <si>
+    <t>Алена</t>
+  </si>
+  <si>
+    <t>I344</t>
+  </si>
+  <si>
+    <t>I345</t>
+  </si>
+  <si>
+    <t>I346</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +2943,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2930,6 +2981,9 @@
     </font>
     <font>
       <i/>
+    </font>
+    <font>
+      <sz val="9.0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2969,7 +3023,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -3021,6 +3075,12 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -16637,19 +16697,23 @@
       <c r="D325" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="E325" s="1"/>
+      <c r="E325" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="F325" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
-      <c r="M325" s="1"/>
+      <c r="M325" s="8">
+        <v>1966.0</v>
+      </c>
       <c r="N325" s="1"/>
       <c r="O325" s="2">
         <v>1.0</v>
@@ -16673,7 +16737,7 @@
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="2" t="s">
@@ -16704,12 +16768,12 @@
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
@@ -16741,12 +16805,12 @@
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -16778,18 +16842,20 @@
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
-      <c r="I329" s="1"/>
+      <c r="I329" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -16812,19 +16878,21 @@
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="1"/>
+      <c r="J330" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
@@ -16846,18 +16914,20 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
-      <c r="I331" s="1"/>
+      <c r="I331" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="J331" s="1"/>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -16880,12 +16950,12 @@
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
@@ -16913,22 +16983,40 @@
       <c r="X332" s="1"/>
     </row>
     <row r="333" ht="12.75" customHeight="1">
-      <c r="A333" s="1"/>
+      <c r="A333" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
-      <c r="D333" s="2"/>
-      <c r="E333" s="1"/>
-      <c r="F333" s="1"/>
+      <c r="D333" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
-      <c r="I333" s="1"/>
-      <c r="J333" s="1"/>
+      <c r="I333" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J333" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-      <c r="M333" s="1"/>
+      <c r="M333" s="22">
+        <v>1902.0</v>
+      </c>
       <c r="N333" s="1"/>
-      <c r="O333" s="2"/>
-      <c r="P333" s="2"/>
+      <c r="O333" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P333" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
@@ -16939,22 +17027,40 @@
       <c r="X333" s="1"/>
     </row>
     <row r="334" ht="12.75" customHeight="1">
-      <c r="A334" s="1"/>
+      <c r="A334" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
-      <c r="D334" s="1"/>
-      <c r="E334" s="1"/>
-      <c r="F334" s="1"/>
+      <c r="D334" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
-      <c r="I334" s="1"/>
-      <c r="J334" s="1"/>
+      <c r="I334" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J334" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
-      <c r="M334" s="1"/>
+      <c r="M334" s="22">
+        <v>1904.0</v>
+      </c>
       <c r="N334" s="1"/>
-      <c r="O334" s="1"/>
-      <c r="P334" s="1"/>
+      <c r="O334" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P334" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
@@ -16965,22 +17071,40 @@
       <c r="X334" s="1"/>
     </row>
     <row r="335" ht="12.75" customHeight="1">
-      <c r="A335" s="1"/>
+      <c r="A335" s="2" t="s">
+        <v>961</v>
+      </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="1"/>
-      <c r="E335" s="1"/>
-      <c r="F335" s="1"/>
+      <c r="D335" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
-      <c r="I335" s="1"/>
-      <c r="J335" s="1"/>
+      <c r="I335" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
-      <c r="M335" s="1"/>
+      <c r="M335" s="22">
+        <v>1907.0</v>
+      </c>
       <c r="N335" s="1"/>
-      <c r="O335" s="1"/>
-      <c r="P335" s="1"/>
+      <c r="O335" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P335" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
@@ -16988,25 +17112,45 @@
       <c r="U335" s="1"/>
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
-      <c r="X335" s="1"/>
+      <c r="X335" s="8" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="336" ht="12.75" customHeight="1">
-      <c r="A336" s="1"/>
+      <c r="A336" s="2" t="s">
+        <v>963</v>
+      </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
-      <c r="D336" s="1"/>
-      <c r="E336" s="1"/>
-      <c r="F336" s="1"/>
+      <c r="D336" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-      <c r="I336" s="1"/>
-      <c r="J336" s="1"/>
+      <c r="I336" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
-      <c r="M336" s="1"/>
+      <c r="M336" s="22">
+        <v>1910.0</v>
+      </c>
       <c r="N336" s="1"/>
-      <c r="O336" s="1"/>
-      <c r="P336" s="1"/>
+      <c r="O336" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P336" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
@@ -17014,25 +17158,45 @@
       <c r="U336" s="1"/>
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
-      <c r="X336" s="1"/>
+      <c r="X336" s="8" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="337" ht="12.75" customHeight="1">
-      <c r="A337" s="1"/>
+      <c r="A337" s="2" t="s">
+        <v>964</v>
+      </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
-      <c r="D337" s="1"/>
-      <c r="E337" s="1"/>
-      <c r="F337" s="1"/>
+      <c r="D337" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
-      <c r="I337" s="1"/>
-      <c r="J337" s="1"/>
+      <c r="I337" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
-      <c r="M337" s="1"/>
+      <c r="M337" s="22">
+        <v>1916.0</v>
+      </c>
       <c r="N337" s="1"/>
-      <c r="O337" s="1"/>
-      <c r="P337" s="1"/>
+      <c r="O337" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P337" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
@@ -17043,12 +17207,20 @@
       <c r="X337" s="1"/>
     </row>
     <row r="338" ht="12.75" customHeight="1">
-      <c r="A338" s="1"/>
+      <c r="A338" s="2" t="s">
+        <v>959</v>
+      </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
-      <c r="D338" s="1"/>
-      <c r="E338" s="1"/>
-      <c r="F338" s="1"/>
+      <c r="D338" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
@@ -17057,8 +17229,12 @@
       <c r="L338" s="1"/>
       <c r="M338" s="1"/>
       <c r="N338" s="1"/>
-      <c r="O338" s="1"/>
-      <c r="P338" s="1"/>
+      <c r="O338" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P338" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
@@ -17069,22 +17245,38 @@
       <c r="X338" s="1"/>
     </row>
     <row r="339" ht="12.75" customHeight="1">
-      <c r="A339" s="1"/>
+      <c r="A339" s="2" t="s">
+        <v>965</v>
+      </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
-      <c r="D339" s="1"/>
-      <c r="E339" s="1"/>
-      <c r="F339" s="1"/>
+      <c r="D339" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
-      <c r="J339" s="1"/>
+      <c r="J339" s="2" t="s">
+        <v>958</v>
+      </c>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
-      <c r="M339" s="1"/>
+      <c r="M339" s="8">
+        <v>1937.0</v>
+      </c>
       <c r="N339" s="1"/>
-      <c r="O339" s="1"/>
-      <c r="P339" s="1"/>
+      <c r="O339" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P339" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
@@ -17095,22 +17287,36 @@
       <c r="X339" s="1"/>
     </row>
     <row r="340" ht="12.75" customHeight="1">
-      <c r="A340" s="1"/>
+      <c r="A340" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
-      <c r="D340" s="1"/>
+      <c r="D340" s="8" t="s">
+        <v>679</v>
+      </c>
       <c r="E340" s="1"/>
-      <c r="F340" s="1"/>
+      <c r="F340" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
-      <c r="J340" s="1"/>
+      <c r="J340" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
-      <c r="M340" s="1"/>
+      <c r="M340" s="8">
+        <v>1937.0</v>
+      </c>
       <c r="N340" s="1"/>
-      <c r="O340" s="1"/>
-      <c r="P340" s="1"/>
+      <c r="O340" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P340" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
@@ -17121,22 +17327,36 @@
       <c r="X340" s="1"/>
     </row>
     <row r="341" ht="12.75" customHeight="1">
-      <c r="A341" s="1"/>
+      <c r="A341" s="2" t="s">
+        <v>966</v>
+      </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
-      <c r="D341" s="1"/>
-      <c r="E341" s="1"/>
-      <c r="F341" s="1"/>
+      <c r="D341" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
-      <c r="I341" s="1"/>
+      <c r="I341" s="2" t="s">
+        <v>947</v>
+      </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
       <c r="M341" s="1"/>
       <c r="N341" s="1"/>
-      <c r="O341" s="1"/>
-      <c r="P341" s="1"/>
+      <c r="O341" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P341" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
@@ -17147,22 +17367,36 @@
       <c r="X341" s="1"/>
     </row>
     <row r="342" ht="12.75" customHeight="1">
-      <c r="A342" s="1"/>
+      <c r="A342" s="2" t="s">
+        <v>967</v>
+      </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
-      <c r="D342" s="1"/>
+      <c r="D342" s="2" t="s">
+        <v>968</v>
+      </c>
       <c r="E342" s="1"/>
-      <c r="F342" s="1"/>
+      <c r="F342" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
-      <c r="J342" s="1"/>
+      <c r="J342" s="2" t="s">
+        <v>946</v>
+      </c>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
-      <c r="M342" s="1"/>
+      <c r="M342" s="2">
+        <v>1990.0</v>
+      </c>
       <c r="N342" s="1"/>
-      <c r="O342" s="1"/>
-      <c r="P342" s="1"/>
+      <c r="O342" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P342" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
@@ -17173,22 +17407,38 @@
       <c r="X342" s="1"/>
     </row>
     <row r="343" ht="12.75" customHeight="1">
-      <c r="A343" s="1"/>
+      <c r="A343" s="2" t="s">
+        <v>969</v>
+      </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
-      <c r="D343" s="1"/>
-      <c r="E343" s="1"/>
-      <c r="F343" s="1"/>
+      <c r="D343" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="1"/>
+      <c r="I343" s="2" t="s">
+        <v>966</v>
+      </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
-      <c r="M343" s="1"/>
+      <c r="M343" s="2">
+        <v>2003.0</v>
+      </c>
       <c r="N343" s="1"/>
-      <c r="O343" s="1"/>
-      <c r="P343" s="1"/>
+      <c r="O343" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P343" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
@@ -17199,22 +17449,38 @@
       <c r="X343" s="1"/>
     </row>
     <row r="344" ht="12.75" customHeight="1">
-      <c r="A344" s="1"/>
+      <c r="A344" s="2" t="s">
+        <v>970</v>
+      </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
-      <c r="D344" s="1"/>
-      <c r="E344" s="1"/>
-      <c r="F344" s="1"/>
+      <c r="D344" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
-      <c r="I344" s="1"/>
+      <c r="I344" s="2" t="s">
+        <v>966</v>
+      </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
-      <c r="M344" s="1"/>
+      <c r="M344" s="2">
+        <v>2006.0</v>
+      </c>
       <c r="N344" s="1"/>
-      <c r="O344" s="1"/>
-      <c r="P344" s="1"/>
+      <c r="O344" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P344" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
@@ -17225,22 +17491,38 @@
       <c r="X344" s="1"/>
     </row>
     <row r="345" ht="12.75" customHeight="1">
-      <c r="A345" s="1"/>
+      <c r="A345" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
-      <c r="D345" s="1"/>
+      <c r="D345" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E345" s="1"/>
-      <c r="F345" s="1"/>
+      <c r="F345" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
-      <c r="J345" s="1"/>
+      <c r="J345" s="2" t="s">
+        <v>964</v>
+      </c>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
-      <c r="M345" s="1"/>
-      <c r="N345" s="1"/>
-      <c r="O345" s="1"/>
-      <c r="P345" s="1"/>
+      <c r="M345" s="2">
+        <v>1936.0</v>
+      </c>
+      <c r="N345" s="2">
+        <v>2015.0</v>
+      </c>
+      <c r="O345" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P345" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
@@ -17251,22 +17533,36 @@
       <c r="X345" s="1"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="A346" s="1"/>
+      <c r="A346" s="2" t="s">
+        <v>953</v>
+      </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
-      <c r="D346" s="1"/>
-      <c r="E346" s="1"/>
-      <c r="F346" s="1"/>
+      <c r="D346" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="1"/>
+      <c r="I346" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
-      <c r="O346" s="1"/>
-      <c r="P346" s="1"/>
+      <c r="O346" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P346" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
@@ -17277,22 +17573,36 @@
       <c r="X346" s="1"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="A347" s="1"/>
+      <c r="A347" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
-      <c r="D347" s="1"/>
-      <c r="E347" s="1"/>
-      <c r="F347" s="1"/>
+      <c r="D347" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="1"/>
+      <c r="I347" s="2" t="s">
+        <v>971</v>
+      </c>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
-      <c r="O347" s="1"/>
-      <c r="P347" s="1"/>
+      <c r="O347" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P347" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
@@ -17306,7 +17616,7 @@
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
-      <c r="D348" s="1"/>
+      <c r="D348" s="8"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2055" uniqueCount="972">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2047" uniqueCount="968">
   <si>
     <t>ID</t>
   </si>
@@ -2846,18 +2846,6 @@
     <t>I323</t>
   </si>
   <si>
-    <t>I324</t>
-  </si>
-  <si>
-    <t>Дед</t>
-  </si>
-  <si>
-    <t>I325</t>
-  </si>
-  <si>
-    <t>Отец</t>
-  </si>
-  <si>
     <t>I326</t>
   </si>
   <si>
@@ -2943,7 +2931,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2978,9 +2966,6 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF373E4D"/>
-    </font>
-    <font>
-      <i/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -3023,7 +3008,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -3072,10 +3057,7 @@
     <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -16618,28 +16600,32 @@
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
-      <c r="D323" s="20" t="s">
-        <v>943</v>
-      </c>
-      <c r="E323" s="1"/>
+      <c r="D323" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>309</v>
+      </c>
       <c r="F323" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="2" t="s">
-        <v>235</v>
+        <v>943</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
-      <c r="M323" s="1"/>
+      <c r="M323" s="8">
+        <v>1966.0</v>
+      </c>
       <c r="N323" s="1"/>
       <c r="O323" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P323" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
@@ -16652,32 +16638,30 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>944</v>
+        <v>892</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="2" t="s">
-        <v>232</v>
+        <v>112</v>
       </c>
       <c r="G324" s="1"/>
       <c r="H324" s="1"/>
-      <c r="I324" s="2" t="s">
-        <v>942</v>
-      </c>
+      <c r="I324" s="1"/>
       <c r="J324" s="1"/>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
       <c r="M324" s="1"/>
       <c r="N324" s="1"/>
       <c r="O324" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P324" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
@@ -16690,30 +16674,25 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="E325" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F325" s="2" t="s">
-        <v>224</v>
-      </c>
+        <v>946</v>
+      </c>
+      <c r="E325" s="1"/>
+      <c r="F325" s="1"/>
       <c r="G325" s="1"/>
-      <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="J325" s="1"/>
+        <v>891</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>894</v>
+      </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
-      <c r="M325" s="8">
-        <v>1966.0</v>
-      </c>
+      <c r="M325" s="1"/>
       <c r="N325" s="1"/>
       <c r="O325" s="2">
         <v>1.0</v>
@@ -16732,21 +16711,22 @@
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>892</v>
+        <v>947</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E326" s="1"/>
-      <c r="F326" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="F326" s="1"/>
       <c r="G326" s="1"/>
-      <c r="H326" s="1"/>
-      <c r="I326" s="1"/>
-      <c r="J326" s="1"/>
+      <c r="I326" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
       <c r="M326" s="1"/>
@@ -16768,22 +16748,21 @@
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
+      <c r="H327" s="1"/>
       <c r="I327" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="J327" s="2" t="s">
-        <v>894</v>
-      </c>
+        <v>949</v>
+      </c>
+      <c r="J327" s="1"/>
       <c r="K327" s="1"/>
       <c r="L327" s="1"/>
       <c r="M327" s="1"/>
@@ -16805,21 +16784,20 @@
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
       <c r="G328" s="1"/>
-      <c r="I328" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="J328" s="1" t="s">
-        <v>115</v>
+      <c r="H328" s="1"/>
+      <c r="I328" s="1"/>
+      <c r="J328" s="2" t="s">
+        <v>951</v>
       </c>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -16847,14 +16825,14 @@
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="2" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
@@ -16878,21 +16856,19 @@
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
       <c r="G330" s="1"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
-      <c r="J330" s="2" t="s">
-        <v>955</v>
-      </c>
+      <c r="J330" s="1"/>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
       <c r="M330" s="1"/>
@@ -16914,30 +16890,38 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
-      <c r="D331" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E331" s="1"/>
-      <c r="F331" s="1"/>
+      <c r="D331" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="J331" s="1"/>
+        <v>235</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
-      <c r="M331" s="1"/>
+      <c r="M331" s="21">
+        <v>1902.0</v>
+      </c>
       <c r="N331" s="1"/>
       <c r="O331" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P331" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
@@ -16950,28 +16934,38 @@
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
-      <c r="D332" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="E332" s="1"/>
-      <c r="F332" s="1"/>
+      <c r="D332" s="21" t="s">
+        <v>589</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
-      <c r="I332" s="1"/>
-      <c r="J332" s="1"/>
+      <c r="I332" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>955</v>
+      </c>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
-      <c r="M332" s="1"/>
+      <c r="M332" s="21">
+        <v>1904.0</v>
+      </c>
       <c r="N332" s="1"/>
       <c r="O332" s="2">
         <v>1.0</v>
       </c>
       <c r="P332" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
@@ -16984,12 +16978,12 @@
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
       <c r="D333" s="21" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="E333" s="16" t="s">
         <v>66</v>
@@ -17003,12 +16997,12 @@
         <v>235</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
-      <c r="M333" s="22">
-        <v>1902.0</v>
+      <c r="M333" s="21">
+        <v>1907.0</v>
       </c>
       <c r="N333" s="1"/>
       <c r="O333" s="2">
@@ -17024,22 +17018,24 @@
       <c r="U333" s="1"/>
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
-      <c r="X333" s="1"/>
+      <c r="X333" s="8" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
-      <c r="D334" s="22" t="s">
-        <v>589</v>
+      <c r="D334" s="21" t="s">
+        <v>191</v>
       </c>
       <c r="E334" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
@@ -17047,16 +17043,16 @@
         <v>235</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
-      <c r="M334" s="22">
-        <v>1904.0</v>
+      <c r="M334" s="21">
+        <v>1910.0</v>
       </c>
       <c r="N334" s="1"/>
       <c r="O334" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P334" s="2">
         <v>0.0</v>
@@ -17068,22 +17064,24 @@
       <c r="U334" s="1"/>
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
-      <c r="X334" s="1"/>
+      <c r="X334" s="8" t="s">
+        <v>958</v>
+      </c>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
-      <c r="D335" s="22" t="s">
-        <v>65</v>
+      <c r="D335" s="21" t="s">
+        <v>386</v>
       </c>
       <c r="E335" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
@@ -17091,16 +17089,16 @@
         <v>235</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
-      <c r="M335" s="22">
-        <v>1907.0</v>
+      <c r="M335" s="21">
+        <v>1916.0</v>
       </c>
       <c r="N335" s="1"/>
       <c r="O335" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P335" s="2">
         <v>0.0</v>
@@ -17112,41 +17110,33 @@
       <c r="U335" s="1"/>
       <c r="V335" s="1"/>
       <c r="W335" s="1"/>
-      <c r="X335" s="8" t="s">
-        <v>962</v>
-      </c>
+      <c r="X335" s="1"/>
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
-      <c r="D336" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="E336" s="16" t="s">
-        <v>66</v>
+      <c r="D336" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
-      <c r="I336" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="J336" s="2" t="s">
-        <v>959</v>
-      </c>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
-      <c r="M336" s="22">
-        <v>1910.0</v>
-      </c>
+      <c r="M336" s="1"/>
       <c r="N336" s="1"/>
       <c r="O336" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P336" s="2">
         <v>0.0</v>
@@ -17158,44 +17148,40 @@
       <c r="U336" s="1"/>
       <c r="V336" s="1"/>
       <c r="W336" s="1"/>
-      <c r="X336" s="8" t="s">
-        <v>962</v>
-      </c>
+      <c r="X336" s="1"/>
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
-      <c r="D337" s="22" t="s">
-        <v>386</v>
-      </c>
-      <c r="E337" s="16" t="s">
-        <v>29</v>
+      <c r="D337" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="F337" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
-      <c r="I337" s="2" t="s">
-        <v>235</v>
-      </c>
+      <c r="I337" s="1"/>
       <c r="J337" s="2" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
-      <c r="M337" s="22">
-        <v>1916.0</v>
+      <c r="M337" s="8">
+        <v>1937.0</v>
       </c>
       <c r="N337" s="1"/>
       <c r="O337" s="2">
         <v>1.0</v>
       </c>
       <c r="P337" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
@@ -17208,29 +17194,31 @@
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
-      <c r="D338" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E338" s="2" t="s">
-        <v>280</v>
-      </c>
+      <c r="D338" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E338" s="1"/>
       <c r="F338" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
-      <c r="J338" s="1"/>
+      <c r="J338" s="2" t="s">
+        <v>956</v>
+      </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
-      <c r="M338" s="1"/>
+      <c r="M338" s="8">
+        <v>1937.0</v>
+      </c>
       <c r="N338" s="1"/>
       <c r="O338" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P338" s="2">
         <v>0.0</v>
@@ -17246,33 +17234,31 @@
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
-      <c r="D339" s="8" t="s">
-        <v>188</v>
+      <c r="D339" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>829</v>
+        <v>522</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
-      <c r="I339" s="1"/>
-      <c r="J339" s="2" t="s">
-        <v>958</v>
-      </c>
+      <c r="I339" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="J339" s="1"/>
       <c r="K339" s="1"/>
       <c r="L339" s="1"/>
-      <c r="M339" s="8">
-        <v>1937.0</v>
-      </c>
+      <c r="M339" s="1"/>
       <c r="N339" s="1"/>
       <c r="O339" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P339" s="2">
         <v>1.0</v>
@@ -17288,34 +17274,34 @@
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
-      <c r="D340" s="8" t="s">
-        <v>679</v>
+      <c r="D340" s="2" t="s">
+        <v>964</v>
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="2" t="s">
-        <v>960</v>
+        <v>942</v>
       </c>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
-      <c r="M340" s="8">
-        <v>1937.0</v>
+      <c r="M340" s="2">
+        <v>1990.0</v>
       </c>
       <c r="N340" s="1"/>
       <c r="O340" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P340" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
@@ -17328,15 +17314,15 @@
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="2" t="s">
-        <v>92</v>
+        <v>774</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>522</v>
+        <v>164</v>
       </c>
       <c r="F341" s="2" t="s">
         <v>232</v>
@@ -17344,12 +17330,14 @@
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="2" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
-      <c r="M341" s="1"/>
+      <c r="M341" s="2">
+        <v>2003.0</v>
+      </c>
       <c r="N341" s="1"/>
       <c r="O341" s="2">
         <v>0.0</v>
@@ -17368,31 +17356,33 @@
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
       <c r="D342" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="E342" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="F342" s="2" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
-      <c r="I342" s="1"/>
-      <c r="J342" s="2" t="s">
-        <v>946</v>
-      </c>
+      <c r="I342" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="J342" s="1"/>
       <c r="K342" s="1"/>
       <c r="L342" s="1"/>
       <c r="M342" s="2">
-        <v>1990.0</v>
+        <v>2006.0</v>
       </c>
       <c r="N342" s="1"/>
       <c r="O342" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P342" s="2">
         <v>1.0</v>
@@ -17408,36 +17398,36 @@
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
-      <c r="D343" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="E343" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="D343" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E343" s="1"/>
       <c r="F343" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
-      <c r="I343" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="J343" s="1"/>
+      <c r="I343" s="1"/>
+      <c r="J343" s="2" t="s">
+        <v>960</v>
+      </c>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
       <c r="M343" s="2">
-        <v>2003.0</v>
-      </c>
-      <c r="N343" s="1"/>
+        <v>1936.0</v>
+      </c>
+      <c r="N343" s="2">
+        <v>2015.0</v>
+      </c>
       <c r="O343" s="2">
         <v>0.0</v>
       </c>
       <c r="P343" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
@@ -17450,15 +17440,15 @@
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
       <c r="D344" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>164</v>
+        <v>301</v>
       </c>
       <c r="F344" s="2" t="s">
         <v>232</v>
@@ -17466,14 +17456,12 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
-      <c r="M344" s="2">
-        <v>2006.0</v>
-      </c>
+      <c r="M344" s="1"/>
       <c r="N344" s="1"/>
       <c r="O344" s="2">
         <v>0.0</v>
@@ -17492,36 +17480,34 @@
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
-      <c r="D345" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E345" s="1"/>
+      <c r="D345" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F345" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
-      <c r="I345" s="1"/>
-      <c r="J345" s="2" t="s">
-        <v>964</v>
-      </c>
+      <c r="I345" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="J345" s="1"/>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
-      <c r="M345" s="2">
-        <v>1936.0</v>
-      </c>
-      <c r="N345" s="2">
-        <v>2015.0</v>
-      </c>
+      <c r="M345" s="1"/>
+      <c r="N345" s="1"/>
       <c r="O345" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P345" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
@@ -17533,36 +17519,22 @@
       <c r="X345" s="1"/>
     </row>
     <row r="346" ht="12.75" customHeight="1">
-      <c r="A346" s="2" t="s">
-        <v>953</v>
-      </c>
+      <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
-      <c r="D346" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E346" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F346" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="D346" s="8"/>
+      <c r="E346" s="1"/>
+      <c r="F346" s="1"/>
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
-      <c r="I346" s="2" t="s">
-        <v>971</v>
-      </c>
+      <c r="I346" s="1"/>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
       <c r="M346" s="1"/>
       <c r="N346" s="1"/>
-      <c r="O346" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P346" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="O346" s="1"/>
+      <c r="P346" s="1"/>
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
@@ -17573,36 +17545,22 @@
       <c r="X346" s="1"/>
     </row>
     <row r="347" ht="12.75" customHeight="1">
-      <c r="A347" s="2" t="s">
-        <v>955</v>
-      </c>
+      <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
-      <c r="D347" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E347" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F347" s="2" t="s">
-        <v>224</v>
-      </c>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+      <c r="F347" s="1"/>
       <c r="G347" s="1"/>
       <c r="H347" s="1"/>
-      <c r="I347" s="2" t="s">
-        <v>971</v>
-      </c>
+      <c r="I347" s="1"/>
       <c r="J347" s="1"/>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
       <c r="M347" s="1"/>
       <c r="N347" s="1"/>
-      <c r="O347" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="P347" s="2">
-        <v>1.0</v>
-      </c>
+      <c r="O347" s="1"/>
+      <c r="P347" s="1"/>
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
@@ -17616,7 +17574,7 @@
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
-      <c r="D348" s="8"/>
+      <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
@@ -34797,58 +34755,6 @@
       <c r="V1008" s="1"/>
       <c r="W1008" s="1"/>
       <c r="X1008" s="1"/>
-    </row>
-    <row r="1009" ht="12.75" customHeight="1">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="1"/>
-      <c r="G1009" s="1"/>
-      <c r="H1009" s="1"/>
-      <c r="I1009" s="1"/>
-      <c r="J1009" s="1"/>
-      <c r="K1009" s="1"/>
-      <c r="L1009" s="1"/>
-      <c r="M1009" s="1"/>
-      <c r="N1009" s="1"/>
-      <c r="O1009" s="1"/>
-      <c r="P1009" s="1"/>
-      <c r="Q1009" s="1"/>
-      <c r="R1009" s="1"/>
-      <c r="S1009" s="1"/>
-      <c r="T1009" s="1"/>
-      <c r="U1009" s="1"/>
-      <c r="V1009" s="1"/>
-      <c r="W1009" s="1"/>
-      <c r="X1009" s="1"/>
-    </row>
-    <row r="1010" ht="12.75" customHeight="1">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="1"/>
-      <c r="G1010" s="1"/>
-      <c r="H1010" s="1"/>
-      <c r="I1010" s="1"/>
-      <c r="J1010" s="1"/>
-      <c r="K1010" s="1"/>
-      <c r="L1010" s="1"/>
-      <c r="M1010" s="1"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
-      <c r="P1010" s="1"/>
-      <c r="Q1010" s="1"/>
-      <c r="R1010" s="1"/>
-      <c r="S1010" s="1"/>
-      <c r="T1010" s="1"/>
-      <c r="U1010" s="1"/>
-      <c r="V1010" s="1"/>
-      <c r="W1010" s="1"/>
-      <c r="X1010" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="41">

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2142" uniqueCount="999">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1001">
   <si>
     <t>ID</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>Косминична</t>
+  </si>
+  <si>
+    <t>I369</t>
   </si>
   <si>
     <t>Дмитриевна</t>
@@ -3015,6 +3018,9 @@
   </si>
   <si>
     <t>I368</t>
+  </si>
+  <si>
+    <t>Вороново кладбище</t>
   </si>
 </sst>
 </file>
@@ -5021,7 +5027,9 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -5052,10 +5060,10 @@
         <v>25</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
@@ -5079,7 +5087,7 @@
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" ht="12.75" customHeight="1">
@@ -5092,7 +5100,7 @@
         <v>103</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>79</v>
@@ -5122,7 +5130,7 @@
     </row>
     <row r="45" ht="12.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5146,7 +5154,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1">
@@ -5166,7 +5174,7 @@
     </row>
     <row r="46" ht="12.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5190,7 +5198,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1">
@@ -5210,7 +5218,7 @@
     </row>
     <row r="47" ht="12.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5234,10 +5242,10 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O47" s="1">
         <v>0.0</v>
@@ -5256,7 +5264,7 @@
     </row>
     <row r="48" ht="12.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -5280,10 +5288,10 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O48" s="1">
         <v>0.0</v>
@@ -5302,7 +5310,7 @@
     </row>
     <row r="49" ht="12.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -5310,7 +5318,7 @@
         <v>89</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>57</v>
@@ -5318,7 +5326,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -5342,15 +5350,15 @@
     </row>
     <row r="50" ht="12.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>57</v>
@@ -5358,7 +5366,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -5382,7 +5390,7 @@
     </row>
     <row r="51" ht="12.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -5390,7 +5398,7 @@
         <v>49</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>57</v>
@@ -5398,7 +5406,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -5422,15 +5430,15 @@
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>57</v>
@@ -5438,7 +5446,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -5478,15 +5486,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N53" s="1">
         <v>1917.0</v>
@@ -5508,7 +5516,7 @@
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -5524,15 +5532,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N54" s="1">
         <v>1917.0</v>
@@ -5551,12 +5559,12 @@
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" ht="12.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -5564,7 +5572,7 @@
         <v>73</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>57</v>
@@ -5572,13 +5580,13 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N55" s="1"/>
       <c r="O55" s="1">
@@ -5595,12 +5603,12 @@
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" ht="12.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5638,12 +5646,12 @@
     </row>
     <row r="57" ht="12.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>29</v>
@@ -5654,15 +5662,15 @@
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1">
@@ -5687,7 +5695,7 @@
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>50</v>
@@ -5717,17 +5725,17 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" ht="12.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>66</v>
@@ -5738,10 +5746,10 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -5764,12 +5772,12 @@
     </row>
     <row r="60" ht="12.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>66</v>
@@ -5780,10 +5788,10 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -5806,15 +5814,15 @@
     </row>
     <row r="61" ht="12.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>51</v>
@@ -5841,20 +5849,20 @@
       <c r="V61" s="1"/>
       <c r="W61" s="1"/>
       <c r="X61" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="62" ht="12.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>57</v>
@@ -5862,13 +5870,13 @@
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
       <c r="I62" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N62" s="1"/>
       <c r="O62" s="1">
@@ -5888,15 +5896,15 @@
     </row>
     <row r="63" ht="12.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>57</v>
@@ -5904,7 +5912,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -5928,29 +5936,29 @@
     </row>
     <row r="64" ht="12.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N64" s="1"/>
       <c r="O64" s="2">
@@ -5967,20 +5975,20 @@
       <c r="V64" s="1"/>
       <c r="W64" s="1"/>
       <c r="X64" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" ht="12.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>57</v>
@@ -6007,23 +6015,23 @@
       <c r="V65" s="1"/>
       <c r="W65" s="1"/>
       <c r="X65" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" ht="12.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -6050,26 +6058,26 @@
     </row>
     <row r="67" ht="12.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -6092,7 +6100,7 @@
     </row>
     <row r="68" ht="12.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6100,18 +6108,18 @@
         <v>73</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -6134,7 +6142,7 @@
     </row>
     <row r="69" ht="12.75" customHeight="1">
       <c r="A69" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6145,7 +6153,7 @@
         <v>34</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -6219,7 +6227,7 @@
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>29</v>
@@ -6230,10 +6238,10 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -6253,21 +6261,21 @@
       <c r="V71" s="1"/>
       <c r="W71" s="1"/>
       <c r="X71" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -6294,15 +6302,15 @@
     </row>
     <row r="73" ht="12.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>160</v>
@@ -6310,7 +6318,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J73" s="4" t="s">
         <v>157</v>
@@ -6318,7 +6326,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="2">
@@ -6338,31 +6346,31 @@
     </row>
     <row r="74" ht="12.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N74" s="1"/>
       <c r="O74" s="2">
@@ -6382,7 +6390,7 @@
     </row>
     <row r="75" ht="12.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6391,13 +6399,13 @@
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -6420,16 +6428,16 @@
     </row>
     <row r="76" ht="12.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
@@ -6439,7 +6447,7 @@
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O76" s="2">
         <v>1.0</v>
@@ -6455,7 +6463,7 @@
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
       <c r="X76" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" ht="12.75" customHeight="1">
@@ -6465,26 +6473,26 @@
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N77" s="1"/>
       <c r="O77" s="2">
@@ -6501,7 +6509,7 @@
       <c r="V77" s="1"/>
       <c r="W77" s="1"/>
       <c r="X77" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" ht="12.75" customHeight="1">
@@ -6511,27 +6519,27 @@
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O78" s="2">
         <v>0.0</v>
@@ -6550,18 +6558,18 @@
     </row>
     <row r="79" ht="12.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
@@ -6574,7 +6582,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="2">
@@ -6594,7 +6602,7 @@
     </row>
     <row r="80" ht="12.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6602,26 +6610,26 @@
         <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O80" s="2">
         <v>0.0</v>
@@ -6640,18 +6648,18 @@
     </row>
     <row r="81" ht="12.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
@@ -6660,10 +6668,10 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O81" s="2">
         <v>1.0</v>
@@ -6679,21 +6687,21 @@
       <c r="V81" s="1"/>
       <c r="W81" s="1"/>
       <c r="X81" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" ht="12.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
@@ -6720,16 +6728,16 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
@@ -6756,31 +6764,31 @@
     </row>
     <row r="84" ht="12.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="2">
@@ -6797,12 +6805,12 @@
       <c r="V84" s="1"/>
       <c r="W84" s="1"/>
       <c r="X84" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" ht="12.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -6810,18 +6818,18 @@
         <v>144</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -6841,31 +6849,31 @@
       <c r="V85" s="1"/>
       <c r="W85" s="1"/>
       <c r="X85" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" ht="12.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -6888,7 +6896,7 @@
     </row>
     <row r="87" ht="12.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -6896,18 +6904,18 @@
         <v>77</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -6930,7 +6938,7 @@
     </row>
     <row r="88" ht="12.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -6938,18 +6946,18 @@
         <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -6972,26 +6980,26 @@
     </row>
     <row r="89" ht="12.75" customHeight="1">
       <c r="A89" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J89" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K89" s="11"/>
       <c r="L89" s="11"/>
@@ -7014,34 +7022,34 @@
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="A90" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E90" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K90" s="11"/>
       <c r="L90" s="11"/>
       <c r="M90" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O90" s="10">
         <v>1.0</v>
@@ -7060,7 +7068,7 @@
     </row>
     <row r="91" ht="12.75" customHeight="1">
       <c r="A91" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -7069,7 +7077,7 @@
       </c>
       <c r="E91" s="11"/>
       <c r="F91" s="10" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -7096,7 +7104,7 @@
     </row>
     <row r="92" ht="12.75" customHeight="1">
       <c r="A92" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -7104,10 +7112,10 @@
         <v>73</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -7116,10 +7124,10 @@
       <c r="K92" s="11"/>
       <c r="L92" s="11"/>
       <c r="M92" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N92" s="10" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="O92" s="10">
         <v>0.0</v>
@@ -7138,18 +7146,18 @@
     </row>
     <row r="93" ht="12.75" customHeight="1">
       <c r="A93" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E93" s="10" t="s">
         <v>29</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -7158,10 +7166,10 @@
       <c r="K93" s="11"/>
       <c r="L93" s="11"/>
       <c r="M93" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O93" s="10">
         <v>1.0</v>
@@ -7180,31 +7188,31 @@
     </row>
     <row r="94" ht="12.75" customHeight="1">
       <c r="A94" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K94" s="11"/>
       <c r="L94" s="11"/>
       <c r="M94" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N94" s="11"/>
       <c r="O94" s="10">
@@ -7221,34 +7229,34 @@
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
       <c r="X94" s="10" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="95" ht="12.75" customHeight="1">
       <c r="A95" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E95" s="11"/>
       <c r="F95" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K95" s="11"/>
       <c r="L95" s="11"/>
       <c r="M95" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N95" s="11"/>
       <c r="O95" s="10">
@@ -7268,31 +7276,31 @@
     </row>
     <row r="96" ht="12.75" customHeight="1">
       <c r="A96" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
       <c r="M96" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N96" s="11"/>
       <c r="O96" s="10">
@@ -7312,31 +7320,31 @@
     </row>
     <row r="97" ht="12.75" customHeight="1">
       <c r="A97" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K97" s="11"/>
       <c r="L97" s="11"/>
       <c r="M97" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N97" s="11"/>
       <c r="O97" s="10">
@@ -7356,7 +7364,7 @@
     </row>
     <row r="98" ht="12.75" customHeight="1">
       <c r="A98" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -7364,10 +7372,10 @@
         <v>108</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -7394,7 +7402,7 @@
     </row>
     <row r="99" ht="12.75" customHeight="1">
       <c r="A99" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -7402,10 +7410,10 @@
         <v>49</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -7414,7 +7422,7 @@
       <c r="K99" s="11"/>
       <c r="L99" s="11"/>
       <c r="M99" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N99" s="11"/>
       <c r="O99" s="10">
@@ -7434,15 +7442,15 @@
     </row>
     <row r="100" ht="12.75" customHeight="1">
       <c r="A100" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>51</v>
@@ -7450,7 +7458,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="1"/>
       <c r="I100" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J100" s="12" t="s">
         <v>48</v>
@@ -7476,16 +7484,16 @@
     </row>
     <row r="101" ht="12.75" customHeight="1">
       <c r="A101" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1"/>
@@ -7512,31 +7520,31 @@
     </row>
     <row r="102" ht="12.75" customHeight="1">
       <c r="A102" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1"/>
       <c r="I102" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="2">
@@ -7556,15 +7564,15 @@
     </row>
     <row r="103" ht="12.75" customHeight="1">
       <c r="A103" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>51</v>
@@ -7572,7 +7580,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="1"/>
       <c r="I103" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>48</v>
@@ -7580,7 +7588,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="2" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N103" s="1"/>
       <c r="O103" s="2">
@@ -7600,15 +7608,15 @@
     </row>
     <row r="104" ht="12.75" customHeight="1">
       <c r="A104" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>51</v>
@@ -7616,7 +7624,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="1"/>
       <c r="I104" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>48</v>
@@ -7624,7 +7632,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="2">
@@ -7644,18 +7652,18 @@
     </row>
     <row r="105" ht="12.75" customHeight="1">
       <c r="A105" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="1"/>
@@ -7679,12 +7687,12 @@
       <c r="V105" s="1"/>
       <c r="W105" s="1"/>
       <c r="X105" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" ht="12.75" customHeight="1">
       <c r="A106" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7700,7 +7708,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>71</v>
@@ -7726,15 +7734,15 @@
     </row>
     <row r="107" ht="12.75" customHeight="1">
       <c r="A107" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>57</v>
@@ -7763,28 +7771,28 @@
       <c r="V107" s="1"/>
       <c r="W107" s="1"/>
       <c r="X107" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" ht="12.75" customHeight="1">
       <c r="A108" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>71</v>
@@ -7810,7 +7818,7 @@
     </row>
     <row r="109" ht="12.75" customHeight="1">
       <c r="A109" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7818,15 +7826,15 @@
         <v>33</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>71</v>
@@ -7852,16 +7860,16 @@
     </row>
     <row r="110" ht="12.75" customHeight="1">
       <c r="A110" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
@@ -7888,18 +7896,18 @@
     </row>
     <row r="111" ht="12.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
@@ -7926,7 +7934,7 @@
     </row>
     <row r="112" ht="12.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7934,7 +7942,7 @@
         <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>160</v>
@@ -7946,7 +7954,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="2">
@@ -7963,36 +7971,36 @@
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="113" ht="12.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="2">
@@ -8012,7 +8020,7 @@
     </row>
     <row r="114" ht="12.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -8020,23 +8028,23 @@
         <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
       <c r="M114" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="2">
@@ -8056,16 +8064,16 @@
     </row>
     <row r="115" ht="12.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
@@ -8074,7 +8082,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="2">
@@ -8094,16 +8102,16 @@
     </row>
     <row r="116" ht="12.75" customHeight="1">
       <c r="A116" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
@@ -8130,31 +8138,31 @@
     </row>
     <row r="117" ht="12.75" customHeight="1">
       <c r="A117" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>150</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
       <c r="M117" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="2">
@@ -8174,7 +8182,7 @@
     </row>
     <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -8182,23 +8190,23 @@
         <v>108</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
       <c r="M118" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="2">
@@ -8218,31 +8226,31 @@
     </row>
     <row r="119" ht="12.75" customHeight="1">
       <c r="A119" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
       <c r="M119" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="2">
@@ -8259,23 +8267,23 @@
       <c r="V119" s="1"/>
       <c r="W119" s="1"/>
       <c r="X119" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="120" ht="12.75" customHeight="1">
       <c r="A120" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
@@ -8284,7 +8292,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
       <c r="M120" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N120" s="1"/>
       <c r="O120" s="2">
@@ -8301,12 +8309,12 @@
       <c r="V120" s="1"/>
       <c r="W120" s="1"/>
       <c r="X120" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="121" ht="12.75" customHeight="1">
       <c r="A121" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8314,10 +8322,10 @@
         <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
@@ -8326,10 +8334,10 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O121" s="2">
         <v>0.0</v>
@@ -8348,18 +8356,18 @@
     </row>
     <row r="122" ht="12.75" customHeight="1">
       <c r="A122" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
@@ -8368,10 +8376,10 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
       <c r="M122" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="O122" s="2">
         <v>0.0</v>
@@ -8390,18 +8398,18 @@
     </row>
     <row r="123" ht="12.75" customHeight="1">
       <c r="A123" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -8425,36 +8433,36 @@
       <c r="V123" s="1"/>
       <c r="W123" s="1"/>
       <c r="X123" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="124" ht="12.75" customHeight="1">
       <c r="A124" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
       <c r="M124" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N124" s="1"/>
       <c r="O124" s="2">
@@ -8474,34 +8482,34 @@
     </row>
     <row r="125" ht="12.75" customHeight="1">
       <c r="A125" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
       <c r="I125" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O125" s="2">
         <v>0.0</v>
@@ -8520,15 +8528,15 @@
     </row>
     <row r="126" ht="12.75" customHeight="1">
       <c r="A126" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>121</v>
@@ -8544,7 +8552,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="2" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N126" s="1"/>
       <c r="O126" s="2">
@@ -8564,15 +8572,15 @@
     </row>
     <row r="127" ht="12.75" customHeight="1">
       <c r="A127" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>121</v>
@@ -8588,7 +8596,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
       <c r="M127" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N127" s="1"/>
       <c r="O127" s="2">
@@ -8608,31 +8616,31 @@
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="A128" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
       <c r="M128" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N128" s="1"/>
       <c r="O128" s="2">
@@ -8652,23 +8660,23 @@
     </row>
     <row r="129" ht="12.75" customHeight="1">
       <c r="A129" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>125</v>
@@ -8676,7 +8684,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
       <c r="M129" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N129" s="1"/>
       <c r="O129" s="2">
@@ -8696,18 +8704,18 @@
     </row>
     <row r="130" ht="12.75" customHeight="1">
       <c r="A130" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -8734,18 +8742,18 @@
     </row>
     <row r="131" ht="12.75" customHeight="1">
       <c r="A131" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -8792,10 +8800,10 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
       <c r="M132" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O132" s="2">
         <v>0.0</v>
@@ -8819,10 +8827,10 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>42</v>
@@ -8830,18 +8838,18 @@
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="J133" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
       <c r="M133" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O133" s="2">
         <v>1.0</v>
@@ -8857,12 +8865,12 @@
       <c r="V133" s="1"/>
       <c r="W133" s="1"/>
       <c r="X133" s="14" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" ht="12.75" customHeight="1">
       <c r="A134" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8886,10 +8894,10 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
       <c r="M134" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N134" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="O134" s="2">
         <v>0.0</v>
@@ -8908,7 +8916,7 @@
     </row>
     <row r="135" ht="12.75" customHeight="1">
       <c r="A135" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8932,10 +8940,10 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
       <c r="M135" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O135" s="2">
         <v>0.0</v>
@@ -8954,15 +8962,15 @@
     </row>
     <row r="136" ht="12.75" customHeight="1">
       <c r="A136" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>42</v>
@@ -8978,10 +8986,10 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
       <c r="M136" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O136" s="2">
         <v>1.0</v>
@@ -9000,7 +9008,7 @@
     </row>
     <row r="137" ht="12.75" customHeight="1">
       <c r="A137" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -9008,10 +9016,10 @@
         <v>149</v>
       </c>
       <c r="E137" s="13" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
@@ -9038,18 +9046,18 @@
     </row>
     <row r="138" ht="12.75" customHeight="1">
       <c r="A138" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>129</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
@@ -9073,12 +9081,12 @@
       <c r="V138" s="1"/>
       <c r="W138" s="1"/>
       <c r="X138" s="13" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="139" ht="12.75" customHeight="1">
       <c r="A139" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -9087,7 +9095,7 @@
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
@@ -9114,7 +9122,7 @@
     </row>
     <row r="140" ht="12.75" customHeight="1">
       <c r="A140" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -9125,7 +9133,7 @@
         <v>166</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
@@ -9152,12 +9160,12 @@
     </row>
     <row r="141" ht="12.75" customHeight="1">
       <c r="A141" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>41</v>
@@ -9187,12 +9195,12 @@
       <c r="V141" s="1"/>
       <c r="W141" s="1"/>
       <c r="X141" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="142" ht="12.75" customHeight="1">
       <c r="A142" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -9216,10 +9224,10 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
       <c r="M142" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="O142" s="2">
         <v>0.0</v>
@@ -9238,12 +9246,12 @@
     </row>
     <row r="143" ht="12.75" customHeight="1">
       <c r="A143" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>29</v>
@@ -9254,7 +9262,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
@@ -9275,12 +9283,12 @@
       <c r="V143" s="1"/>
       <c r="W143" s="1"/>
       <c r="X143" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" ht="12.75" customHeight="1">
       <c r="A144" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -9288,7 +9296,7 @@
         <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>121</v>
@@ -9296,15 +9304,15 @@
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J144" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
       <c r="M144" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="2">
@@ -9324,12 +9332,12 @@
     </row>
     <row r="145" ht="12.75" customHeight="1">
       <c r="A145" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>50</v>
@@ -9344,7 +9352,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
       <c r="M145" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="2">
@@ -9361,12 +9369,12 @@
       <c r="V145" s="1"/>
       <c r="W145" s="1"/>
       <c r="X145" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="146" ht="12.75" customHeight="1">
       <c r="A146" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -9382,15 +9390,15 @@
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J146" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
       <c r="M146" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="2">
@@ -9410,30 +9418,30 @@
     </row>
     <row r="147" ht="12.75" customHeight="1">
       <c r="A147" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>42</v>
       </c>
       <c r="G147" s="1"/>
       <c r="I147" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J147" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
       <c r="M147" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="2">
@@ -9450,12 +9458,12 @@
       <c r="V147" s="1"/>
       <c r="W147" s="1"/>
       <c r="X147" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
       <c r="A148" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -9463,22 +9471,22 @@
         <v>73</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G148" s="1"/>
       <c r="I148" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J148" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
       <c r="M148" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="2">
@@ -9498,7 +9506,7 @@
     </row>
     <row r="149" ht="12.75" customHeight="1">
       <c r="A149" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9506,7 +9514,7 @@
         <v>108</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>121</v>
@@ -9514,15 +9522,15 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J149" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
       <c r="M149" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="2">
@@ -9542,12 +9550,12 @@
     </row>
     <row r="150" ht="12.75" customHeight="1">
       <c r="A150" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>34</v>
@@ -9558,15 +9566,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J150" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
       <c r="M150" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="2">
@@ -9586,7 +9594,7 @@
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="A151" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -9594,7 +9602,7 @@
         <v>33</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>42</v>
@@ -9602,15 +9610,15 @@
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="J151" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
       <c r="M151" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="2">
@@ -9630,7 +9638,7 @@
     </row>
     <row r="152" ht="12.75" customHeight="1">
       <c r="A152" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -9638,7 +9646,7 @@
         <v>73</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>121</v>
@@ -9646,15 +9654,15 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J152" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="2">
@@ -9674,15 +9682,15 @@
     </row>
     <row r="153" ht="12.75" customHeight="1">
       <c r="A153" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>42</v>
@@ -9694,7 +9702,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
       <c r="M153" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="2">
@@ -9711,17 +9719,17 @@
       <c r="V153" s="1"/>
       <c r="W153" s="1"/>
       <c r="X153" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" ht="12.75" customHeight="1">
       <c r="A154" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>29</v>
@@ -9732,15 +9740,15 @@
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="J154" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
       <c r="M154" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="2">
@@ -9760,18 +9768,18 @@
     </row>
     <row r="155" ht="12.75" customHeight="1">
       <c r="A155" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
@@ -9780,7 +9788,7 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
       <c r="M155" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="2">
@@ -9800,12 +9808,12 @@
     </row>
     <row r="156" ht="12.75" customHeight="1">
       <c r="A156" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>34</v>
@@ -9816,18 +9824,18 @@
       <c r="G156" s="1"/>
       <c r="H156" s="1"/>
       <c r="I156" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J156" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="2" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="O156" s="2">
         <v>1.0</v>
@@ -9846,7 +9854,7 @@
     </row>
     <row r="157" ht="12.75" customHeight="1">
       <c r="A157" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9862,15 +9870,15 @@
       <c r="G157" s="1"/>
       <c r="H157" s="1"/>
       <c r="I157" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="J157" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
       <c r="M157" s="2" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="2">
@@ -9887,17 +9895,17 @@
       <c r="V157" s="1"/>
       <c r="W157" s="1"/>
       <c r="X157" s="2" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="158" ht="12.75" customHeight="1">
       <c r="A158" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>34</v>
@@ -9912,7 +9920,7 @@
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
       <c r="M158" s="2" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="2">
@@ -9931,7 +9939,7 @@
     </row>
     <row r="159" ht="12.75" customHeight="1">
       <c r="A159" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9939,7 +9947,7 @@
         <v>119</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>121</v>
@@ -9947,15 +9955,15 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J159" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
       <c r="M159" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N159" s="1"/>
       <c r="O159" s="2">
@@ -9975,15 +9983,15 @@
     </row>
     <row r="160" ht="12.75" customHeight="1">
       <c r="A160" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="2" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>42</v>
@@ -9995,7 +10003,7 @@
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
       <c r="M160" s="2" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N160" s="1"/>
       <c r="O160" s="2">
@@ -10012,12 +10020,12 @@
       <c r="V160" s="1"/>
       <c r="W160" s="1"/>
       <c r="X160" s="2" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" ht="12.75" customHeight="1">
       <c r="A161" s="2" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -10033,15 +10041,15 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J161" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
       <c r="M161" s="2" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N161" s="1"/>
       <c r="O161" s="2">
@@ -10061,7 +10069,7 @@
     </row>
     <row r="162" ht="12.75" customHeight="1">
       <c r="A162" s="2" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -10077,15 +10085,15 @@
       <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="2" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="J162" s="2" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N162" s="1"/>
       <c r="O162" s="2">
@@ -10105,7 +10113,7 @@
     </row>
     <row r="163" ht="12.75" customHeight="1">
       <c r="A163" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -10113,7 +10121,7 @@
         <v>65</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>121</v>
@@ -10121,15 +10129,15 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J163" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
       <c r="M163" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N163" s="1"/>
       <c r="O163" s="2">
@@ -10149,7 +10157,7 @@
     </row>
     <row r="164" ht="12.75" customHeight="1">
       <c r="A164" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -10157,7 +10165,7 @@
         <v>49</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>42</v>
@@ -10169,7 +10177,7 @@
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
       <c r="M164" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N164" s="1"/>
       <c r="O164" s="2">
@@ -10186,17 +10194,17 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="165" ht="12.75" customHeight="1">
       <c r="A165" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>34</v>
@@ -10207,15 +10215,15 @@
       <c r="G165" s="1"/>
       <c r="H165" s="1"/>
       <c r="I165" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
       <c r="M165" s="2" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N165" s="1"/>
       <c r="O165" s="2">
@@ -10235,7 +10243,7 @@
     </row>
     <row r="166" ht="12.75" customHeight="1">
       <c r="A166" s="2" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -10251,15 +10259,15 @@
       <c r="G166" s="1"/>
       <c r="H166" s="1"/>
       <c r="I166" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
       <c r="M166" s="2" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N166" s="1"/>
       <c r="O166" s="2">
@@ -10279,15 +10287,15 @@
     </row>
     <row r="167" ht="12.75" customHeight="1">
       <c r="A167" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="2" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>42</v>
@@ -10299,7 +10307,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
       <c r="M167" s="2" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N167" s="1"/>
       <c r="O167" s="2">
@@ -10316,12 +10324,12 @@
       <c r="V167" s="1"/>
       <c r="W167" s="1"/>
       <c r="X167" s="2" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="168" ht="12.75" customHeight="1">
       <c r="A168" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -10329,7 +10337,7 @@
         <v>149</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>121</v>
@@ -10337,15 +10345,15 @@
       <c r="G168" s="1"/>
       <c r="H168" s="1"/>
       <c r="I168" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="J168" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
       <c r="M168" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N168" s="1"/>
       <c r="O168" s="2">
@@ -10365,12 +10373,12 @@
     </row>
     <row r="169" ht="12.75" customHeight="1">
       <c r="A169" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>159</v>
@@ -10385,7 +10393,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
       <c r="M169" s="2" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N169" s="1"/>
       <c r="O169" s="2">
@@ -10402,20 +10410,20 @@
       <c r="V169" s="1"/>
       <c r="W169" s="1"/>
       <c r="X169" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="170" ht="12.75" customHeight="1">
       <c r="A170" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>42</v>
@@ -10423,15 +10431,15 @@
       <c r="G170" s="1"/>
       <c r="H170" s="1"/>
       <c r="I170" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
       <c r="M170" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="N170" s="1"/>
       <c r="O170" s="2">
@@ -10451,15 +10459,15 @@
     </row>
     <row r="171" ht="12.75" customHeight="1">
       <c r="A171" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>42</v>
@@ -10467,15 +10475,15 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
       <c r="M171" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N171" s="1"/>
       <c r="O171" s="2">
@@ -10495,7 +10503,7 @@
     </row>
     <row r="172" ht="12.75" customHeight="1">
       <c r="A172" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -10519,10 +10527,10 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
       <c r="M172" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O172" s="2">
         <v>0.0</v>
@@ -10541,12 +10549,12 @@
     </row>
     <row r="173" ht="12.75" customHeight="1">
       <c r="A173" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>41</v>
@@ -10557,13 +10565,13 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
       <c r="M173" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N173" s="1"/>
       <c r="O173" s="2">
@@ -10583,7 +10591,7 @@
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="A174" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -10599,13 +10607,13 @@
       <c r="G174" s="1"/>
       <c r="H174" s="1"/>
       <c r="I174" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
       <c r="M174" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="2">
@@ -10625,7 +10633,7 @@
     </row>
     <row r="175" ht="12.75" customHeight="1">
       <c r="A175" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -10633,7 +10641,7 @@
         <v>72</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>42</v>
@@ -10649,10 +10657,10 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
       <c r="M175" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O175" s="2">
         <v>1.0</v>
@@ -10671,7 +10679,7 @@
     </row>
     <row r="176" ht="12.75" customHeight="1">
       <c r="A176" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -10679,7 +10687,7 @@
         <v>140</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>121</v>
@@ -10687,15 +10695,15 @@
       <c r="G176" s="1"/>
       <c r="H176" s="1"/>
       <c r="I176" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
       <c r="M176" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N176" s="1"/>
       <c r="O176" s="2">
@@ -10715,18 +10723,18 @@
     </row>
     <row r="177" ht="12.75" customHeight="1">
       <c r="A177" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G177" s="1"/>
       <c r="H177" s="1"/>
@@ -10735,10 +10743,10 @@
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
       <c r="M177" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="O177" s="2">
         <v>1.0</v>
@@ -10757,7 +10765,7 @@
     </row>
     <row r="178" ht="12.75" customHeight="1">
       <c r="A178" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -10765,23 +10773,23 @@
         <v>72</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G178" s="1"/>
       <c r="H178" s="1"/>
       <c r="I178" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="J178" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
       <c r="M178" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="2">
@@ -10798,20 +10806,20 @@
       <c r="V178" s="1"/>
       <c r="W178" s="1"/>
       <c r="X178" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="179" ht="12.75" customHeight="1">
       <c r="A179" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>42</v>
@@ -10819,15 +10827,15 @@
       <c r="G179" s="1"/>
       <c r="H179" s="1"/>
       <c r="I179" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J179" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
       <c r="M179" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="2">
@@ -10847,7 +10855,7 @@
     </row>
     <row r="180" ht="12.75" customHeight="1">
       <c r="A180" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -10856,18 +10864,18 @@
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
       <c r="M180" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="N180" s="1"/>
       <c r="O180" s="2">
@@ -10887,15 +10895,15 @@
     </row>
     <row r="181" ht="12.75" customHeight="1">
       <c r="A181" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E181" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F181" s="13" t="s">
         <v>121</v>
@@ -10903,18 +10911,18 @@
       <c r="G181" s="1"/>
       <c r="H181" s="1"/>
       <c r="I181" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
       <c r="M181" s="13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N181" s="13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="O181" s="2">
         <v>0.0</v>
@@ -10933,15 +10941,15 @@
     </row>
     <row r="182" ht="12.75" customHeight="1">
       <c r="A182" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E182" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F182" s="13" t="s">
         <v>42</v>
@@ -10949,18 +10957,18 @@
       <c r="G182" s="1"/>
       <c r="H182" s="1"/>
       <c r="I182" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
       <c r="M182" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="O182" s="2">
         <v>1.0</v>
@@ -10976,12 +10984,12 @@
       <c r="V182" s="1"/>
       <c r="W182" s="1"/>
       <c r="X182" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" ht="12.75" customHeight="1">
       <c r="A183" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -10989,10 +10997,10 @@
         <v>108</v>
       </c>
       <c r="E183" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
@@ -11019,18 +11027,18 @@
     </row>
     <row r="184" ht="12.75" customHeight="1">
       <c r="A184" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E184" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
@@ -11040,7 +11048,7 @@
       <c r="L184" s="1"/>
       <c r="M184" s="1"/>
       <c r="N184" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O184" s="2">
         <v>1.0</v>
@@ -11059,12 +11067,12 @@
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>41</v>
@@ -11078,12 +11086,12 @@
         <v>54</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="2">
@@ -11103,12 +11111,12 @@
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="2" t="s">
@@ -11121,7 +11129,7 @@
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="2">
@@ -11141,15 +11149,15 @@
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>51</v>
@@ -11160,12 +11168,12 @@
         <v>155</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="2">
@@ -11185,16 +11193,16 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G188" s="1"/>
       <c r="H188" s="1"/>
@@ -11203,7 +11211,7 @@
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N188" s="1"/>
       <c r="O188" s="2">
@@ -11223,7 +11231,7 @@
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -11231,7 +11239,7 @@
         <v>103</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>79</v>
@@ -11242,12 +11250,12 @@
         <v>88</v>
       </c>
       <c r="J189" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="2">
@@ -11267,18 +11275,18 @@
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
@@ -11288,7 +11296,7 @@
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="N190" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O190" s="2">
         <v>1.0</v>
@@ -11307,23 +11315,23 @@
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>116</v>
@@ -11331,7 +11339,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="2">
@@ -11348,27 +11356,27 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
       <c r="X191" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G192" s="1"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -11391,15 +11399,15 @@
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>117</v>
@@ -11407,7 +11415,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="1"/>
       <c r="I193" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>116</v>
@@ -11415,7 +11423,7 @@
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="N193" s="1"/>
       <c r="O193" s="2">
@@ -11432,20 +11440,20 @@
       <c r="V193" s="1"/>
       <c r="W193" s="1"/>
       <c r="X193" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>117</v>
@@ -11454,7 +11462,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -11477,15 +11485,15 @@
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -11513,7 +11521,7 @@
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -11521,10 +11529,10 @@
         <v>25</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G196" s="1"/>
       <c r="H196" s="1"/>
@@ -11532,12 +11540,12 @@
         <v>88</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="2">
@@ -11554,20 +11562,20 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
       <c r="X196" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="15" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>117</v>
@@ -11575,7 +11583,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="1"/>
       <c r="I197" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>116</v>
@@ -11583,7 +11591,7 @@
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="N197" s="1"/>
       <c r="O197" s="2">
@@ -11603,7 +11611,7 @@
     </row>
     <row r="198" ht="12.75" customHeight="1">
       <c r="A198" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -11611,10 +11619,10 @@
         <v>72</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G198" s="1"/>
       <c r="H198" s="1"/>
@@ -11622,12 +11630,12 @@
         <v>88</v>
       </c>
       <c r="J198" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N198" s="1"/>
       <c r="O198" s="2">
@@ -11644,20 +11652,20 @@
       <c r="V198" s="1"/>
       <c r="W198" s="1"/>
       <c r="X198" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>57</v>
@@ -11668,7 +11676,7 @@
         <v>155</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -11691,7 +11699,7 @@
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -11699,7 +11707,7 @@
         <v>58</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -11727,7 +11735,7 @@
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -11738,15 +11746,15 @@
         <v>150</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -11769,7 +11777,7 @@
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -11778,7 +11786,7 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -11804,26 +11812,26 @@
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="J203" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -11846,16 +11854,16 @@
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
@@ -11882,7 +11890,7 @@
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -11890,7 +11898,7 @@
         <v>108</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>121</v>
@@ -11898,15 +11906,15 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="J205" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="2">
@@ -11926,15 +11934,15 @@
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="8" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E206" s="13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F206" s="13" t="s">
         <v>42</v>
@@ -11945,7 +11953,7 @@
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="13" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="2">
@@ -11965,7 +11973,7 @@
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -11973,7 +11981,7 @@
         <v>33</v>
       </c>
       <c r="E207" s="13" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F207" s="13" t="s">
         <v>42</v>
@@ -11981,15 +11989,15 @@
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="I207" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J207" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="2">
@@ -12009,15 +12017,15 @@
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="13" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E208" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F208" s="13" t="s">
         <v>42</v>
@@ -12025,15 +12033,15 @@
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="2">
@@ -12053,7 +12061,7 @@
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12064,14 +12072,14 @@
         <v>78</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="2">
@@ -12091,7 +12099,7 @@
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12102,20 +12110,20 @@
         <v>150</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="2">
@@ -12135,7 +12143,7 @@
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -12146,20 +12154,20 @@
         <v>150</v>
       </c>
       <c r="F211" s="13" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
       <c r="I211" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J211" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
       <c r="M211" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="N211" s="1"/>
       <c r="O211" s="2">
@@ -12179,7 +12187,7 @@
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -12187,23 +12195,23 @@
         <v>33</v>
       </c>
       <c r="E212" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F212" s="13" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
       <c r="I212" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
       <c r="M212" s="13" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N212" s="1"/>
       <c r="O212" s="2">
@@ -12223,18 +12231,18 @@
     </row>
     <row r="213" ht="12.75" customHeight="1">
       <c r="A213" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="16" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
@@ -12261,18 +12269,18 @@
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="16" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -12299,32 +12307,32 @@
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="16" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>166</v>
       </c>
       <c r="F215" s="16" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="O215" s="2">
         <v>0.0</v>
@@ -12343,18 +12351,18 @@
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="16" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E216" s="16" t="s">
         <v>50</v>
       </c>
       <c r="F216" s="16" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -12381,18 +12389,18 @@
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E217" s="1" t="s">
         <v>145</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
@@ -12405,7 +12413,7 @@
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2">
@@ -12427,18 +12435,18 @@
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>141</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
@@ -12451,10 +12459,10 @@
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="O218" s="2">
         <v>0.0</v>
@@ -12473,12 +12481,12 @@
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>29</v>
@@ -12489,18 +12497,18 @@
       <c r="G219" s="1"/>
       <c r="H219" s="1"/>
       <c r="I219" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J219" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="O219" s="2">
         <v>1.0</v>
@@ -12516,12 +12524,12 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -12529,7 +12537,7 @@
         <v>89</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>134</v>
@@ -12537,18 +12545,18 @@
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="3" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="O220" s="2">
         <v>1.0</v>
@@ -12567,15 +12575,15 @@
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="2" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>134</v>
@@ -12587,7 +12595,7 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2">
@@ -12607,7 +12615,7 @@
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -12618,23 +12626,23 @@
         <v>29</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
       <c r="I222" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="3" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O222" s="2">
         <v>1.0</v>
@@ -12650,12 +12658,12 @@
       <c r="V222" s="1"/>
       <c r="W222" s="1"/>
       <c r="X222" s="2" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -12663,10 +12671,10 @@
         <v>73</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
@@ -12675,10 +12683,10 @@
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="O223" s="2">
         <v>0.0</v>
@@ -12697,7 +12705,7 @@
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -12705,10 +12713,10 @@
         <v>28</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
@@ -12717,10 +12725,10 @@
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
       <c r="M224" s="3" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="O224" s="2">
         <v>1.0</v>
@@ -12739,31 +12747,31 @@
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
       <c r="M225" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2">
@@ -12780,31 +12788,31 @@
       <c r="V225" s="1"/>
       <c r="W225" s="1"/>
       <c r="X225" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -12824,20 +12832,20 @@
       <c r="V226" s="1"/>
       <c r="W226" s="1"/>
       <c r="X226" s="2" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>134</v>
@@ -12845,10 +12853,10 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="2" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="J227" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -12871,24 +12879,24 @@
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="2" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -12911,15 +12919,15 @@
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>134</v>
@@ -12927,7 +12935,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
@@ -12951,15 +12959,15 @@
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="2" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>134</v>
@@ -12967,13 +12975,13 @@
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
       <c r="I230" s="2" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
       <c r="M230" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" s="2">
@@ -12993,15 +13001,15 @@
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>59</v>
@@ -13009,7 +13017,7 @@
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>32</v>
@@ -13017,7 +13025,7 @@
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="2">
@@ -13034,12 +13042,12 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
       <c r="X231" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -13048,7 +13056,7 @@
       </c>
       <c r="E232" s="1"/>
       <c r="F232" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
@@ -13075,7 +13083,7 @@
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -13083,23 +13091,23 @@
         <v>49</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
       <c r="I233" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="N233" s="1"/>
       <c r="O233" s="2">
@@ -13116,36 +13124,36 @@
       <c r="V233" s="1"/>
       <c r="W233" s="1"/>
       <c r="X233" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N234" s="1"/>
       <c r="O234" s="2">
@@ -13165,16 +13173,16 @@
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
       <c r="D235" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="E235" s="1"/>
       <c r="F235" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
@@ -13201,34 +13209,34 @@
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
       <c r="D236" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
       <c r="I236" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J236" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
       <c r="M236" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="O236" s="2">
         <v>0.0</v>
@@ -13247,7 +13255,7 @@
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13255,10 +13263,10 @@
         <v>143</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
@@ -13267,7 +13275,7 @@
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="N237" s="1"/>
       <c r="O237" s="2">
@@ -13284,12 +13292,12 @@
       <c r="V237" s="1"/>
       <c r="W237" s="1"/>
       <c r="X237" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13297,10 +13305,10 @@
         <v>114</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -13324,12 +13332,12 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
       <c r="X238" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13337,18 +13345,18 @@
         <v>89</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -13371,26 +13379,26 @@
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
       <c r="D240" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -13410,12 +13418,12 @@
       <c r="V240" s="1"/>
       <c r="W240" s="1"/>
       <c r="X240" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -13423,18 +13431,18 @@
         <v>58</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
       <c r="I241" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="J241" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -13457,7 +13465,7 @@
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -13468,15 +13476,15 @@
         <v>159</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
       <c r="I242" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="J242" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -13499,16 +13507,16 @@
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E243" s="1"/>
       <c r="F243" s="2" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
@@ -13535,16 +13543,16 @@
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E244" s="1"/>
       <c r="F244" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
@@ -13571,26 +13579,26 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
       <c r="D245" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
       <c r="I245" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J245" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -13613,26 +13621,26 @@
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="2" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
       <c r="D246" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G246" s="1"/>
       <c r="H246" s="1"/>
       <c r="I246" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="J246" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -13655,7 +13663,7 @@
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="2" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -13664,7 +13672,7 @@
       </c>
       <c r="E247" s="1"/>
       <c r="F247" s="2" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G247" s="1"/>
       <c r="H247" s="1"/>
@@ -13691,16 +13699,16 @@
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
@@ -13713,7 +13721,7 @@
       <c r="K248" s="11"/>
       <c r="L248" s="11"/>
       <c r="M248" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="2">
@@ -13730,33 +13738,33 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
       <c r="X248" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J249" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="2">
@@ -13776,28 +13784,28 @@
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J250" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="2">
@@ -13814,33 +13822,33 @@
       <c r="V250" s="1"/>
       <c r="W250" s="1"/>
       <c r="X250" s="2" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D251" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J251" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="N251" s="1"/>
       <c r="O251" s="2">
@@ -13860,28 +13868,28 @@
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D252" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="J252" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="2">
@@ -13901,28 +13909,28 @@
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D253" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E253" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J253" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="10" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="2">
@@ -13942,28 +13950,28 @@
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="D254" s="10" t="s">
         <v>33</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J254" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="2">
@@ -13983,28 +13991,28 @@
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D255" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J255" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L255" s="11"/>
       <c r="M255" s="10" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="2">
@@ -14024,28 +14032,28 @@
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F256" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="J256" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="N256" s="1"/>
       <c r="O256" s="2">
@@ -14065,26 +14073,26 @@
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F257" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
       <c r="I257" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="N257" s="1"/>
       <c r="O257" s="2">
@@ -14104,24 +14112,24 @@
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F258" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
       <c r="I258" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J258" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
@@ -14143,16 +14151,16 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="10" t="s">
+        <v>788</v>
+      </c>
+      <c r="D259" s="10" t="s">
+        <v>819</v>
+      </c>
+      <c r="E259" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F259" s="10" t="s">
         <v>787</v>
-      </c>
-      <c r="D259" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="E259" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="F259" s="10" t="s">
-        <v>786</v>
       </c>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
@@ -14179,16 +14187,16 @@
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F260" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -14215,24 +14223,24 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E261" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="F261" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
       <c r="I261" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="J261" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L261" s="11"/>
       <c r="M261" s="11"/>
@@ -14254,14 +14262,14 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E262" s="11"/>
       <c r="F262" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
@@ -14288,16 +14296,16 @@
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F263" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
@@ -14324,24 +14332,24 @@
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F264" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J264" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -14363,24 +14371,24 @@
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="J265" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="11"/>
@@ -14402,24 +14410,24 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J266" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -14441,28 +14449,28 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="10" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F267" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="10" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="J267" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="10" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="N267" s="1"/>
       <c r="O267" s="2">
@@ -14482,24 +14490,24 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E268" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F268" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
       <c r="I268" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J268" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
@@ -14521,24 +14529,24 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="10" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F269" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
       <c r="I269" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="J269" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="L269" s="11"/>
       <c r="M269" s="11"/>
@@ -14560,14 +14568,14 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="10" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E270" s="11"/>
       <c r="F270" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G270" s="11"/>
       <c r="H270" s="11"/>
@@ -14594,16 +14602,16 @@
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="10" t="s">
+        <v>839</v>
+      </c>
+      <c r="D271" s="10" t="s">
+        <v>842</v>
+      </c>
+      <c r="E271" s="10" t="s">
+        <v>843</v>
+      </c>
+      <c r="F271" s="10" t="s">
         <v>838</v>
-      </c>
-      <c r="D271" s="10" t="s">
-        <v>841</v>
-      </c>
-      <c r="E271" s="10" t="s">
-        <v>842</v>
-      </c>
-      <c r="F271" s="10" t="s">
-        <v>837</v>
       </c>
       <c r="G271" s="11"/>
       <c r="H271" s="11"/>
@@ -14630,18 +14638,18 @@
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="D272" s="2" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
@@ -14650,10 +14658,10 @@
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
       <c r="M272" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="O272" s="2">
         <v>0.0</v>
@@ -14672,7 +14680,7 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -14680,18 +14688,18 @@
         <v>103</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J273" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -14714,26 +14722,26 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G274" s="1"/>
       <c r="H274" s="1"/>
       <c r="I274" s="2" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="J274" s="2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -14756,23 +14764,23 @@
     </row>
     <row r="275" ht="12.75" customHeight="1">
       <c r="A275" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="D275" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F275" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
       <c r="I275" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="J275" s="1"/>
       <c r="K275" s="1"/>
@@ -14796,12 +14804,12 @@
     </row>
     <row r="276" ht="12.75" customHeight="1">
       <c r="A276" s="2" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="2" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
@@ -14809,7 +14817,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
@@ -14840,10 +14848,10 @@
         <v>55</v>
       </c>
       <c r="E277" s="13" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -14852,10 +14860,10 @@
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
       <c r="M277" s="13" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="N277" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="O277" s="2">
         <v>0.0</v>
@@ -14879,13 +14887,13 @@
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="D278" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E278" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -14894,10 +14902,10 @@
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
       <c r="M278" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="N278" s="14" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="O278" s="2">
         <v>1.0</v>
@@ -14916,18 +14924,18 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="D279" s="13" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E279" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -14951,12 +14959,12 @@
       <c r="V279" s="1"/>
       <c r="W279" s="1"/>
       <c r="X279" s="2" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -14967,7 +14975,7 @@
         <v>59</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -14998,7 +15006,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -15009,7 +15017,7 @@
         <v>59</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -15040,7 +15048,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -15051,7 +15059,7 @@
         <v>59</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
@@ -15085,7 +15093,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -15096,7 +15104,7 @@
         <v>59</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -15127,7 +15135,7 @@
     </row>
     <row r="284" ht="12.75" customHeight="1">
       <c r="A284" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -15138,15 +15146,15 @@
         <v>34</v>
       </c>
       <c r="F284" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
       <c r="I284" s="2" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="J284" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K284" s="1"/>
       <c r="L284" s="1"/>
@@ -15169,23 +15177,23 @@
     </row>
     <row r="285" ht="12.75" customHeight="1">
       <c r="A285" s="2" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="D285" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F285" s="17" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
       <c r="I285" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J285" s="1"/>
       <c r="K285" s="1"/>
@@ -15206,12 +15214,12 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
       <c r="X285" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
       <c r="A286" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -15220,7 +15228,7 @@
       </c>
       <c r="E286" s="1"/>
       <c r="F286" s="2" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -15247,7 +15255,7 @@
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -15258,7 +15266,7 @@
         <v>29</v>
       </c>
       <c r="F287" s="13" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
@@ -15267,7 +15275,7 @@
       <c r="K287" s="1"/>
       <c r="L287" s="1"/>
       <c r="M287" s="2" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="N287" s="1"/>
       <c r="O287" s="2">
@@ -15284,23 +15292,23 @@
       <c r="V287" s="1"/>
       <c r="W287" s="1"/>
       <c r="X287" s="2" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="13" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E288" s="13" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F288" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G288" s="1"/>
       <c r="H288" s="1"/>
@@ -15309,7 +15317,7 @@
       <c r="K288" s="1"/>
       <c r="L288" s="1"/>
       <c r="M288" s="2" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="N288" s="1"/>
       <c r="O288" s="2">
@@ -15326,12 +15334,12 @@
       <c r="V288" s="1"/>
       <c r="W288" s="1"/>
       <c r="X288" s="19" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15339,18 +15347,18 @@
         <v>108</v>
       </c>
       <c r="E289" s="16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -15373,12 +15381,12 @@
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>89</v>
@@ -15409,7 +15417,7 @@
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15420,15 +15428,15 @@
         <v>150</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
       <c r="I291" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J291" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K291" s="1"/>
       <c r="L291" s="1"/>
@@ -15451,26 +15459,26 @@
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="D292" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E292" s="19" t="s">
         <v>150</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G292" s="1"/>
       <c r="H292" s="1"/>
       <c r="I292" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -15493,16 +15501,16 @@
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="D293" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E293" s="1"/>
       <c r="F293" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
@@ -15529,18 +15537,18 @@
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="D294" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
@@ -15548,7 +15556,7 @@
         <v>110</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
@@ -15571,31 +15579,31 @@
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="D295" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
       <c r="I295" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J295" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="2" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="N295" s="1"/>
       <c r="O295" s="2">
@@ -15615,31 +15623,31 @@
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
       <c r="I296" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="J296" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="2" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="N296" s="1"/>
       <c r="O296" s="2">
@@ -15656,23 +15664,23 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="2" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G297" s="1"/>
       <c r="H297" s="1"/>
@@ -15681,7 +15689,7 @@
       <c r="K297" s="1"/>
       <c r="L297" s="1"/>
       <c r="M297" s="2" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="N297" s="1"/>
       <c r="O297" s="2">
@@ -15701,18 +15709,18 @@
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G298" s="1"/>
       <c r="H298" s="1"/>
@@ -15721,7 +15729,7 @@
       <c r="K298" s="1"/>
       <c r="L298" s="1"/>
       <c r="M298" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="N298" s="1"/>
       <c r="O298" s="2">
@@ -15738,17 +15746,17 @@
       <c r="V298" s="1"/>
       <c r="W298" s="1"/>
       <c r="X298" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="D299" s="2" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E299" s="1" t="s">
         <v>59</v>
@@ -15785,12 +15793,12 @@
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="D300" s="2" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E300" s="1" t="s">
         <v>59</v>
@@ -15827,18 +15835,18 @@
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
@@ -15846,7 +15854,7 @@
         <v>109</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -15869,7 +15877,7 @@
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -15877,10 +15885,10 @@
         <v>25</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -15904,31 +15912,31 @@
       <c r="V302" s="1"/>
       <c r="W302" s="1"/>
       <c r="X302" s="2" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E303" s="2" t="s">
         <v>159</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="G303" s="1"/>
       <c r="H303" s="1"/>
       <c r="I303" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="J303" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -15951,16 +15959,16 @@
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="2" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="G304" s="1"/>
       <c r="H304" s="1"/>
@@ -15987,15 +15995,15 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
       <c r="D305" s="16" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F305" s="2" t="s">
         <v>104</v>
@@ -16004,7 +16012,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="2" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -16024,17 +16032,17 @@
       <c r="V305" s="1"/>
       <c r="W305" s="1"/>
       <c r="X305" s="2" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
       <c r="D306" s="2" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
@@ -16042,7 +16050,7 @@
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K306" s="1"/>
       <c r="L306" s="1"/>
@@ -16065,7 +16073,7 @@
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -16078,7 +16086,7 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="K307" s="1"/>
       <c r="L307" s="1"/>
@@ -16101,7 +16109,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -16115,7 +16123,7 @@
       <c r="G308" s="1"/>
       <c r="H308" s="1"/>
       <c r="I308" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="J308" s="1"/>
       <c r="K308" s="1"/>
@@ -16139,7 +16147,7 @@
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -16147,7 +16155,7 @@
         <v>114</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>130</v>
@@ -16177,12 +16185,12 @@
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>41</v>
@@ -16196,7 +16204,7 @@
         <v>110</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -16219,16 +16227,16 @@
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
       <c r="D311" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E311" s="1"/>
       <c r="F311" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -16255,26 +16263,26 @@
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
       <c r="D312" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G312" s="1"/>
       <c r="H312" s="1"/>
       <c r="I312" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="J312" s="2" t="s">
         <v>927</v>
-      </c>
-      <c r="J312" s="2" t="s">
-        <v>926</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -16297,18 +16305,18 @@
     </row>
     <row r="313" ht="12.75" customHeight="1">
       <c r="A313" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F313" s="2" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="G313" s="1"/>
       <c r="H313" s="1"/>
@@ -16335,7 +16343,7 @@
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16343,7 +16351,7 @@
         <v>106</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>104</v>
@@ -16354,7 +16362,7 @@
         <v>105</v>
       </c>
       <c r="J314" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="K314" s="1"/>
       <c r="L314" s="1"/>
@@ -16374,12 +16382,12 @@
       <c r="V314" s="1"/>
       <c r="W314" s="1"/>
       <c r="X314" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -16387,10 +16395,10 @@
         <v>28</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F315" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G315" s="1"/>
       <c r="H315" s="1"/>
@@ -16417,7 +16425,7 @@
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16425,10 +16433,10 @@
         <v>72</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F316" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G316" s="1"/>
       <c r="H316" s="1"/>
@@ -16455,26 +16463,26 @@
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
       <c r="D317" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F317" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -16497,7 +16505,7 @@
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -16533,24 +16541,24 @@
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
       <c r="D319" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F319" s="1"/>
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -16573,24 +16581,24 @@
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
       <c r="D320" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F320" s="1"/>
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -16613,7 +16621,7 @@
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -16621,16 +16629,16 @@
         <v>73</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F321" s="1"/>
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J321" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -16653,24 +16661,24 @@
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F322" s="1"/>
       <c r="G322" s="1"/>
       <c r="H322" s="1"/>
       <c r="I322" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J322" s="2" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -16693,23 +16701,23 @@
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="2" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G323" s="1"/>
       <c r="H323" s="1"/>
       <c r="I323" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J323" s="1"/>
       <c r="K323" s="1"/>
@@ -16735,12 +16743,12 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="2" t="s">
@@ -16771,21 +16779,21 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="J325" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -16808,18 +16816,18 @@
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
       <c r="G326" s="1"/>
       <c r="I326" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J326" s="1" t="s">
         <v>116</v>
@@ -16845,19 +16853,19 @@
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
@@ -16881,12 +16889,12 @@
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -16894,7 +16902,7 @@
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="K328" s="1"/>
       <c r="L328" s="1"/>
@@ -16917,19 +16925,19 @@
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
       <c r="D329" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
       <c r="G329" s="1"/>
       <c r="H329" s="1"/>
       <c r="I329" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="J329" s="1"/>
       <c r="K329" s="1"/>
@@ -16953,12 +16961,12 @@
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
       <c r="D330" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
@@ -16987,26 +16995,26 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
       <c r="D331" s="20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E331" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F331" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G331" s="1"/>
       <c r="H331" s="1"/>
       <c r="I331" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -17031,26 +17039,26 @@
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
       <c r="D332" s="21" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E332" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F332" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G332" s="1"/>
       <c r="H332" s="1"/>
       <c r="I332" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -17075,7 +17083,7 @@
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -17086,15 +17094,15 @@
         <v>66</v>
       </c>
       <c r="F333" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G333" s="1"/>
       <c r="H333" s="1"/>
       <c r="I333" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
@@ -17116,31 +17124,31 @@
       <c r="V333" s="1"/>
       <c r="W333" s="1"/>
       <c r="X333" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
       <c r="D334" s="21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E334" s="16" t="s">
         <v>66</v>
       </c>
       <c r="F334" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G334" s="1"/>
       <c r="H334" s="1"/>
       <c r="I334" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J334" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K334" s="1"/>
       <c r="L334" s="1"/>
@@ -17162,31 +17170,31 @@
       <c r="V334" s="1"/>
       <c r="W334" s="1"/>
       <c r="X334" s="8" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
       <c r="D335" s="21" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E335" s="16" t="s">
         <v>29</v>
       </c>
       <c r="F335" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G335" s="1"/>
       <c r="H335" s="1"/>
       <c r="I335" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J335" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -17211,7 +17219,7 @@
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -17219,10 +17227,10 @@
         <v>72</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G336" s="1"/>
       <c r="H336" s="1"/>
@@ -17249,24 +17257,24 @@
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
       <c r="D337" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F337" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="K337" s="1"/>
       <c r="L337" s="1"/>
@@ -17291,22 +17299,22 @@
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="8" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G338" s="1"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
@@ -17331,7 +17339,7 @@
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -17339,15 +17347,15 @@
         <v>92</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F339" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -17371,22 +17379,22 @@
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
       <c r="D340" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E340" s="1"/>
       <c r="F340" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="2" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="K340" s="1"/>
       <c r="L340" s="1"/>
@@ -17411,23 +17419,23 @@
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
       <c r="D341" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="E341" s="2" t="s">
         <v>166</v>
       </c>
       <c r="F341" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G341" s="1"/>
       <c r="H341" s="1"/>
       <c r="I341" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J341" s="1"/>
       <c r="K341" s="1"/>
@@ -17453,7 +17461,7 @@
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -17464,12 +17472,12 @@
         <v>166</v>
       </c>
       <c r="F342" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -17495,7 +17503,7 @@
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -17504,13 +17512,13 @@
       </c>
       <c r="E343" s="1"/>
       <c r="F343" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="K343" s="1"/>
       <c r="L343" s="1"/>
@@ -17537,7 +17545,7 @@
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -17545,15 +17553,15 @@
         <v>89</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F344" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J344" s="1"/>
       <c r="K344" s="1"/>
@@ -17577,7 +17585,7 @@
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -17588,12 +17596,12 @@
         <v>34</v>
       </c>
       <c r="F345" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G345" s="1"/>
       <c r="H345" s="1"/>
       <c r="I345" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="J345" s="1"/>
       <c r="K345" s="1"/>
@@ -17617,7 +17625,7 @@
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -17625,7 +17633,7 @@
         <v>89</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F346" s="2" t="s">
         <v>104</v>
@@ -17633,10 +17641,10 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J346" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -17659,15 +17667,15 @@
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
       <c r="D347" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F347" s="2" t="s">
         <v>130</v>
@@ -17697,19 +17705,19 @@
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="J348" s="1"/>
       <c r="K348" s="1"/>
@@ -17733,15 +17741,15 @@
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="I349" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="K349" s="1"/>
       <c r="L349" s="1"/>
@@ -17764,23 +17772,23 @@
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F350" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="J350" s="2" t="s">
         <v>113</v>
@@ -17806,7 +17814,7 @@
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -17817,7 +17825,7 @@
         <v>166</v>
       </c>
       <c r="F351" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G351" s="1"/>
       <c r="H351" s="1"/>
@@ -17844,12 +17852,12 @@
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
       <c r="D352" s="2" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>159</v>
@@ -17860,10 +17868,10 @@
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
       <c r="I352" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="J352" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="K352" s="1"/>
       <c r="L352" s="1"/>
@@ -17886,15 +17894,15 @@
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
       <c r="D353" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F353" s="2" t="s">
         <v>115</v>
@@ -17924,7 +17932,7 @@
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -17933,7 +17941,7 @@
       </c>
       <c r="E354" s="1"/>
       <c r="F354" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
@@ -17960,7 +17968,7 @@
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -17971,12 +17979,12 @@
         <v>78</v>
       </c>
       <c r="F355" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G355" s="1"/>
       <c r="H355" s="1"/>
       <c r="I355" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="J355" s="2" t="s">
         <v>111</v>
@@ -18002,19 +18010,19 @@
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
       <c r="D356" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="2" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="J356" s="2" t="s">
         <v>111</v>
@@ -18040,15 +18048,15 @@
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
       <c r="D357" s="2" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>112</v>
@@ -18075,31 +18083,31 @@
       <c r="V357" s="1"/>
       <c r="W357" s="1"/>
       <c r="X357" s="2" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
       <c r="D358" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F358" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J358" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -18119,12 +18127,12 @@
       <c r="V358" s="1"/>
       <c r="W358" s="1"/>
       <c r="X358" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18132,7 +18140,7 @@
         <v>158</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="F359" s="2" t="s">
         <v>112</v>
@@ -18140,10 +18148,10 @@
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J359" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
@@ -18163,12 +18171,12 @@
       <c r="V359" s="1"/>
       <c r="W359" s="1"/>
       <c r="X359" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18177,13 +18185,13 @@
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
@@ -18206,7 +18214,7 @@
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18215,13 +18223,13 @@
       </c>
       <c r="E361" s="1"/>
       <c r="F361" s="2" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -18244,22 +18252,22 @@
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
       <c r="D362" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="2" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -18282,7 +18290,7 @@
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -18290,7 +18298,7 @@
         <v>33</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F363" s="2" t="s">
         <v>130</v>
@@ -18298,10 +18306,10 @@
       <c r="G363" s="1"/>
       <c r="H363" s="1"/>
       <c r="I363" s="2" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="J363" s="2" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -18324,7 +18332,7 @@
     </row>
     <row r="364" ht="12.75" customHeight="1">
       <c r="A364" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -18333,13 +18341,13 @@
       </c>
       <c r="E364" s="1"/>
       <c r="F364" s="2" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="G364" s="1"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="2" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -18362,12 +18370,12 @@
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
       <c r="D365" s="2" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
@@ -18375,7 +18383,7 @@
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="2" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
@@ -18397,12 +18405,20 @@
       <c r="X365" s="1"/>
     </row>
     <row r="366" ht="12.75" customHeight="1">
-      <c r="A366" s="1"/>
+      <c r="A366" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
-      <c r="D366" s="1"/>
-      <c r="E366" s="1"/>
-      <c r="F366" s="1"/>
+      <c r="D366" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G366" s="1"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
@@ -18411,8 +18427,12 @@
       <c r="L366" s="1"/>
       <c r="M366" s="1"/>
       <c r="N366" s="1"/>
-      <c r="O366" s="1"/>
-      <c r="P366" s="1"/>
+      <c r="O366" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P366" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
@@ -18420,7 +18440,9 @@
       <c r="U366" s="1"/>
       <c r="V366" s="1"/>
       <c r="W366" s="1"/>
-      <c r="X366" s="1"/>
+      <c r="X366" s="2" t="s">
+        <v>1000</v>
+      </c>
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2148" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1001">
   <si>
     <t>ID</t>
   </si>
@@ -2936,10 +2936,10 @@
     <t>I350</t>
   </si>
   <si>
+    <t>Xoma142@yandex.ru</t>
+  </si>
+  <si>
     <t>I351</t>
-  </si>
-  <si>
-    <t>Бэби</t>
   </si>
   <si>
     <t>I352</t>
@@ -16348,7 +16348,7 @@
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
       <c r="D314" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>293</v>
@@ -17663,7 +17663,9 @@
       <c r="U346" s="1"/>
       <c r="V346" s="1"/>
       <c r="W346" s="1"/>
-      <c r="X346" s="1"/>
+      <c r="X346" s="2" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="2" t="s">
@@ -17705,15 +17707,17 @@
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
       <c r="D348" s="2" t="s">
-        <v>973</v>
+        <v>438</v>
       </c>
       <c r="E348" s="1"/>
-      <c r="F348" s="1"/>
+      <c r="F348" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="2" t="s">
@@ -17746,7 +17750,10 @@
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
       <c r="D349" s="2" t="s">
-        <v>973</v>
+        <v>106</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>970</v>
@@ -17756,7 +17763,7 @@
       <c r="M349" s="1"/>
       <c r="N349" s="1"/>
       <c r="O349" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P349" s="2">
         <v>1.0</v>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2439" uniqueCount="1103">
   <si>
     <t>ID</t>
   </si>
@@ -3068,7 +3068,7 @@
     <t>ind00006</t>
   </si>
   <si>
-    <t>ind00018</t>
+    <t>ind00012</t>
   </si>
   <si>
     <t>ind00009</t>
@@ -3077,9 +3077,6 @@
     <t>ind00010</t>
   </si>
   <si>
-    <t>ind00012</t>
-  </si>
-  <si>
     <t>ind00040</t>
   </si>
   <si>
@@ -3150,6 +3147,12 @@
   </si>
   <si>
     <t>ind00054</t>
+  </si>
+  <si>
+    <t>04/10/1899</t>
+  </si>
+  <si>
+    <t>01/09/1974</t>
   </si>
   <si>
     <t>Бескодарова</t>
@@ -19008,13 +19011,13 @@
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="8" t="s">
-        <v>141</v>
+        <v>50</v>
       </c>
       <c r="E373" s="8" t="s">
-        <v>570</v>
+        <v>163</v>
       </c>
       <c r="F373" s="8" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
@@ -19027,12 +19030,14 @@
       <c r="K373" s="11"/>
       <c r="L373" s="11"/>
       <c r="M373" s="11"/>
-      <c r="N373" s="11"/>
+      <c r="N373" s="8">
+        <v>1969.0</v>
+      </c>
       <c r="O373" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P373" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q373" s="11"/>
       <c r="R373" s="1"/>
@@ -19050,33 +19055,27 @@
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
       <c r="D374" s="8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E374" s="8" t="s">
-        <v>163</v>
+        <v>1020</v>
       </c>
       <c r="F374" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
-      <c r="I374" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J374" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I374" s="11"/>
+      <c r="J374" s="11"/>
       <c r="K374" s="11"/>
       <c r="L374" s="11"/>
       <c r="M374" s="11"/>
-      <c r="N374" s="8">
-        <v>1969.0</v>
-      </c>
+      <c r="N374" s="11"/>
       <c r="O374" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P374" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q374" s="11"/>
       <c r="R374" s="1"/>
@@ -19089,20 +19088,19 @@
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="8" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="8" t="s">
-        <v>28</v>
+        <v>741</v>
       </c>
       <c r="E375" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="F375" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="F375" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="G375" s="11"/>
       <c r="H375" s="11"/>
       <c r="I375" s="11"/>
       <c r="J375" s="11"/>
@@ -19111,7 +19109,7 @@
       <c r="M375" s="11"/>
       <c r="N375" s="11"/>
       <c r="O375" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P375" s="8">
         <v>1.0</v>
@@ -19127,31 +19125,40 @@
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="8" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
       <c r="D376" s="8" t="s">
-        <v>741</v>
+        <v>86</v>
       </c>
       <c r="E376" s="8" t="s">
-        <v>675</v>
+        <v>59</v>
       </c>
       <c r="F376" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G376" s="11"/>
+      <c r="H376" s="11"/>
+      <c r="I376" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="H376" s="11"/>
-      <c r="I376" s="11"/>
-      <c r="J376" s="11"/>
+      <c r="J376" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="K376" s="11"/>
       <c r="L376" s="11"/>
-      <c r="M376" s="11"/>
-      <c r="N376" s="11"/>
+      <c r="M376" s="8">
+        <v>1858.0</v>
+      </c>
+      <c r="N376" s="8">
+        <v>1930.0</v>
+      </c>
       <c r="O376" s="8">
         <v>0.0</v>
       </c>
       <c r="P376" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q376" s="11"/>
       <c r="R376" s="1"/>
@@ -19164,38 +19171,36 @@
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="8" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
       <c r="D377" s="8" t="s">
-        <v>86</v>
+        <v>387</v>
       </c>
       <c r="E377" s="8" t="s">
-        <v>59</v>
+        <v>570</v>
       </c>
       <c r="F377" s="8" t="s">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
       <c r="I377" s="8" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="J377" s="8" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="K377" s="11"/>
       <c r="L377" s="11"/>
       <c r="M377" s="11"/>
-      <c r="N377" s="8">
-        <v>1930.0</v>
-      </c>
+      <c r="N377" s="11"/>
       <c r="O377" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P377" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q377" s="11"/>
       <c r="R377" s="1"/>
@@ -19204,37 +19209,38 @@
       <c r="U377" s="1"/>
       <c r="V377" s="1"/>
       <c r="W377" s="1"/>
-      <c r="X377" s="1"/>
+      <c r="X377" s="2" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="8" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
       <c r="D378" s="8" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="E378" s="8" t="s">
-        <v>570</v>
+        <v>1028</v>
       </c>
       <c r="F378" s="8" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G378" s="11"/>
+        <v>1021</v>
+      </c>
       <c r="H378" s="11"/>
       <c r="I378" s="8" t="s">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="J378" s="8" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="K378" s="11"/>
       <c r="L378" s="11"/>
       <c r="M378" s="11"/>
       <c r="N378" s="11"/>
       <c r="O378" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P378" s="8">
         <v>1.0</v>
@@ -19246,38 +19252,35 @@
       <c r="U378" s="1"/>
       <c r="V378" s="1"/>
       <c r="W378" s="1"/>
-      <c r="X378" s="2" t="s">
-        <v>1027</v>
-      </c>
+      <c r="X378" s="1"/>
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="8" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
       <c r="D379" s="8" t="s">
-        <v>295</v>
+        <v>65</v>
       </c>
       <c r="E379" s="8" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="F379" s="8" t="s">
-        <v>1022</v>
-      </c>
+        <v>999</v>
+      </c>
+      <c r="G379" s="11"/>
       <c r="H379" s="11"/>
-      <c r="I379" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="J379" s="8" t="s">
-        <v>1014</v>
-      </c>
+      <c r="I379" s="11"/>
+      <c r="J379" s="11"/>
       <c r="K379" s="11"/>
       <c r="L379" s="11"/>
-      <c r="M379" s="11"/>
+      <c r="M379" s="8">
+        <v>1822.0</v>
+      </c>
       <c r="N379" s="11"/>
       <c r="O379" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P379" s="8">
         <v>1.0</v>
@@ -19293,29 +19296,35 @@
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="8" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
       <c r="D380" s="8" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E380" s="8" t="s">
-        <v>1031</v>
+        <v>570</v>
       </c>
       <c r="F380" s="8" t="s">
-        <v>999</v>
+        <v>1032</v>
       </c>
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
-      <c r="I380" s="11"/>
-      <c r="J380" s="11"/>
+      <c r="I380" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J380" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K380" s="11"/>
       <c r="L380" s="11"/>
-      <c r="M380" s="8">
-        <v>1822.0</v>
-      </c>
-      <c r="N380" s="11"/>
+      <c r="M380" s="8" t="s">
+        <v>1033</v>
+      </c>
+      <c r="N380" s="8" t="s">
+        <v>1034</v>
+      </c>
       <c r="O380" s="8">
         <v>1.0</v>
       </c>
@@ -19329,44 +19338,46 @@
       <c r="U380" s="1"/>
       <c r="V380" s="1"/>
       <c r="W380" s="1"/>
-      <c r="X380" s="1"/>
+      <c r="X380" s="2" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="8" t="s">
-        <v>1032</v>
+        <v>1022</v>
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
       <c r="D381" s="8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E381" s="8" t="s">
-        <v>570</v>
+        <v>1035</v>
       </c>
       <c r="F381" s="8" t="s">
-        <v>1033</v>
+        <v>1003</v>
       </c>
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
       <c r="I381" s="8" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="J381" s="8" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="K381" s="11"/>
       <c r="L381" s="11"/>
-      <c r="M381" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="N381" s="8" t="s">
-        <v>1035</v>
+      <c r="M381" s="8">
+        <v>1819.0</v>
+      </c>
+      <c r="N381" s="8">
+        <v>1857.0</v>
       </c>
       <c r="O381" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P381" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q381" s="11"/>
       <c r="R381" s="1"/>
@@ -19375,21 +19386,19 @@
       <c r="U381" s="1"/>
       <c r="V381" s="1"/>
       <c r="W381" s="1"/>
-      <c r="X381" s="2" t="s">
-        <v>1027</v>
-      </c>
+      <c r="X381" s="1"/>
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="8" t="s">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
       <c r="D382" s="8" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="E382" s="8" t="s">
-        <v>1036</v>
+        <v>163</v>
       </c>
       <c r="F382" s="8" t="s">
         <v>1003</v>
@@ -19397,18 +19406,18 @@
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
       <c r="I382" s="8" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="J382" s="8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K382" s="11"/>
       <c r="L382" s="11"/>
-      <c r="M382" s="8">
-        <v>1819.0</v>
-      </c>
-      <c r="N382" s="8">
-        <v>1857.0</v>
+      <c r="M382" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N382" s="8" t="s">
+        <v>1039</v>
       </c>
       <c r="O382" s="8">
         <v>0.0</v>
@@ -19427,12 +19436,12 @@
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="8" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
       <c r="D383" s="8" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="E383" s="8" t="s">
         <v>163</v>
@@ -19450,11 +19459,11 @@
       </c>
       <c r="K383" s="11"/>
       <c r="L383" s="11"/>
-      <c r="M383" s="8" t="s">
-        <v>1039</v>
-      </c>
-      <c r="N383" s="8" t="s">
-        <v>1040</v>
+      <c r="M383" s="8">
+        <v>1894.0</v>
+      </c>
+      <c r="N383" s="8">
+        <v>1894.0</v>
       </c>
       <c r="O383" s="8">
         <v>0.0</v>
@@ -19477,36 +19486,22 @@
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
-      <c r="D384" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="E384" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F384" s="8" t="s">
-        <v>1003</v>
-      </c>
+      <c r="D384" s="11"/>
+      <c r="E384" s="11"/>
+      <c r="F384" s="11"/>
       <c r="G384" s="11"/>
       <c r="H384" s="11"/>
-      <c r="I384" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J384" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I384" s="11"/>
+      <c r="J384" s="11"/>
       <c r="K384" s="11"/>
       <c r="L384" s="11"/>
-      <c r="M384" s="8">
-        <v>1894.0</v>
-      </c>
-      <c r="N384" s="8">
-        <v>1894.0</v>
-      </c>
+      <c r="M384" s="11"/>
+      <c r="N384" s="11"/>
       <c r="O384" s="8">
         <v>0.0</v>
       </c>
       <c r="P384" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q384" s="11"/>
       <c r="R384" s="1"/>
@@ -19519,7 +19514,7 @@
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="8" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -19551,26 +19546,40 @@
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="8" t="s">
-        <v>1015</v>
+        <v>1042</v>
       </c>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
-      <c r="F386" s="11"/>
+      <c r="D386" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="E386" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="F386" s="8" t="s">
+        <v>999</v>
+      </c>
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
-      <c r="I386" s="11"/>
-      <c r="J386" s="11"/>
+      <c r="I386" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J386" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K386" s="11"/>
       <c r="L386" s="11"/>
-      <c r="M386" s="11"/>
-      <c r="N386" s="11"/>
+      <c r="M386" s="8" t="s">
+        <v>1043</v>
+      </c>
+      <c r="N386" s="8" t="s">
+        <v>1044</v>
+      </c>
       <c r="O386" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P386" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q386" s="11"/>
       <c r="R386" s="1"/>
@@ -19583,27 +19592,22 @@
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="8" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
       <c r="D387" s="8" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="E387" s="8" t="s">
         <v>570</v>
       </c>
       <c r="F387" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="G387" s="11"/>
+        <v>1045</v>
+      </c>
       <c r="H387" s="11"/>
-      <c r="I387" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J387" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I387" s="11"/>
+      <c r="J387" s="11"/>
       <c r="K387" s="11"/>
       <c r="L387" s="11"/>
       <c r="M387" s="11"/>
@@ -19625,28 +19629,33 @@
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="8" t="s">
-        <v>1012</v>
+        <v>1046</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
       <c r="D388" s="8" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E388" s="8" t="s">
-        <v>570</v>
+        <v>163</v>
       </c>
       <c r="F388" s="8" t="s">
-        <v>1044</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="G388" s="11"/>
       <c r="H388" s="11"/>
-      <c r="I388" s="11"/>
-      <c r="J388" s="11"/>
+      <c r="I388" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J388" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K388" s="11"/>
       <c r="L388" s="11"/>
       <c r="M388" s="11"/>
       <c r="N388" s="11"/>
       <c r="O388" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P388" s="8">
         <v>1.0</v>
@@ -19662,36 +19671,36 @@
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="8" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="8" t="s">
-        <v>102</v>
+        <v>1047</v>
       </c>
       <c r="E389" s="8" t="s">
-        <v>163</v>
+        <v>59</v>
       </c>
       <c r="F389" s="8" t="s">
         <v>1003</v>
       </c>
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
-      <c r="I389" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J389" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I389" s="11"/>
+      <c r="J389" s="11"/>
       <c r="K389" s="11"/>
       <c r="L389" s="11"/>
-      <c r="M389" s="11"/>
-      <c r="N389" s="11"/>
+      <c r="M389" s="8">
+        <v>1770.0</v>
+      </c>
+      <c r="N389" s="8">
+        <v>1835.0</v>
+      </c>
       <c r="O389" s="8">
         <v>0.0</v>
       </c>
       <c r="P389" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q389" s="11"/>
       <c r="R389" s="1"/>
@@ -19704,18 +19713,15 @@
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="8" t="s">
-        <v>1037</v>
+        <v>1048</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
       <c r="D390" s="8" t="s">
-        <v>1046</v>
+        <v>146</v>
       </c>
       <c r="E390" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="F390" s="8" t="s">
-        <v>1003</v>
+        <v>163</v>
       </c>
       <c r="G390" s="11"/>
       <c r="H390" s="11"/>
@@ -19724,10 +19730,10 @@
       <c r="K390" s="11"/>
       <c r="L390" s="11"/>
       <c r="M390" s="8">
-        <v>1770.0</v>
+        <v>1894.0</v>
       </c>
       <c r="N390" s="8">
-        <v>1835.0</v>
+        <v>1894.0</v>
       </c>
       <c r="O390" s="8">
         <v>0.0</v>
@@ -19746,30 +19752,37 @@
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="8" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="8" t="s">
-        <v>146</v>
+        <v>1050</v>
       </c>
       <c r="E391" s="8" t="s">
-        <v>163</v>
+        <v>36</v>
+      </c>
+      <c r="F391" s="8" t="s">
+        <v>999</v>
       </c>
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
-      <c r="I391" s="11"/>
-      <c r="J391" s="11"/>
+      <c r="I391" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J391" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="K391" s="11"/>
       <c r="L391" s="11"/>
       <c r="M391" s="8">
-        <v>1894.0</v>
+        <v>1921.0</v>
       </c>
       <c r="N391" s="8">
-        <v>1894.0</v>
+        <v>1921.0</v>
       </c>
       <c r="O391" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P391" s="8">
         <v>0.0</v>
@@ -19785,34 +19798,28 @@
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="8" t="s">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="8" t="s">
-        <v>1049</v>
+        <v>1053</v>
       </c>
       <c r="E392" s="8" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="F392" s="8" t="s">
-        <v>999</v>
+        <v>1054</v>
       </c>
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
-      <c r="I392" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J392" s="8" t="s">
-        <v>1050</v>
-      </c>
+      <c r="I392" s="11"/>
+      <c r="J392" s="11"/>
       <c r="K392" s="11"/>
       <c r="L392" s="11"/>
-      <c r="M392" s="8">
-        <v>1921.0</v>
-      </c>
+      <c r="M392" s="11"/>
       <c r="N392" s="8">
-        <v>1921.0</v>
+        <v>1975.0</v>
       </c>
       <c r="O392" s="8">
         <v>1.0</v>
@@ -19831,31 +19838,37 @@
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="8" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
       <c r="D393" s="8" t="s">
-        <v>1052</v>
+        <v>50</v>
       </c>
       <c r="E393" s="8" t="s">
-        <v>204</v>
+        <v>1035</v>
       </c>
       <c r="F393" s="8" t="s">
-        <v>1053</v>
+        <v>1003</v>
       </c>
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
-      <c r="I393" s="11"/>
-      <c r="J393" s="11"/>
+      <c r="I393" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J393" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="K393" s="11"/>
       <c r="L393" s="11"/>
-      <c r="M393" s="11"/>
+      <c r="M393" s="8">
+        <v>1808.0</v>
+      </c>
       <c r="N393" s="8">
-        <v>1975.0</v>
+        <v>1847.0</v>
       </c>
       <c r="O393" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P393" s="8">
         <v>0.0</v>
@@ -19871,40 +19884,32 @@
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="8" t="s">
-        <v>1054</v>
+        <v>1029</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
       <c r="D394" s="8" t="s">
-        <v>50</v>
+        <v>421</v>
       </c>
       <c r="E394" s="8" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="F394" s="8" t="s">
         <v>1003</v>
       </c>
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
-      <c r="I394" s="8" t="s">
-        <v>1037</v>
-      </c>
-      <c r="J394" s="8" t="s">
-        <v>1020</v>
-      </c>
+      <c r="I394" s="11"/>
+      <c r="J394" s="11"/>
       <c r="K394" s="11"/>
       <c r="L394" s="11"/>
-      <c r="M394" s="8">
-        <v>1808.0</v>
-      </c>
-      <c r="N394" s="8">
-        <v>1847.0</v>
-      </c>
+      <c r="M394" s="11"/>
+      <c r="N394" s="11"/>
       <c r="O394" s="8">
         <v>0.0</v>
       </c>
       <c r="P394" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q394" s="11"/>
       <c r="R394" s="1"/>
@@ -19917,29 +19922,37 @@
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="8" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
       <c r="D395" s="8" t="s">
-        <v>421</v>
+        <v>286</v>
       </c>
       <c r="E395" s="8" t="s">
-        <v>1055</v>
+        <v>36</v>
       </c>
       <c r="F395" s="8" t="s">
-        <v>1003</v>
+        <v>1058</v>
       </c>
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
-      <c r="I395" s="11"/>
-      <c r="J395" s="11"/>
+      <c r="I395" s="8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="J395" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="K395" s="11"/>
       <c r="L395" s="11"/>
-      <c r="M395" s="11"/>
-      <c r="N395" s="11"/>
+      <c r="M395" s="8">
+        <v>1923.0</v>
+      </c>
+      <c r="N395" s="8">
+        <v>2009.0</v>
+      </c>
       <c r="O395" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P395" s="8">
         <v>1.0</v>
@@ -19951,39 +19964,32 @@
       <c r="U395" s="1"/>
       <c r="V395" s="1"/>
       <c r="W395" s="1"/>
-      <c r="X395" s="1"/>
+      <c r="X395" s="2" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="8" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="8" t="s">
-        <v>286</v>
+        <v>1059</v>
       </c>
       <c r="E396" s="8" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="F396" s="8" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G396" s="11"/>
+        <v>999</v>
+      </c>
       <c r="H396" s="11"/>
-      <c r="I396" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J396" s="8" t="s">
-        <v>1050</v>
-      </c>
+      <c r="I396" s="11"/>
+      <c r="J396" s="11"/>
       <c r="K396" s="11"/>
       <c r="L396" s="11"/>
-      <c r="M396" s="8">
-        <v>1923.0</v>
-      </c>
-      <c r="N396" s="8">
-        <v>2009.0</v>
-      </c>
+      <c r="M396" s="11"/>
+      <c r="N396" s="11"/>
       <c r="O396" s="8">
         <v>1.0</v>
       </c>
@@ -19998,36 +20004,43 @@
       <c r="V396" s="1"/>
       <c r="W396" s="1"/>
       <c r="X396" s="2" t="s">
-        <v>1027</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="8" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
       <c r="D397" s="8" t="s">
-        <v>1058</v>
+        <v>50</v>
       </c>
       <c r="E397" s="8" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="F397" s="8" t="s">
-        <v>999</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="G397" s="11"/>
       <c r="H397" s="11"/>
-      <c r="I397" s="11"/>
-      <c r="J397" s="11"/>
+      <c r="I397" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J397" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K397" s="11"/>
       <c r="L397" s="11"/>
       <c r="M397" s="11"/>
-      <c r="N397" s="11"/>
+      <c r="N397" s="8">
+        <v>1969.0</v>
+      </c>
       <c r="O397" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P397" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q397" s="11"/>
       <c r="R397" s="1"/>
@@ -20036,44 +20049,30 @@
       <c r="U397" s="1"/>
       <c r="V397" s="1"/>
       <c r="W397" s="1"/>
-      <c r="X397" s="2" t="s">
-        <v>1059</v>
-      </c>
+      <c r="X397" s="1"/>
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="8" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
-      <c r="D398" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E398" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="F398" s="8" t="s">
-        <v>1003</v>
-      </c>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
       <c r="G398" s="11"/>
       <c r="H398" s="11"/>
-      <c r="I398" s="8" t="s">
-        <v>1061</v>
-      </c>
-      <c r="J398" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I398" s="11"/>
+      <c r="J398" s="11"/>
       <c r="K398" s="11"/>
       <c r="L398" s="11"/>
       <c r="M398" s="11"/>
-      <c r="N398" s="8">
-        <v>1969.0</v>
-      </c>
+      <c r="N398" s="11"/>
       <c r="O398" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P398" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q398" s="11"/>
       <c r="R398" s="1"/>
@@ -20086,26 +20085,36 @@
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="8" t="s">
-        <v>1062</v>
+        <v>1018</v>
       </c>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
-      <c r="D399" s="11"/>
-      <c r="E399" s="11"/>
-      <c r="F399" s="11"/>
+      <c r="D399" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="E399" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F399" s="8" t="s">
+        <v>1007</v>
+      </c>
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
       <c r="I399" s="11"/>
       <c r="J399" s="11"/>
       <c r="K399" s="11"/>
       <c r="L399" s="11"/>
-      <c r="M399" s="11"/>
-      <c r="N399" s="11"/>
+      <c r="M399" s="8">
+        <v>1872.0</v>
+      </c>
+      <c r="N399" s="8">
+        <v>1950.0</v>
+      </c>
       <c r="O399" s="8">
         <v>1.0</v>
       </c>
       <c r="P399" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q399" s="11"/>
       <c r="R399" s="1"/>
@@ -20118,36 +20127,38 @@
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="8" t="s">
-        <v>1018</v>
+        <v>1064</v>
       </c>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="8" t="s">
-        <v>603</v>
+        <v>1065</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>281</v>
+        <v>54</v>
       </c>
       <c r="F400" s="8" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
-      <c r="I400" s="11"/>
-      <c r="J400" s="11"/>
+      <c r="I400" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J400" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="K400" s="11"/>
       <c r="L400" s="11"/>
       <c r="M400" s="8">
-        <v>1872.0</v>
-      </c>
-      <c r="N400" s="8">
-        <v>1950.0</v>
-      </c>
+        <v>1838.0</v>
+      </c>
+      <c r="N400" s="11"/>
       <c r="O400" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P400" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q400" s="11"/>
       <c r="R400" s="1"/>
@@ -20160,35 +20171,28 @@
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="8" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="8" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="F401" s="8" t="s">
-        <v>1003</v>
-      </c>
-      <c r="G401" s="11"/>
+        <v>1067</v>
+      </c>
       <c r="H401" s="11"/>
-      <c r="I401" s="8" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J401" s="8" t="s">
-        <v>1062</v>
-      </c>
+      <c r="I401" s="11"/>
+      <c r="J401" s="11"/>
       <c r="K401" s="11"/>
       <c r="L401" s="11"/>
-      <c r="M401" s="8">
-        <v>1838.0</v>
-      </c>
+      <c r="M401" s="11"/>
       <c r="N401" s="11"/>
       <c r="O401" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P401" s="8">
         <v>1.0</v>
@@ -20204,28 +20208,35 @@
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="8" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
       <c r="D402" s="8" t="s">
-        <v>1058</v>
+        <v>146</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>204</v>
+        <v>59</v>
       </c>
       <c r="F402" s="8" t="s">
-        <v>1066</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="G402" s="11"/>
       <c r="H402" s="11"/>
-      <c r="I402" s="11"/>
-      <c r="J402" s="11"/>
+      <c r="I402" s="8" t="s">
+        <v>1022</v>
+      </c>
+      <c r="J402" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="K402" s="11"/>
       <c r="L402" s="11"/>
-      <c r="M402" s="11"/>
+      <c r="M402" s="8">
+        <v>1844.0</v>
+      </c>
       <c r="N402" s="11"/>
       <c r="O402" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P402" s="8">
         <v>1.0</v>
@@ -20241,35 +20252,33 @@
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="8" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
       <c r="D403" s="8" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F403" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
       <c r="I403" s="8" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="J403" s="8" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="K403" s="11"/>
       <c r="L403" s="11"/>
-      <c r="M403" s="8">
-        <v>1844.0</v>
-      </c>
+      <c r="M403" s="11"/>
       <c r="N403" s="11"/>
       <c r="O403" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P403" s="8">
         <v>1.0</v>
@@ -20281,19 +20290,21 @@
       <c r="U403" s="1"/>
       <c r="V403" s="1"/>
       <c r="W403" s="1"/>
-      <c r="X403" s="1"/>
+      <c r="X403" s="2" t="s">
+        <v>1070</v>
+      </c>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="8" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
       <c r="D404" s="8" t="s">
-        <v>65</v>
+        <v>387</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>36</v>
+        <v>570</v>
       </c>
       <c r="F404" s="8" t="s">
         <v>999</v>
@@ -20301,10 +20312,10 @@
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
       <c r="I404" s="8" t="s">
-        <v>1019</v>
+        <v>1062</v>
       </c>
       <c r="J404" s="8" t="s">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="K404" s="11"/>
       <c r="L404" s="11"/>
@@ -20323,21 +20334,19 @@
       <c r="U404" s="1"/>
       <c r="V404" s="1"/>
       <c r="W404" s="1"/>
-      <c r="X404" s="2" t="s">
-        <v>1069</v>
-      </c>
+      <c r="X404" s="1"/>
     </row>
     <row r="405" ht="12.75" customHeight="1">
       <c r="A405" s="8" t="s">
-        <v>1070</v>
+        <v>138</v>
       </c>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
-      <c r="D405" s="8" t="s">
-        <v>387</v>
+      <c r="D405" s="22" t="s">
+        <v>716</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>570</v>
+        <v>204</v>
       </c>
       <c r="F405" s="8" t="s">
         <v>999</v>
@@ -20345,20 +20354,24 @@
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
       <c r="I405" s="8" t="s">
-        <v>1061</v>
+        <v>1022</v>
       </c>
       <c r="J405" s="8" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="K405" s="11"/>
       <c r="L405" s="11"/>
-      <c r="M405" s="11"/>
-      <c r="N405" s="11"/>
+      <c r="M405" s="8">
+        <v>1840.0</v>
+      </c>
+      <c r="N405" s="8">
+        <v>1917.0</v>
+      </c>
       <c r="O405" s="8">
         <v>1.0</v>
       </c>
       <c r="P405" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q405" s="11"/>
       <c r="R405" s="1"/>
@@ -20367,44 +20380,40 @@
       <c r="U405" s="1"/>
       <c r="V405" s="1"/>
       <c r="W405" s="1"/>
-      <c r="X405" s="1"/>
+      <c r="X405" s="2" t="s">
+        <v>1072</v>
+      </c>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="8" t="s">
-        <v>138</v>
+        <v>1073</v>
       </c>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
-      <c r="D406" s="22" t="s">
-        <v>716</v>
+      <c r="D406" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>204</v>
+        <v>570</v>
       </c>
       <c r="F406" s="8" t="s">
         <v>999</v>
       </c>
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
-      <c r="I406" s="8" t="s">
-        <v>1023</v>
-      </c>
-      <c r="J406" s="8" t="s">
-        <v>1024</v>
-      </c>
+      <c r="I406" s="11"/>
+      <c r="J406" s="11"/>
       <c r="K406" s="11"/>
       <c r="L406" s="11"/>
       <c r="M406" s="8">
-        <v>1840.0</v>
-      </c>
-      <c r="N406" s="8">
-        <v>1917.0</v>
-      </c>
+        <v>1853.0</v>
+      </c>
+      <c r="N406" s="11"/>
       <c r="O406" s="8">
         <v>1.0</v>
       </c>
       <c r="P406" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q406" s="11"/>
       <c r="R406" s="1"/>
@@ -20413,24 +20422,19 @@
       <c r="U406" s="1"/>
       <c r="V406" s="1"/>
       <c r="W406" s="1"/>
-      <c r="X406" s="2" t="s">
-        <v>1071</v>
-      </c>
+      <c r="X406" s="1"/>
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="8" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
       <c r="D407" s="8" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="F407" s="8" t="s">
-        <v>999</v>
+        <v>1075</v>
       </c>
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
@@ -20438,12 +20442,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="11"/>
       <c r="L407" s="11"/>
-      <c r="M407" s="8">
-        <v>1853.0</v>
-      </c>
+      <c r="M407" s="11"/>
       <c r="N407" s="11"/>
       <c r="O407" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P407" s="8">
         <v>1.0</v>
@@ -20459,23 +20461,32 @@
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="8" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
       <c r="D408" s="8" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>1074</v>
+        <v>54</v>
+      </c>
+      <c r="F408" s="8" t="s">
+        <v>1003</v>
       </c>
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
-      <c r="I408" s="11"/>
-      <c r="J408" s="11"/>
+      <c r="I408" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="J408" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="K408" s="11"/>
       <c r="L408" s="11"/>
-      <c r="M408" s="11"/>
+      <c r="M408" s="8">
+        <v>1839.0</v>
+      </c>
       <c r="N408" s="11"/>
       <c r="O408" s="8">
         <v>0.0</v>
@@ -20494,15 +20505,15 @@
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="8" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
       <c r="D409" s="8" t="s">
-        <v>97</v>
+        <v>191</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>54</v>
+        <v>1078</v>
       </c>
       <c r="F409" s="8" t="s">
         <v>1003</v>
@@ -20510,17 +20521,17 @@
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
       <c r="I409" s="8" t="s">
-        <v>1054</v>
+        <v>1037</v>
       </c>
       <c r="J409" s="8" t="s">
-        <v>1062</v>
+        <v>1079</v>
       </c>
       <c r="K409" s="11"/>
       <c r="L409" s="11"/>
-      <c r="M409" s="8">
-        <v>1839.0</v>
-      </c>
-      <c r="N409" s="11"/>
+      <c r="M409" s="8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="N409" s="8"/>
       <c r="O409" s="8">
         <v>0.0</v>
       </c>
@@ -20538,33 +20549,35 @@
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="8" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
       <c r="D410" s="8" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>1077</v>
+        <v>36</v>
       </c>
       <c r="F410" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="11"/>
       <c r="I410" s="8" t="s">
-        <v>1038</v>
+        <v>1016</v>
       </c>
       <c r="J410" s="8" t="s">
-        <v>1078</v>
+        <v>1051</v>
       </c>
       <c r="K410" s="11"/>
       <c r="L410" s="11"/>
-      <c r="M410" s="8" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N410" s="8"/>
+      <c r="M410" s="8">
+        <v>1925.0</v>
+      </c>
+      <c r="N410" s="8">
+        <v>1993.0</v>
+      </c>
       <c r="O410" s="8">
         <v>0.0</v>
       </c>
@@ -20582,35 +20595,27 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="8" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
       <c r="D411" s="8" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c r="F411" s="8" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
-      <c r="I411" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J411" s="8" t="s">
-        <v>1050</v>
-      </c>
+      <c r="I411" s="11"/>
+      <c r="J411" s="11"/>
       <c r="K411" s="11"/>
       <c r="L411" s="11"/>
-      <c r="M411" s="8">
-        <v>1925.0</v>
-      </c>
-      <c r="N411" s="8">
-        <v>1993.0</v>
-      </c>
+      <c r="M411" s="11"/>
+      <c r="N411" s="11"/>
       <c r="O411" s="8">
         <v>0.0</v>
       </c>
@@ -20628,32 +20633,38 @@
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="8" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
       <c r="D412" s="8" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>163</v>
+        <v>570</v>
       </c>
       <c r="F412" s="8" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
-      <c r="I412" s="11"/>
-      <c r="J412" s="11"/>
+      <c r="I412" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J412" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K412" s="11"/>
       <c r="L412" s="11"/>
       <c r="M412" s="11"/>
-      <c r="N412" s="11"/>
+      <c r="N412" s="8">
+        <v>1990.0</v>
+      </c>
       <c r="O412" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P412" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q412" s="11"/>
       <c r="R412" s="1"/>
@@ -20666,38 +20677,35 @@
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="8" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
       <c r="D413" s="8" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>570</v>
-      </c>
-      <c r="F413" s="8" t="s">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
       <c r="I413" s="8" t="s">
-        <v>1017</v>
+        <v>1055</v>
       </c>
       <c r="J413" s="8" t="s">
-        <v>1018</v>
+        <v>1063</v>
       </c>
       <c r="K413" s="11"/>
       <c r="L413" s="11"/>
-      <c r="M413" s="11"/>
-      <c r="N413" s="8">
-        <v>1990.0</v>
-      </c>
+      <c r="M413" s="8">
+        <v>1834.0</v>
+      </c>
+      <c r="N413" s="11"/>
       <c r="O413" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P413" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q413" s="11"/>
       <c r="R413" s="1"/>
@@ -20710,29 +20718,29 @@
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="8" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
       <c r="D414" s="8" t="s">
-        <v>146</v>
+        <v>295</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G414" s="11"/>
+        <v>1086</v>
+      </c>
+      <c r="F414" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="H414" s="11"/>
       <c r="I414" s="8" t="s">
-        <v>1054</v>
+        <v>1011</v>
       </c>
       <c r="J414" s="8" t="s">
-        <v>1062</v>
+        <v>1012</v>
       </c>
       <c r="K414" s="11"/>
       <c r="L414" s="11"/>
-      <c r="M414" s="8">
-        <v>1834.0</v>
-      </c>
+      <c r="M414" s="11"/>
       <c r="N414" s="11"/>
       <c r="O414" s="8">
         <v>0.0</v>
@@ -20751,29 +20759,32 @@
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="8" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
       <c r="D415" s="8" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>1085</v>
+        <v>54</v>
       </c>
       <c r="F415" s="8" t="s">
-        <v>1022</v>
-      </c>
+        <v>1003</v>
+      </c>
+      <c r="G415" s="11"/>
       <c r="H415" s="11"/>
       <c r="I415" s="8" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="J415" s="8" t="s">
-        <v>1012</v>
+        <v>1051</v>
       </c>
       <c r="K415" s="11"/>
       <c r="L415" s="11"/>
-      <c r="M415" s="11"/>
+      <c r="M415" s="8">
+        <v>1927.0</v>
+      </c>
       <c r="N415" s="11"/>
       <c r="O415" s="8">
         <v>0.0</v>
@@ -20792,33 +20803,31 @@
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="8" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
       <c r="D416" s="8" t="s">
-        <v>86</v>
+        <v>191</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>54</v>
+        <v>675</v>
       </c>
       <c r="F416" s="8" t="s">
-        <v>1003</v>
+        <v>1089</v>
       </c>
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
-      <c r="I416" s="8" t="s">
-        <v>1019</v>
-      </c>
-      <c r="J416" s="8" t="s">
-        <v>1050</v>
-      </c>
+      <c r="I416" s="11"/>
+      <c r="J416" s="11"/>
       <c r="K416" s="11"/>
       <c r="L416" s="11"/>
-      <c r="M416" s="8">
-        <v>1927.0</v>
-      </c>
-      <c r="N416" s="11"/>
+      <c r="M416" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="N416" s="8" t="s">
+        <v>1091</v>
+      </c>
       <c r="O416" s="8">
         <v>0.0</v>
       </c>
@@ -20836,33 +20845,35 @@
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="8" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
       <c r="D417" s="8" t="s">
-        <v>191</v>
+        <v>44</v>
       </c>
       <c r="E417" s="8" t="s">
-        <v>675</v>
+        <v>570</v>
       </c>
       <c r="F417" s="8" t="s">
-        <v>1088</v>
+        <v>999</v>
       </c>
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
-      <c r="I417" s="11"/>
-      <c r="J417" s="11"/>
+      <c r="I417" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="J417" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="K417" s="11"/>
       <c r="L417" s="11"/>
-      <c r="M417" s="8" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N417" s="8" t="s">
-        <v>1090</v>
-      </c>
+      <c r="M417" s="8">
+        <v>1894.0</v>
+      </c>
+      <c r="N417" s="11"/>
       <c r="O417" s="8">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="P417" s="8">
         <v>1.0</v>
@@ -20878,38 +20889,36 @@
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="8" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="8" t="s">
-        <v>44</v>
+        <v>1053</v>
       </c>
       <c r="E418" s="8" t="s">
-        <v>570</v>
+        <v>204</v>
       </c>
       <c r="F418" s="8" t="s">
         <v>999</v>
       </c>
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
-      <c r="I418" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J418" s="8" t="s">
-        <v>1018</v>
-      </c>
+      <c r="I418" s="11"/>
+      <c r="J418" s="11"/>
       <c r="K418" s="11"/>
       <c r="L418" s="11"/>
-      <c r="M418" s="8">
-        <v>1894.0</v>
-      </c>
-      <c r="N418" s="11"/>
+      <c r="M418" s="8" t="s">
+        <v>1093</v>
+      </c>
+      <c r="N418" s="8">
+        <v>1975.0</v>
+      </c>
       <c r="O418" s="8">
         <v>1.0</v>
       </c>
       <c r="P418" s="8">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q418" s="11"/>
       <c r="R418" s="1"/>
@@ -20918,70 +20927,68 @@
       <c r="U418" s="1"/>
       <c r="V418" s="1"/>
       <c r="W418" s="1"/>
-      <c r="X418" s="1"/>
+      <c r="X418" s="2" t="s">
+        <v>1094</v>
+      </c>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="8" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B419" s="11"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="E419" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F419" s="8" t="s">
-        <v>999</v>
-      </c>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
-      <c r="M419" s="8" t="s">
-        <v>1092</v>
-      </c>
-      <c r="N419" s="8">
-        <v>1975.0</v>
-      </c>
-      <c r="O419" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P419" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q419" s="11"/>
+        <v>1095</v>
+      </c>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E419" s="1"/>
+      <c r="F419" s="1"/>
+      <c r="G419" s="1"/>
+      <c r="H419" s="1"/>
+      <c r="I419" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J419" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K419" s="1"/>
+      <c r="L419" s="1"/>
+      <c r="M419" s="1"/>
+      <c r="N419" s="1"/>
+      <c r="O419" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P419" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
       <c r="T419" s="1"/>
       <c r="U419" s="1"/>
       <c r="V419" s="1"/>
       <c r="W419" s="1"/>
-      <c r="X419" s="2" t="s">
-        <v>1093</v>
-      </c>
+      <c r="X419" s="1"/>
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="8" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="2" t="s">
-        <v>1095</v>
+        <v>606</v>
       </c>
       <c r="E420" s="1"/>
-      <c r="F420" s="1"/>
+      <c r="F420" s="2" t="s">
+        <v>1032</v>
+      </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="8" t="s">
-        <v>1000</v>
+        <v>1088</v>
       </c>
       <c r="J420" s="8" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
@@ -21004,24 +21011,22 @@
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="8" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
       <c r="D421" s="2" t="s">
-        <v>606</v>
+        <v>155</v>
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="2" t="s">
-        <v>1033</v>
+        <v>1099</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
-      <c r="I421" s="8" t="s">
-        <v>1087</v>
-      </c>
+      <c r="I421" s="1"/>
       <c r="J421" s="8" t="s">
-        <v>1032</v>
+        <v>1097</v>
       </c>
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
@@ -21040,36 +21045,38 @@
       <c r="U421" s="1"/>
       <c r="V421" s="1"/>
       <c r="W421" s="1"/>
-      <c r="X421" s="1"/>
+      <c r="X421" s="2" t="s">
+        <v>1100</v>
+      </c>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="8" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="2" t="s">
-        <v>155</v>
+        <v>1065</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="2" t="s">
-        <v>1098</v>
+        <v>1102</v>
       </c>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="8" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
       <c r="O422" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="P422" s="2">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
@@ -21078,39 +21085,25 @@
       <c r="U422" s="1"/>
       <c r="V422" s="1"/>
       <c r="W422" s="1"/>
-      <c r="X422" s="2" t="s">
-        <v>1099</v>
-      </c>
+      <c r="X422" s="1"/>
     </row>
     <row r="423" ht="12.75" customHeight="1">
-      <c r="A423" s="8" t="s">
-        <v>1100</v>
-      </c>
+      <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
-      <c r="D423" s="2" t="s">
-        <v>1064</v>
-      </c>
+      <c r="D423" s="1"/>
       <c r="E423" s="1"/>
-      <c r="F423" s="2" t="s">
-        <v>1101</v>
-      </c>
+      <c r="F423" s="1"/>
       <c r="G423" s="1"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
-      <c r="J423" s="8" t="s">
-        <v>1097</v>
-      </c>
+      <c r="J423" s="8"/>
       <c r="K423" s="1"/>
       <c r="L423" s="1"/>
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
-      <c r="O423" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="P423" s="2">
-        <v>0.0</v>
-      </c>
+      <c r="O423" s="1"/>
+      <c r="P423" s="1"/>
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
@@ -21130,7 +21123,7 @@
       <c r="G424" s="1"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
-      <c r="J424" s="8"/>
+      <c r="J424" s="1"/>
       <c r="K424" s="1"/>
       <c r="L424" s="1"/>
       <c r="M424" s="1"/>
@@ -36173,32 +36166,6 @@
       <c r="V1002" s="1"/>
       <c r="W1002" s="1"/>
       <c r="X1002" s="1"/>
-    </row>
-    <row r="1003" ht="12.75" customHeight="1">
-      <c r="A1003" s="1"/>
-      <c r="B1003" s="1"/>
-      <c r="C1003" s="1"/>
-      <c r="D1003" s="1"/>
-      <c r="E1003" s="1"/>
-      <c r="F1003" s="1"/>
-      <c r="G1003" s="1"/>
-      <c r="H1003" s="1"/>
-      <c r="I1003" s="1"/>
-      <c r="J1003" s="1"/>
-      <c r="K1003" s="1"/>
-      <c r="L1003" s="1"/>
-      <c r="M1003" s="1"/>
-      <c r="N1003" s="1"/>
-      <c r="O1003" s="1"/>
-      <c r="P1003" s="1"/>
-      <c r="Q1003" s="1"/>
-      <c r="R1003" s="1"/>
-      <c r="S1003" s="1"/>
-      <c r="T1003" s="1"/>
-      <c r="U1003" s="1"/>
-      <c r="V1003" s="1"/>
-      <c r="W1003" s="1"/>
-      <c r="X1003" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -36230,17 +36197,17 @@
     <mergeCell ref="J251:K251"/>
     <mergeCell ref="I255:J255"/>
     <mergeCell ref="A247:C247"/>
-    <mergeCell ref="F402:G402"/>
-    <mergeCell ref="F397:G397"/>
-    <mergeCell ref="F415:G415"/>
-    <mergeCell ref="E414:F414"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="F414:G414"/>
+    <mergeCell ref="E413:F413"/>
     <mergeCell ref="F372:G372"/>
-    <mergeCell ref="F376:G376"/>
-    <mergeCell ref="F388:G388"/>
-    <mergeCell ref="E391:F391"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="E390:F390"/>
     <mergeCell ref="F371:G371"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="F378:G378"/>
     <mergeCell ref="J266:K266"/>
     <mergeCell ref="J265:K265"/>
     <mergeCell ref="A264:C264"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="1178">
   <si>
     <t>ID</t>
   </si>
@@ -2315,6 +2315,12 @@
     <t>1988</t>
   </si>
   <si>
+    <t>ind000136</t>
+  </si>
+  <si>
+    <t>ind000132</t>
+  </si>
+  <si>
     <t>10/2/1915</t>
   </si>
   <si>
@@ -2333,6 +2339,9 @@
     <t>Попова</t>
   </si>
   <si>
+    <t>22/12/1954</t>
+  </si>
+  <si>
     <t>ур Рекст</t>
   </si>
   <si>
@@ -2345,6 +2354,9 @@
     <t>I251</t>
   </si>
   <si>
+    <t>20/9/1975</t>
+  </si>
+  <si>
     <t>I250</t>
   </si>
   <si>
@@ -2354,6 +2366,24 @@
     <t>I252</t>
   </si>
   <si>
+    <t>15/7/1985</t>
+  </si>
+  <si>
+    <t>Никитич</t>
+  </si>
+  <si>
+    <t>17/2/1947</t>
+  </si>
+  <si>
+    <t>1/10/1986</t>
+  </si>
+  <si>
+    <t>Геннадиевич</t>
+  </si>
+  <si>
+    <t>3/4/1961</t>
+  </si>
+  <si>
     <t>I253</t>
   </si>
   <si>
@@ -3462,6 +3492,66 @@
   </si>
   <si>
     <t>ind000131</t>
+  </si>
+  <si>
+    <t>Олида</t>
+  </si>
+  <si>
+    <t>ind000135</t>
+  </si>
+  <si>
+    <t>ур Земель</t>
+  </si>
+  <si>
+    <t>ind000133</t>
+  </si>
+  <si>
+    <t>Земель</t>
+  </si>
+  <si>
+    <t>ind000134</t>
+  </si>
+  <si>
+    <t>Желнина</t>
+  </si>
+  <si>
+    <t>ind000137</t>
+  </si>
+  <si>
+    <t>Иоганн</t>
+  </si>
+  <si>
+    <t>ind000138</t>
+  </si>
+  <si>
+    <t>Гальнбек</t>
+  </si>
+  <si>
+    <t>ур Бостанжогло</t>
+  </si>
+  <si>
+    <t>ind000139</t>
+  </si>
+  <si>
+    <t>ind000141</t>
+  </si>
+  <si>
+    <t>ind000140</t>
+  </si>
+  <si>
+    <t>ind000142</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>ind000143</t>
+  </si>
+  <si>
+    <t>9/10/1915</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -4900,8 +4990,8 @@
       <c r="O28" s="1">
         <v>0.0</v>
       </c>
-      <c r="P28" s="1">
-        <v>1.0</v>
+      <c r="P28" s="2">
+        <v>0.0</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -13652,12 +13742,16 @@
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
-      <c r="I235" s="1"/>
-      <c r="J235" s="1"/>
+      <c r="I235" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="J235" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="N235" s="1"/>
       <c r="O235" s="2">
@@ -13674,8 +13768,10 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
       <c r="X235" s="2" t="s">
-        <v>766</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="AA235" s="5"/>
+      <c r="AB235" s="5"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
@@ -13714,12 +13810,12 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
       <c r="X236" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -13761,7 +13857,7 @@
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -13772,7 +13868,7 @@
         <v>751</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
@@ -13784,7 +13880,9 @@
       </c>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
-      <c r="M238" s="1"/>
+      <c r="M238" s="2" t="s">
+        <v>773</v>
+      </c>
       <c r="N238" s="1"/>
       <c r="O238" s="2">
         <v>1.0</v>
@@ -13800,12 +13898,12 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
       <c r="X238" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -13816,19 +13914,21 @@
         <v>374</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
-      <c r="M239" s="1"/>
+      <c r="M239" s="2" t="s">
+        <v>778</v>
+      </c>
       <c r="N239" s="1"/>
       <c r="O239" s="2">
         <v>1.0</v>
@@ -13847,7 +13947,7 @@
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -13858,19 +13958,21 @@
         <v>160</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
-      <c r="M240" s="1"/>
+      <c r="M240" s="2" t="s">
+        <v>782</v>
+      </c>
       <c r="N240" s="1"/>
       <c r="O240" s="2">
         <v>0.0</v>
@@ -13889,16 +13991,18 @@
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="D241" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E241" s="1"/>
+      <c r="E241" s="2" t="s">
+        <v>783</v>
+      </c>
       <c r="F241" s="2" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -13906,8 +14010,12 @@
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
-      <c r="M241" s="1"/>
-      <c r="N241" s="1"/>
+      <c r="M241" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="N241" s="2" t="s">
+        <v>785</v>
+      </c>
       <c r="O241" s="2">
         <v>0.0</v>
       </c>
@@ -13925,16 +14033,18 @@
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="D242" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E242" s="1"/>
+      <c r="E242" s="2" t="s">
+        <v>786</v>
+      </c>
       <c r="F242" s="2" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -13942,7 +14052,9 @@
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
-      <c r="M242" s="1"/>
+      <c r="M242" s="2" t="s">
+        <v>787</v>
+      </c>
       <c r="N242" s="1"/>
       <c r="O242" s="2">
         <v>0.0</v>
@@ -13961,15 +14073,15 @@
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>778</v>
+        <v>788</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>758</v>
@@ -13980,7 +14092,7 @@
         <v>756</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -14003,15 +14115,15 @@
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>782</v>
+        <v>792</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>758</v>
@@ -14022,7 +14134,7 @@
         <v>756</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -14045,7 +14157,7 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14054,7 +14166,7 @@
       </c>
       <c r="E245" s="1"/>
       <c r="F245" s="2" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -14081,7 +14193,7 @@
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>390</v>
@@ -14090,7 +14202,7 @@
         <v>503</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
@@ -14103,7 +14215,7 @@
       <c r="K246" s="11"/>
       <c r="L246" s="11"/>
       <c r="M246" s="5" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="N246" s="1"/>
       <c r="O246" s="2">
@@ -14125,28 +14237,28 @@
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
       <c r="I247" s="5" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="L247" s="11"/>
       <c r="M247" s="5" t="s">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="N247" s="1"/>
       <c r="O247" s="2">
@@ -14166,28 +14278,28 @@
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="5" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>374</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
       <c r="I248" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J248" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="L248" s="11"/>
       <c r="M248" s="5" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="2">
@@ -14204,12 +14316,12 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
       <c r="X248" s="2" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="5" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>66</v>
@@ -14218,19 +14330,19 @@
         <v>622</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J249" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="5" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="2">
@@ -14250,7 +14362,7 @@
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="5" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>390</v>
@@ -14259,19 +14371,19 @@
         <v>622</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="5" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="J250" s="5" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="5" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="2">
@@ -14291,28 +14403,28 @@
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="5" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="5" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="5" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="N251" s="1"/>
       <c r="O251" s="2">
@@ -14332,28 +14444,28 @@
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="5" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E252" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F252" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="F252" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="5" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="J252" s="5" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="5" t="s">
-        <v>812</v>
+        <v>822</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="2">
@@ -14373,28 +14485,28 @@
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="5" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E253" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="F253" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="F253" s="5" t="s">
-        <v>801</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="5" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="J253" s="5" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="5" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="2">
@@ -14414,28 +14526,28 @@
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="5" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>195</v>
       </c>
       <c r="E254" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="F254" s="5" t="s">
         <v>816</v>
-      </c>
-      <c r="F254" s="5" t="s">
-        <v>806</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="5" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="J254" s="5" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="5" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="2">
@@ -14455,7 +14567,7 @@
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="5" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>319</v>
@@ -14464,17 +14576,17 @@
         <v>374</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="5" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
       <c r="M255" s="5" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="2">
@@ -14494,24 +14606,24 @@
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="5" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>214</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>821</v>
+        <v>831</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="5" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
@@ -14533,16 +14645,16 @@
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="5" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>822</v>
+        <v>832</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>305</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
@@ -14569,7 +14681,7 @@
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="5" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>207</v>
@@ -14578,7 +14690,7 @@
         <v>263</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
@@ -14605,24 +14717,24 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="5" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>825</v>
+        <v>835</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
       <c r="I259" s="5" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
@@ -14644,14 +14756,14 @@
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="5" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>826</v>
+        <v>836</v>
       </c>
       <c r="E260" s="11"/>
       <c r="F260" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -14678,16 +14790,16 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="5" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>600</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
@@ -14714,24 +14826,24 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="5" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>687</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
       <c r="I262" s="5" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
@@ -14753,24 +14865,24 @@
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="5" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
       <c r="I263" s="5" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
@@ -14792,24 +14904,24 @@
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="5" t="s">
-        <v>833</v>
+        <v>843</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>192</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="5" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -14831,28 +14943,28 @@
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="5" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>344</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="5" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="5" t="s">
-        <v>837</v>
+        <v>847</v>
       </c>
       <c r="N265" s="1"/>
       <c r="O265" s="2">
@@ -14872,24 +14984,24 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="5" t="s">
-        <v>838</v>
+        <v>848</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="5" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -14911,24 +15023,24 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="5" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>269</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="5" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
@@ -14950,14 +15062,14 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="5" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>609</v>
       </c>
       <c r="E268" s="11"/>
       <c r="F268" s="5" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
@@ -14984,16 +15096,16 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="5" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>845</v>
+        <v>855</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
@@ -15020,18 +15132,18 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="2" t="s">
-        <v>848</v>
+        <v>858</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>849</v>
+        <v>859</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -15040,10 +15152,10 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="2" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="O270" s="2">
         <v>0.0</v>
@@ -15062,7 +15174,7 @@
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -15070,15 +15182,15 @@
         <v>102</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="2" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>519</v>
@@ -15104,7 +15216,7 @@
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -15112,15 +15224,15 @@
         <v>298</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>854</v>
+        <v>864</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>850</v>
+        <v>860</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="2" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>519</v>
@@ -15146,23 +15258,23 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="2" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -15186,12 +15298,12 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2" t="s">
-        <v>860</v>
+        <v>870</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -15199,7 +15311,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -15230,10 +15342,10 @@
         <v>51</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -15242,10 +15354,10 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="13" t="s">
-        <v>863</v>
+        <v>873</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>864</v>
+        <v>874</v>
       </c>
       <c r="O275" s="2">
         <v>0.0</v>
@@ -15269,13 +15381,13 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="13" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E276" s="13" t="s">
         <v>284</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -15284,10 +15396,10 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
       <c r="M276" s="2" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="N276" s="14" t="s">
-        <v>868</v>
+        <v>878</v>
       </c>
       <c r="O276" s="2">
         <v>1.0</v>
@@ -15306,18 +15418,18 @@
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>869</v>
+        <v>879</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="13" t="s">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>284</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -15341,12 +15453,12 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
       <c r="X277" s="2" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -15357,7 +15469,7 @@
         <v>55</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -15388,7 +15500,7 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>873</v>
+        <v>883</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -15399,7 +15511,7 @@
         <v>55</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -15430,7 +15542,7 @@
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>874</v>
+        <v>884</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -15441,7 +15553,7 @@
         <v>55</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -15475,7 +15587,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -15486,7 +15598,7 @@
         <v>55</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>862</v>
+        <v>872</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -15517,7 +15629,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -15528,15 +15640,15 @@
         <v>30</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="2" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -15559,7 +15671,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -15570,7 +15682,7 @@
         <v>208</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -15610,7 +15722,7 @@
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -15648,7 +15760,7 @@
         <v>208</v>
       </c>
       <c r="F285" s="13" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -15657,7 +15769,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="2" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="N285" s="1"/>
       <c r="O285" s="2">
@@ -15674,7 +15786,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
       <c r="X285" s="2" t="s">
-        <v>881</v>
+        <v>891</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
@@ -15687,10 +15799,10 @@
         <v>680</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>816</v>
+        <v>826</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>882</v>
+        <v>892</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -15699,7 +15811,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
       <c r="M286" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
       <c r="N286" s="1"/>
       <c r="O286" s="2">
@@ -15716,12 +15828,12 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
       <c r="X286" s="19" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -15732,12 +15844,12 @@
         <v>178</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>545</v>
@@ -15763,12 +15875,12 @@
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>88</v>
@@ -15799,7 +15911,7 @@
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -15810,15 +15922,15 @@
         <v>151</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -15841,26 +15953,26 @@
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>151</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -15883,7 +15995,7 @@
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -15892,7 +16004,7 @@
       </c>
       <c r="E291" s="1"/>
       <c r="F291" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -15919,7 +16031,7 @@
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -15927,7 +16039,7 @@
         <v>343</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>103</v>
@@ -15938,7 +16050,7 @@
         <v>109</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -15961,7 +16073,7 @@
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -15977,15 +16089,15 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
       <c r="M293" s="2" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
       <c r="N293" s="1"/>
       <c r="O293" s="2">
@@ -16005,7 +16117,7 @@
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -16021,15 +16133,15 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
       <c r="M294" s="2" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
       <c r="N294" s="1"/>
       <c r="O294" s="2">
@@ -16046,12 +16158,12 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
       <c r="X294" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -16059,10 +16171,10 @@
         <v>195</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -16071,7 +16183,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
       <c r="N295" s="1"/>
       <c r="O295" s="2">
@@ -16091,18 +16203,18 @@
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>573</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -16111,7 +16223,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="2" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="N296" s="1"/>
       <c r="O296" s="2">
@@ -16128,17 +16240,17 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="2" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>55</v>
@@ -16175,12 +16287,12 @@
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>55</v>
@@ -16217,7 +16329,7 @@
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -16236,7 +16348,7 @@
         <v>108</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
@@ -16259,7 +16371,7 @@
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -16294,31 +16406,31 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
       <c r="X300" s="2" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="2" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>160</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="2" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -16341,7 +16453,7 @@
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -16350,7 +16462,7 @@
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="2" t="s">
-        <v>921</v>
+        <v>931</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -16377,15 +16489,15 @@
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="16" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>923</v>
+        <v>933</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>103</v>
@@ -16394,7 +16506,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -16414,17 +16526,17 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
       <c r="X303" s="2" t="s">
-        <v>924</v>
+        <v>934</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>925</v>
+        <v>935</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="2" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -16432,7 +16544,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -16455,7 +16567,7 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>926</v>
+        <v>936</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -16468,7 +16580,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -16491,7 +16603,7 @@
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>927</v>
+        <v>937</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -16505,7 +16617,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="2" t="s">
-        <v>922</v>
+        <v>932</v>
       </c>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
@@ -16529,7 +16641,7 @@
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -16567,7 +16679,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -16586,7 +16698,7 @@
         <v>109</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
@@ -16609,7 +16721,7 @@
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -16618,7 +16730,7 @@
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="2" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -16645,7 +16757,7 @@
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -16656,15 +16768,15 @@
         <v>374</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="2" t="s">
-        <v>929</v>
+        <v>939</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -16687,7 +16799,7 @@
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -16698,7 +16810,7 @@
         <v>724</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -16725,7 +16837,7 @@
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>934</v>
+        <v>944</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -16744,7 +16856,7 @@
         <v>104</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>932</v>
+        <v>942</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -16764,7 +16876,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
       <c r="X312" s="2" t="s">
-        <v>935</v>
+        <v>945</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1">
@@ -16807,7 +16919,7 @@
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>936</v>
+        <v>946</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -16845,7 +16957,7 @@
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -16853,7 +16965,7 @@
         <v>192</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>938</v>
+        <v>948</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>229</v>
@@ -16887,7 +16999,7 @@
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -16923,7 +17035,7 @@
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -16937,10 +17049,10 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -16963,12 +17075,12 @@
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>941</v>
+        <v>951</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="2" t="s">
-        <v>942</v>
+        <v>952</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>178</v>
@@ -16977,10 +17089,10 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -17003,7 +17115,7 @@
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>943</v>
+        <v>953</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -17017,10 +17129,10 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -17043,7 +17155,7 @@
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>944</v>
+        <v>954</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -17057,10 +17169,10 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="2" t="s">
-        <v>939</v>
+        <v>949</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -17083,12 +17195,12 @@
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="2" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>313</v>
@@ -17099,7 +17211,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -17125,12 +17237,12 @@
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="2" t="s">
-        <v>947</v>
+        <v>957</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="2" t="s">
@@ -17161,21 +17273,21 @@
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>948</v>
+        <v>958</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -17198,12 +17310,12 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -17235,19 +17347,19 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -17271,12 +17383,12 @@
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>953</v>
+        <v>963</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -17284,7 +17396,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="2" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -17307,19 +17419,19 @@
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>955</v>
+        <v>965</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="2" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
@@ -17343,12 +17455,12 @@
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>956</v>
+        <v>966</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -17377,7 +17489,7 @@
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -17396,7 +17508,7 @@
         <v>240</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -17421,7 +17533,7 @@
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -17440,7 +17552,7 @@
         <v>240</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -17465,7 +17577,7 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -17484,7 +17596,7 @@
         <v>240</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -17506,12 +17618,12 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
       <c r="X331" s="9" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>962</v>
+        <v>972</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -17530,7 +17642,7 @@
         <v>240</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -17552,12 +17664,12 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
       <c r="X332" s="9" t="s">
-        <v>961</v>
+        <v>971</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -17576,7 +17688,7 @@
         <v>240</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
@@ -17601,7 +17713,7 @@
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -17639,7 +17751,7 @@
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>964</v>
+        <v>974</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -17647,7 +17759,7 @@
         <v>192</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>229</v>
@@ -17656,7 +17768,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="2" t="s">
-        <v>957</v>
+        <v>967</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -17681,7 +17793,7 @@
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -17696,7 +17808,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="2" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
@@ -17721,7 +17833,7 @@
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -17737,7 +17849,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="2" t="s">
-        <v>946</v>
+        <v>956</v>
       </c>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -17761,12 +17873,12 @@
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>966</v>
+        <v>976</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="2" t="s">
-        <v>967</v>
+        <v>977</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="2" t="s">
@@ -17776,7 +17888,7 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="2" t="s">
-        <v>945</v>
+        <v>955</v>
       </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
@@ -17801,12 +17913,12 @@
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>968</v>
+        <v>978</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="2" t="s">
-        <v>779</v>
+        <v>789</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>68</v>
@@ -17817,7 +17929,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="2" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -17843,7 +17955,7 @@
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>969</v>
+        <v>979</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -17859,7 +17971,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="2" t="s">
-        <v>965</v>
+        <v>975</v>
       </c>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
@@ -17885,7 +17997,7 @@
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -17900,7 +18012,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="2" t="s">
-        <v>963</v>
+        <v>973</v>
       </c>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -17927,7 +18039,7 @@
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -17943,7 +18055,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="2" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -17967,7 +18079,7 @@
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -17983,7 +18095,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="2" t="s">
-        <v>970</v>
+        <v>980</v>
       </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
@@ -18007,7 +18119,7 @@
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -18023,10 +18135,10 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -18046,12 +18158,12 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
       <c r="X344" s="2" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>972</v>
+        <v>982</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -18089,7 +18201,7 @@
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>974</v>
+        <v>984</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -18103,7 +18215,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
@@ -18127,7 +18239,7 @@
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>975</v>
+        <v>985</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -18138,7 +18250,7 @@
         <v>103</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>971</v>
+        <v>981</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
@@ -18161,7 +18273,7 @@
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -18177,7 +18289,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="2" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>112</v>
@@ -18203,7 +18315,7 @@
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -18241,12 +18353,12 @@
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="2" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>160</v>
@@ -18257,10 +18369,10 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="2" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
@@ -18283,7 +18395,7 @@
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -18321,7 +18433,7 @@
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -18330,7 +18442,7 @@
       </c>
       <c r="E352" s="1"/>
       <c r="F352" s="2" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -18357,7 +18469,7 @@
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -18368,12 +18480,12 @@
         <v>77</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="2" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>110</v>
@@ -18399,19 +18511,19 @@
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>984</v>
+        <v>994</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="2" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="2" t="s">
-        <v>981</v>
+        <v>991</v>
       </c>
       <c r="J354" s="2" t="s">
         <v>110</v>
@@ -18437,12 +18549,12 @@
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="2" t="s">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>313</v>
@@ -18472,12 +18584,12 @@
       <c r="V355" s="1"/>
       <c r="W355" s="1"/>
       <c r="X355" s="2" t="s">
-        <v>988</v>
+        <v>998</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18485,18 +18597,18 @@
         <v>262</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="2" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
@@ -18516,12 +18628,12 @@
       <c r="V356" s="1"/>
       <c r="W356" s="1"/>
       <c r="X356" s="2" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18529,7 +18641,7 @@
         <v>159</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>111</v>
@@ -18537,10 +18649,10 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="2" t="s">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>986</v>
+        <v>996</v>
       </c>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
@@ -18560,12 +18672,12 @@
       <c r="V357" s="1"/>
       <c r="W357" s="1"/>
       <c r="X357" s="2" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -18574,13 +18686,13 @@
       </c>
       <c r="E358" s="1"/>
       <c r="F358" s="2" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="2" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -18603,7 +18715,7 @@
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -18612,13 +18724,13 @@
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="2" t="s">
-        <v>991</v>
+        <v>1001</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="2" t="s">
-        <v>989</v>
+        <v>999</v>
       </c>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
@@ -18641,7 +18753,7 @@
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -18650,13 +18762,13 @@
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="2" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="2" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
@@ -18679,7 +18791,7 @@
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -18695,10 +18807,10 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -18721,7 +18833,7 @@
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -18730,13 +18842,13 @@
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="2" t="s">
-        <v>982</v>
+        <v>992</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="2" t="s">
-        <v>993</v>
+        <v>1003</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -18759,12 +18871,12 @@
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="2" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -18772,7 +18884,7 @@
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="2" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -18803,7 +18915,7 @@
         <v>72</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>103</v>
@@ -18830,12 +18942,12 @@
       <c r="V364" s="1"/>
       <c r="W364" s="1"/>
       <c r="X364" s="2" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="5" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -18846,7 +18958,7 @@
         <v>573</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
@@ -18875,12 +18987,12 @@
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="5" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="5" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
@@ -18909,7 +19021,7 @@
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="5" t="s">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -18920,7 +19032,7 @@
         <v>68</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
@@ -18958,7 +19070,7 @@
         <v>77</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>1008</v>
+        <v>1018</v>
       </c>
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
@@ -18985,7 +19097,7 @@
     </row>
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="5" t="s">
-        <v>1009</v>
+        <v>1019</v>
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -18996,7 +19108,7 @@
         <v>573</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
@@ -19025,7 +19137,7 @@
     </row>
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="5" t="s">
-        <v>1010</v>
+        <v>1020</v>
       </c>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -19036,7 +19148,7 @@
         <v>284</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
@@ -19067,25 +19179,25 @@
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="5" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="5" t="s">
-        <v>1013</v>
+        <v>1023</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>175</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="H371" s="11"/>
       <c r="I371" s="5" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="K371" s="11"/>
       <c r="L371" s="11"/>
@@ -19098,7 +19210,7 @@
         <v>1.0</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1017</v>
+        <v>1027</v>
       </c>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
@@ -19110,7 +19222,7 @@
     </row>
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="5" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -19121,14 +19233,14 @@
         <v>619</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>1014</v>
+        <v>1024</v>
       </c>
       <c r="H372" s="11"/>
       <c r="I372" s="5" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1012</v>
+        <v>1022</v>
       </c>
       <c r="K372" s="11"/>
       <c r="L372" s="11"/>
@@ -19151,7 +19263,7 @@
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -19162,15 +19274,15 @@
         <v>68</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
       <c r="I373" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K373" s="11"/>
       <c r="L373" s="11"/>
@@ -19195,7 +19307,7 @@
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="5" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -19203,10 +19315,10 @@
         <v>29</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
@@ -19233,7 +19345,7 @@
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="5" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
@@ -19244,7 +19356,7 @@
         <v>678</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="H375" s="11"/>
       <c r="I375" s="11"/>
@@ -19270,7 +19382,7 @@
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -19281,15 +19393,15 @@
         <v>60</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
       <c r="I376" s="5" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="K376" s="11"/>
       <c r="L376" s="11"/>
@@ -19316,7 +19428,7 @@
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="5" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -19327,15 +19439,15 @@
         <v>573</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>1029</v>
+        <v>1039</v>
       </c>
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
       <c r="I377" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J377" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K377" s="11"/>
       <c r="L377" s="11"/>
@@ -19355,12 +19467,12 @@
       <c r="V377" s="1"/>
       <c r="W377" s="1"/>
       <c r="X377" s="2" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="5" t="s">
-        <v>1031</v>
+        <v>1041</v>
       </c>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -19368,17 +19480,17 @@
         <v>298</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="H378" s="11"/>
       <c r="I378" s="5" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>1018</v>
+        <v>1028</v>
       </c>
       <c r="K378" s="11"/>
       <c r="L378" s="11"/>
@@ -19401,7 +19513,7 @@
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="5" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -19409,10 +19521,10 @@
         <v>66</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>1034</v>
+        <v>1044</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
@@ -19441,7 +19553,7 @@
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="5" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -19452,23 +19564,23 @@
         <v>573</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
       <c r="I380" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J380" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K380" s="11"/>
       <c r="L380" s="11"/>
       <c r="M380" s="5" t="s">
-        <v>1037</v>
+        <v>1047</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="O380" s="5">
         <v>1.0</v>
@@ -19484,12 +19596,12 @@
       <c r="V380" s="1"/>
       <c r="W380" s="1"/>
       <c r="X380" s="2" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="5" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -19497,18 +19609,18 @@
         <v>72</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
       <c r="I381" s="5" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="K381" s="11"/>
       <c r="L381" s="11"/>
@@ -19535,7 +19647,7 @@
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="5" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -19546,23 +19658,23 @@
         <v>68</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
       <c r="I382" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K382" s="11"/>
       <c r="L382" s="11"/>
       <c r="M382" s="5" t="s">
-        <v>1042</v>
+        <v>1052</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="O382" s="5">
         <v>0.0</v>
@@ -19581,7 +19693,7 @@
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="5" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -19592,15 +19704,15 @@
         <v>68</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
       <c r="I383" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K383" s="11"/>
       <c r="L383" s="11"/>
@@ -19627,7 +19739,7 @@
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="5" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -19659,7 +19771,7 @@
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="5" t="s">
-        <v>1019</v>
+        <v>1029</v>
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -19691,7 +19803,7 @@
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="5" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -19702,23 +19814,23 @@
         <v>573</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
       <c r="I386" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J386" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K386" s="11"/>
       <c r="L386" s="11"/>
       <c r="M386" s="5" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="N386" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="O386" s="5">
         <v>1.0</v>
@@ -19737,7 +19849,7 @@
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="5" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -19748,7 +19860,7 @@
         <v>573</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="H387" s="11"/>
       <c r="I387" s="11"/>
@@ -19774,7 +19886,7 @@
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -19785,15 +19897,15 @@
         <v>68</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
       <c r="I388" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J388" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K388" s="11"/>
       <c r="L388" s="11"/>
@@ -19816,18 +19928,18 @@
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="5" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="5" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
@@ -19858,7 +19970,7 @@
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="5" t="s">
-        <v>1052</v>
+        <v>1062</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -19897,26 +20009,26 @@
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="5" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="5" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
       <c r="I391" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="J391" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K391" s="11"/>
       <c r="L391" s="11"/>
@@ -19943,18 +20055,18 @@
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="5" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>1058</v>
+        <v>1068</v>
       </c>
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
@@ -19983,7 +20095,7 @@
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="5" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -19991,18 +20103,18 @@
         <v>51</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
       <c r="I393" s="5" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
       <c r="J393" s="5" t="s">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="K393" s="11"/>
       <c r="L393" s="11"/>
@@ -20029,7 +20141,7 @@
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="5" t="s">
-        <v>1033</v>
+        <v>1043</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -20037,10 +20149,10 @@
         <v>424</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
@@ -20067,7 +20179,7 @@
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="5" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -20078,15 +20190,15 @@
         <v>37</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
       <c r="I395" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K395" s="11"/>
       <c r="L395" s="11"/>
@@ -20110,23 +20222,23 @@
       <c r="V395" s="1"/>
       <c r="W395" s="1"/>
       <c r="X395" s="2" t="s">
-        <v>1030</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="5" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="H396" s="11"/>
       <c r="I396" s="11"/>
@@ -20149,12 +20261,12 @@
       <c r="V396" s="1"/>
       <c r="W396" s="1"/>
       <c r="X396" s="2" t="s">
-        <v>1064</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="5" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -20165,15 +20277,15 @@
         <v>68</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
       <c r="I397" s="5" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K397" s="11"/>
       <c r="L397" s="11"/>
@@ -20198,7 +20310,7 @@
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="5" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -20230,7 +20342,7 @@
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -20241,7 +20353,7 @@
         <v>284</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>1011</v>
+        <v>1021</v>
       </c>
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
@@ -20272,26 +20384,26 @@
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="5" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="5" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
       <c r="I400" s="5" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="K400" s="11"/>
       <c r="L400" s="11"/>
@@ -20316,18 +20428,18 @@
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="5" t="s">
-        <v>1070</v>
+        <v>1080</v>
       </c>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="5" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="E401" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="H401" s="11"/>
       <c r="I401" s="11"/>
@@ -20353,7 +20465,7 @@
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="5" t="s">
-        <v>1072</v>
+        <v>1082</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -20364,15 +20476,15 @@
         <v>60</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
       <c r="I402" s="5" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="K402" s="11"/>
       <c r="L402" s="11"/>
@@ -20397,7 +20509,7 @@
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="5" t="s">
-        <v>1073</v>
+        <v>1083</v>
       </c>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -20408,15 +20520,15 @@
         <v>37</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
       <c r="I403" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K403" s="11"/>
       <c r="L403" s="11"/>
@@ -20436,12 +20548,12 @@
       <c r="V403" s="1"/>
       <c r="W403" s="1"/>
       <c r="X403" s="2" t="s">
-        <v>1074</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="5" t="s">
-        <v>1075</v>
+        <v>1085</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -20452,15 +20564,15 @@
         <v>573</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
       <c r="I404" s="5" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K404" s="11"/>
       <c r="L404" s="11"/>
@@ -20494,15 +20606,15 @@
         <v>208</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
       <c r="I405" s="5" t="s">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1027</v>
+        <v>1037</v>
       </c>
       <c r="K405" s="11"/>
       <c r="L405" s="11"/>
@@ -20526,12 +20638,12 @@
       <c r="V405" s="1"/>
       <c r="W405" s="1"/>
       <c r="X405" s="2" t="s">
-        <v>1076</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="5" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -20542,7 +20654,7 @@
         <v>573</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
@@ -20571,7 +20683,7 @@
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="5" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -20579,7 +20691,7 @@
         <v>150</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
@@ -20606,7 +20718,7 @@
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="5" t="s">
-        <v>1080</v>
+        <v>1090</v>
       </c>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
@@ -20617,15 +20729,15 @@
         <v>55</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
       <c r="I408" s="5" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="J408" s="5" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="K408" s="11"/>
       <c r="L408" s="11"/>
@@ -20650,7 +20762,7 @@
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="5" t="s">
-        <v>1081</v>
+        <v>1091</v>
       </c>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -20658,23 +20770,23 @@
         <v>195</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
       <c r="I409" s="5" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="J409" s="5" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="K409" s="11"/>
       <c r="L409" s="11"/>
       <c r="M409" s="5" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="N409" s="5"/>
       <c r="O409" s="5">
@@ -20694,7 +20806,7 @@
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="5" t="s">
-        <v>1085</v>
+        <v>1095</v>
       </c>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -20705,15 +20817,15 @@
         <v>37</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="11"/>
       <c r="I410" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K410" s="11"/>
       <c r="L410" s="11"/>
@@ -20740,7 +20852,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="5" t="s">
-        <v>1086</v>
+        <v>1096</v>
       </c>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -20751,7 +20863,7 @@
         <v>68</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
@@ -20778,7 +20890,7 @@
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -20789,15 +20901,15 @@
         <v>573</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
       <c r="I412" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J412" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K412" s="11"/>
       <c r="L412" s="11"/>
@@ -20822,7 +20934,7 @@
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -20835,10 +20947,10 @@
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
       <c r="I413" s="5" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="J413" s="5" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="K413" s="11"/>
       <c r="L413" s="11"/>
@@ -20863,7 +20975,7 @@
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="5" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -20871,17 +20983,17 @@
         <v>298</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>1025</v>
+        <v>1035</v>
       </c>
       <c r="H414" s="11"/>
       <c r="I414" s="5" t="s">
-        <v>1015</v>
+        <v>1025</v>
       </c>
       <c r="J414" s="5" t="s">
-        <v>1016</v>
+        <v>1026</v>
       </c>
       <c r="K414" s="11"/>
       <c r="L414" s="11"/>
@@ -20904,7 +21016,7 @@
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="5" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -20915,15 +21027,15 @@
         <v>55</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>1007</v>
+        <v>1017</v>
       </c>
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
       <c r="I415" s="5" t="s">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="J415" s="5" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="K415" s="11"/>
       <c r="L415" s="11"/>
@@ -20948,7 +21060,7 @@
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="5" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -20959,7 +21071,7 @@
         <v>678</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
@@ -20968,10 +21080,10 @@
       <c r="K416" s="11"/>
       <c r="L416" s="11"/>
       <c r="M416" s="5" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="N416" s="5" t="s">
-        <v>1095</v>
+        <v>1105</v>
       </c>
       <c r="O416" s="5">
         <v>0.0</v>
@@ -20990,7 +21102,7 @@
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="5" t="s">
-        <v>1096</v>
+        <v>1106</v>
       </c>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -21001,15 +21113,15 @@
         <v>573</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
       <c r="I417" s="5" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="J417" s="5" t="s">
-        <v>1022</v>
+        <v>1032</v>
       </c>
       <c r="K417" s="11"/>
       <c r="L417" s="11"/>
@@ -21034,18 +21146,18 @@
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="5" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="5" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>208</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
@@ -21054,7 +21166,7 @@
       <c r="K418" s="11"/>
       <c r="L418" s="11"/>
       <c r="M418" s="5" t="s">
-        <v>1097</v>
+        <v>1107</v>
       </c>
       <c r="N418" s="5">
         <v>1975.0</v>
@@ -21073,27 +21185,27 @@
       <c r="V418" s="1"/>
       <c r="W418" s="1"/>
       <c r="X418" s="2" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="5" t="s">
-        <v>1099</v>
+        <v>1109</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="2" t="s">
-        <v>1100</v>
+        <v>1110</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="5" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="J419" s="5" t="s">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
@@ -21116,7 +21228,7 @@
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="5" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -21125,15 +21237,15 @@
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="2" t="s">
-        <v>1036</v>
+        <v>1046</v>
       </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="5" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="J420" s="5" t="s">
-        <v>1035</v>
+        <v>1045</v>
       </c>
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
@@ -21156,7 +21268,7 @@
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="5" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -21165,13 +21277,13 @@
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="2" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="5" t="s">
-        <v>1101</v>
+        <v>1111</v>
       </c>
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
@@ -21191,27 +21303,27 @@
       <c r="V421" s="1"/>
       <c r="W421" s="1"/>
       <c r="X421" s="2" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="5" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="2" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="2" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="5" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
@@ -21310,7 +21422,7 @@
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -21321,7 +21433,7 @@
         <v>175</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
@@ -21329,7 +21441,7 @@
         <v>743</v>
       </c>
       <c r="J425" s="5" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
@@ -21352,16 +21464,16 @@
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="2" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="2" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
@@ -21388,7 +21500,7 @@
     </row>
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -21432,7 +21544,7 @@
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -21467,12 +21579,12 @@
       <c r="V428" s="1"/>
       <c r="W428" s="1"/>
       <c r="X428" s="2" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -21488,15 +21600,15 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="5" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="J429" s="5" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
       <c r="M429" s="2" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="N429" s="1"/>
       <c r="O429" s="2">
@@ -21516,12 +21628,12 @@
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="2" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>313</v>
@@ -21551,12 +21663,12 @@
       <c r="V430" s="1"/>
       <c r="W430" s="1"/>
       <c r="X430" s="2" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -21572,10 +21684,10 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="5" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="J431" s="5" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -21598,12 +21710,12 @@
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="2" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>52</v>
@@ -21614,10 +21726,10 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="5" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
       <c r="J432" s="5" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
@@ -21640,7 +21752,7 @@
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -21656,7 +21768,7 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="5" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="J433" s="1"/>
       <c r="K433" s="1"/>
@@ -21680,7 +21792,7 @@
     </row>
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -21696,7 +21808,7 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="5" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="J434" s="1"/>
       <c r="K434" s="1"/>
@@ -21720,7 +21832,7 @@
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -21736,7 +21848,7 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="5" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="J435" s="1"/>
       <c r="K435" s="1"/>
@@ -21760,7 +21872,7 @@
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>1124</v>
+        <v>1134</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -21768,7 +21880,7 @@
         <v>66</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1125</v>
+        <v>1135</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>31</v>
@@ -21776,7 +21888,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="5" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
@@ -21800,12 +21912,12 @@
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>1126</v>
+        <v>1136</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="2" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>119</v>
@@ -21816,7 +21928,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="5" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
@@ -21840,12 +21952,12 @@
     </row>
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>1127</v>
+        <v>1137</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="2" t="s">
-        <v>1128</v>
+        <v>1138</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>503</v>
@@ -21856,7 +21968,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="5" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
@@ -21880,7 +21992,7 @@
     </row>
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -21920,7 +22032,7 @@
     </row>
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -21928,7 +22040,7 @@
         <v>25</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="F440" s="2" t="s">
         <v>26</v>
@@ -21996,18 +22108,18 @@
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="2" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="F442" s="16" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
@@ -22034,7 +22146,7 @@
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22042,15 +22154,15 @@
         <v>252</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="F443" s="16" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="5" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
       <c r="J443" s="2" t="s">
         <v>723</v>
@@ -22076,7 +22188,7 @@
     </row>
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="5" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -22092,7 +22204,7 @@
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="5" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="J444" s="1"/>
       <c r="K444" s="1"/>
@@ -22116,23 +22228,23 @@
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="2" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>249</v>
       </c>
       <c r="F445" s="16" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="5" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="J445" s="1"/>
       <c r="K445" s="1"/>
@@ -22156,23 +22268,23 @@
     </row>
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="2" t="s">
-        <v>985</v>
+        <v>995</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="F446" s="16" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="5" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
       <c r="J446" s="1"/>
       <c r="K446" s="1"/>
@@ -22196,7 +22308,7 @@
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -22207,7 +22319,7 @@
         <v>55</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -22234,19 +22346,19 @@
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="2" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="5" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="J448" s="2" t="s">
         <v>750</v>
@@ -22272,7 +22384,7 @@
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -22280,7 +22392,7 @@
         <v>390</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="F449" s="2" t="s">
         <v>752</v>
@@ -22288,7 +22400,7 @@
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="5" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
@@ -22312,7 +22424,7 @@
     </row>
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -22323,12 +22435,12 @@
         <v>151</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="5" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
@@ -22351,22 +22463,36 @@
       <c r="X450" s="1"/>
     </row>
     <row r="451" ht="12.75" customHeight="1">
-      <c r="A451" s="1"/>
+      <c r="A451" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
-      <c r="D451" s="1"/>
-      <c r="E451" s="1"/>
-      <c r="F451" s="1"/>
+      <c r="D451" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F451" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
-      <c r="I451" s="1"/>
+      <c r="I451" s="5" t="s">
+        <v>1159</v>
+      </c>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
-      <c r="O451" s="1"/>
-      <c r="P451" s="1"/>
+      <c r="O451" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P451" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
@@ -22374,25 +22500,41 @@
       <c r="U451" s="1"/>
       <c r="V451" s="1"/>
       <c r="W451" s="1"/>
-      <c r="X451" s="1"/>
+      <c r="X451" s="2" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="452" ht="12.75" customHeight="1">
-      <c r="A452" s="1"/>
+      <c r="A452" s="5" t="s">
+        <v>1161</v>
+      </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
-      <c r="D452" s="1"/>
-      <c r="E452" s="1"/>
-      <c r="F452" s="1"/>
+      <c r="D452" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>1162</v>
+      </c>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
-      <c r="I452" s="1"/>
+      <c r="I452" s="5" t="s">
+        <v>1159</v>
+      </c>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
       <c r="L452" s="1"/>
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
-      <c r="O452" s="1"/>
-      <c r="P452" s="1"/>
+      <c r="O452" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P452" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
@@ -22403,22 +22545,36 @@
       <c r="X452" s="1"/>
     </row>
     <row r="453" ht="12.75" customHeight="1">
-      <c r="A453" s="1"/>
+      <c r="A453" s="5" t="s">
+        <v>1163</v>
+      </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
-      <c r="D453" s="1"/>
-      <c r="E453" s="1"/>
-      <c r="F453" s="1"/>
+      <c r="D453" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>1164</v>
+      </c>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
-      <c r="I453" s="1"/>
+      <c r="I453" s="5" t="s">
+        <v>1161</v>
+      </c>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
-      <c r="O453" s="1"/>
-      <c r="P453" s="1"/>
+      <c r="O453" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P453" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
@@ -22426,15 +22582,23 @@
       <c r="U453" s="1"/>
       <c r="V453" s="1"/>
       <c r="W453" s="1"/>
-      <c r="X453" s="1"/>
+      <c r="X453" s="2" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="454" ht="12.75" customHeight="1">
-      <c r="A454" s="1"/>
+      <c r="A454" s="5" t="s">
+        <v>1159</v>
+      </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
-      <c r="D454" s="1"/>
+      <c r="D454" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E454" s="1"/>
-      <c r="F454" s="1"/>
+      <c r="F454" s="2" t="s">
+        <v>1162</v>
+      </c>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
@@ -22443,8 +22607,12 @@
       <c r="L454" s="1"/>
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
-      <c r="O454" s="1"/>
-      <c r="P454" s="1"/>
+      <c r="O454" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P454" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
@@ -22455,12 +22623,18 @@
       <c r="X454" s="1"/>
     </row>
     <row r="455" ht="12.75" customHeight="1">
-      <c r="A455" s="1"/>
+      <c r="A455" s="5" t="s">
+        <v>765</v>
+      </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
-      <c r="D455" s="1"/>
+      <c r="D455" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="E455" s="1"/>
-      <c r="F455" s="1"/>
+      <c r="F455" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
@@ -22469,8 +22643,12 @@
       <c r="L455" s="1"/>
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
-      <c r="O455" s="1"/>
-      <c r="P455" s="1"/>
+      <c r="O455" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P455" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
@@ -22481,22 +22659,38 @@
       <c r="X455" s="1"/>
     </row>
     <row r="456" ht="12.75" customHeight="1">
-      <c r="A456" s="1"/>
+      <c r="A456" s="5" t="s">
+        <v>1165</v>
+      </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
-      <c r="D456" s="1"/>
-      <c r="E456" s="1"/>
-      <c r="F456" s="1"/>
+      <c r="D456" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>690</v>
+      </c>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
-      <c r="I456" s="1"/>
-      <c r="J456" s="1"/>
+      <c r="I456" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="J456" s="5" t="s">
+        <v>766</v>
+      </c>
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
-      <c r="O456" s="1"/>
-      <c r="P456" s="1"/>
+      <c r="O456" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P456" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
@@ -22507,12 +22701,20 @@
       <c r="X456" s="1"/>
     </row>
     <row r="457" ht="12.75" customHeight="1">
-      <c r="A457" s="1"/>
+      <c r="A457" s="5" t="s">
+        <v>1167</v>
+      </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
-      <c r="D457" s="1"/>
-      <c r="E457" s="1"/>
-      <c r="F457" s="1"/>
+      <c r="D457" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F457" s="2" t="s">
+        <v>1168</v>
+      </c>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
@@ -22521,8 +22723,12 @@
       <c r="L457" s="1"/>
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
-      <c r="O457" s="1"/>
-      <c r="P457" s="1"/>
+      <c r="O457" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P457" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
@@ -22530,25 +22736,43 @@
       <c r="U457" s="1"/>
       <c r="V457" s="1"/>
       <c r="W457" s="1"/>
-      <c r="X457" s="1"/>
+      <c r="X457" s="2" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="458" ht="12.75" customHeight="1">
-      <c r="A458" s="1"/>
+      <c r="A458" s="5" t="s">
+        <v>1170</v>
+      </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
-      <c r="D458" s="1"/>
-      <c r="E458" s="1"/>
-      <c r="F458" s="1"/>
+      <c r="D458" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F458" s="2" t="s">
+        <v>776</v>
+      </c>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
-      <c r="I458" s="1"/>
-      <c r="J458" s="1"/>
+      <c r="I458" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J458" s="5" t="s">
+        <v>1171</v>
+      </c>
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
-      <c r="O458" s="1"/>
-      <c r="P458" s="1"/>
+      <c r="O458" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P458" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
@@ -22559,22 +22783,38 @@
       <c r="X458" s="1"/>
     </row>
     <row r="459" ht="12.75" customHeight="1">
-      <c r="A459" s="1"/>
+      <c r="A459" s="5" t="s">
+        <v>1172</v>
+      </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
-      <c r="D459" s="1"/>
-      <c r="E459" s="1"/>
-      <c r="F459" s="1"/>
+      <c r="D459" s="16" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E459" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
-      <c r="I459" s="1"/>
-      <c r="J459" s="1"/>
+      <c r="I459" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="J459" s="5" t="s">
+        <v>1171</v>
+      </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
-      <c r="O459" s="1"/>
-      <c r="P459" s="1"/>
+      <c r="O459" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P459" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
@@ -22585,12 +22825,18 @@
       <c r="X459" s="1"/>
     </row>
     <row r="460" ht="12.75" customHeight="1">
-      <c r="A460" s="1"/>
+      <c r="A460" s="5" t="s">
+        <v>1171</v>
+      </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
-      <c r="D460" s="1"/>
+      <c r="D460" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="E460" s="1"/>
-      <c r="F460" s="1"/>
+      <c r="F460" s="2" t="s">
+        <v>772</v>
+      </c>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
@@ -22599,8 +22845,12 @@
       <c r="L460" s="1"/>
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
-      <c r="O460" s="1"/>
-      <c r="P460" s="1"/>
+      <c r="O460" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P460" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
@@ -22611,22 +22861,40 @@
       <c r="X460" s="1"/>
     </row>
     <row r="461" ht="12.75" customHeight="1">
-      <c r="A461" s="1"/>
+      <c r="A461" s="5" t="s">
+        <v>1173</v>
+      </c>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
-      <c r="D461" s="1"/>
-      <c r="E461" s="1"/>
-      <c r="F461" s="1"/>
+      <c r="D461" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>1174</v>
+      </c>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
-      <c r="I461" s="1"/>
-      <c r="J461" s="1"/>
+      <c r="I461" s="5" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J461" s="2" t="s">
+        <v>779</v>
+      </c>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
-      <c r="M461" s="1"/>
+      <c r="M461" s="2" t="s">
+        <v>1176</v>
+      </c>
       <c r="N461" s="1"/>
-      <c r="O461" s="1"/>
-      <c r="P461" s="1"/>
+      <c r="O461" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P461" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
@@ -22637,12 +22905,18 @@
       <c r="X461" s="1"/>
     </row>
     <row r="462" ht="12.75" customHeight="1">
-      <c r="A462" s="1"/>
+      <c r="A462" s="5" t="s">
+        <v>1175</v>
+      </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
-      <c r="D462" s="1"/>
+      <c r="D462" s="2" t="s">
+        <v>1177</v>
+      </c>
       <c r="E462" s="1"/>
-      <c r="F462" s="1"/>
+      <c r="F462" s="2" t="s">
+        <v>1174</v>
+      </c>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
@@ -36676,34 +36950,53 @@
       <c r="W1001" s="1"/>
       <c r="X1001" s="1"/>
     </row>
-    <row r="1002" ht="12.75" customHeight="1">
-      <c r="A1002" s="1"/>
-      <c r="B1002" s="1"/>
-      <c r="C1002" s="1"/>
-      <c r="D1002" s="1"/>
-      <c r="E1002" s="1"/>
-      <c r="F1002" s="1"/>
-      <c r="G1002" s="1"/>
-      <c r="H1002" s="1"/>
-      <c r="I1002" s="1"/>
-      <c r="J1002" s="1"/>
-      <c r="K1002" s="1"/>
-      <c r="L1002" s="1"/>
-      <c r="M1002" s="1"/>
-      <c r="N1002" s="1"/>
-      <c r="O1002" s="1"/>
-      <c r="P1002" s="1"/>
-      <c r="Q1002" s="1"/>
-      <c r="R1002" s="1"/>
-      <c r="S1002" s="1"/>
-      <c r="T1002" s="1"/>
-      <c r="U1002" s="1"/>
-      <c r="V1002" s="1"/>
-      <c r="W1002" s="1"/>
-      <c r="X1002" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="J263:K263"/>
+    <mergeCell ref="J262:K262"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:C268"/>
+    <mergeCell ref="A269:C269"/>
+    <mergeCell ref="J266:K266"/>
+    <mergeCell ref="J265:K265"/>
+    <mergeCell ref="J264:K264"/>
+    <mergeCell ref="J267:K267"/>
+    <mergeCell ref="J253:K253"/>
+    <mergeCell ref="J252:K252"/>
+    <mergeCell ref="J251:K251"/>
+    <mergeCell ref="J250:K250"/>
+    <mergeCell ref="A249:C249"/>
+    <mergeCell ref="J248:K248"/>
+    <mergeCell ref="A248:C248"/>
+    <mergeCell ref="J247:K247"/>
+    <mergeCell ref="A247:C247"/>
+    <mergeCell ref="J249:K249"/>
+    <mergeCell ref="J254:K254"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="A259:C259"/>
+    <mergeCell ref="J259:K259"/>
+    <mergeCell ref="A264:C264"/>
+    <mergeCell ref="A263:C263"/>
+    <mergeCell ref="A262:C262"/>
+    <mergeCell ref="A260:C260"/>
+    <mergeCell ref="A261:C261"/>
+    <mergeCell ref="A265:C265"/>
+    <mergeCell ref="A266:C266"/>
+    <mergeCell ref="E413:F413"/>
+    <mergeCell ref="F414:G414"/>
+    <mergeCell ref="F375:G375"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="F372:G372"/>
+    <mergeCell ref="F387:G387"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="E407:F407"/>
+    <mergeCell ref="F401:G401"/>
+    <mergeCell ref="F396:G396"/>
+    <mergeCell ref="F371:G371"/>
+    <mergeCell ref="A255:C255"/>
+    <mergeCell ref="A256:C256"/>
+    <mergeCell ref="I255:J255"/>
+    <mergeCell ref="J256:K256"/>
     <mergeCell ref="A257:C257"/>
     <mergeCell ref="A250:C250"/>
     <mergeCell ref="A251:C251"/>
@@ -36711,51 +37004,6 @@
     <mergeCell ref="A253:C253"/>
     <mergeCell ref="A254:C254"/>
     <mergeCell ref="A246:C246"/>
-    <mergeCell ref="A264:C264"/>
-    <mergeCell ref="A263:C263"/>
-    <mergeCell ref="A262:C262"/>
-    <mergeCell ref="A260:C260"/>
-    <mergeCell ref="A261:C261"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="A259:C259"/>
-    <mergeCell ref="A265:C265"/>
-    <mergeCell ref="A266:C266"/>
-    <mergeCell ref="A249:C249"/>
-    <mergeCell ref="J248:K248"/>
-    <mergeCell ref="A248:C248"/>
-    <mergeCell ref="J247:K247"/>
-    <mergeCell ref="A247:C247"/>
-    <mergeCell ref="J249:K249"/>
-    <mergeCell ref="F372:G372"/>
-    <mergeCell ref="F375:G375"/>
-    <mergeCell ref="F387:G387"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="E413:F413"/>
-    <mergeCell ref="E407:F407"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:C268"/>
-    <mergeCell ref="A269:C269"/>
-    <mergeCell ref="F401:G401"/>
-    <mergeCell ref="F396:G396"/>
-    <mergeCell ref="F414:G414"/>
-    <mergeCell ref="F371:G371"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="J266:K266"/>
-    <mergeCell ref="J265:K265"/>
-    <mergeCell ref="J263:K263"/>
-    <mergeCell ref="J264:K264"/>
-    <mergeCell ref="J267:K267"/>
-    <mergeCell ref="J259:K259"/>
-    <mergeCell ref="J262:K262"/>
-    <mergeCell ref="J253:K253"/>
-    <mergeCell ref="J254:K254"/>
-    <mergeCell ref="A255:C255"/>
-    <mergeCell ref="A256:C256"/>
-    <mergeCell ref="J252:K252"/>
-    <mergeCell ref="J251:K251"/>
-    <mergeCell ref="I255:J255"/>
-    <mergeCell ref="J250:K250"/>
-    <mergeCell ref="J256:K256"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L13"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="1283">
   <si>
     <t>ID</t>
   </si>
@@ -3780,6 +3780,93 @@
   </si>
   <si>
     <t>4/7/1986</t>
+  </si>
+  <si>
+    <t>ind000171</t>
+  </si>
+  <si>
+    <t>ind000172</t>
+  </si>
+  <si>
+    <t>ind000173</t>
+  </si>
+  <si>
+    <t>ind000174</t>
+  </si>
+  <si>
+    <t>Агриппина</t>
+  </si>
+  <si>
+    <t>Никифоровна</t>
+  </si>
+  <si>
+    <t>ind000175</t>
+  </si>
+  <si>
+    <t>ind000176</t>
+  </si>
+  <si>
+    <t>ind000177</t>
+  </si>
+  <si>
+    <t>ind000178</t>
+  </si>
+  <si>
+    <t>ind000179</t>
+  </si>
+  <si>
+    <t>Антон</t>
+  </si>
+  <si>
+    <t>ind000180</t>
+  </si>
+  <si>
+    <t>ind000181</t>
+  </si>
+  <si>
+    <t>ind000182</t>
+  </si>
+  <si>
+    <t>ind000183</t>
+  </si>
+  <si>
+    <t>ind000184</t>
+  </si>
+  <si>
+    <t>ind000185</t>
+  </si>
+  <si>
+    <t>ind000186</t>
+  </si>
+  <si>
+    <t>ind000187</t>
+  </si>
+  <si>
+    <t>Агния</t>
+  </si>
+  <si>
+    <t>ind000188</t>
+  </si>
+  <si>
+    <t>ind000189</t>
+  </si>
+  <si>
+    <t>ind000190</t>
+  </si>
+  <si>
+    <t>ind000191</t>
+  </si>
+  <si>
+    <t>ind000192</t>
+  </si>
+  <si>
+    <t>ind000193</t>
+  </si>
+  <si>
+    <t>ind000194</t>
+  </si>
+  <si>
+    <t>ind000195</t>
   </si>
 </sst>
 </file>
@@ -24337,22 +24424,38 @@
       <c r="X489" s="1"/>
     </row>
     <row r="490" ht="12.75" customHeight="1">
-      <c r="A490" s="1"/>
+      <c r="A490" s="5" t="s">
+        <v>1254</v>
+      </c>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
-      <c r="D490" s="1"/>
-      <c r="E490" s="1"/>
-      <c r="F490" s="1"/>
+      <c r="D490" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G490" s="1"/>
       <c r="H490" s="1"/>
-      <c r="I490" s="1"/>
-      <c r="J490" s="1"/>
+      <c r="I490" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J490" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="K490" s="1"/>
       <c r="L490" s="1"/>
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
-      <c r="O490" s="1"/>
-      <c r="P490" s="1"/>
+      <c r="O490" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P490" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
@@ -24363,22 +24466,38 @@
       <c r="X490" s="1"/>
     </row>
     <row r="491" ht="12.75" customHeight="1">
-      <c r="A491" s="1"/>
+      <c r="A491" s="5" t="s">
+        <v>1255</v>
+      </c>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
-      <c r="D491" s="1"/>
-      <c r="E491" s="1"/>
-      <c r="F491" s="1"/>
+      <c r="D491" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F491" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G491" s="1"/>
       <c r="H491" s="1"/>
-      <c r="I491" s="1"/>
-      <c r="J491" s="1"/>
+      <c r="I491" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J491" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
-      <c r="O491" s="1"/>
-      <c r="P491" s="1"/>
+      <c r="O491" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P491" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
@@ -24389,22 +24508,38 @@
       <c r="X491" s="1"/>
     </row>
     <row r="492" ht="12.75" customHeight="1">
-      <c r="A492" s="1"/>
+      <c r="A492" s="5" t="s">
+        <v>1256</v>
+      </c>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
-      <c r="D492" s="1"/>
-      <c r="E492" s="1"/>
-      <c r="F492" s="1"/>
+      <c r="D492" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G492" s="1"/>
       <c r="H492" s="1"/>
-      <c r="I492" s="1"/>
-      <c r="J492" s="1"/>
+      <c r="I492" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J492" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
-      <c r="O492" s="1"/>
-      <c r="P492" s="1"/>
+      <c r="O492" s="1">
+        <v>0.0</v>
+      </c>
+      <c r="P492" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
@@ -24415,12 +24550,20 @@
       <c r="X492" s="1"/>
     </row>
     <row r="493" ht="12.75" customHeight="1">
-      <c r="A493" s="1"/>
+      <c r="A493" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
-      <c r="D493" s="1"/>
-      <c r="E493" s="1"/>
-      <c r="F493" s="1"/>
+      <c r="D493" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G493" s="1"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
@@ -24429,8 +24572,12 @@
       <c r="L493" s="1"/>
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
-      <c r="O493" s="1"/>
-      <c r="P493" s="1"/>
+      <c r="O493" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P493" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
@@ -24441,22 +24588,38 @@
       <c r="X493" s="1"/>
     </row>
     <row r="494" ht="12.75" customHeight="1">
-      <c r="A494" s="1"/>
+      <c r="A494" s="5" t="s">
+        <v>1260</v>
+      </c>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
-      <c r="D494" s="1"/>
-      <c r="E494" s="1"/>
-      <c r="F494" s="1"/>
+      <c r="D494" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
-      <c r="I494" s="1"/>
-      <c r="J494" s="1"/>
+      <c r="I494" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J494" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
-      <c r="O494" s="1"/>
-      <c r="P494" s="1"/>
+      <c r="O494" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P494" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
@@ -24467,22 +24630,38 @@
       <c r="X494" s="1"/>
     </row>
     <row r="495" ht="12.75" customHeight="1">
-      <c r="A495" s="1"/>
+      <c r="A495" s="5" t="s">
+        <v>1261</v>
+      </c>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
-      <c r="D495" s="1"/>
-      <c r="E495" s="1"/>
-      <c r="F495" s="1"/>
+      <c r="D495" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
-      <c r="I495" s="1"/>
-      <c r="J495" s="1"/>
+      <c r="I495" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J495" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
-      <c r="O495" s="1"/>
-      <c r="P495" s="1"/>
+      <c r="O495" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P495" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
@@ -24493,22 +24672,38 @@
       <c r="X495" s="1"/>
     </row>
     <row r="496" ht="12.75" customHeight="1">
-      <c r="A496" s="1"/>
+      <c r="A496" s="5" t="s">
+        <v>1262</v>
+      </c>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
-      <c r="D496" s="1"/>
-      <c r="E496" s="1"/>
-      <c r="F496" s="1"/>
+      <c r="D496" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
-      <c r="I496" s="1"/>
-      <c r="J496" s="1"/>
+      <c r="I496" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J496" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
-      <c r="O496" s="1"/>
-      <c r="P496" s="1"/>
+      <c r="O496" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P496" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
@@ -24519,22 +24714,38 @@
       <c r="X496" s="1"/>
     </row>
     <row r="497" ht="12.75" customHeight="1">
-      <c r="A497" s="1"/>
+      <c r="A497" s="5" t="s">
+        <v>1263</v>
+      </c>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
-      <c r="D497" s="1"/>
-      <c r="E497" s="1"/>
-      <c r="F497" s="1"/>
+      <c r="D497" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
-      <c r="I497" s="1"/>
-      <c r="J497" s="1"/>
+      <c r="I497" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J497" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
-      <c r="O497" s="1"/>
-      <c r="P497" s="1"/>
+      <c r="O497" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P497" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
@@ -24545,22 +24756,38 @@
       <c r="X497" s="1"/>
     </row>
     <row r="498" ht="12.75" customHeight="1">
-      <c r="A498" s="1"/>
+      <c r="A498" s="5" t="s">
+        <v>1264</v>
+      </c>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
-      <c r="D498" s="1"/>
-      <c r="E498" s="1"/>
-      <c r="F498" s="1"/>
+      <c r="D498" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
-      <c r="I498" s="1"/>
-      <c r="J498" s="1"/>
+      <c r="I498" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J498" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
-      <c r="O498" s="1"/>
-      <c r="P498" s="1"/>
+      <c r="O498" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P498" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
@@ -24571,22 +24798,38 @@
       <c r="X498" s="1"/>
     </row>
     <row r="499" ht="12.75" customHeight="1">
-      <c r="A499" s="1"/>
+      <c r="A499" s="5" t="s">
+        <v>1266</v>
+      </c>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
-      <c r="D499" s="1"/>
-      <c r="E499" s="1"/>
-      <c r="F499" s="1"/>
+      <c r="D499" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
-      <c r="I499" s="1"/>
-      <c r="J499" s="1"/>
+      <c r="I499" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J499" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
-      <c r="O499" s="1"/>
-      <c r="P499" s="1"/>
+      <c r="O499" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P499" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
@@ -24597,22 +24840,38 @@
       <c r="X499" s="1"/>
     </row>
     <row r="500" ht="12.75" customHeight="1">
-      <c r="A500" s="1"/>
+      <c r="A500" s="5" t="s">
+        <v>1267</v>
+      </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
-      <c r="D500" s="1"/>
-      <c r="E500" s="1"/>
-      <c r="F500" s="1"/>
+      <c r="D500" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
-      <c r="I500" s="1"/>
-      <c r="J500" s="1"/>
+      <c r="I500" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J500" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
-      <c r="O500" s="1"/>
-      <c r="P500" s="1"/>
+      <c r="O500" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P500" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
@@ -24623,22 +24882,38 @@
       <c r="X500" s="1"/>
     </row>
     <row r="501" ht="12.75" customHeight="1">
-      <c r="A501" s="1"/>
+      <c r="A501" s="5" t="s">
+        <v>1268</v>
+      </c>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
-      <c r="D501" s="1"/>
-      <c r="E501" s="1"/>
-      <c r="F501" s="1"/>
+      <c r="D501" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
-      <c r="I501" s="1"/>
-      <c r="J501" s="1"/>
+      <c r="I501" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J501" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
-      <c r="O501" s="1"/>
-      <c r="P501" s="1"/>
+      <c r="O501" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P501" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
@@ -24649,22 +24924,38 @@
       <c r="X501" s="1"/>
     </row>
     <row r="502" ht="12.75" customHeight="1">
-      <c r="A502" s="1"/>
+      <c r="A502" s="5" t="s">
+        <v>1269</v>
+      </c>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
-      <c r="D502" s="1"/>
-      <c r="E502" s="1"/>
-      <c r="F502" s="1"/>
+      <c r="D502" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F502" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
-      <c r="I502" s="1"/>
-      <c r="J502" s="1"/>
+      <c r="I502" s="5" t="s">
+        <v>1255</v>
+      </c>
+      <c r="J502" s="5" t="s">
+        <v>1257</v>
+      </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
-      <c r="O502" s="1"/>
-      <c r="P502" s="1"/>
+      <c r="O502" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P502" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q502" s="1"/>
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
@@ -24675,22 +24966,36 @@
       <c r="X502" s="1"/>
     </row>
     <row r="503" ht="12.75" customHeight="1">
-      <c r="A503" s="1"/>
+      <c r="A503" s="5" t="s">
+        <v>1270</v>
+      </c>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
-      <c r="D503" s="1"/>
-      <c r="E503" s="1"/>
-      <c r="F503" s="1"/>
+      <c r="D503" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F503" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
-      <c r="I503" s="1"/>
+      <c r="I503" s="5" t="s">
+        <v>1256</v>
+      </c>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
-      <c r="O503" s="1"/>
-      <c r="P503" s="1"/>
+      <c r="O503" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P503" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q503" s="1"/>
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
@@ -24701,22 +25006,36 @@
       <c r="X503" s="1"/>
     </row>
     <row r="504" ht="12.75" customHeight="1">
-      <c r="A504" s="1"/>
+      <c r="A504" s="5" t="s">
+        <v>1271</v>
+      </c>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
-      <c r="D504" s="1"/>
-      <c r="E504" s="1"/>
-      <c r="F504" s="1"/>
+      <c r="D504" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
-      <c r="I504" s="1"/>
+      <c r="I504" s="5" t="s">
+        <v>1256</v>
+      </c>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
-      <c r="O504" s="1"/>
-      <c r="P504" s="1"/>
+      <c r="O504" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P504" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q504" s="1"/>
       <c r="R504" s="1"/>
       <c r="S504" s="1"/>
@@ -24727,22 +25046,36 @@
       <c r="X504" s="1"/>
     </row>
     <row r="505" ht="12.75" customHeight="1">
-      <c r="A505" s="1"/>
+      <c r="A505" s="5" t="s">
+        <v>1272</v>
+      </c>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
-      <c r="D505" s="1"/>
-      <c r="E505" s="1"/>
-      <c r="F505" s="1"/>
+      <c r="D505" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F505" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
-      <c r="I505" s="1"/>
+      <c r="I505" s="5" t="s">
+        <v>1256</v>
+      </c>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
-      <c r="O505" s="1"/>
-      <c r="P505" s="1"/>
+      <c r="O505" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P505" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q505" s="1"/>
       <c r="R505" s="1"/>
       <c r="S505" s="1"/>
@@ -24753,22 +25086,36 @@
       <c r="X505" s="1"/>
     </row>
     <row r="506" ht="12.75" customHeight="1">
-      <c r="A506" s="1"/>
+      <c r="A506" s="5" t="s">
+        <v>1273</v>
+      </c>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
-      <c r="D506" s="1"/>
-      <c r="E506" s="1"/>
-      <c r="F506" s="1"/>
+      <c r="D506" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F506" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
-      <c r="I506" s="1"/>
+      <c r="I506" s="5" t="s">
+        <v>1272</v>
+      </c>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
-      <c r="O506" s="1"/>
-      <c r="P506" s="1"/>
+      <c r="O506" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P506" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q506" s="1"/>
       <c r="R506" s="1"/>
       <c r="S506" s="1"/>
@@ -24779,22 +25126,36 @@
       <c r="X506" s="1"/>
     </row>
     <row r="507" ht="12.75" customHeight="1">
-      <c r="A507" s="1"/>
+      <c r="A507" s="5" t="s">
+        <v>1275</v>
+      </c>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
-      <c r="D507" s="1"/>
-      <c r="E507" s="1"/>
-      <c r="F507" s="1"/>
+      <c r="D507" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
-      <c r="I507" s="1"/>
+      <c r="I507" s="5" t="s">
+        <v>1272</v>
+      </c>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
-      <c r="O507" s="1"/>
-      <c r="P507" s="1"/>
+      <c r="O507" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P507" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q507" s="1"/>
       <c r="R507" s="1"/>
       <c r="S507" s="1"/>
@@ -24805,22 +25166,36 @@
       <c r="X507" s="1"/>
     </row>
     <row r="508" ht="12.75" customHeight="1">
-      <c r="A508" s="1"/>
+      <c r="A508" s="5" t="s">
+        <v>1276</v>
+      </c>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-      <c r="E508" s="1"/>
-      <c r="F508" s="1"/>
+      <c r="D508" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E508" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F508" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
-      <c r="I508" s="1"/>
+      <c r="I508" s="5" t="s">
+        <v>1260</v>
+      </c>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1"/>
       <c r="N508" s="1"/>
-      <c r="O508" s="1"/>
-      <c r="P508" s="1"/>
+      <c r="O508" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P508" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q508" s="1"/>
       <c r="R508" s="1"/>
       <c r="S508" s="1"/>
@@ -24831,22 +25206,36 @@
       <c r="X508" s="1"/>
     </row>
     <row r="509" ht="12.75" customHeight="1">
-      <c r="A509" s="1"/>
+      <c r="A509" s="5" t="s">
+        <v>1277</v>
+      </c>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
-      <c r="D509" s="1"/>
-      <c r="E509" s="1"/>
-      <c r="F509" s="1"/>
+      <c r="D509" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E509" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
-      <c r="I509" s="1"/>
+      <c r="I509" s="5" t="s">
+        <v>1261</v>
+      </c>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1"/>
       <c r="N509" s="1"/>
-      <c r="O509" s="1"/>
-      <c r="P509" s="1"/>
+      <c r="O509" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P509" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q509" s="1"/>
       <c r="R509" s="1"/>
       <c r="S509" s="1"/>
@@ -24857,22 +25246,36 @@
       <c r="X509" s="1"/>
     </row>
     <row r="510" ht="12.75" customHeight="1">
-      <c r="A510" s="1"/>
+      <c r="A510" s="5" t="s">
+        <v>1278</v>
+      </c>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
-      <c r="D510" s="1"/>
-      <c r="E510" s="1"/>
-      <c r="F510" s="1"/>
+      <c r="D510" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E510" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F510" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
-      <c r="I510" s="1"/>
+      <c r="I510" s="5" t="s">
+        <v>1262</v>
+      </c>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
       <c r="L510" s="1"/>
       <c r="M510" s="1"/>
       <c r="N510" s="1"/>
-      <c r="O510" s="1"/>
-      <c r="P510" s="1"/>
+      <c r="O510" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P510" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q510" s="1"/>
       <c r="R510" s="1"/>
       <c r="S510" s="1"/>
@@ -24883,22 +25286,36 @@
       <c r="X510" s="1"/>
     </row>
     <row r="511" ht="12.75" customHeight="1">
-      <c r="A511" s="1"/>
+      <c r="A511" s="5" t="s">
+        <v>1279</v>
+      </c>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
-      <c r="D511" s="1"/>
-      <c r="E511" s="1"/>
-      <c r="F511" s="1"/>
+      <c r="D511" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E511" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F511" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
-      <c r="I511" s="1"/>
+      <c r="I511" s="5" t="s">
+        <v>1278</v>
+      </c>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
       <c r="L511" s="1"/>
       <c r="M511" s="1"/>
       <c r="N511" s="1"/>
-      <c r="O511" s="1"/>
-      <c r="P511" s="1"/>
+      <c r="O511" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P511" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q511" s="1"/>
       <c r="R511" s="1"/>
       <c r="S511" s="1"/>
@@ -24909,22 +25326,36 @@
       <c r="X511" s="1"/>
     </row>
     <row r="512" ht="12.75" customHeight="1">
-      <c r="A512" s="1"/>
+      <c r="A512" s="5" t="s">
+        <v>1280</v>
+      </c>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
-      <c r="D512" s="1"/>
-      <c r="E512" s="1"/>
-      <c r="F512" s="1"/>
+      <c r="D512" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E512" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F512" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
-      <c r="I512" s="1"/>
+      <c r="I512" s="5" t="s">
+        <v>1278</v>
+      </c>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
       <c r="L512" s="1"/>
       <c r="M512" s="1"/>
       <c r="N512" s="1"/>
-      <c r="O512" s="1"/>
-      <c r="P512" s="1"/>
+      <c r="O512" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P512" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q512" s="1"/>
       <c r="R512" s="1"/>
       <c r="S512" s="1"/>
@@ -24935,22 +25366,36 @@
       <c r="X512" s="1"/>
     </row>
     <row r="513" ht="12.75" customHeight="1">
-      <c r="A513" s="1"/>
+      <c r="A513" s="5" t="s">
+        <v>1281</v>
+      </c>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
-      <c r="D513" s="1"/>
-      <c r="E513" s="1"/>
-      <c r="F513" s="1"/>
+      <c r="D513" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E513" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
-      <c r="I513" s="1"/>
+      <c r="I513" s="5" t="s">
+        <v>1263</v>
+      </c>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
       <c r="M513" s="1"/>
       <c r="N513" s="1"/>
-      <c r="O513" s="1"/>
-      <c r="P513" s="1"/>
+      <c r="O513" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P513" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q513" s="1"/>
       <c r="R513" s="1"/>
       <c r="S513" s="1"/>
@@ -24961,22 +25406,36 @@
       <c r="X513" s="1"/>
     </row>
     <row r="514" ht="12.75" customHeight="1">
-      <c r="A514" s="1"/>
+      <c r="A514" s="5" t="s">
+        <v>1282</v>
+      </c>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
-      <c r="D514" s="1"/>
-      <c r="E514" s="1"/>
-      <c r="F514" s="1"/>
+      <c r="D514" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E514" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F514" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
-      <c r="I514" s="1"/>
+      <c r="I514" s="5" t="s">
+        <v>1266</v>
+      </c>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
       <c r="M514" s="1"/>
       <c r="N514" s="1"/>
-      <c r="O514" s="1"/>
-      <c r="P514" s="1"/>
+      <c r="O514" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P514" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q514" s="1"/>
       <c r="R514" s="1"/>
       <c r="S514" s="1"/>
@@ -24987,7 +25446,7 @@
       <c r="X514" s="1"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="A515" s="1"/>
+      <c r="A515" s="5"/>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
       <c r="D515" s="1"/>
@@ -25013,7 +25472,7 @@
       <c r="X515" s="1"/>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="A516" s="1"/>
+      <c r="A516" s="5"/>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
       <c r="D516" s="1"/>
@@ -25039,7 +25498,7 @@
       <c r="X516" s="1"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="A517" s="1"/>
+      <c r="A517" s="5"/>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
       <c r="D517" s="1"/>

--- a/mishin_family.xls.xlsx
+++ b/mishin_family.xls.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2968" uniqueCount="1283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="1327">
   <si>
     <t>ID</t>
   </si>
@@ -1847,9 +1847,18 @@
     <t>Екатерина</t>
   </si>
   <si>
+    <t>ind000197</t>
+  </si>
+  <si>
+    <t>ind000196</t>
+  </si>
+  <si>
     <t>6/2/1981</t>
   </si>
   <si>
+    <t>ур Пряхина</t>
+  </si>
+  <si>
     <t>I195</t>
   </si>
   <si>
@@ -3173,6 +3182,9 @@
     <t>ind00038</t>
   </si>
   <si>
+    <t>27/11/1858</t>
+  </si>
+  <si>
     <t>ind00011</t>
   </si>
   <si>
@@ -3212,6 +3224,9 @@
     <t>ind00039</t>
   </si>
   <si>
+    <t>7/11/1819</t>
+  </si>
+  <si>
     <t>ind00013</t>
   </si>
   <si>
@@ -3245,6 +3260,9 @@
     <t>Артемий</t>
   </si>
   <si>
+    <t>29/8/1835</t>
+  </si>
+  <si>
     <t>ind00051</t>
   </si>
   <si>
@@ -3308,6 +3326,9 @@
     <t>ind00032</t>
   </si>
   <si>
+    <t>22/5/1844</t>
+  </si>
+  <si>
     <t>ind00025</t>
   </si>
   <si>
@@ -3317,6 +3338,9 @@
     <t>ind00047</t>
   </si>
   <si>
+    <t>27/9/1840</t>
+  </si>
+  <si>
     <t>ур Тарбинская</t>
   </si>
   <si>
@@ -3437,30 +3461,51 @@
     <t>25/5/1928</t>
   </si>
   <si>
+    <t>геофизик</t>
+  </si>
+  <si>
     <t>ind000111</t>
   </si>
   <si>
     <t>Ангелина</t>
   </si>
   <si>
+    <t>3/6/1932</t>
+  </si>
+  <si>
     <t>ур Подколзина</t>
   </si>
   <si>
     <t>ind000112</t>
   </si>
   <si>
+    <t>1/10/1956</t>
+  </si>
+  <si>
     <t>ind000113</t>
   </si>
   <si>
+    <t>1964</t>
+  </si>
+  <si>
     <t>ind000114</t>
   </si>
   <si>
+    <t>ind000207</t>
+  </si>
+  <si>
     <t>ind000115</t>
   </si>
   <si>
     <t>ind000116</t>
   </si>
   <si>
+    <t>ind000208</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
     <t>ind000117</t>
   </si>
   <si>
@@ -3809,6 +3854,15 @@
     <t>ind000177</t>
   </si>
   <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>26/4/1945</t>
+  </si>
+  <si>
+    <t>генерал, погиб в Сербии</t>
+  </si>
+  <si>
     <t>ind000178</t>
   </si>
   <si>
@@ -3867,6 +3921,84 @@
   </si>
   <si>
     <t>ind000195</t>
+  </si>
+  <si>
+    <t>Пряхина</t>
+  </si>
+  <si>
+    <t>ind000201</t>
+  </si>
+  <si>
+    <t>ind000200</t>
+  </si>
+  <si>
+    <t>20/6/1957</t>
+  </si>
+  <si>
+    <t>ур Русакова</t>
+  </si>
+  <si>
+    <t>Пряхин</t>
+  </si>
+  <si>
+    <t>ind000198</t>
+  </si>
+  <si>
+    <t>ind000199</t>
+  </si>
+  <si>
+    <t>5/11/1939</t>
+  </si>
+  <si>
+    <t>Аделия</t>
+  </si>
+  <si>
+    <t>Айзеле</t>
+  </si>
+  <si>
+    <t>1/10/1927</t>
+  </si>
+  <si>
+    <t>немка</t>
+  </si>
+  <si>
+    <t>Русакова</t>
+  </si>
+  <si>
+    <t>5/5/1937</t>
+  </si>
+  <si>
+    <t>Русаков</t>
+  </si>
+  <si>
+    <t>ind000202</t>
+  </si>
+  <si>
+    <t>Бобылев</t>
+  </si>
+  <si>
+    <t>25/2/1939</t>
+  </si>
+  <si>
+    <t>ind000203</t>
+  </si>
+  <si>
+    <t>ind000204</t>
+  </si>
+  <si>
+    <t>ind000205</t>
+  </si>
+  <si>
+    <t>20/2/1969</t>
+  </si>
+  <si>
+    <t>ind000206</t>
+  </si>
+  <si>
+    <t>13/2/1993</t>
+  </si>
+  <si>
+    <t>ур Гусева</t>
   </si>
 </sst>
 </file>
@@ -11907,18 +12039,24 @@
       <c r="D184" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E184" s="1"/>
+      <c r="E184" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="F184" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
-      <c r="I184" s="1"/>
-      <c r="J184" s="1"/>
+      <c r="I184" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="J184" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
       <c r="M184" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="N184" s="1"/>
       <c r="O184" s="2">
@@ -11934,19 +12072,21 @@
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
       <c r="W184" s="1"/>
-      <c r="X184" s="1"/>
+      <c r="X184" s="2" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="185" ht="12.75" customHeight="1">
       <c r="A185" s="2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>47</v>
@@ -11957,12 +12097,12 @@
         <v>158</v>
       </c>
       <c r="J185" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
       <c r="M185" s="2" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="N185" s="1"/>
       <c r="O185" s="2">
@@ -11982,7 +12122,7 @@
     </row>
     <row r="186" ht="12.75" customHeight="1">
       <c r="A186" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -11993,20 +12133,20 @@
         <v>46</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
       <c r="M186" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="N186" s="1"/>
       <c r="O186" s="2">
@@ -12026,7 +12166,7 @@
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="A187" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -12045,12 +12185,12 @@
         <v>87</v>
       </c>
       <c r="J187" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
       <c r="M187" s="2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="N187" s="1"/>
       <c r="O187" s="2">
@@ -12070,15 +12210,15 @@
     </row>
     <row r="188" ht="12.75" customHeight="1">
       <c r="A188" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>178</v>
@@ -12091,7 +12231,7 @@
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="N188" s="2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="O188" s="2">
         <v>1.0</v>
@@ -12110,7 +12250,7 @@
     </row>
     <row r="189" ht="12.75" customHeight="1">
       <c r="A189" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -12118,15 +12258,15 @@
         <v>392</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G189" s="1"/>
       <c r="H189" s="1"/>
       <c r="I189" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>115</v>
@@ -12134,7 +12274,7 @@
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N189" s="1"/>
       <c r="O189" s="2">
@@ -12151,12 +12291,12 @@
       <c r="V189" s="1"/>
       <c r="W189" s="1"/>
       <c r="X189" s="2" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="190" ht="12.75" customHeight="1">
       <c r="A190" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -12165,13 +12305,13 @@
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G190" s="1"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -12194,7 +12334,7 @@
     </row>
     <row r="191" ht="12.75" customHeight="1">
       <c r="A191" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -12202,7 +12342,7 @@
         <v>194</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>116</v>
@@ -12210,7 +12350,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="1"/>
       <c r="I191" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>115</v>
@@ -12218,7 +12358,7 @@
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="N191" s="1"/>
       <c r="O191" s="2">
@@ -12235,17 +12375,17 @@
       <c r="V191" s="1"/>
       <c r="W191" s="1"/>
       <c r="X191" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="192" ht="12.75" customHeight="1">
       <c r="A192" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>505</v>
@@ -12257,7 +12397,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -12280,15 +12420,15 @@
     </row>
     <row r="193" ht="12.75" customHeight="1">
       <c r="A193" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -12316,7 +12456,7 @@
     </row>
     <row r="194" ht="12.75" customHeight="1">
       <c r="A194" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -12327,7 +12467,7 @@
         <v>585</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="G194" s="1"/>
       <c r="H194" s="1"/>
@@ -12335,12 +12475,12 @@
         <v>87</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="N194" s="1"/>
       <c r="O194" s="2">
@@ -12357,12 +12497,12 @@
       <c r="V194" s="1"/>
       <c r="W194" s="1"/>
       <c r="X194" s="2" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="195" ht="12.75" customHeight="1">
       <c r="A195" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -12370,7 +12510,7 @@
         <v>608</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>116</v>
@@ -12378,7 +12518,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="1"/>
       <c r="I195" s="2" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>115</v>
@@ -12386,7 +12526,7 @@
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="N195" s="1"/>
       <c r="O195" s="2">
@@ -12406,7 +12546,7 @@
     </row>
     <row r="196" ht="12.75" customHeight="1">
       <c r="A196" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -12425,12 +12565,12 @@
         <v>87</v>
       </c>
       <c r="J196" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="N196" s="1"/>
       <c r="O196" s="2">
@@ -12447,20 +12587,20 @@
       <c r="V196" s="1"/>
       <c r="W196" s="1"/>
       <c r="X196" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" ht="12.75" customHeight="1">
       <c r="A197" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>53</v>
@@ -12471,7 +12611,7 @@
         <v>158</v>
       </c>
       <c r="J197" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -12502,7 +12642,7 @@
         <v>54</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -12530,7 +12670,7 @@
     </row>
     <row r="199" ht="12.75" customHeight="1">
       <c r="A199" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -12541,15 +12681,15 @@
         <v>153</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="J199" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -12572,7 +12712,7 @@
     </row>
     <row r="200" ht="12.75" customHeight="1">
       <c r="A200" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -12581,7 +12721,7 @@
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
@@ -12607,26 +12747,26 @@
     </row>
     <row r="201" ht="12.75" customHeight="1">
       <c r="A201" s="2" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="J201" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -12649,7 +12789,7 @@
     </row>
     <row r="202" ht="12.75" customHeight="1">
       <c r="A202" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -12658,7 +12798,7 @@
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="2" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
@@ -12685,7 +12825,7 @@
     </row>
     <row r="203" ht="12.75" customHeight="1">
       <c r="A203" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -12693,7 +12833,7 @@
         <v>107</v>
       </c>
       <c r="E203" s="13" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F203" s="13" t="s">
         <v>120</v>
@@ -12701,7 +12841,7 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>584</v>
@@ -12709,7 +12849,7 @@
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="2" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="N203" s="1"/>
       <c r="O203" s="2">
@@ -12729,7 +12869,7 @@
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -12748,7 +12888,7 @@
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="13" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="N204" s="1"/>
       <c r="O204" s="2">
@@ -12768,7 +12908,7 @@
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="A205" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -12776,7 +12916,7 @@
         <v>29</v>
       </c>
       <c r="E205" s="13" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F205" s="13" t="s">
         <v>38</v>
@@ -12784,7 +12924,7 @@
       <c r="G205" s="1"/>
       <c r="H205" s="1"/>
       <c r="I205" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>584</v>
@@ -12792,7 +12932,7 @@
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="2" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="N205" s="1"/>
       <c r="O205" s="2">
@@ -12812,7 +12952,7 @@
     </row>
     <row r="206" ht="12.75" customHeight="1">
       <c r="A206" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -12828,15 +12968,15 @@
       <c r="G206" s="1"/>
       <c r="H206" s="1"/>
       <c r="I206" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="J206" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="2" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="N206" s="1"/>
       <c r="O206" s="2">
@@ -12856,7 +12996,7 @@
     </row>
     <row r="207" ht="12.75" customHeight="1">
       <c r="A207" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -12867,14 +13007,14 @@
         <v>77</v>
       </c>
       <c r="F207" s="13" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G207" s="1"/>
       <c r="H207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="N207" s="1"/>
       <c r="O207" s="2">
@@ -12894,7 +13034,7 @@
     </row>
     <row r="208" ht="12.75" customHeight="1">
       <c r="A208" s="2" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -12905,20 +13045,20 @@
         <v>153</v>
       </c>
       <c r="F208" s="13" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G208" s="1"/>
       <c r="H208" s="1"/>
       <c r="I208" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
       <c r="M208" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="N208" s="1"/>
       <c r="O208" s="2">
@@ -12938,7 +13078,7 @@
     </row>
     <row r="209" ht="12.75" customHeight="1">
       <c r="A209" s="2" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -12949,20 +13089,20 @@
         <v>153</v>
       </c>
       <c r="F209" s="13" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="G209" s="1"/>
       <c r="H209" s="1"/>
       <c r="I209" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
       <c r="M209" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="N209" s="1"/>
       <c r="O209" s="2">
@@ -12982,7 +13122,7 @@
     </row>
     <row r="210" ht="12.75" customHeight="1">
       <c r="A210" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -12993,20 +13133,20 @@
         <v>464</v>
       </c>
       <c r="F210" s="13" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G210" s="1"/>
       <c r="H210" s="1"/>
       <c r="I210" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J210" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
       <c r="M210" s="13" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="N210" s="1"/>
       <c r="O210" s="2">
@@ -13026,18 +13166,18 @@
     </row>
     <row r="211" ht="12.75" customHeight="1">
       <c r="A211" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="16" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G211" s="1"/>
       <c r="H211" s="1"/>
@@ -13064,18 +13204,18 @@
     </row>
     <row r="212" ht="12.75" customHeight="1">
       <c r="A212" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="16" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="G212" s="1"/>
       <c r="H212" s="1"/>
@@ -13107,27 +13247,27 @@
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="16" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>68</v>
       </c>
       <c r="F213" s="16" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G213" s="1"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
       <c r="M213" s="2" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="O213" s="2">
         <v>0.0</v>
@@ -13146,18 +13286,18 @@
     </row>
     <row r="214" ht="12.75" customHeight="1">
       <c r="A214" s="2" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="16" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E214" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F214" s="16" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="G214" s="1"/>
       <c r="H214" s="1"/>
@@ -13184,18 +13324,18 @@
     </row>
     <row r="215" ht="12.75" customHeight="1">
       <c r="A215" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E215" s="1" t="s">
         <v>148</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G215" s="1"/>
       <c r="H215" s="1"/>
@@ -13208,7 +13348,7 @@
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
       <c r="M215" s="3" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" s="2">
@@ -13230,18 +13370,18 @@
     </row>
     <row r="216" ht="12.75" customHeight="1">
       <c r="A216" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>139</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="G216" s="1"/>
       <c r="H216" s="1"/>
@@ -13254,10 +13394,10 @@
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
       <c r="M216" s="3" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="O216" s="2">
         <v>0.0</v>
@@ -13276,12 +13416,12 @@
     </row>
     <row r="217" ht="12.75" customHeight="1">
       <c r="A217" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="2" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>210</v>
@@ -13292,18 +13432,18 @@
       <c r="G217" s="1"/>
       <c r="H217" s="1"/>
       <c r="I217" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J217" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
       <c r="M217" s="3" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="O217" s="2">
         <v>1.0</v>
@@ -13319,12 +13459,12 @@
       <c r="V217" s="1"/>
       <c r="W217" s="1"/>
       <c r="X217" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="218" ht="12.75" customHeight="1">
       <c r="A218" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -13332,7 +13472,7 @@
         <v>88</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>26</v>
@@ -13340,18 +13480,18 @@
       <c r="G218" s="1"/>
       <c r="H218" s="1"/>
       <c r="I218" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J218" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
       <c r="M218" s="3" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="O218" s="2">
         <v>1.0</v>
@@ -13370,15 +13510,15 @@
     </row>
     <row r="219" ht="12.75" customHeight="1">
       <c r="A219" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="2" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>26</v>
@@ -13390,7 +13530,7 @@
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
       <c r="M219" s="3" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="N219" s="2"/>
       <c r="O219" s="2">
@@ -13407,12 +13547,12 @@
       <c r="V219" s="1"/>
       <c r="W219" s="1"/>
       <c r="X219" s="2" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
     </row>
     <row r="220" ht="12.75" customHeight="1">
       <c r="A220" s="2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -13423,23 +13563,23 @@
         <v>210</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="G220" s="1"/>
       <c r="H220" s="1"/>
       <c r="I220" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="J220" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
       <c r="M220" s="3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="O220" s="2">
         <v>1.0</v>
@@ -13455,12 +13595,12 @@
       <c r="V220" s="1"/>
       <c r="W220" s="1"/>
       <c r="X220" s="2" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="221" ht="12.75" customHeight="1">
       <c r="A221" s="2" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -13468,10 +13608,10 @@
         <v>72</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G221" s="1"/>
       <c r="H221" s="1"/>
@@ -13480,10 +13620,10 @@
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
       <c r="M221" s="3" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="O221" s="2">
         <v>0.0</v>
@@ -13502,18 +13642,18 @@
     </row>
     <row r="222" ht="12.75" customHeight="1">
       <c r="A222" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>585</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="G222" s="1"/>
       <c r="H222" s="1"/>
@@ -13522,10 +13662,10 @@
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
       <c r="M222" s="3" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O222" s="2">
         <v>1.0</v>
@@ -13544,7 +13684,7 @@
     </row>
     <row r="223" ht="12.75" customHeight="1">
       <c r="A223" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -13552,23 +13692,23 @@
         <v>264</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F223" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G223" s="1"/>
       <c r="H223" s="1"/>
       <c r="I223" s="2" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
       <c r="M223" s="3" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" s="2">
@@ -13585,31 +13725,31 @@
       <c r="V223" s="1"/>
       <c r="W223" s="1"/>
       <c r="X223" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="224" ht="12.75" customHeight="1">
       <c r="A224" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="2" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G224" s="1"/>
       <c r="H224" s="1"/>
       <c r="I224" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J224" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -13629,17 +13769,17 @@
       <c r="V224" s="1"/>
       <c r="W224" s="1"/>
       <c r="X224" s="2" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
     </row>
     <row r="225" ht="12.75" customHeight="1">
       <c r="A225" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="2" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>180</v>
@@ -13650,10 +13790,10 @@
       <c r="G225" s="1"/>
       <c r="H225" s="1"/>
       <c r="I225" s="2" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J225" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -13676,31 +13816,31 @@
     </row>
     <row r="226" ht="12.75" customHeight="1">
       <c r="A226" s="2" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="2" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F226" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="G226" s="1"/>
       <c r="H226" s="1"/>
       <c r="I226" s="5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="J226" s="2" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
       <c r="M226" s="3" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2">
@@ -13720,7 +13860,7 @@
     </row>
     <row r="227" ht="12.75" customHeight="1">
       <c r="A227" s="2" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -13728,7 +13868,7 @@
         <v>502</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>26</v>
@@ -13736,7 +13876,7 @@
       <c r="G227" s="1"/>
       <c r="H227" s="1"/>
       <c r="I227" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
@@ -13760,15 +13900,15 @@
     </row>
     <row r="228" ht="12.75" customHeight="1">
       <c r="A228" s="2" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="2" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>26</v>
@@ -13776,13 +13916,13 @@
       <c r="G228" s="1"/>
       <c r="H228" s="1"/>
       <c r="I228" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
       <c r="M228" s="3" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="N228" s="2"/>
       <c r="O228" s="2">
@@ -13802,15 +13942,15 @@
     </row>
     <row r="229" ht="12.75" customHeight="1">
       <c r="A229" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="2" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>55</v>
@@ -13818,7 +13958,7 @@
       <c r="G229" s="1"/>
       <c r="H229" s="1"/>
       <c r="I229" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>28</v>
@@ -13826,7 +13966,7 @@
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
       <c r="M229" s="2" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="N229" s="1"/>
       <c r="O229" s="2">
@@ -13843,12 +13983,12 @@
       <c r="V229" s="1"/>
       <c r="W229" s="1"/>
       <c r="X229" s="2" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="230" ht="12.75" customHeight="1">
       <c r="A230" s="2" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -13857,7 +13997,7 @@
       </c>
       <c r="E230" s="1"/>
       <c r="F230" s="2" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="G230" s="1"/>
       <c r="H230" s="1"/>
@@ -13884,7 +14024,7 @@
     </row>
     <row r="231" ht="12.75" customHeight="1">
       <c r="A231" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -13892,23 +14032,23 @@
         <v>45</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="G231" s="1"/>
       <c r="H231" s="1"/>
       <c r="I231" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
       <c r="M231" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="N231" s="1"/>
       <c r="O231" s="2">
@@ -13925,36 +14065,36 @@
       <c r="V231" s="1"/>
       <c r="W231" s="1"/>
       <c r="X231" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
     </row>
     <row r="232" ht="12.75" customHeight="1">
       <c r="A232" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G232" s="1"/>
       <c r="H232" s="1"/>
       <c r="I232" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="J232" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
       <c r="M232" s="2" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="N232" s="1"/>
       <c r="O232" s="2">
@@ -13974,18 +14114,18 @@
     </row>
     <row r="233" ht="12.75" customHeight="1">
       <c r="A233" s="2" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G233" s="1"/>
       <c r="H233" s="1"/>
@@ -13994,10 +14134,10 @@
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
       <c r="M233" s="2" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="O233" s="2">
         <v>0.0</v>
@@ -14016,31 +14156,31 @@
     </row>
     <row r="234" ht="12.75" customHeight="1">
       <c r="A234" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="2" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>192</v>
       </c>
       <c r="F234" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G234" s="1"/>
       <c r="H234" s="1"/>
       <c r="I234" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="J234" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
       <c r="M234" s="2" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="N234" s="2" t="s">
         <v>146</v>
@@ -14062,7 +14202,7 @@
     </row>
     <row r="235" ht="12.75" customHeight="1">
       <c r="A235" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -14073,20 +14213,20 @@
         <v>180</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G235" s="1"/>
       <c r="H235" s="1"/>
       <c r="I235" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="J235" s="5" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
       <c r="M235" s="2" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="N235" s="1"/>
       <c r="O235" s="2">
@@ -14103,14 +14243,14 @@
       <c r="V235" s="1"/>
       <c r="W235" s="1"/>
       <c r="X235" s="2" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="AA235" s="5"/>
       <c r="AB235" s="5"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
       <c r="A236" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -14121,7 +14261,7 @@
         <v>464</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G236" s="1"/>
       <c r="H236" s="1"/>
@@ -14145,12 +14285,12 @@
       <c r="V236" s="1"/>
       <c r="W236" s="1"/>
       <c r="X236" s="2" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" ht="12.75" customHeight="1">
       <c r="A237" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -14161,23 +14301,23 @@
         <v>192</v>
       </c>
       <c r="F237" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G237" s="1"/>
       <c r="H237" s="1"/>
       <c r="I237" s="2" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="J237" s="2" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
       <c r="M237" s="2" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="O237" s="2">
         <v>1.0</v>
@@ -14196,7 +14336,7 @@
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="A238" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -14204,23 +14344,23 @@
         <v>285</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G238" s="1"/>
       <c r="H238" s="1"/>
       <c r="I238" s="2" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="J238" s="2" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
       <c r="M238" s="2" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="N238" s="1"/>
       <c r="O238" s="2">
@@ -14237,12 +14377,12 @@
       <c r="V238" s="1"/>
       <c r="W238" s="1"/>
       <c r="X238" s="2" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="239" ht="12.75" customHeight="1">
       <c r="A239" s="2" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -14253,20 +14393,20 @@
         <v>376</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G239" s="1"/>
       <c r="H239" s="1"/>
       <c r="I239" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J239" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
       <c r="M239" s="2" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="N239" s="1"/>
       <c r="O239" s="2">
@@ -14286,7 +14426,7 @@
     </row>
     <row r="240" ht="12.75" customHeight="1">
       <c r="A240" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -14297,20 +14437,20 @@
         <v>162</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G240" s="1"/>
       <c r="H240" s="1"/>
       <c r="I240" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
       <c r="M240" s="2" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="N240" s="1"/>
       <c r="O240" s="2">
@@ -14330,7 +14470,7 @@
     </row>
     <row r="241" ht="12.75" customHeight="1">
       <c r="A241" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -14338,10 +14478,10 @@
         <v>197</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G241" s="1"/>
       <c r="H241" s="1"/>
@@ -14350,10 +14490,10 @@
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
       <c r="M241" s="2" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="O241" s="2">
         <v>0.0</v>
@@ -14372,7 +14512,7 @@
     </row>
     <row r="242" ht="12.75" customHeight="1">
       <c r="A242" s="2" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -14380,10 +14520,10 @@
         <v>271</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="G242" s="1"/>
       <c r="H242" s="1"/>
@@ -14392,7 +14532,7 @@
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
       <c r="M242" s="2" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="N242" s="1"/>
       <c r="O242" s="2">
@@ -14412,31 +14552,31 @@
     </row>
     <row r="243" ht="12.75" customHeight="1">
       <c r="A243" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G243" s="1"/>
       <c r="H243" s="1"/>
       <c r="I243" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="J243" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
       <c r="M243" s="2" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="N243" s="1"/>
       <c r="O243" s="2">
@@ -14456,31 +14596,31 @@
     </row>
     <row r="244" ht="12.75" customHeight="1">
       <c r="A244" s="2" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="D244" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="G244" s="1"/>
       <c r="H244" s="1"/>
       <c r="I244" s="2" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="J244" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
       <c r="M244" s="2" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="N244" s="1"/>
       <c r="O244" s="2">
@@ -14500,7 +14640,7 @@
     </row>
     <row r="245" ht="12.75" customHeight="1">
       <c r="A245" s="2" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -14508,10 +14648,10 @@
         <v>29</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="G245" s="1"/>
       <c r="H245" s="1"/>
@@ -14520,7 +14660,7 @@
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
       <c r="M245" s="2" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="N245" s="1"/>
       <c r="O245" s="2">
@@ -14537,12 +14677,12 @@
       <c r="V245" s="1"/>
       <c r="W245" s="1"/>
       <c r="X245" s="2" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
     </row>
     <row r="246" ht="12.75" customHeight="1">
       <c r="A246" s="5" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>392</v>
@@ -14551,7 +14691,7 @@
         <v>505</v>
       </c>
       <c r="F246" s="5" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G246" s="11"/>
       <c r="H246" s="11"/>
@@ -14564,7 +14704,7 @@
       <c r="K246" s="11"/>
       <c r="L246" s="11"/>
       <c r="M246" s="5" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="N246" s="1"/>
       <c r="O246" s="2">
@@ -14586,28 +14726,28 @@
     </row>
     <row r="247" ht="12.75" customHeight="1">
       <c r="A247" s="5" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E247" s="5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="F247" s="5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G247" s="11"/>
       <c r="H247" s="11"/>
       <c r="I247" s="5" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J247" s="5" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="L247" s="11"/>
       <c r="M247" s="5" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="N247" s="1"/>
       <c r="O247" s="2">
@@ -14627,28 +14767,28 @@
     </row>
     <row r="248" ht="12.75" customHeight="1">
       <c r="A248" s="5" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>376</v>
       </c>
       <c r="F248" s="5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G248" s="11"/>
       <c r="H248" s="11"/>
       <c r="I248" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J248" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="J248" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="L248" s="11"/>
       <c r="M248" s="5" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="N248" s="1"/>
       <c r="O248" s="2">
@@ -14665,33 +14805,33 @@
       <c r="V248" s="1"/>
       <c r="W248" s="1"/>
       <c r="X248" s="2" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
     </row>
     <row r="249" ht="12.75" customHeight="1">
       <c r="A249" s="5" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E249" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F249" s="5" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G249" s="11"/>
       <c r="H249" s="11"/>
       <c r="I249" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J249" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="J249" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="L249" s="11"/>
       <c r="M249" s="5" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="N249" s="1"/>
       <c r="O249" s="2">
@@ -14711,28 +14851,28 @@
     </row>
     <row r="250" ht="12.75" customHeight="1">
       <c r="A250" s="5" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>392</v>
       </c>
       <c r="E250" s="5" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F250" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G250" s="11"/>
       <c r="H250" s="11"/>
       <c r="I250" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="J250" s="5" t="s">
         <v>811</v>
-      </c>
-      <c r="J250" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="L250" s="11"/>
       <c r="M250" s="5" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="N250" s="1"/>
       <c r="O250" s="2">
@@ -14752,28 +14892,28 @@
     </row>
     <row r="251" ht="12.75" customHeight="1">
       <c r="A251" s="5" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E251" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F251" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G251" s="11"/>
       <c r="H251" s="11"/>
       <c r="I251" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J251" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L251" s="11"/>
       <c r="M251" s="5" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="N251" s="1"/>
       <c r="O251" s="2">
@@ -14793,28 +14933,28 @@
     </row>
     <row r="252" ht="12.75" customHeight="1">
       <c r="A252" s="5" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G252" s="11"/>
       <c r="H252" s="11"/>
       <c r="I252" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J252" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="J252" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="L252" s="11"/>
       <c r="M252" s="5" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="N252" s="1"/>
       <c r="O252" s="2">
@@ -14834,28 +14974,28 @@
     </row>
     <row r="253" ht="12.75" customHeight="1">
       <c r="A253" s="5" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>66</v>
       </c>
       <c r="E253" s="5" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G253" s="11"/>
       <c r="H253" s="11"/>
       <c r="I253" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J253" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="J253" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="L253" s="11"/>
       <c r="M253" s="5" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="N253" s="1"/>
       <c r="O253" s="2">
@@ -14875,28 +15015,28 @@
     </row>
     <row r="254" ht="12.75" customHeight="1">
       <c r="A254" s="5" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E254" s="5" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F254" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="11"/>
       <c r="I254" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="J254" s="5" t="s">
         <v>826</v>
-      </c>
-      <c r="J254" s="5" t="s">
-        <v>823</v>
       </c>
       <c r="L254" s="11"/>
       <c r="M254" s="5" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="N254" s="1"/>
       <c r="O254" s="2">
@@ -14916,7 +15056,7 @@
     </row>
     <row r="255" ht="12.75" customHeight="1">
       <c r="A255" s="5" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>321</v>
@@ -14925,17 +15065,17 @@
         <v>376</v>
       </c>
       <c r="F255" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G255" s="11"/>
       <c r="H255" s="11"/>
       <c r="I255" s="5" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
       <c r="M255" s="5" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="N255" s="1"/>
       <c r="O255" s="2">
@@ -14955,24 +15095,24 @@
     </row>
     <row r="256" ht="12.75" customHeight="1">
       <c r="A256" s="5" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>216</v>
       </c>
       <c r="E256" s="5" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="F256" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G256" s="11"/>
       <c r="H256" s="11"/>
       <c r="I256" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J256" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L256" s="11"/>
       <c r="M256" s="11"/>
@@ -14994,16 +15134,16 @@
     </row>
     <row r="257" ht="12.75" customHeight="1">
       <c r="A257" s="5" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>307</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="G257" s="11"/>
       <c r="H257" s="11"/>
@@ -15030,7 +15170,7 @@
     </row>
     <row r="258" ht="12.75" customHeight="1">
       <c r="A258" s="5" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>209</v>
@@ -15039,7 +15179,7 @@
         <v>265</v>
       </c>
       <c r="F258" s="5" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G258" s="11"/>
       <c r="H258" s="11"/>
@@ -15066,24 +15206,24 @@
     </row>
     <row r="259" ht="12.75" customHeight="1">
       <c r="A259" s="5" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E259" s="5" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F259" s="5" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="G259" s="11"/>
       <c r="H259" s="11"/>
       <c r="I259" s="5" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="J259" s="5" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="L259" s="11"/>
       <c r="M259" s="11"/>
@@ -15105,14 +15245,14 @@
     </row>
     <row r="260" ht="12.75" customHeight="1">
       <c r="A260" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E260" s="11"/>
       <c r="F260" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G260" s="11"/>
       <c r="H260" s="11"/>
@@ -15139,16 +15279,16 @@
     </row>
     <row r="261" ht="12.75" customHeight="1">
       <c r="A261" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>602</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G261" s="11"/>
       <c r="H261" s="11"/>
@@ -15175,24 +15315,24 @@
     </row>
     <row r="262" ht="12.75" customHeight="1">
       <c r="A262" s="5" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E262" s="5" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="F262" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G262" s="11"/>
       <c r="H262" s="11"/>
       <c r="I262" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J262" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L262" s="11"/>
       <c r="M262" s="11"/>
@@ -15214,24 +15354,24 @@
     </row>
     <row r="263" ht="12.75" customHeight="1">
       <c r="A263" s="5" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G263" s="11"/>
       <c r="H263" s="11"/>
       <c r="I263" s="5" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="J263" s="5" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="L263" s="11"/>
       <c r="M263" s="11"/>
@@ -15253,24 +15393,24 @@
     </row>
     <row r="264" ht="12.75" customHeight="1">
       <c r="A264" s="5" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F264" s="5" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="G264" s="11"/>
       <c r="H264" s="11"/>
       <c r="I264" s="5" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J264" s="5" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="L264" s="11"/>
       <c r="M264" s="11"/>
@@ -15292,28 +15432,28 @@
     </row>
     <row r="265" ht="12.75" customHeight="1">
       <c r="A265" s="5" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>346</v>
       </c>
       <c r="F265" s="5" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G265" s="11"/>
       <c r="H265" s="11"/>
       <c r="I265" s="5" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="J265" s="5" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="L265" s="11"/>
       <c r="M265" s="5" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="N265" s="1"/>
       <c r="O265" s="2">
@@ -15333,24 +15473,24 @@
     </row>
     <row r="266" ht="12.75" customHeight="1">
       <c r="A266" s="5" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G266" s="11"/>
       <c r="H266" s="11"/>
       <c r="I266" s="5" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J266" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="L266" s="11"/>
       <c r="M266" s="11"/>
@@ -15372,24 +15512,24 @@
     </row>
     <row r="267" ht="12.75" customHeight="1">
       <c r="A267" s="5" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G267" s="11"/>
       <c r="H267" s="11"/>
       <c r="I267" s="5" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J267" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="L267" s="11"/>
       <c r="M267" s="11"/>
@@ -15411,14 +15551,14 @@
     </row>
     <row r="268" ht="12.75" customHeight="1">
       <c r="A268" s="5" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E268" s="11"/>
       <c r="F268" s="5" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G268" s="11"/>
       <c r="H268" s="11"/>
@@ -15445,16 +15585,16 @@
     </row>
     <row r="269" ht="12.75" customHeight="1">
       <c r="A269" s="5" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F269" s="5" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="G269" s="11"/>
       <c r="H269" s="11"/>
@@ -15481,18 +15621,18 @@
     </row>
     <row r="270" ht="12.75" customHeight="1">
       <c r="A270" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="D270" s="2" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G270" s="1"/>
       <c r="H270" s="1"/>
@@ -15501,10 +15641,10 @@
       <c r="K270" s="1"/>
       <c r="L270" s="1"/>
       <c r="M270" s="2" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="O270" s="2">
         <v>0.0</v>
@@ -15523,7 +15663,7 @@
     </row>
     <row r="271" ht="12.75" customHeight="1">
       <c r="A271" s="2" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -15531,15 +15671,15 @@
         <v>102</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="F271" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G271" s="1"/>
       <c r="H271" s="1"/>
       <c r="I271" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="J271" s="2" t="s">
         <v>521</v>
@@ -15565,7 +15705,7 @@
     </row>
     <row r="272" ht="12.75" customHeight="1">
       <c r="A272" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -15573,15 +15713,15 @@
         <v>300</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="G272" s="1"/>
       <c r="H272" s="1"/>
       <c r="I272" s="2" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="J272" s="2" t="s">
         <v>521</v>
@@ -15607,23 +15747,23 @@
     </row>
     <row r="273" ht="12.75" customHeight="1">
       <c r="A273" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="D273" s="2" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G273" s="1"/>
       <c r="H273" s="1"/>
       <c r="I273" s="2" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="J273" s="1"/>
       <c r="K273" s="1"/>
@@ -15647,12 +15787,12 @@
     </row>
     <row r="274" ht="12.75" customHeight="1">
       <c r="A274" s="2" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="D274" s="2" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
@@ -15660,7 +15800,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="2" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -15691,10 +15831,10 @@
         <v>51</v>
       </c>
       <c r="E275" s="13" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="F275" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G275" s="1"/>
       <c r="H275" s="1"/>
@@ -15703,10 +15843,10 @@
       <c r="K275" s="1"/>
       <c r="L275" s="1"/>
       <c r="M275" s="13" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="O275" s="2">
         <v>0.0</v>
@@ -15730,13 +15870,13 @@
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="D276" s="13" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E276" s="13" t="s">
         <v>286</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G276" s="1"/>
       <c r="H276" s="1"/>
@@ -15745,10 +15885,10 @@
       <c r="K276" s="1"/>
       <c r="L276" s="1"/>
       <c r="M276" s="2" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="N276" s="14" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="O276" s="2">
         <v>1.0</v>
@@ -15767,18 +15907,18 @@
     </row>
     <row r="277" ht="12.75" customHeight="1">
       <c r="A277" s="2" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="D277" s="13" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="E277" s="13" t="s">
         <v>286</v>
       </c>
       <c r="F277" s="17" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G277" s="1"/>
       <c r="H277" s="1"/>
@@ -15802,12 +15942,12 @@
       <c r="V277" s="1"/>
       <c r="W277" s="1"/>
       <c r="X277" s="2" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
     </row>
     <row r="278" ht="12.75" customHeight="1">
       <c r="A278" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -15818,7 +15958,7 @@
         <v>55</v>
       </c>
       <c r="F278" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G278" s="1"/>
       <c r="H278" s="1"/>
@@ -15849,7 +15989,7 @@
     </row>
     <row r="279" ht="12.75" customHeight="1">
       <c r="A279" s="2" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -15860,7 +16000,7 @@
         <v>55</v>
       </c>
       <c r="F279" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G279" s="1"/>
       <c r="H279" s="1"/>
@@ -15891,7 +16031,7 @@
     </row>
     <row r="280" ht="12.75" customHeight="1">
       <c r="A280" s="2" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -15902,7 +16042,7 @@
         <v>55</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G280" s="1"/>
       <c r="H280" s="1"/>
@@ -15936,7 +16076,7 @@
     </row>
     <row r="281" ht="12.75" customHeight="1">
       <c r="A281" s="2" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -15947,7 +16087,7 @@
         <v>55</v>
       </c>
       <c r="F281" s="17" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G281" s="1"/>
       <c r="H281" s="1"/>
@@ -15978,7 +16118,7 @@
     </row>
     <row r="282" ht="12.75" customHeight="1">
       <c r="A282" s="2" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -15989,15 +16129,15 @@
         <v>30</v>
       </c>
       <c r="F282" s="17" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G282" s="1"/>
       <c r="H282" s="1"/>
       <c r="I282" s="2" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="J282" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="K282" s="1"/>
       <c r="L282" s="1"/>
@@ -16020,7 +16160,7 @@
     </row>
     <row r="283" ht="12.75" customHeight="1">
       <c r="A283" s="2" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -16031,7 +16171,7 @@
         <v>210</v>
       </c>
       <c r="F283" s="17" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="G283" s="1"/>
       <c r="H283" s="1"/>
@@ -16071,7 +16211,7 @@
       </c>
       <c r="E284" s="1"/>
       <c r="F284" s="2" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="G284" s="1"/>
       <c r="H284" s="1"/>
@@ -16109,7 +16249,7 @@
         <v>210</v>
       </c>
       <c r="F285" s="13" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="G285" s="1"/>
       <c r="H285" s="1"/>
@@ -16118,7 +16258,7 @@
       <c r="K285" s="1"/>
       <c r="L285" s="1"/>
       <c r="M285" s="2" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="N285" s="1"/>
       <c r="O285" s="2">
@@ -16135,7 +16275,7 @@
       <c r="V285" s="1"/>
       <c r="W285" s="1"/>
       <c r="X285" s="2" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="286" ht="12.75" customHeight="1">
@@ -16145,13 +16285,13 @@
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="D286" s="13" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E286" s="13" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F286" s="13" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="G286" s="1"/>
       <c r="H286" s="1"/>
@@ -16160,7 +16300,7 @@
       <c r="K286" s="1"/>
       <c r="L286" s="1"/>
       <c r="M286" s="2" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="N286" s="1"/>
       <c r="O286" s="2">
@@ -16177,12 +16317,12 @@
       <c r="V286" s="1"/>
       <c r="W286" s="1"/>
       <c r="X286" s="19" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
     </row>
     <row r="287" ht="12.75" customHeight="1">
       <c r="A287" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -16193,12 +16333,12 @@
         <v>180</v>
       </c>
       <c r="F287" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="G287" s="1"/>
       <c r="H287" s="1"/>
       <c r="I287" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="J287" s="2" t="s">
         <v>547</v>
@@ -16224,12 +16364,12 @@
     </row>
     <row r="288" ht="12.75" customHeight="1">
       <c r="A288" s="2" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="D288" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>88</v>
@@ -16260,7 +16400,7 @@
     </row>
     <row r="289" ht="12.75" customHeight="1">
       <c r="A289" s="2" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -16271,15 +16411,15 @@
         <v>153</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="G289" s="1"/>
       <c r="H289" s="1"/>
       <c r="I289" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="J289" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="K289" s="1"/>
       <c r="L289" s="1"/>
@@ -16302,26 +16442,26 @@
     </row>
     <row r="290" ht="12.75" customHeight="1">
       <c r="A290" s="2" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="D290" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E290" s="19" t="s">
         <v>153</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="G290" s="1"/>
       <c r="H290" s="1"/>
       <c r="I290" s="2" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="J290" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="K290" s="1"/>
       <c r="L290" s="1"/>
@@ -16344,7 +16484,7 @@
     </row>
     <row r="291" ht="12.75" customHeight="1">
       <c r="A291" s="2" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -16353,7 +16493,7 @@
       </c>
       <c r="E291" s="1"/>
       <c r="F291" s="2" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="G291" s="1"/>
       <c r="H291" s="1"/>
@@ -16380,7 +16520,7 @@
     </row>
     <row r="292" ht="12.75" customHeight="1">
       <c r="A292" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -16388,7 +16528,7 @@
         <v>345</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>103</v>
@@ -16399,7 +16539,7 @@
         <v>109</v>
       </c>
       <c r="J292" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="K292" s="1"/>
       <c r="L292" s="1"/>
@@ -16422,7 +16562,7 @@
     </row>
     <row r="293" ht="12.75" customHeight="1">
       <c r="A293" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -16438,15 +16578,15 @@
       <c r="G293" s="1"/>
       <c r="H293" s="1"/>
       <c r="I293" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="J293" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="K293" s="1"/>
       <c r="L293" s="1"/>
       <c r="M293" s="2" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="N293" s="1"/>
       <c r="O293" s="2">
@@ -16466,7 +16606,7 @@
     </row>
     <row r="294" ht="12.75" customHeight="1">
       <c r="A294" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -16482,15 +16622,15 @@
       <c r="G294" s="1"/>
       <c r="H294" s="1"/>
       <c r="I294" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="J294" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="K294" s="1"/>
       <c r="L294" s="1"/>
       <c r="M294" s="2" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="N294" s="1"/>
       <c r="O294" s="2">
@@ -16507,12 +16647,12 @@
       <c r="V294" s="1"/>
       <c r="W294" s="1"/>
       <c r="X294" s="2" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
     </row>
     <row r="295" ht="12.75" customHeight="1">
       <c r="A295" s="2" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -16520,10 +16660,10 @@
         <v>197</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="G295" s="1"/>
       <c r="H295" s="1"/>
@@ -16532,7 +16672,7 @@
       <c r="K295" s="1"/>
       <c r="L295" s="1"/>
       <c r="M295" s="2" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="N295" s="1"/>
       <c r="O295" s="2">
@@ -16552,18 +16692,18 @@
     </row>
     <row r="296" ht="12.75" customHeight="1">
       <c r="A296" s="2" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="D296" s="2" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>575</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="G296" s="1"/>
       <c r="H296" s="1"/>
@@ -16572,7 +16712,7 @@
       <c r="K296" s="1"/>
       <c r="L296" s="1"/>
       <c r="M296" s="2" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="N296" s="1"/>
       <c r="O296" s="2">
@@ -16589,17 +16729,17 @@
       <c r="V296" s="1"/>
       <c r="W296" s="1"/>
       <c r="X296" s="2" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="297" ht="12.75" customHeight="1">
       <c r="A297" s="2" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="D297" s="2" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E297" s="1" t="s">
         <v>55</v>
@@ -16636,12 +16776,12 @@
     </row>
     <row r="298" ht="12.75" customHeight="1">
       <c r="A298" s="2" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="D298" s="2" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>55</v>
@@ -16678,7 +16818,7 @@
     </row>
     <row r="299" ht="12.75" customHeight="1">
       <c r="A299" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -16697,7 +16837,7 @@
         <v>108</v>
       </c>
       <c r="J299" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="K299" s="1"/>
       <c r="L299" s="1"/>
@@ -16720,7 +16860,7 @@
     </row>
     <row r="300" ht="12.75" customHeight="1">
       <c r="A300" s="2" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -16728,7 +16868,7 @@
         <v>176</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>129</v>
@@ -16755,31 +16895,31 @@
       <c r="V300" s="1"/>
       <c r="W300" s="1"/>
       <c r="X300" s="2" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
     </row>
     <row r="301" ht="12.75" customHeight="1">
       <c r="A301" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="D301" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E301" s="2" t="s">
         <v>162</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="G301" s="1"/>
       <c r="H301" s="1"/>
       <c r="I301" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="J301" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="K301" s="1"/>
       <c r="L301" s="1"/>
@@ -16802,7 +16942,7 @@
     </row>
     <row r="302" ht="12.75" customHeight="1">
       <c r="A302" s="2" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -16811,7 +16951,7 @@
       </c>
       <c r="E302" s="1"/>
       <c r="F302" s="2" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="G302" s="1"/>
       <c r="H302" s="1"/>
@@ -16838,15 +16978,15 @@
     </row>
     <row r="303" ht="12.75" customHeight="1">
       <c r="A303" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
       <c r="D303" s="16" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="F303" s="2" t="s">
         <v>103</v>
@@ -16855,7 +16995,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="2" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="K303" s="1"/>
       <c r="L303" s="1"/>
@@ -16875,17 +17015,17 @@
       <c r="V303" s="1"/>
       <c r="W303" s="1"/>
       <c r="X303" s="2" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="2" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
       <c r="D304" s="2" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
@@ -16893,7 +17033,7 @@
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="K304" s="1"/>
       <c r="L304" s="1"/>
@@ -16916,7 +17056,7 @@
     </row>
     <row r="305" ht="12.75" customHeight="1">
       <c r="A305" s="2" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -16929,7 +17069,7 @@
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="2" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="K305" s="1"/>
       <c r="L305" s="1"/>
@@ -16952,7 +17092,7 @@
     </row>
     <row r="306" ht="12.75" customHeight="1">
       <c r="A306" s="2" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -16966,7 +17106,7 @@
       <c r="G306" s="1"/>
       <c r="H306" s="1"/>
       <c r="I306" s="2" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="J306" s="1"/>
       <c r="K306" s="1"/>
@@ -16990,7 +17130,7 @@
     </row>
     <row r="307" ht="12.75" customHeight="1">
       <c r="A307" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -17028,7 +17168,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -17047,7 +17187,7 @@
         <v>109</v>
       </c>
       <c r="J308" s="2" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="K308" s="1"/>
       <c r="L308" s="1"/>
@@ -17070,7 +17210,7 @@
     </row>
     <row r="309" ht="12.75" customHeight="1">
       <c r="A309" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -17079,7 +17219,7 @@
       </c>
       <c r="E309" s="1"/>
       <c r="F309" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="G309" s="1"/>
       <c r="H309" s="1"/>
@@ -17106,26 +17246,26 @@
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="2" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
       <c r="D310" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>376</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="G310" s="1"/>
       <c r="H310" s="1"/>
       <c r="I310" s="2" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="J310" s="2" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="K310" s="1"/>
       <c r="L310" s="1"/>
@@ -17148,7 +17288,7 @@
     </row>
     <row r="311" ht="12.75" customHeight="1">
       <c r="A311" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -17156,10 +17296,10 @@
         <v>194</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="G311" s="1"/>
       <c r="H311" s="1"/>
@@ -17186,7 +17326,7 @@
     </row>
     <row r="312" ht="12.75" customHeight="1">
       <c r="A312" s="2" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -17205,7 +17345,7 @@
         <v>104</v>
       </c>
       <c r="J312" s="2" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -17225,7 +17365,7 @@
       <c r="V312" s="1"/>
       <c r="W312" s="1"/>
       <c r="X312" s="2" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
     </row>
     <row r="313" ht="12.75" customHeight="1">
@@ -17235,7 +17375,7 @@
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
       <c r="D313" s="2" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>585</v>
@@ -17268,7 +17408,7 @@
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="2" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -17306,7 +17446,7 @@
     </row>
     <row r="315" ht="12.75" customHeight="1">
       <c r="A315" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -17314,7 +17454,7 @@
         <v>194</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>231</v>
@@ -17348,7 +17488,7 @@
     </row>
     <row r="316" ht="12.75" customHeight="1">
       <c r="A316" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -17384,7 +17524,7 @@
     </row>
     <row r="317" ht="12.75" customHeight="1">
       <c r="A317" s="2" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -17398,10 +17538,10 @@
       <c r="G317" s="1"/>
       <c r="H317" s="1"/>
       <c r="I317" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J317" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -17424,12 +17564,12 @@
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="2" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
       <c r="D318" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>180</v>
@@ -17438,10 +17578,10 @@
       <c r="G318" s="1"/>
       <c r="H318" s="1"/>
       <c r="I318" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J318" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -17464,7 +17604,7 @@
     </row>
     <row r="319" ht="12.75" customHeight="1">
       <c r="A319" s="2" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -17478,10 +17618,10 @@
       <c r="G319" s="1"/>
       <c r="H319" s="1"/>
       <c r="I319" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J319" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -17504,7 +17644,7 @@
     </row>
     <row r="320" ht="12.75" customHeight="1">
       <c r="A320" s="2" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -17518,10 +17658,10 @@
       <c r="G320" s="1"/>
       <c r="H320" s="1"/>
       <c r="I320" s="2" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="J320" s="2" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -17544,12 +17684,12 @@
     </row>
     <row r="321" ht="12.75" customHeight="1">
       <c r="A321" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
       <c r="D321" s="2" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E321" s="2" t="s">
         <v>315</v>
@@ -17560,7 +17700,7 @@
       <c r="G321" s="1"/>
       <c r="H321" s="1"/>
       <c r="I321" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="J321" s="1"/>
       <c r="K321" s="1"/>
@@ -17586,12 +17726,12 @@
     </row>
     <row r="322" ht="12.75" customHeight="1">
       <c r="A322" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
       <c r="D322" s="2" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E322" s="1"/>
       <c r="F322" s="2" t="s">
@@ -17622,21 +17762,21 @@
     </row>
     <row r="323" ht="12.75" customHeight="1">
       <c r="A323" s="2" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
       <c r="D323" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
       <c r="G323" s="1"/>
       <c r="I323" s="2" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="J323" s="2" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -17659,12 +17799,12 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="2" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
       <c r="D324" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
@@ -17696,19 +17836,19 @@
     </row>
     <row r="325" ht="12.75" customHeight="1">
       <c r="A325" s="2" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
       <c r="D325" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
       <c r="G325" s="1"/>
       <c r="H325" s="1"/>
       <c r="I325" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="J325" s="1"/>
       <c r="K325" s="1"/>
@@ -17732,12 +17872,12 @@
     </row>
     <row r="326" ht="12.75" customHeight="1">
       <c r="A326" s="2" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
       <c r="D326" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
@@ -17745,7 +17885,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="K326" s="1"/>
       <c r="L326" s="1"/>
@@ -17768,19 +17908,19 @@
     </row>
     <row r="327" ht="12.75" customHeight="1">
       <c r="A327" s="2" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
       <c r="D327" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
       <c r="G327" s="1"/>
       <c r="H327" s="1"/>
       <c r="I327" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="J327" s="1"/>
       <c r="K327" s="1"/>
@@ -17804,12 +17944,12 @@
     </row>
     <row r="328" ht="12.75" customHeight="1">
       <c r="A328" s="2" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
       <c r="D328" s="2" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
@@ -17838,7 +17978,7 @@
     </row>
     <row r="329" ht="12.75" customHeight="1">
       <c r="A329" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -17857,7 +17997,7 @@
         <v>242</v>
       </c>
       <c r="J329" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K329" s="1"/>
       <c r="L329" s="1"/>
@@ -17882,7 +18022,7 @@
     </row>
     <row r="330" ht="12.75" customHeight="1">
       <c r="A330" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -17901,7 +18041,7 @@
         <v>242</v>
       </c>
       <c r="J330" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K330" s="1"/>
       <c r="L330" s="1"/>
@@ -17926,7 +18066,7 @@
     </row>
     <row r="331" ht="12.75" customHeight="1">
       <c r="A331" s="2" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -17945,7 +18085,7 @@
         <v>242</v>
       </c>
       <c r="J331" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K331" s="1"/>
       <c r="L331" s="1"/>
@@ -17967,12 +18107,12 @@
       <c r="V331" s="1"/>
       <c r="W331" s="1"/>
       <c r="X331" s="9" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="332" ht="12.75" customHeight="1">
       <c r="A332" s="2" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -17991,7 +18131,7 @@
         <v>242</v>
       </c>
       <c r="J332" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K332" s="1"/>
       <c r="L332" s="1"/>
@@ -18013,12 +18153,12 @@
       <c r="V332" s="1"/>
       <c r="W332" s="1"/>
       <c r="X332" s="9" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
     </row>
     <row r="333" ht="12.75" customHeight="1">
       <c r="A333" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -18037,7 +18177,7 @@
         <v>242</v>
       </c>
       <c r="J333" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="K333" s="1"/>
       <c r="L333" s="1"/>
@@ -18062,7 +18202,7 @@
     </row>
     <row r="334" ht="12.75" customHeight="1">
       <c r="A334" s="2" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -18100,7 +18240,7 @@
     </row>
     <row r="335" ht="12.75" customHeight="1">
       <c r="A335" s="2" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -18108,7 +18248,7 @@
         <v>194</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F335" s="2" t="s">
         <v>231</v>
@@ -18117,7 +18257,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="2" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="K335" s="1"/>
       <c r="L335" s="1"/>
@@ -18142,12 +18282,12 @@
     </row>
     <row r="336" ht="12.75" customHeight="1">
       <c r="A336" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
       <c r="D336" s="9" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E336" s="1"/>
       <c r="F336" s="2" t="s">
@@ -18157,7 +18297,7 @@
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="2" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="K336" s="1"/>
       <c r="L336" s="1"/>
@@ -18182,7 +18322,7 @@
     </row>
     <row r="337" ht="12.75" customHeight="1">
       <c r="A337" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -18198,7 +18338,7 @@
       <c r="G337" s="1"/>
       <c r="H337" s="1"/>
       <c r="I337" s="2" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="J337" s="1"/>
       <c r="K337" s="1"/>
@@ -18222,12 +18362,12 @@
     </row>
     <row r="338" ht="12.75" customHeight="1">
       <c r="A338" s="2" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
       <c r="D338" s="2" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E338" s="1"/>
       <c r="F338" s="2" t="s">
@@ -18237,7 +18377,7 @@
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="2" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="K338" s="1"/>
       <c r="L338" s="1"/>
@@ -18262,12 +18402,12 @@
     </row>
     <row r="339" ht="12.75" customHeight="1">
       <c r="A339" s="2" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
       <c r="D339" s="2" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>68</v>
@@ -18278,7 +18418,7 @@
       <c r="G339" s="1"/>
       <c r="H339" s="1"/>
       <c r="I339" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="J339" s="1"/>
       <c r="K339" s="1"/>
@@ -18304,7 +18444,7 @@
     </row>
     <row r="340" ht="12.75" customHeight="1">
       <c r="A340" s="2" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -18320,7 +18460,7 @@
       <c r="G340" s="1"/>
       <c r="H340" s="1"/>
       <c r="I340" s="2" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="J340" s="1"/>
       <c r="K340" s="1"/>
@@ -18346,7 +18486,7 @@
     </row>
     <row r="341" ht="12.75" customHeight="1">
       <c r="A341" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -18361,7 +18501,7 @@
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="2" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="K341" s="1"/>
       <c r="L341" s="1"/>
@@ -18388,7 +18528,7 @@
     </row>
     <row r="342" ht="12.75" customHeight="1">
       <c r="A342" s="2" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -18404,7 +18544,7 @@
       <c r="G342" s="1"/>
       <c r="H342" s="1"/>
       <c r="I342" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="J342" s="1"/>
       <c r="K342" s="1"/>
@@ -18428,7 +18568,7 @@
     </row>
     <row r="343" ht="12.75" customHeight="1">
       <c r="A343" s="2" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -18444,7 +18584,7 @@
       <c r="G343" s="1"/>
       <c r="H343" s="1"/>
       <c r="I343" s="2" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="J343" s="1"/>
       <c r="K343" s="1"/>
@@ -18468,7 +18608,7 @@
     </row>
     <row r="344" ht="12.75" customHeight="1">
       <c r="A344" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -18484,10 +18624,10 @@
       <c r="G344" s="1"/>
       <c r="H344" s="1"/>
       <c r="I344" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="J344" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="K344" s="1"/>
       <c r="L344" s="1"/>
@@ -18507,17 +18647,17 @@
       <c r="V344" s="1"/>
       <c r="W344" s="1"/>
       <c r="X344" s="2" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
     </row>
     <row r="345" ht="12.75" customHeight="1">
       <c r="A345" s="2" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
       <c r="D345" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E345" s="2" t="s">
         <v>265</v>
@@ -18550,7 +18690,7 @@
     </row>
     <row r="346" ht="12.75" customHeight="1">
       <c r="A346" s="2" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -18564,7 +18704,7 @@
       <c r="G346" s="1"/>
       <c r="H346" s="1"/>
       <c r="I346" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="J346" s="1"/>
       <c r="K346" s="1"/>
@@ -18588,7 +18728,7 @@
     </row>
     <row r="347" ht="12.75" customHeight="1">
       <c r="A347" s="2" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -18599,7 +18739,7 @@
         <v>103</v>
       </c>
       <c r="I347" s="2" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
@@ -18622,7 +18762,7 @@
     </row>
     <row r="348" ht="12.75" customHeight="1">
       <c r="A348" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -18638,7 +18778,7 @@
       <c r="G348" s="1"/>
       <c r="H348" s="1"/>
       <c r="I348" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="J348" s="2" t="s">
         <v>112</v>
@@ -18664,7 +18804,7 @@
     </row>
     <row r="349" ht="12.75" customHeight="1">
       <c r="A349" s="2" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -18702,12 +18842,12 @@
     </row>
     <row r="350" ht="12.75" customHeight="1">
       <c r="A350" s="2" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
       <c r="D350" s="2" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>162</v>
@@ -18718,10 +18858,10 @@
       <c r="G350" s="1"/>
       <c r="H350" s="1"/>
       <c r="I350" s="2" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="J350" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="K350" s="1"/>
       <c r="L350" s="1"/>
@@ -18744,7 +18884,7 @@
     </row>
     <row r="351" ht="12.75" customHeight="1">
       <c r="A351" s="2" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -18782,7 +18922,7 @@
     </row>
     <row r="352" ht="12.75" customHeight="1">
       <c r="A352" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -18791,7 +18931,7 @@
       </c>
       <c r="E352" s="1"/>
       <c r="F352" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="G352" s="1"/>
       <c r="H352" s="1"/>
@@ -18818,7 +18958,7 @@
     </row>
     <row r="353" ht="12.75" customHeight="1">
       <c r="A353" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -18829,12 +18969,12 @@
         <v>77</v>
       </c>
       <c r="F353" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="G353" s="1"/>
       <c r="H353" s="1"/>
       <c r="I353" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="J353" s="2" t="s">
         <v>110</v>
@@ -18860,19 +19000,19 @@
     </row>
     <row r="354" ht="12.75" customHeight="1">
       <c r="A354" s="2" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
       <c r="D354" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
       <c r="G354" s="1"/>
       <c r="H354" s="1"/>
       <c r="I354" s="2" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="J354" s="2" t="s">
         <v>110</v>
@@ -18898,12 +19038,12 @@
     </row>
     <row r="355" ht="12.75" customHeight="1">
       <c r="A355" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
       <c r="D355" s="2" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>315</v>
@@ -18933,12 +19073,12 @@
       <c r="V355" s="1"/>
       <c r="W355" s="1"/>
       <c r="X355" s="2" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="356" ht="12.75" customHeight="1">
       <c r="A356" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -18946,18 +19086,18 @@
         <v>264</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F356" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="G356" s="1"/>
       <c r="H356" s="1"/>
       <c r="I356" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="J356" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="K356" s="1"/>
       <c r="L356" s="1"/>
@@ -18977,12 +19117,12 @@
       <c r="V356" s="1"/>
       <c r="W356" s="1"/>
       <c r="X356" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="357" ht="12.75" customHeight="1">
       <c r="A357" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -18990,7 +19130,7 @@
         <v>161</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F357" s="2" t="s">
         <v>111</v>
@@ -18998,10 +19138,10 @@
       <c r="G357" s="1"/>
       <c r="H357" s="1"/>
       <c r="I357" s="2" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="J357" s="2" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
@@ -19021,12 +19161,12 @@
       <c r="V357" s="1"/>
       <c r="W357" s="1"/>
       <c r="X357" s="2" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="358" ht="12.75" customHeight="1">
       <c r="A358" s="2" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -19035,13 +19175,13 @@
       </c>
       <c r="E358" s="1"/>
       <c r="F358" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G358" s="1"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -19064,7 +19204,7 @@
     </row>
     <row r="359" ht="12.75" customHeight="1">
       <c r="A359" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -19073,13 +19213,13 @@
       </c>
       <c r="E359" s="1"/>
       <c r="F359" s="2" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="G359" s="1"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="2" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
@@ -19102,7 +19242,7 @@
     </row>
     <row r="360" ht="12.75" customHeight="1">
       <c r="A360" s="2" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -19111,13 +19251,13 @@
       </c>
       <c r="E360" s="1"/>
       <c r="F360" s="2" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="G360" s="1"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="2" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="K360" s="1"/>
       <c r="L360" s="1"/>
@@ -19140,7 +19280,7 @@
     </row>
     <row r="361" ht="12.75" customHeight="1">
       <c r="A361" s="2" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -19148,7 +19288,7 @@
         <v>29</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F361" s="2" t="s">
         <v>129</v>
@@ -19156,10 +19296,10 @@
       <c r="G361" s="1"/>
       <c r="H361" s="1"/>
       <c r="I361" s="2" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="J361" s="2" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -19182,7 +19322,7 @@
     </row>
     <row r="362" ht="12.75" customHeight="1">
       <c r="A362" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -19191,13 +19331,13 @@
       </c>
       <c r="E362" s="1"/>
       <c r="F362" s="2" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="G362" s="1"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="2" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -19220,12 +19360,12 @@
     </row>
     <row r="363" ht="12.75" customHeight="1">
       <c r="A363" s="2" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
       <c r="D363" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
@@ -19233,7 +19373,7 @@
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="2" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -19264,7 +19404,7 @@
         <v>72</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="F364" s="2" t="s">
         <v>103</v>
@@ -19291,12 +19431,12 @@
       <c r="V364" s="1"/>
       <c r="W364" s="1"/>
       <c r="X364" s="2" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="365" ht="12.75" customHeight="1">
       <c r="A365" s="5" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -19307,7 +19447,7 @@
         <v>575</v>
       </c>
       <c r="F365" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G365" s="11"/>
       <c r="H365" s="11"/>
@@ -19336,12 +19476,12 @@
     </row>
     <row r="366" ht="12.75" customHeight="1">
       <c r="A366" s="5" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="5" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="E366" s="11"/>
       <c r="F366" s="11"/>
@@ -19370,7 +19510,7 @@
     </row>
     <row r="367" ht="12.75" customHeight="1">
       <c r="A367" s="5" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -19381,7 +19521,7 @@
         <v>68</v>
       </c>
       <c r="F367" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G367" s="11"/>
       <c r="H367" s="11"/>
@@ -19419,7 +19559,7 @@
         <v>77</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="G368" s="11"/>
       <c r="H368" s="11"/>
@@ -19446,7 +19586,7 @@
     </row>
     <row r="369" ht="12.75" customHeight="1">
       <c r="A369" s="5" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -19457,7 +19597,7 @@
         <v>575</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G369" s="11"/>
       <c r="H369" s="11"/>
@@ -19486,7 +19626,7 @@
     </row>
     <row r="370" ht="12.75" customHeight="1">
       <c r="A370" s="5" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -19497,7 +19637,7 @@
         <v>286</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="G370" s="11"/>
       <c r="H370" s="11"/>
@@ -19528,25 +19668,25 @@
     </row>
     <row r="371" ht="12.75" customHeight="1">
       <c r="A371" s="5" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="5" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>177</v>
       </c>
       <c r="F371" s="5" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H371" s="11"/>
       <c r="I371" s="5" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="J371" s="5" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="K371" s="11"/>
       <c r="L371" s="11"/>
@@ -19559,7 +19699,7 @@
         <v>1.0</v>
       </c>
       <c r="Q371" s="5" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
@@ -19571,7 +19711,7 @@
     </row>
     <row r="372" ht="12.75" customHeight="1">
       <c r="A372" s="5" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -19579,17 +19719,17 @@
         <v>45</v>
       </c>
       <c r="E372" s="5" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="H372" s="11"/>
       <c r="I372" s="5" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="J372" s="5" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="K372" s="11"/>
       <c r="L372" s="11"/>
@@ -19612,7 +19752,7 @@
     </row>
     <row r="373" ht="12.75" customHeight="1">
       <c r="A373" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -19623,15 +19763,15 @@
         <v>68</v>
       </c>
       <c r="F373" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G373" s="11"/>
       <c r="H373" s="11"/>
       <c r="I373" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J373" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K373" s="11"/>
       <c r="L373" s="11"/>
@@ -19656,7 +19796,7 @@
     </row>
     <row r="374" ht="12.75" customHeight="1">
       <c r="A374" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -19664,10 +19804,10 @@
         <v>29</v>
       </c>
       <c r="E374" s="5" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F374" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G374" s="11"/>
       <c r="H374" s="11"/>
@@ -19694,18 +19834,18 @@
     </row>
     <row r="375" ht="12.75" customHeight="1">
       <c r="A375" s="5" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B375" s="11"/>
       <c r="C375" s="11"/>
       <c r="D375" s="5" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E375" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F375" s="5" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H375" s="11"/>
       <c r="I375" s="11"/>
@@ -19731,7 +19871,7 @@
     </row>
     <row r="376" ht="12.75" customHeight="1">
       <c r="A376" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -19742,20 +19882,20 @@
         <v>60</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G376" s="11"/>
       <c r="H376" s="11"/>
       <c r="I376" s="5" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="J376" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K376" s="11"/>
       <c r="L376" s="11"/>
-      <c r="M376" s="5">
-        <v>1858.0</v>
+      <c r="M376" s="5" t="s">
+        <v>1054</v>
       </c>
       <c r="N376" s="5">
         <v>1930.0</v>
@@ -19777,7 +19917,7 @@
     </row>
     <row r="377" ht="12.75" customHeight="1">
       <c r="A377" s="5" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -19788,15 +19928,15 @@
         <v>575</v>
       </c>
       <c r="F377" s="5" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="G377" s="11"/>
       <c r="H377" s="11"/>
       <c r="I377" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J377" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K377" s="11"/>
       <c r="L377" s="11"/>
@@ -19816,12 +19956,12 @@
       <c r="V377" s="1"/>
       <c r="W377" s="1"/>
       <c r="X377" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="378" ht="12.75" customHeight="1">
       <c r="A378" s="5" t="s">
-        <v>1054</v>
+        <v>1058</v>
       </c>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -19829,17 +19969,17 @@
         <v>300</v>
       </c>
       <c r="E378" s="5" t="s">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="F378" s="5" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H378" s="11"/>
       <c r="I378" s="5" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="J378" s="5" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="K378" s="11"/>
       <c r="L378" s="11"/>
@@ -19862,7 +20002,7 @@
     </row>
     <row r="379" ht="12.75" customHeight="1">
       <c r="A379" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -19870,10 +20010,10 @@
         <v>66</v>
       </c>
       <c r="E379" s="5" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G379" s="11"/>
       <c r="H379" s="11"/>
@@ -19902,7 +20042,7 @@
     </row>
     <row r="380" ht="12.75" customHeight="1">
       <c r="A380" s="5" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -19913,23 +20053,23 @@
         <v>575</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="G380" s="11"/>
       <c r="H380" s="11"/>
       <c r="I380" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J380" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K380" s="11"/>
       <c r="L380" s="11"/>
       <c r="M380" s="5" t="s">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="N380" s="5" t="s">
-        <v>1061</v>
+        <v>1065</v>
       </c>
       <c r="O380" s="5">
         <v>1.0</v>
@@ -19945,12 +20085,12 @@
       <c r="V380" s="1"/>
       <c r="W380" s="1"/>
       <c r="X380" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="381" ht="12.75" customHeight="1">
       <c r="A381" s="5" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -19958,23 +20098,23 @@
         <v>72</v>
       </c>
       <c r="E381" s="5" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="F381" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G381" s="11"/>
       <c r="H381" s="11"/>
       <c r="I381" s="5" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="J381" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="K381" s="11"/>
       <c r="L381" s="11"/>
-      <c r="M381" s="5">
-        <v>1819.0</v>
+      <c r="M381" s="5" t="s">
+        <v>1068</v>
       </c>
       <c r="N381" s="5">
         <v>1857.0</v>
@@ -19996,7 +20136,7 @@
     </row>
     <row r="382" ht="12.75" customHeight="1">
       <c r="A382" s="5" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -20007,23 +20147,23 @@
         <v>68</v>
       </c>
       <c r="F382" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G382" s="11"/>
       <c r="H382" s="11"/>
       <c r="I382" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J382" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K382" s="11"/>
       <c r="L382" s="11"/>
       <c r="M382" s="5" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="N382" s="5" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
       <c r="O382" s="5">
         <v>0.0</v>
@@ -20042,7 +20182,7 @@
     </row>
     <row r="383" ht="12.75" customHeight="1">
       <c r="A383" s="5" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -20053,15 +20193,15 @@
         <v>68</v>
       </c>
       <c r="F383" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G383" s="11"/>
       <c r="H383" s="11"/>
       <c r="I383" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J383" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K383" s="11"/>
       <c r="L383" s="11"/>
@@ -20088,7 +20228,7 @@
     </row>
     <row r="384" ht="12.75" customHeight="1">
       <c r="A384" s="5" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -20120,7 +20260,7 @@
     </row>
     <row r="385" ht="12.75" customHeight="1">
       <c r="A385" s="5" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -20152,7 +20292,7 @@
     </row>
     <row r="386" ht="12.75" customHeight="1">
       <c r="A386" s="5" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -20163,23 +20303,23 @@
         <v>575</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G386" s="11"/>
       <c r="H386" s="11"/>
       <c r="I386" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J386" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K386" s="11"/>
       <c r="L386" s="11"/>
       <c r="M386" s="5" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="N386" s="5" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="O386" s="5">
         <v>1.0</v>
@@ -20198,7 +20338,7 @@
     </row>
     <row r="387" ht="12.75" customHeight="1">
       <c r="A387" s="5" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="B387" s="11"/>
       <c r="C387" s="11"/>
@@ -20209,7 +20349,7 @@
         <v>575</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="H387" s="11"/>
       <c r="I387" s="11"/>
@@ -20235,7 +20375,7 @@
     </row>
     <row r="388" ht="12.75" customHeight="1">
       <c r="A388" s="5" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -20246,15 +20386,15 @@
         <v>68</v>
       </c>
       <c r="F388" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G388" s="11"/>
       <c r="H388" s="11"/>
       <c r="I388" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J388" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K388" s="11"/>
       <c r="L388" s="11"/>
@@ -20277,18 +20417,18 @@
     </row>
     <row r="389" ht="12.75" customHeight="1">
       <c r="A389" s="5" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
       <c r="D389" s="5" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>60</v>
       </c>
       <c r="F389" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G389" s="11"/>
       <c r="H389" s="11"/>
@@ -20299,8 +20439,8 @@
       <c r="M389" s="5">
         <v>1770.0</v>
       </c>
-      <c r="N389" s="5">
-        <v>1835.0</v>
+      <c r="N389" s="5" t="s">
+        <v>1080</v>
       </c>
       <c r="O389" s="5">
         <v>0.0</v>
@@ -20319,7 +20459,7 @@
     </row>
     <row r="390" ht="12.75" customHeight="1">
       <c r="A390" s="5" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -20358,26 +20498,26 @@
     </row>
     <row r="391" ht="12.75" customHeight="1">
       <c r="A391" s="5" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
       <c r="D391" s="5" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>37</v>
       </c>
       <c r="F391" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G391" s="11"/>
       <c r="H391" s="11"/>
       <c r="I391" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J391" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="K391" s="11"/>
       <c r="L391" s="11"/>
@@ -20404,18 +20544,18 @@
     </row>
     <row r="392" ht="12.75" customHeight="1">
       <c r="A392" s="5" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
       <c r="D392" s="5" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F392" s="5" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="G392" s="11"/>
       <c r="H392" s="11"/>
@@ -20444,7 +20584,7 @@
     </row>
     <row r="393" ht="12.75" customHeight="1">
       <c r="A393" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -20452,18 +20592,18 @@
         <v>51</v>
       </c>
       <c r="E393" s="5" t="s">
-        <v>1062</v>
+        <v>1066</v>
       </c>
       <c r="F393" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G393" s="11"/>
       <c r="H393" s="11"/>
       <c r="I393" s="5" t="s">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="J393" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="K393" s="11"/>
       <c r="L393" s="11"/>
@@ -20490,7 +20630,7 @@
     </row>
     <row r="394" ht="12.75" customHeight="1">
       <c r="A394" s="5" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -20498,10 +20638,10 @@
         <v>426</v>
       </c>
       <c r="E394" s="5" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="F394" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G394" s="11"/>
       <c r="H394" s="11"/>
@@ -20528,7 +20668,7 @@
     </row>
     <row r="395" ht="12.75" customHeight="1">
       <c r="A395" s="5" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -20539,15 +20679,15 @@
         <v>37</v>
       </c>
       <c r="F395" s="5" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="G395" s="11"/>
       <c r="H395" s="11"/>
       <c r="I395" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J395" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="K395" s="11"/>
       <c r="L395" s="11"/>
@@ -20571,23 +20711,23 @@
       <c r="V395" s="1"/>
       <c r="W395" s="1"/>
       <c r="X395" s="2" t="s">
-        <v>1053</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="396" ht="12.75" customHeight="1">
       <c r="A396" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
       <c r="D396" s="5" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="H396" s="11"/>
       <c r="I396" s="11"/>
@@ -20610,12 +20750,12 @@
       <c r="V396" s="1"/>
       <c r="W396" s="1"/>
       <c r="X396" s="2" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="397" ht="12.75" customHeight="1">
       <c r="A397" s="5" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -20626,15 +20766,15 @@
         <v>68</v>
       </c>
       <c r="F397" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G397" s="11"/>
       <c r="H397" s="11"/>
       <c r="I397" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="J397" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K397" s="11"/>
       <c r="L397" s="11"/>
@@ -20659,7 +20799,7 @@
     </row>
     <row r="398" ht="12.75" customHeight="1">
       <c r="A398" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -20691,7 +20831,7 @@
     </row>
     <row r="399" ht="12.75" customHeight="1">
       <c r="A399" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -20702,7 +20842,7 @@
         <v>286</v>
       </c>
       <c r="F399" s="5" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="G399" s="11"/>
       <c r="H399" s="11"/>
@@ -20733,26 +20873,26 @@
     </row>
     <row r="400" ht="12.75" customHeight="1">
       <c r="A400" s="5" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
       <c r="D400" s="5" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>55</v>
       </c>
       <c r="F400" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
       <c r="I400" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="J400" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="K400" s="11"/>
       <c r="L400" s="11"/>
@@ -20777,18 +20917,18 @@
     </row>
     <row r="401" ht="12.75" customHeight="1">
       <c r="A401" s="5" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
       <c r="D401" s="5" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="E401" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F401" s="5" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="H401" s="11"/>
       <c r="I401" s="11"/>
@@ -20814,7 +20954,7 @@
     </row>
     <row r="402" ht="12.75" customHeight="1">
       <c r="A402" s="5" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -20825,20 +20965,20 @@
         <v>60</v>
       </c>
       <c r="F402" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G402" s="11"/>
       <c r="H402" s="11"/>
       <c r="I402" s="5" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="J402" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K402" s="11"/>
       <c r="L402" s="11"/>
-      <c r="M402" s="5">
-        <v>1844.0</v>
+      <c r="M402" s="5" t="s">
+        <v>1102</v>
       </c>
       <c r="N402" s="11"/>
       <c r="O402" s="5">
@@ -20858,7 +20998,7 @@
     </row>
     <row r="403" ht="12.75" customHeight="1">
       <c r="A403" s="5" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -20869,15 +21009,15 @@
         <v>37</v>
       </c>
       <c r="F403" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G403" s="11"/>
       <c r="H403" s="11"/>
       <c r="I403" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J403" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="K403" s="11"/>
       <c r="L403" s="11"/>
@@ -20897,12 +21037,12 @@
       <c r="V403" s="1"/>
       <c r="W403" s="1"/>
       <c r="X403" s="2" t="s">
-        <v>1097</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="404" ht="12.75" customHeight="1">
       <c r="A404" s="5" t="s">
-        <v>1098</v>
+        <v>1105</v>
       </c>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -20913,15 +21053,15 @@
         <v>575</v>
       </c>
       <c r="F404" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
       <c r="I404" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="J404" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K404" s="11"/>
       <c r="L404" s="11"/>
@@ -20949,26 +21089,26 @@
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
       <c r="D405" s="22" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E405" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F405" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G405" s="11"/>
       <c r="H405" s="11"/>
       <c r="I405" s="5" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="J405" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="K405" s="11"/>
       <c r="L405" s="11"/>
-      <c r="M405" s="5">
-        <v>1840.0</v>
+      <c r="M405" s="5" t="s">
+        <v>1106</v>
       </c>
       <c r="N405" s="5">
         <v>1917.0</v>
@@ -20987,12 +21127,12 @@
       <c r="V405" s="1"/>
       <c r="W405" s="1"/>
       <c r="X405" s="2" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="406" ht="12.75" customHeight="1">
       <c r="A406" s="5" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -21003,7 +21143,7 @@
         <v>575</v>
       </c>
       <c r="F406" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G406" s="11"/>
       <c r="H406" s="11"/>
@@ -21032,7 +21172,7 @@
     </row>
     <row r="407" ht="12.75" customHeight="1">
       <c r="A407" s="5" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -21040,7 +21180,7 @@
         <v>152</v>
       </c>
       <c r="E407" s="5" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="G407" s="11"/>
       <c r="H407" s="11"/>
@@ -21067,7 +21207,7 @@
     </row>
     <row r="408" ht="12.75" customHeight="1">
       <c r="A408" s="5" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="B408" s="11"/>
       <c r="C408" s="11"/>
@@ -21078,15 +21218,15 @@
         <v>55</v>
       </c>
       <c r="F408" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G408" s="11"/>
       <c r="H408" s="11"/>
       <c r="I408" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="J408" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="K408" s="11"/>
       <c r="L408" s="11"/>
@@ -21111,7 +21251,7 @@
     </row>
     <row r="409" ht="12.75" customHeight="1">
       <c r="A409" s="5" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -21119,23 +21259,23 @@
         <v>197</v>
       </c>
       <c r="E409" s="5" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="F409" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G409" s="11"/>
       <c r="H409" s="11"/>
       <c r="I409" s="5" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="J409" s="5" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="K409" s="11"/>
       <c r="L409" s="11"/>
       <c r="M409" s="5" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="N409" s="5"/>
       <c r="O409" s="5">
@@ -21155,7 +21295,7 @@
     </row>
     <row r="410" ht="12.75" customHeight="1">
       <c r="A410" s="5" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -21166,15 +21306,15 @@
         <v>37</v>
       </c>
       <c r="F410" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G410" s="11"/>
       <c r="H410" s="11"/>
       <c r="I410" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J410" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="K410" s="11"/>
       <c r="L410" s="11"/>
@@ -21201,7 +21341,7 @@
     </row>
     <row r="411" ht="12.75" customHeight="1">
       <c r="A411" s="5" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -21212,7 +21352,7 @@
         <v>68</v>
       </c>
       <c r="F411" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G411" s="11"/>
       <c r="H411" s="11"/>
@@ -21239,7 +21379,7 @@
     </row>
     <row r="412" ht="12.75" customHeight="1">
       <c r="A412" s="5" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -21250,15 +21390,15 @@
         <v>575</v>
       </c>
       <c r="F412" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G412" s="11"/>
       <c r="H412" s="11"/>
       <c r="I412" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J412" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K412" s="11"/>
       <c r="L412" s="11"/>
@@ -21283,7 +21423,7 @@
     </row>
     <row r="413" ht="12.75" customHeight="1">
       <c r="A413" s="5" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -21296,10 +21436,10 @@
       <c r="G413" s="11"/>
       <c r="H413" s="11"/>
       <c r="I413" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="J413" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="K413" s="11"/>
       <c r="L413" s="11"/>
@@ -21324,7 +21464,7 @@
     </row>
     <row r="414" ht="12.75" customHeight="1">
       <c r="A414" s="5" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -21332,17 +21472,17 @@
         <v>300</v>
       </c>
       <c r="E414" s="5" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="F414" s="5" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="H414" s="11"/>
       <c r="I414" s="5" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="J414" s="5" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="K414" s="11"/>
       <c r="L414" s="11"/>
@@ -21365,7 +21505,7 @@
     </row>
     <row r="415" ht="12.75" customHeight="1">
       <c r="A415" s="5" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -21376,15 +21516,15 @@
         <v>55</v>
       </c>
       <c r="F415" s="5" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="G415" s="11"/>
       <c r="H415" s="11"/>
       <c r="I415" s="5" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="J415" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="K415" s="11"/>
       <c r="L415" s="11"/>
@@ -21409,7 +21549,7 @@
     </row>
     <row r="416" ht="12.75" customHeight="1">
       <c r="A416" s="5" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -21417,10 +21557,10 @@
         <v>197</v>
       </c>
       <c r="E416" s="5" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F416" s="5" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="G416" s="11"/>
       <c r="H416" s="11"/>
@@ -21429,10 +21569,10 @@
       <c r="K416" s="11"/>
       <c r="L416" s="11"/>
       <c r="M416" s="5" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="N416" s="5" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="O416" s="5">
         <v>0.0</v>
@@ -21451,7 +21591,7 @@
     </row>
     <row r="417" ht="12.75" customHeight="1">
       <c r="A417" s="5" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -21462,15 +21602,15 @@
         <v>575</v>
       </c>
       <c r="F417" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G417" s="11"/>
       <c r="H417" s="11"/>
       <c r="I417" s="5" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="J417" s="5" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="K417" s="11"/>
       <c r="L417" s="11"/>
@@ -21495,18 +21635,18 @@
     </row>
     <row r="418" ht="12.75" customHeight="1">
       <c r="A418" s="5" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
       <c r="D418" s="5" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>210</v>
       </c>
       <c r="F418" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="G418" s="11"/>
       <c r="H418" s="11"/>
@@ -21515,7 +21655,7 @@
       <c r="K418" s="11"/>
       <c r="L418" s="11"/>
       <c r="M418" s="5" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="N418" s="5">
         <v>1975.0</v>
@@ -21534,27 +21674,27 @@
       <c r="V418" s="1"/>
       <c r="W418" s="1"/>
       <c r="X418" s="2" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="419" ht="12.75" customHeight="1">
       <c r="A419" s="5" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
       <c r="D419" s="2" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
       <c r="G419" s="1"/>
       <c r="H419" s="1"/>
       <c r="I419" s="5" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="J419" s="5" t="s">
-        <v>1051</v>
+        <v>1055</v>
       </c>
       <c r="K419" s="1"/>
       <c r="L419" s="1"/>
@@ -21577,24 +21717,24 @@
     </row>
     <row r="420" ht="12.75" customHeight="1">
       <c r="A420" s="5" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
       <c r="D420" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E420" s="1"/>
       <c r="F420" s="2" t="s">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="G420" s="1"/>
       <c r="H420" s="1"/>
       <c r="I420" s="5" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="J420" s="5" t="s">
-        <v>1058</v>
+        <v>1062</v>
       </c>
       <c r="K420" s="1"/>
       <c r="L420" s="1"/>
@@ -21617,7 +21757,7 @@
     </row>
     <row r="421" ht="12.75" customHeight="1">
       <c r="A421" s="5" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -21626,13 +21766,13 @@
       </c>
       <c r="E421" s="1"/>
       <c r="F421" s="2" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="G421" s="1"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="5" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="K421" s="1"/>
       <c r="L421" s="1"/>
@@ -21652,27 +21792,27 @@
       <c r="V421" s="1"/>
       <c r="W421" s="1"/>
       <c r="X421" s="2" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="422" ht="12.75" customHeight="1">
       <c r="A422" s="5" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
       <c r="D422" s="2" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E422" s="1"/>
       <c r="F422" s="2" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="G422" s="1"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="5" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="K422" s="1"/>
       <c r="L422" s="1"/>
@@ -21771,7 +21911,7 @@
     </row>
     <row r="425" ht="12.75" customHeight="1">
       <c r="A425" s="5" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -21782,15 +21922,15 @@
         <v>177</v>
       </c>
       <c r="F425" s="2" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="G425" s="1"/>
       <c r="H425" s="1"/>
       <c r="I425" s="2" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="J425" s="5" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="K425" s="1"/>
       <c r="L425" s="1"/>
@@ -21813,16 +21953,16 @@
     </row>
     <row r="426" ht="12.75" customHeight="1">
       <c r="A426" s="5" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
       <c r="D426" s="2" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="E426" s="1"/>
       <c r="F426" s="2" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="G426" s="1"/>
       <c r="H426" s="1"/>
@@ -21849,7 +21989,7 @@
     </row>
     <row r="427" ht="12.75" customHeight="1">
       <c r="A427" s="5" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -21893,7 +22033,7 @@
     </row>
     <row r="428" ht="12.75" customHeight="1">
       <c r="A428" s="5" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -21928,12 +22068,12 @@
       <c r="V428" s="1"/>
       <c r="W428" s="1"/>
       <c r="X428" s="2" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="429" ht="12.75" customHeight="1">
       <c r="A429" s="5" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -21949,15 +22089,15 @@
       <c r="G429" s="1"/>
       <c r="H429" s="1"/>
       <c r="I429" s="5" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="J429" s="5" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
       <c r="M429" s="2" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="N429" s="1"/>
       <c r="O429" s="2">
@@ -21973,16 +22113,18 @@
       <c r="U429" s="1"/>
       <c r="V429" s="1"/>
       <c r="W429" s="1"/>
-      <c r="X429" s="1"/>
+      <c r="X429" s="2" t="s">
+        <v>1147</v>
+      </c>
     </row>
     <row r="430" ht="12.75" customHeight="1">
       <c r="A430" s="5" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
       <c r="D430" s="2" t="s">
-        <v>1140</v>
+        <v>1149</v>
       </c>
       <c r="E430" s="2" t="s">
         <v>315</v>
@@ -21996,7 +22138,9 @@
       <c r="J430" s="1"/>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
-      <c r="M430" s="1"/>
+      <c r="M430" s="2" t="s">
+        <v>1150</v>
+      </c>
       <c r="N430" s="1"/>
       <c r="O430" s="2">
         <v>1.0</v>
@@ -22012,12 +22156,12 @@
       <c r="V430" s="1"/>
       <c r="W430" s="1"/>
       <c r="X430" s="2" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="431" ht="12.75" customHeight="1">
       <c r="A431" s="5" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -22033,14 +22177,16 @@
       <c r="G431" s="1"/>
       <c r="H431" s="1"/>
       <c r="I431" s="5" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="J431" s="5" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
-      <c r="M431" s="1"/>
+      <c r="M431" s="2" t="s">
+        <v>1153</v>
+      </c>
       <c r="N431" s="1"/>
       <c r="O431" s="2">
         <v>0.0</v>
@@ -22059,12 +22205,12 @@
     </row>
     <row r="432" ht="12.75" customHeight="1">
       <c r="A432" s="5" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
       <c r="D432" s="2" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="E432" s="2" t="s">
         <v>52</v>
@@ -22075,14 +22221,16 @@
       <c r="G432" s="1"/>
       <c r="H432" s="1"/>
       <c r="I432" s="5" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="J432" s="5" t="s">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
-      <c r="M432" s="1"/>
+      <c r="M432" s="2" t="s">
+        <v>1155</v>
+      </c>
       <c r="N432" s="1"/>
       <c r="O432" s="2">
         <v>0.0</v>
@@ -22101,7 +22249,7 @@
     </row>
     <row r="433" ht="12.75" customHeight="1">
       <c r="A433" s="5" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -22117,9 +22265,11 @@
       <c r="G433" s="1"/>
       <c r="H433" s="1"/>
       <c r="I433" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J433" s="1"/>
+        <v>1152</v>
+      </c>
+      <c r="J433" s="5" t="s">
+        <v>1157</v>
+      </c>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1"/>
@@ -22141,7 +22291,7 @@
     </row>
     <row r="434" ht="12.75" customHeight="1">
       <c r="A434" s="5" t="s">
-        <v>1145</v>
+        <v>1158</v>
       </c>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -22157,9 +22307,11 @@
       <c r="G434" s="1"/>
       <c r="H434" s="1"/>
       <c r="I434" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J434" s="1"/>
+        <v>1152</v>
+      </c>
+      <c r="J434" s="5" t="s">
+        <v>1157</v>
+      </c>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1"/>
@@ -22181,7 +22333,7 @@
     </row>
     <row r="435" ht="12.75" customHeight="1">
       <c r="A435" s="5" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -22197,12 +22349,16 @@
       <c r="G435" s="1"/>
       <c r="H435" s="1"/>
       <c r="I435" s="5" t="s">
-        <v>1142</v>
-      </c>
-      <c r="J435" s="1"/>
+        <v>1152</v>
+      </c>
+      <c r="J435" s="5" t="s">
+        <v>1160</v>
+      </c>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
-      <c r="M435" s="1"/>
+      <c r="M435" s="2" t="s">
+        <v>1161</v>
+      </c>
       <c r="N435" s="1"/>
       <c r="O435" s="2">
         <v>1.0</v>
@@ -22221,7 +22377,7 @@
     </row>
     <row r="436" ht="12.75" customHeight="1">
       <c r="A436" s="5" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -22229,7 +22385,7 @@
         <v>66</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="F436" s="2" t="s">
         <v>31</v>
@@ -22237,7 +22393,7 @@
       <c r="G436" s="1"/>
       <c r="H436" s="1"/>
       <c r="I436" s="5" t="s">
-        <v>1143</v>
+        <v>1154</v>
       </c>
       <c r="J436" s="1"/>
       <c r="K436" s="1"/>
@@ -22261,12 +22417,12 @@
     </row>
     <row r="437" ht="12.75" customHeight="1">
       <c r="A437" s="5" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
       <c r="D437" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>119</v>
@@ -22277,7 +22433,7 @@
       <c r="G437" s="1"/>
       <c r="H437" s="1"/>
       <c r="I437" s="5" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="J437" s="1"/>
       <c r="K437" s="1"/>
@@ -22301,12 +22457,12 @@
     </row>
     <row r="438" ht="12.75" customHeight="1">
       <c r="A438" s="5" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
       <c r="D438" s="2" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E438" s="2" t="s">
         <v>505</v>
@@ -22317,7 +22473,7 @@
       <c r="G438" s="1"/>
       <c r="H438" s="1"/>
       <c r="I438" s="5" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="J438" s="1"/>
       <c r="K438" s="1"/>
@@ -22341,7 +22497,7 @@
     </row>
     <row r="439" ht="12.75" customHeight="1">
       <c r="A439" s="5" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -22352,20 +22508,20 @@
         <v>464</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="G439" s="1"/>
       <c r="H439" s="1"/>
       <c r="I439" s="5" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="J439" s="5" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
       <c r="M439" s="2" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="N439" s="1"/>
       <c r="O439" s="2">
@@ -22382,12 +22538,12 @@
       <c r="V439" s="1"/>
       <c r="W439" s="1"/>
       <c r="X439" s="2" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="440" ht="12.75" customHeight="1">
       <c r="A440" s="5" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -22402,7 +22558,7 @@
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="5" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -22427,7 +22583,7 @@
     </row>
     <row r="441" ht="12.75" customHeight="1">
       <c r="A441" s="5" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -22438,7 +22594,7 @@
         <v>376</v>
       </c>
       <c r="F441" s="2" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="G441" s="1"/>
       <c r="H441" s="1"/>
@@ -22447,7 +22603,7 @@
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
       <c r="M441" s="2" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="N441" s="1"/>
       <c r="O441" s="2">
@@ -22467,18 +22623,18 @@
     </row>
     <row r="442" ht="12.75" customHeight="1">
       <c r="A442" s="5" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
       <c r="D442" s="2" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="F442" s="16" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="G442" s="1"/>
       <c r="H442" s="1"/>
@@ -22505,7 +22661,7 @@
     </row>
     <row r="443" ht="12.75" customHeight="1">
       <c r="A443" s="5" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -22513,23 +22669,23 @@
         <v>254</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="F443" s="16" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="G443" s="1"/>
       <c r="H443" s="1"/>
       <c r="I443" s="5" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="J443" s="2" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="K443" s="1"/>
       <c r="L443" s="1"/>
       <c r="M443" s="2" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
       <c r="N443" s="1"/>
       <c r="O443" s="2">
@@ -22549,7 +22705,7 @@
     </row>
     <row r="444" ht="12.75" customHeight="1">
       <c r="A444" s="5" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -22560,20 +22716,20 @@
         <v>251</v>
       </c>
       <c r="F444" s="16" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G444" s="1"/>
       <c r="H444" s="1"/>
       <c r="I444" s="5" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="J444" s="5" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
       <c r="M444" s="2" t="s">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="N444" s="1"/>
       <c r="O444" s="2">
@@ -22593,31 +22749,31 @@
     </row>
     <row r="445" ht="12.75" customHeight="1">
       <c r="A445" s="5" t="s">
-        <v>1170</v>
+        <v>1185</v>
       </c>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
       <c r="D445" s="2" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="E445" s="2" t="s">
         <v>251</v>
       </c>
       <c r="F445" s="16" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="G445" s="1"/>
       <c r="H445" s="1"/>
       <c r="I445" s="5" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="J445" s="5" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
       <c r="M445" s="2" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="N445" s="1"/>
       <c r="O445" s="2">
@@ -22637,26 +22793,26 @@
     </row>
     <row r="446" ht="12.75" customHeight="1">
       <c r="A446" s="5" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
       <c r="D446" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E446" s="2" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="F446" s="16" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="G446" s="1"/>
       <c r="H446" s="1"/>
       <c r="I446" s="5" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="J446" s="5" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
@@ -22679,7 +22835,7 @@
     </row>
     <row r="447" ht="12.75" customHeight="1">
       <c r="A447" s="5" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -22690,7 +22846,7 @@
         <v>55</v>
       </c>
       <c r="F447" s="2" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="G447" s="1"/>
       <c r="H447" s="1"/>
@@ -22699,7 +22855,7 @@
       <c r="K447" s="1"/>
       <c r="L447" s="1"/>
       <c r="M447" s="2" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="N447" s="1"/>
       <c r="O447" s="2">
@@ -22719,22 +22875,22 @@
     </row>
     <row r="448" ht="12.75" customHeight="1">
       <c r="A448" s="5" t="s">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
       <c r="D448" s="2" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
       <c r="G448" s="1"/>
       <c r="H448" s="1"/>
       <c r="I448" s="5" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="J448" s="2" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="K448" s="1"/>
       <c r="L448" s="1"/>
@@ -22757,7 +22913,7 @@
     </row>
     <row r="449" ht="12.75" customHeight="1">
       <c r="A449" s="5" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -22765,15 +22921,15 @@
         <v>392</v>
       </c>
       <c r="E449" s="2" t="s">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="F449" s="2" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="G449" s="1"/>
       <c r="H449" s="1"/>
       <c r="I449" s="5" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="J449" s="1"/>
       <c r="K449" s="1"/>
@@ -22797,7 +22953,7 @@
     </row>
     <row r="450" ht="12.75" customHeight="1">
       <c r="A450" s="5" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -22808,12 +22964,12 @@
         <v>153</v>
       </c>
       <c r="F450" s="2" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="G450" s="1"/>
       <c r="H450" s="1"/>
       <c r="I450" s="5" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="J450" s="1"/>
       <c r="K450" s="1"/>
@@ -22837,23 +22993,23 @@
     </row>
     <row r="451" ht="12.75" customHeight="1">
       <c r="A451" s="5" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
       <c r="D451" s="2" t="s">
-        <v>1182</v>
+        <v>1197</v>
       </c>
       <c r="E451" s="2" t="s">
         <v>210</v>
       </c>
       <c r="F451" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G451" s="1"/>
       <c r="H451" s="1"/>
       <c r="I451" s="5" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="J451" s="1"/>
       <c r="K451" s="1"/>
@@ -22874,12 +23030,12 @@
       <c r="V451" s="1"/>
       <c r="W451" s="1"/>
       <c r="X451" s="2" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="452" ht="12.75" customHeight="1">
       <c r="A452" s="5" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -22890,12 +23046,12 @@
         <v>60</v>
       </c>
       <c r="F452" s="2" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="G452" s="1"/>
       <c r="H452" s="1"/>
       <c r="I452" s="5" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="J452" s="1"/>
       <c r="K452" s="1"/>
@@ -22919,7 +23075,7 @@
     </row>
     <row r="453" ht="12.75" customHeight="1">
       <c r="A453" s="5" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -22930,12 +23086,12 @@
         <v>265</v>
       </c>
       <c r="F453" s="2" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="G453" s="1"/>
       <c r="H453" s="1"/>
       <c r="I453" s="5" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="J453" s="1"/>
       <c r="K453" s="1"/>
@@ -22956,12 +23112,12 @@
       <c r="V453" s="1"/>
       <c r="W453" s="1"/>
       <c r="X453" s="2" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="454" ht="12.75" customHeight="1">
       <c r="A454" s="5" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -22970,7 +23126,7 @@
       </c>
       <c r="E454" s="1"/>
       <c r="F454" s="2" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="G454" s="1"/>
       <c r="H454" s="1"/>
@@ -22997,7 +23153,7 @@
     </row>
     <row r="455" ht="12.75" customHeight="1">
       <c r="A455" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -23006,7 +23162,7 @@
       </c>
       <c r="E455" s="1"/>
       <c r="F455" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G455" s="1"/>
       <c r="H455" s="1"/>
@@ -23033,26 +23189,26 @@
     </row>
     <row r="456" ht="12.75" customHeight="1">
       <c r="A456" s="5" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
       <c r="D456" s="2" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="E456" s="2" t="s">
         <v>180</v>
       </c>
       <c r="F456" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G456" s="1"/>
       <c r="H456" s="1"/>
       <c r="I456" s="5" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="J456" s="5" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="K456" s="1"/>
       <c r="L456" s="1"/>
@@ -23075,7 +23231,7 @@
     </row>
     <row r="457" ht="12.75" customHeight="1">
       <c r="A457" s="5" t="s">
-        <v>1191</v>
+        <v>1206</v>
       </c>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -23086,7 +23242,7 @@
         <v>575</v>
       </c>
       <c r="F457" s="2" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="G457" s="1"/>
       <c r="H457" s="1"/>
@@ -23110,31 +23266,31 @@
       <c r="V457" s="1"/>
       <c r="W457" s="1"/>
       <c r="X457" s="2" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="458" ht="12.75" customHeight="1">
       <c r="A458" s="5" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
       <c r="D458" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E458" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F458" s="2" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="G458" s="1"/>
       <c r="H458" s="1"/>
       <c r="I458" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J458" s="5" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
@@ -23157,26 +23313,26 @@
     </row>
     <row r="459" ht="12.75" customHeight="1">
       <c r="A459" s="5" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
       <c r="D459" s="16" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E459" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F459" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G459" s="1"/>
       <c r="H459" s="1"/>
       <c r="I459" s="2" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="J459" s="5" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -23199,7 +23355,7 @@
     </row>
     <row r="460" ht="12.75" customHeight="1">
       <c r="A460" s="5" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -23208,7 +23364,7 @@
       </c>
       <c r="E460" s="1"/>
       <c r="F460" s="2" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="G460" s="1"/>
       <c r="H460" s="1"/>
@@ -23235,7 +23391,7 @@
     </row>
     <row r="461" ht="12.75" customHeight="1">
       <c r="A461" s="5" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -23246,20 +23402,20 @@
         <v>60</v>
       </c>
       <c r="F461" s="2" t="s">
-        <v>1198</v>
+        <v>1213</v>
       </c>
       <c r="G461" s="1"/>
       <c r="H461" s="1"/>
       <c r="I461" s="5" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="J461" s="2" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
       <c r="M461" s="2" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="N461" s="1"/>
       <c r="O461" s="2">
@@ -23279,16 +23435,16 @@
     </row>
     <row r="462" ht="12.75" customHeight="1">
       <c r="A462" s="5" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
       <c r="D462" s="2" t="s">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="E462" s="1"/>
       <c r="F462" s="2" t="s">
-        <v>1198</v>
+        <v>1213</v>
       </c>
       <c r="G462" s="1"/>
       <c r="H462" s="1"/>
@@ -23315,16 +23471,16 @@
     </row>
     <row r="463" ht="12.75" customHeight="1">
       <c r="A463" s="5" t="s">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
       <c r="D463" s="2" t="s">
-        <v>1203</v>
+        <v>1218</v>
       </c>
       <c r="E463" s="1"/>
       <c r="F463" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G463" s="1"/>
       <c r="H463" s="1"/>
@@ -23351,26 +23507,26 @@
     </row>
     <row r="464" ht="12.75" customHeight="1">
       <c r="A464" s="5" t="s">
-        <v>1204</v>
+        <v>1219</v>
       </c>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
       <c r="D464" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E464" s="2" t="s">
         <v>585</v>
       </c>
       <c r="F464" s="2" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="G464" s="1"/>
       <c r="H464" s="1"/>
       <c r="I464" s="2" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="J464" s="5" t="s">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -23393,7 +23549,7 @@
     </row>
     <row r="465" ht="12.75" customHeight="1">
       <c r="A465" s="5" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -23402,7 +23558,7 @@
       </c>
       <c r="E465" s="1"/>
       <c r="F465" s="2" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="G465" s="1"/>
       <c r="H465" s="1"/>
@@ -23429,12 +23585,12 @@
     </row>
     <row r="466" ht="12.75" customHeight="1">
       <c r="A466" s="5" t="s">
-        <v>1205</v>
+        <v>1220</v>
       </c>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
       <c r="D466" s="2" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="E466" s="2" t="s">
         <v>55</v>
@@ -23451,7 +23607,7 @@
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
       <c r="M466" s="2" t="s">
-        <v>1207</v>
+        <v>1222</v>
       </c>
       <c r="N466" s="1"/>
       <c r="O466" s="2">
@@ -23471,12 +23627,12 @@
     </row>
     <row r="467" ht="12.75" customHeight="1">
       <c r="A467" s="5" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
       <c r="D467" s="2" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="E467" s="2" t="s">
         <v>464</v>
@@ -23492,7 +23648,7 @@
       <c r="L467" s="1"/>
       <c r="M467" s="1"/>
       <c r="N467" s="2" t="s">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="O467" s="2">
         <v>1.0</v>
@@ -23508,12 +23664,12 @@
       <c r="V467" s="1"/>
       <c r="W467" s="1"/>
       <c r="X467" s="2" t="s">
-        <v>1210</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="468" ht="12.75" customHeight="1">
       <c r="A468" s="5" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -23521,7 +23677,7 @@
         <v>113</v>
       </c>
       <c r="E468" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F468" s="2" t="s">
         <v>26</v>
@@ -23532,12 +23688,12 @@
         <v>137</v>
       </c>
       <c r="J468" s="5" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="K468" s="1"/>
       <c r="L468" s="1"/>
       <c r="M468" s="2" t="s">
-        <v>1211</v>
+        <v>1226</v>
       </c>
       <c r="N468" s="1"/>
       <c r="O468" s="2">
@@ -23557,7 +23713,7 @@
     </row>
     <row r="469" ht="12.75" customHeight="1">
       <c r="A469" s="5" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -23565,7 +23721,7 @@
         <v>260</v>
       </c>
       <c r="E469" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F469" s="2" t="s">
         <v>26</v>
@@ -23576,15 +23732,15 @@
         <v>137</v>
       </c>
       <c r="J469" s="5" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="K469" s="1"/>
       <c r="L469" s="1"/>
       <c r="M469" s="2" t="s">
-        <v>1212</v>
+        <v>1227</v>
       </c>
       <c r="N469" s="2" t="s">
-        <v>1213</v>
+        <v>1228</v>
       </c>
       <c r="O469" s="2">
         <v>1.0</v>
@@ -23603,7 +23759,7 @@
     </row>
     <row r="470" ht="12.75" customHeight="1">
       <c r="A470" s="5" t="s">
-        <v>1214</v>
+        <v>1229</v>
       </c>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -23611,7 +23767,7 @@
         <v>197</v>
       </c>
       <c r="E470" s="2" t="s">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="F470" s="2" t="s">
         <v>26</v>
@@ -23622,12 +23778,12 @@
         <v>137</v>
       </c>
       <c r="J470" s="5" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="K470" s="1"/>
       <c r="L470" s="1"/>
       <c r="M470" s="2" t="s">
-        <v>1216</v>
+        <v>1231</v>
       </c>
       <c r="N470" s="1"/>
       <c r="O470" s="2">
@@ -23647,7 +23803,7 @@
     </row>
     <row r="471" ht="12.75" customHeight="1">
       <c r="A471" s="5" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -23658,7 +23814,7 @@
         <v>307</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>1217</v>
+        <v>1232</v>
       </c>
       <c r="G471" s="1"/>
       <c r="H471" s="1"/>
@@ -23667,10 +23823,10 @@
       <c r="K471" s="1"/>
       <c r="L471" s="1"/>
       <c r="M471" s="2" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="N471" s="2" t="s">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="O471" s="2">
         <v>0.0</v>
@@ -23689,7 +23845,7 @@
     </row>
     <row r="472" ht="12.75" customHeight="1">
       <c r="A472" s="5" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -23700,7 +23856,7 @@
         <v>55</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>1221</v>
+        <v>1236</v>
       </c>
       <c r="G472" s="1"/>
       <c r="H472" s="1"/>
@@ -23709,7 +23865,7 @@
       <c r="K472" s="1"/>
       <c r="L472" s="1"/>
       <c r="M472" s="2" t="s">
-        <v>1222</v>
+        <v>1237</v>
       </c>
       <c r="N472" s="1"/>
       <c r="O472" s="2">
@@ -23729,7 +23885,7 @@
     </row>
     <row r="473" ht="12.75" customHeight="1">
       <c r="A473" s="5" t="s">
-        <v>1223</v>
+        <v>1238</v>
       </c>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -23740,20 +23896,20 @@
         <v>575</v>
       </c>
       <c r="F473" s="2" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="G473" s="1"/>
       <c r="H473" s="1"/>
       <c r="I473" s="5" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="J473" s="5" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="K473" s="1"/>
       <c r="L473" s="1"/>
       <c r="M473" s="2" t="s">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="N473" s="1"/>
       <c r="O473" s="2">
@@ -23773,7 +23929,7 @@
     </row>
     <row r="474" ht="12.75" customHeight="1">
       <c r="A474" s="5" t="s">
-        <v>1224</v>
+        <v>1239</v>
       </c>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -23784,20 +23940,20 @@
         <v>575</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="G474" s="1"/>
       <c r="H474" s="1"/>
       <c r="I474" s="5" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="J474" s="5" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="K474" s="1"/>
       <c r="L474" s="1"/>
       <c r="M474" s="2" t="s">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="N474" s="1"/>
       <c r="O474" s="2">
@@ -23817,7 +23973,7 @@
     </row>
     <row r="475" ht="12.75" customHeight="1">
       <c r="A475" s="5" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -23825,10 +23981,10 @@
         <v>107</v>
       </c>
       <c r="E475" s="2" t="s">
-        <v>1227</v>
+        <v>1242</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>1228</v>
+        <v>1243</v>
       </c>
       <c r="G475" s="1"/>
       <c r="H475" s="1"/>
@@ -23837,7 +23993,7 @@
       <c r="K475" s="1"/>
       <c r="L475" s="1"/>
       <c r="M475" s="2" t="s">
-        <v>1229</v>
+        <v>1244</v>
       </c>
       <c r="N475" s="1"/>
       <c r="O475" s="2">
@@ -23857,26 +24013,26 @@
     </row>
     <row r="476" ht="12.75" customHeight="1">
       <c r="A476" s="5" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
       <c r="D476" s="2" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="E476" s="2" t="s">
         <v>153</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>1228</v>
+        <v>1243</v>
       </c>
       <c r="G476" s="1"/>
       <c r="H476" s="1"/>
       <c r="I476" s="5" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="J476" s="5" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="K476" s="1"/>
       <c r="L476" s="1"/>
@@ -23901,7 +24057,7 @@
     </row>
     <row r="477" ht="12.75" customHeight="1">
       <c r="A477" s="5" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -23937,7 +24093,7 @@
     </row>
     <row r="478" ht="12.75" customHeight="1">
       <c r="A478" s="5" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -23945,7 +24101,7 @@
         <v>45</v>
       </c>
       <c r="E478" s="2" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="F478" s="2" t="s">
         <v>26</v>
@@ -23956,7 +24112,7 @@
         <v>144</v>
       </c>
       <c r="J478" s="5" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="K478" s="1"/>
       <c r="L478" s="1"/>
@@ -23979,7 +24135,7 @@
     </row>
     <row r="479" ht="12.75" customHeight="1">
       <c r="A479" s="5" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -23994,12 +24150,12 @@
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="5" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
       <c r="K479" s="1"/>
       <c r="L479" s="1"/>
       <c r="M479" s="2" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="N479" s="1"/>
       <c r="O479" s="2">
@@ -24019,12 +24175,12 @@
     </row>
     <row r="480" ht="12.75" customHeight="1">
       <c r="A480" s="5" t="s">
-        <v>1234</v>
+        <v>1249</v>
       </c>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
       <c r="D480" s="2" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>55</v>
@@ -24057,7 +24213,7 @@
     </row>
     <row r="481" ht="12.75" customHeight="1">
       <c r="A481" s="5" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -24065,7 +24221,7 @@
         <v>548</v>
       </c>
       <c r="E481" s="2" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="F481" s="2" t="s">
         <v>26</v>
@@ -24077,7 +24233,7 @@
       <c r="K481" s="1"/>
       <c r="L481" s="1"/>
       <c r="M481" s="2" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="N481" s="1"/>
       <c r="O481" s="2">
@@ -24094,20 +24250,20 @@
       <c r="V481" s="1"/>
       <c r="W481" s="1"/>
       <c r="X481" s="2" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="482" ht="12.75" customHeight="1">
       <c r="A482" s="5" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
       <c r="D482" s="2" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="E482" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F482" s="2" t="s">
         <v>26</v>
@@ -24115,10 +24271,10 @@
       <c r="G482" s="1"/>
       <c r="H482" s="1"/>
       <c r="I482" s="5" t="s">
-        <v>1214</v>
+        <v>1229</v>
       </c>
       <c r="J482" s="5" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="K482" s="1"/>
       <c r="L482" s="1"/>
@@ -24141,18 +24297,18 @@
     </row>
     <row r="483" ht="12.75" customHeight="1">
       <c r="A483" s="5" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
       <c r="D483" s="2" t="s">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="E483" s="2" t="s">
         <v>307</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="G483" s="1"/>
       <c r="H483" s="1"/>
@@ -24183,7 +24339,7 @@
     </row>
     <row r="484" ht="12.75" customHeight="1">
       <c r="A484" s="5" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -24219,7 +24375,7 @@
     </row>
     <row r="485" ht="12.75" customHeight="1">
       <c r="A485" s="5" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -24233,10 +24389,10 @@
       <c r="G485" s="1"/>
       <c r="H485" s="1"/>
       <c r="I485" s="5" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="J485" s="5" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -24256,29 +24412,29 @@
       <c r="V485" s="1"/>
       <c r="W485" s="1"/>
       <c r="X485" s="2" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="486" ht="12.75" customHeight="1">
       <c r="A486" s="5" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
       <c r="D486" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E486" s="1"/>
       <c r="F486" s="2" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="G486" s="1"/>
       <c r="H486" s="1"/>
       <c r="I486" s="5" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="J486" s="5" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="K486" s="1"/>
       <c r="L486" s="1"/>
@@ -24301,12 +24457,12 @@
     </row>
     <row r="487" ht="12.75" customHeight="1">
       <c r="A487" s="5" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
       <c r="D487" s="2" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="E487" s="1"/>
       <c r="F487" s="2" t="s">
@@ -24315,10 +24471,10 @@
       <c r="G487" s="1"/>
       <c r="H487" s="1"/>
       <c r="I487" s="5" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="J487" s="5" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="K487" s="1"/>
       <c r="L487" s="1"/>
@@ -24341,7 +24497,7 @@
     </row>
     <row r="488" ht="12.75" customHeight="1">
       <c r="A488" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -24352,7 +24508,7 @@
         <v>307</v>
       </c>
       <c r="F488" s="2" t="s">
-        <v>1248</v>
+        <v>1263</v>
       </c>
       <c r="G488" s="1"/>
       <c r="H488" s="1"/>
@@ -24361,10 +24517,10 @@
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
       <c r="M488" s="2" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
       <c r="N488" s="2" t="s">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="O488" s="2">
         <v>0.0</v>
@@ -24383,18 +24539,18 @@
     </row>
     <row r="489" ht="12.75" customHeight="1">
       <c r="A489" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
       <c r="D489" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="E489" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>1251</v>
+        <v>1266</v>
       </c>
       <c r="G489" s="1"/>
       <c r="H489" s="1"/>
@@ -24403,10 +24559,10 @@
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
       <c r="M489" s="2" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="N489" s="2" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="O489" s="2">
         <v>0.0</v>
@@ -24425,12 +24581,12 @@
     </row>
     <row r="490" ht="12.75" customHeight="1">
       <c r="A490" s="5" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
       <c r="D490" s="2" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="E490" s="2" t="s">
         <v>68</v>
@@ -24467,7 +24623,7 @@
     </row>
     <row r="491" ht="12.75" customHeight="1">
       <c r="A491" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -24509,7 +24665,7 @@
     </row>
     <row r="492" ht="12.75" customHeight="1">
       <c r="A492" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -24551,15 +24707,15 @@
     </row>
     <row r="493" ht="12.75" customHeight="1">
       <c r="A493" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
       <c r="D493" s="2" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
       <c r="E493" s="2" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="F493" s="2" t="s">
         <v>31</v>
@@ -24589,7 +24745,7 @@
     </row>
     <row r="494" ht="12.75" customHeight="1">
       <c r="A494" s="5" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -24605,10 +24761,10 @@
       <c r="G494" s="1"/>
       <c r="H494" s="1"/>
       <c r="I494" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J494" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K494" s="1"/>
       <c r="L494" s="1"/>
@@ -24631,7 +24787,7 @@
     </row>
     <row r="495" ht="12.75" customHeight="1">
       <c r="A495" s="5" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -24647,10 +24803,10 @@
       <c r="G495" s="1"/>
       <c r="H495" s="1"/>
       <c r="I495" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J495" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K495" s="1"/>
       <c r="L495" s="1"/>
@@ -24673,7 +24829,7 @@
     </row>
     <row r="496" ht="12.75" customHeight="1">
       <c r="A496" s="5" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -24689,15 +24845,19 @@
       <c r="G496" s="1"/>
       <c r="H496" s="1"/>
       <c r="I496" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J496" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K496" s="1"/>
       <c r="L496" s="1"/>
-      <c r="M496" s="1"/>
-      <c r="N496" s="1"/>
+      <c r="M496" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="N496" s="2" t="s">
+        <v>1279</v>
+      </c>
       <c r="O496" s="2">
         <v>0.0</v>
       </c>
@@ -24711,11 +24871,13 @@
       <c r="U496" s="1"/>
       <c r="V496" s="1"/>
       <c r="W496" s="1"/>
-      <c r="X496" s="1"/>
+      <c r="X496" s="2" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="497" ht="12.75" customHeight="1">
       <c r="A497" s="5" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -24731,10 +24893,10 @@
       <c r="G497" s="1"/>
       <c r="H497" s="1"/>
       <c r="I497" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J497" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K497" s="1"/>
       <c r="L497" s="1"/>
@@ -24757,12 +24919,12 @@
     </row>
     <row r="498" ht="12.75" customHeight="1">
       <c r="A498" s="5" t="s">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
       <c r="D498" s="2" t="s">
-        <v>1265</v>
+        <v>1283</v>
       </c>
       <c r="E498" s="2" t="s">
         <v>68</v>
@@ -24773,10 +24935,10 @@
       <c r="G498" s="1"/>
       <c r="H498" s="1"/>
       <c r="I498" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J498" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K498" s="1"/>
       <c r="L498" s="1"/>
@@ -24799,7 +24961,7 @@
     </row>
     <row r="499" ht="12.75" customHeight="1">
       <c r="A499" s="5" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -24815,10 +24977,10 @@
       <c r="G499" s="1"/>
       <c r="H499" s="1"/>
       <c r="I499" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J499" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K499" s="1"/>
       <c r="L499" s="1"/>
@@ -24841,12 +25003,12 @@
     </row>
     <row r="500" ht="12.75" customHeight="1">
       <c r="A500" s="5" t="s">
-        <v>1267</v>
+        <v>1285</v>
       </c>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
       <c r="D500" s="2" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E500" s="2" t="s">
         <v>68</v>
@@ -24857,10 +25019,10 @@
       <c r="G500" s="1"/>
       <c r="H500" s="1"/>
       <c r="I500" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J500" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
@@ -24883,7 +25045,7 @@
     </row>
     <row r="501" ht="12.75" customHeight="1">
       <c r="A501" s="5" t="s">
-        <v>1268</v>
+        <v>1286</v>
       </c>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -24899,10 +25061,10 @@
       <c r="G501" s="1"/>
       <c r="H501" s="1"/>
       <c r="I501" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J501" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -24925,7 +25087,7 @@
     </row>
     <row r="502" ht="12.75" customHeight="1">
       <c r="A502" s="5" t="s">
-        <v>1269</v>
+        <v>1287</v>
       </c>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -24941,10 +25103,10 @@
       <c r="G502" s="1"/>
       <c r="H502" s="1"/>
       <c r="I502" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="J502" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -24967,7 +25129,7 @@
     </row>
     <row r="503" ht="12.75" customHeight="1">
       <c r="A503" s="5" t="s">
-        <v>1270</v>
+        <v>1288</v>
       </c>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -24975,7 +25137,7 @@
         <v>67</v>
       </c>
       <c r="E503" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F503" s="2" t="s">
         <v>69</v>
@@ -24983,7 +25145,7 @@
       <c r="G503" s="1"/>
       <c r="H503" s="1"/>
       <c r="I503" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="J503" s="1"/>
       <c r="K503" s="1"/>
@@ -25007,7 +25169,7 @@
     </row>
     <row r="504" ht="12.75" customHeight="1">
       <c r="A504" s="5" t="s">
-        <v>1271</v>
+        <v>1289</v>
       </c>
       <c r="B504" s="1"/>
       <c r="C504" s="1"/>
@@ -25015,7 +25177,7 @@
         <v>91</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F504" s="2" t="s">
         <v>69</v>
@@ -25023,7 +25185,7 @@
       <c r="G504" s="1"/>
       <c r="H504" s="1"/>
       <c r="I504" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="J504" s="1"/>
       <c r="K504" s="1"/>
@@ -25047,7 +25209,7 @@
     </row>
     <row r="505" ht="12.75" customHeight="1">
       <c r="A505" s="5" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="B505" s="1"/>
       <c r="C505" s="1"/>
@@ -25055,7 +25217,7 @@
         <v>54</v>
       </c>
       <c r="E505" s="2" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="F505" s="2" t="s">
         <v>69</v>
@@ -25063,7 +25225,7 @@
       <c r="G505" s="1"/>
       <c r="H505" s="1"/>
       <c r="I505" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="J505" s="1"/>
       <c r="K505" s="1"/>
@@ -25087,12 +25249,12 @@
     </row>
     <row r="506" ht="12.75" customHeight="1">
       <c r="A506" s="5" t="s">
-        <v>1273</v>
+        <v>1291</v>
       </c>
       <c r="B506" s="1"/>
       <c r="C506" s="1"/>
       <c r="D506" s="2" t="s">
-        <v>1274</v>
+        <v>1292</v>
       </c>
       <c r="E506" s="2" t="s">
         <v>46</v>
@@ -25103,7 +25265,7 @@
       <c r="G506" s="1"/>
       <c r="H506" s="1"/>
       <c r="I506" s="5" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="J506" s="1"/>
       <c r="K506" s="1"/>
@@ -25127,7 +25289,7 @@
     </row>
     <row r="507" ht="12.75" customHeight="1">
       <c r="A507" s="5" t="s">
-        <v>1275</v>
+        <v>1293</v>
       </c>
       <c r="B507" s="1"/>
       <c r="C507" s="1"/>
@@ -25143,7 +25305,7 @@
       <c r="G507" s="1"/>
       <c r="H507" s="1"/>
       <c r="I507" s="5" t="s">
-        <v>1272</v>
+        <v>1290</v>
       </c>
       <c r="J507" s="1"/>
       <c r="K507" s="1"/>
@@ -25167,7 +25329,7 @@
     </row>
     <row r="508" ht="12.75" customHeight="1">
       <c r="A508" s="5" t="s">
-        <v>1276</v>
+        <v>1294</v>
       </c>
       <c r="B508" s="1"/>
       <c r="C508" s="1"/>
@@ -25183,7 +25345,7 @@
       <c r="G508" s="1"/>
       <c r="H508" s="1"/>
       <c r="I508" s="5" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="J508" s="1"/>
       <c r="K508" s="1"/>
@@ -25207,7 +25369,7 @@
     </row>
     <row r="509" ht="12.75" customHeight="1">
       <c r="A509" s="5" t="s">
-        <v>1277</v>
+        <v>1295</v>
       </c>
       <c r="B509" s="1"/>
       <c r="C509" s="1"/>
@@ -25215,7 +25377,7 @@
         <v>51</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="F509" s="2" t="s">
         <v>69</v>
@@ -25223,7 +25385,7 @@
       <c r="G509" s="1"/>
       <c r="H509" s="1"/>
       <c r="I509" s="5" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="J509" s="1"/>
       <c r="K509" s="1"/>
@@ -25247,7 +25409,7 @@
     </row>
     <row r="510" ht="12.75" customHeight="1">
       <c r="A510" s="5" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="B510" s="1"/>
       <c r="C510" s="1"/>
@@ -25263,7 +25425,7 @@
       <c r="G510" s="1"/>
       <c r="H510" s="1"/>
       <c r="I510" s="5" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="J510" s="1"/>
       <c r="K510" s="1"/>
@@ -25287,12 +25449,12 @@
     </row>
     <row r="511" ht="12.75" customHeight="1">
       <c r="A511" s="5" t="s">
-        <v>1279</v>
+        <v>1297</v>
       </c>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
       <c r="D511" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E511" s="2" t="s">
         <v>277</v>
@@ -25303,7 +25465,7 @@
       <c r="G511" s="1"/>
       <c r="H511" s="1"/>
       <c r="I511" s="5" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="J511" s="1"/>
       <c r="K511" s="1"/>
@@ -25327,12 +25489,12 @@
     </row>
     <row r="512" ht="12.75" customHeight="1">
       <c r="A512" s="5" t="s">
-        <v>1280</v>
+        <v>1298</v>
       </c>
       <c r="B512" s="1"/>
       <c r="C512" s="1"/>
       <c r="D512" s="2" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="E512" s="2" t="s">
         <v>277</v>
@@ -25343,7 +25505,7 @@
       <c r="G512" s="1"/>
       <c r="H512" s="1"/>
       <c r="I512" s="5" t="s">
-        <v>1278</v>
+        <v>1296</v>
       </c>
       <c r="J512" s="1"/>
       <c r="K512" s="1"/>
@@ -25367,7 +25529,7 @@
     </row>
     <row r="513" ht="12.75" customHeight="1">
       <c r="A513" s="5" t="s">
-        <v>1281</v>
+        <v>1299</v>
       </c>
       <c r="B513" s="1"/>
       <c r="C513" s="1"/>
@@ -25383,7 +25545,7 @@
       <c r="G513" s="1"/>
       <c r="H513" s="1"/>
       <c r="I513" s="5" t="s">
-        <v>1263</v>
+        <v>1281</v>
       </c>
       <c r="J513" s="1"/>
       <c r="K513" s="1"/>
@@ -25407,12 +25569,12 @@
     </row>
     <row r="514" ht="12.75" customHeight="1">
       <c r="A514" s="5" t="s">
-        <v>1282</v>
+        <v>1300</v>
       </c>
       <c r="B514" s="1"/>
       <c r="C514" s="1"/>
       <c r="D514" s="2" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E514" s="2" t="s">
         <v>68</v>
@@ -25423,7 +25585,7 @@
       <c r="G514" s="1"/>
       <c r="H514" s="1"/>
       <c r="I514" s="5" t="s">
-        <v>1266</v>
+        <v>1284</v>
       </c>
       <c r="J514" s="1"/>
       <c r="K514" s="1"/>
@@ -25446,22 +25608,40 @@
       <c r="X514" s="1"/>
     </row>
     <row r="515" ht="12.75" customHeight="1">
-      <c r="A515" s="5"/>
+      <c r="A515" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="B515" s="1"/>
       <c r="C515" s="1"/>
-      <c r="D515" s="1"/>
-      <c r="E515" s="1"/>
-      <c r="F515" s="1"/>
+      <c r="D515" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E515" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="F515" s="2" t="s">
+        <v>1301</v>
+      </c>
       <c r="G515" s="1"/>
       <c r="H515" s="1"/>
-      <c r="I515" s="1"/>
-      <c r="J515" s="1"/>
+      <c r="I515" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="J515" s="5" t="s">
+        <v>1303</v>
+      </c>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
-      <c r="M515" s="1"/>
+      <c r="M515" s="2" t="s">
+        <v>1304</v>
+      </c>
       <c r="N515" s="1"/>
-      <c r="O515" s="1"/>
-      <c r="P515" s="1"/>
+      <c r="O515" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P515" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q515" s="1"/>
       <c r="R515" s="1"/>
       <c r="S515" s="1"/>
@@ -25469,25 +25649,45 @@
       <c r="U515" s="1"/>
       <c r="V515" s="1"/>
       <c r="W515" s="1"/>
-      <c r="X515" s="1"/>
+      <c r="X515" s="2" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="516" ht="12.75" customHeight="1">
-      <c r="A516" s="5"/>
+      <c r="A516" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="B516" s="1"/>
       <c r="C516" s="1"/>
-      <c r="D516" s="1"/>
-      <c r="E516" s="1"/>
-      <c r="F516" s="1"/>
+      <c r="D516" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E516" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F516" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="G516" s="1"/>
       <c r="H516" s="1"/>
-      <c r="I516" s="1"/>
-      <c r="J516" s="1"/>
+      <c r="I516" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="J516" s="5" t="s">
+        <v>1308</v>
+      </c>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
-      <c r="M516" s="1"/>
+      <c r="M516" s="2" t="s">
+        <v>1309</v>
+      </c>
       <c r="N516" s="1"/>
-      <c r="O516" s="1"/>
-      <c r="P516" s="1"/>
+      <c r="O516" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P516" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q516" s="1"/>
       <c r="R516" s="1"/>
       <c r="S516" s="1"/>
@@ -25498,22 +25698,35 @@
       <c r="X516" s="1"/>
     </row>
     <row r="517" ht="12.75" customHeight="1">
-      <c r="A517" s="5"/>
+      <c r="A517" s="5" t="s">
+        <v>1307</v>
+      </c>
       <c r="B517" s="1"/>
       <c r="C517" s="1"/>
-      <c r="D517" s="1"/>
-      <c r="E517" s="1"/>
-      <c r="F517" s="1"/>
+      <c r="D517" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E517" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F517" s="2" t="s">
+        <v>1311</v>
+      </c>
       <c r="G517" s="1"/>
       <c r="H517" s="1"/>
       <c r="I517" s="1"/>
       <c r="J517" s="1"/>
       <c r="K517" s="1"/>
       <c r="L517" s="1"/>
-      <c r="M517" s="1"/>
-      <c r="N517" s="1"/>
-      <c r="O517" s="1"/>
-      <c r="P517" s="1"/>
+      <c r="M517" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="O517" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P517" s="2">
+        <v>0.0</v>
+      </c>
       <c r="Q517" s="1"/>
       <c r="R517" s="1"/>
       <c r="S517" s="1"/>
@@ -25521,15 +25734,23 @@
       <c r="U517" s="1"/>
       <c r="V517" s="1"/>
       <c r="W517" s="1"/>
-      <c r="X517" s="1"/>
+      <c r="X517" s="2" t="s">
+        <v>1313</v>
+      </c>
     </row>
     <row r="518" ht="12.75" customHeight="1">
-      <c r="A518" s="1"/>
+      <c r="A518" s="5" t="s">
+        <v>1308</v>
+      </c>
       <c r="B518" s="1"/>
       <c r="C518" s="1"/>
-      <c r="D518" s="1"/>
+      <c r="D518" s="2" t="s">
+        <v>689</v>
+      </c>
       <c r="E518" s="1"/>
-      <c r="F518" s="1"/>
+      <c r="F518" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="G518" s="1"/>
       <c r="H518" s="1"/>
       <c r="I518" s="1"/>
@@ -25550,22 +25771,36 @@
       <c r="X518" s="1"/>
     </row>
     <row r="519" ht="12.75" customHeight="1">
-      <c r="A519" s="1"/>
+      <c r="A519" s="5" t="s">
+        <v>1303</v>
+      </c>
       <c r="B519" s="1"/>
       <c r="C519" s="1"/>
-      <c r="D519" s="1"/>
-      <c r="E519" s="1"/>
-      <c r="F519" s="1"/>
+      <c r="D519" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="E519" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F519" s="2" t="s">
+        <v>1314</v>
+      </c>
       <c r="G519" s="1"/>
       <c r="H519" s="1"/>
       <c r="I519" s="1"/>
       <c r="J519" s="1"/>
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
-      <c r="M519" s="1"/>
+      <c r="M519" s="2" t="s">
+        <v>1315</v>
+      </c>
       <c r="N519" s="1"/>
-      <c r="O519" s="1"/>
-      <c r="P519" s="1"/>
+      <c r="O519" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P519" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q519" s="1"/>
       <c r="R519" s="1"/>
       <c r="S519" s="1"/>
@@ -25576,12 +25811,18 @@
       <c r="X519" s="1"/>
     </row>
     <row r="520" ht="12.75" customHeight="1">
-      <c r="A520" s="1"/>
+      <c r="A520" s="5" t="s">
+        <v>1302</v>
+      </c>
       <c r="B520" s="1"/>
       <c r="C520" s="1"/>
-      <c r="D520" s="1"/>
+      <c r="D520" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="E520" s="1"/>
-      <c r="F520" s="1"/>
+      <c r="F520" s="2" t="s">
+        <v>1316</v>
+      </c>
       <c r="G520" s="1"/>
       <c r="H520" s="1"/>
       <c r="I520" s="1"/>
@@ -25602,22 +25843,36 @@
       <c r="X520" s="1"/>
     </row>
     <row r="521" ht="12.75" customHeight="1">
-      <c r="A521" s="1"/>
+      <c r="A521" s="5" t="s">
+        <v>1317</v>
+      </c>
       <c r="B521" s="1"/>
       <c r="C521" s="1"/>
-      <c r="D521" s="1"/>
-      <c r="E521" s="1"/>
-      <c r="F521" s="1"/>
+      <c r="D521" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E521" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F521" s="2" t="s">
+        <v>1318</v>
+      </c>
       <c r="G521" s="1"/>
       <c r="H521" s="1"/>
       <c r="I521" s="1"/>
       <c r="J521" s="1"/>
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
-      <c r="M521" s="1"/>
+      <c r="M521" s="2" t="s">
+        <v>1319</v>
+      </c>
       <c r="N521" s="1"/>
-      <c r="O521" s="1"/>
-      <c r="P521" s="1"/>
+      <c r="O521" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P521" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q521" s="1"/>
       <c r="R521" s="1"/>
       <c r="S521" s="1"/>
@@ -25628,22 +25883,34 @@
       <c r="X521" s="1"/>
     </row>
     <row r="522" ht="12.75" customHeight="1">
-      <c r="A522" s="1"/>
+      <c r="A522" s="5" t="s">
+        <v>1320</v>
+      </c>
       <c r="B522" s="1"/>
       <c r="C522" s="1"/>
-      <c r="D522" s="1"/>
+      <c r="D522" s="2" t="s">
+        <v>1193</v>
+      </c>
       <c r="E522" s="1"/>
       <c r="F522" s="1"/>
       <c r="G522" s="1"/>
       <c r="H522" s="1"/>
-      <c r="I522" s="1"/>
-      <c r="J522" s="1"/>
+      <c r="I522" s="5" t="s">
+        <v>1317</v>
+      </c>
+      <c r="J522" s="5" t="s">
+        <v>1303</v>
+      </c>
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
       <c r="M522" s="1"/>
       <c r="N522" s="1"/>
-      <c r="O522" s="1"/>
-      <c r="P522" s="1"/>
+      <c r="O522" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P522" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q522" s="1"/>
       <c r="R522" s="1"/>
       <c r="S522" s="1"/>
@@ -25654,12 +25921,18 @@
       <c r="X522" s="1"/>
     </row>
     <row r="523" ht="12.75" customHeight="1">
-      <c r="A523" s="1"/>
+      <c r="A523" s="5" t="s">
+        <v>1321</v>
+      </c>
       <c r="B523" s="1"/>
       <c r="C523" s="1"/>
-      <c r="D523" s="1"/>
+      <c r="D523" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="E523" s="1"/>
-      <c r="F523" s="1"/>
+      <c r="F523" s="2" t="s">
+        <v>1301</v>
+      </c>
       <c r="G523" s="1"/>
       <c r="H523" s="1"/>
       <c r="I523" s="1"/>
@@ -25668,8 +25941,12 @@
       <c r="L523" s="1"/>
       <c r="M523" s="1"/>
       <c r="N523" s="1"/>
-      <c r="O523" s="1"/>
-      <c r="P523" s="1"/>
+      <c r="O523" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P523" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q523" s="1"/>
       <c r="R523" s="1"/>
       <c r="S523" s="1"/>
@@ -25680,22 +25957,40 @@
       <c r="X523" s="1"/>
     </row>
     <row r="524" ht="12.75" customHeight="1">
-      <c r="A524" s="1"/>
+      <c r="A524" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="B524" s="1"/>
       <c r="C524" s="1"/>
-      <c r="D524" s="1"/>
-      <c r="E524" s="1"/>
-      <c r="F524" s="1"/>
+      <c r="D524" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="E524" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="F524" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="G524" s="1"/>
       <c r="H524" s="1"/>
-      <c r="I524" s="1"/>
-      <c r="J524" s="1"/>
+      <c r="I524" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="J524" s="5" t="s">
+        <v>1321</v>
+      </c>
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
-      <c r="M524" s="1"/>
+      <c r="M524" s="2" t="s">
+        <v>1323</v>
+      </c>
       <c r="N524" s="1"/>
-      <c r="O524" s="1"/>
-      <c r="P524" s="1"/>
+      <c r="O524" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P524" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q524" s="1"/>
       <c r="R524" s="1"/>
       <c r="S524" s="1"/>
@@ -25706,22 +26001,38 @@
       <c r="X524" s="1"/>
     </row>
     <row r="525" ht="12.75" customHeight="1">
-      <c r="A525" s="1"/>
+      <c r="A525" s="5" t="s">
+        <v>1324</v>
+      </c>
       <c r="B525" s="1"/>
       <c r="C525" s="1"/>
-      <c r="D525" s="1"/>
-      <c r="E525" s="1"/>
-      <c r="F525" s="1"/>
+      <c r="D525" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E525" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F525" s="2" t="s">
+        <v>1306</v>
+      </c>
       <c r="G525" s="1"/>
       <c r="H525" s="1"/>
-      <c r="I525" s="1"/>
+      <c r="I525" s="5" t="s">
+        <v>1322</v>
+      </c>
       <c r="J525" s="1"/>
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
-      <c r="M525" s="1"/>
+      <c r="M525" s="2" t="s">
+        <v>1325</v>
+      </c>
       <c r="N525" s="1"/>
-      <c r="O525" s="1"/>
-      <c r="P525" s="1"/>
+      <c r="O525" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="P525" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q525" s="1"/>
       <c r="R525" s="1"/>
       <c r="S525" s="1"/>
@@ -25732,12 +26043,20 @@
       <c r="X525" s="1"/>
     </row>
     <row r="526" ht="12.75" customHeight="1">
-      <c r="A526" s="1"/>
+      <c r="A526" s="5" t="s">
+        <v>1157</v>
+      </c>
       <c r="B526" s="1"/>
       <c r="C526" s="1"/>
-      <c r="D526" s="1"/>
-      <c r="E526" s="1"/>
-      <c r="F526" s="1"/>
+      <c r="D526" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E526" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F526" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G526" s="1"/>
       <c r="H526" s="1"/>
       <c r="I526" s="1"/>
@@ -25746,8 +26065,12 @@
       <c r="L526" s="1"/>
       <c r="M526" s="1"/>
       <c r="N526" s="1"/>
-      <c r="O526" s="1"/>
-      <c r="P526" s="1"/>
+      <c r="O526" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P526" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q526" s="1"/>
       <c r="R526" s="1"/>
       <c r="S526" s="1"/>
@@ -25755,15 +26078,23 @@
       <c r="U526" s="1"/>
       <c r="V526" s="1"/>
       <c r="W526" s="1"/>
-      <c r="X526" s="1"/>
+      <c r="X526" s="2" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="527" ht="12.75" customHeight="1">
-      <c r="A527" s="1"/>
+      <c r="A527" s="5" t="s">
+        <v>1160</v>
+      </c>
       <c r="B527" s="1"/>
       <c r="C527" s="1"/>
-      <c r="D527" s="1"/>
+      <c r="D527" s="2" t="s">
+        <v>614</v>
+      </c>
       <c r="E527" s="1"/>
-      <c r="F527" s="1"/>
+      <c r="F527" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="G527" s="1"/>
       <c r="H527" s="1"/>
       <c r="I527" s="1"/>
@@ -25772,8 +26103,12 @@
       <c r="L527" s="1"/>
       <c r="M527" s="1"/>
       <c r="N527" s="1"/>
-      <c r="O527" s="1"/>
-      <c r="P527" s="1"/>
+      <c r="O527" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="P527" s="2">
+        <v>1.0</v>
+      </c>
       <c r="Q527" s="1"/>
       <c r="R527" s="1"/>
       <c r="S527" s="1"/>
